--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Bridge Bids" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="W-J 2013" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t xml:space="preserve">bidId</t>
   </si>
@@ -658,6 +659,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6+ PC 4+ kier</t>
     </r>
@@ -829,6 +831,181 @@
   </si>
   <si>
     <t xml:space="preserve">16PC+ na  5+ karo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ 2013!!! (12)</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <color rgb="FFFF3333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> PC, 5+ trefl </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;&lt;font color=red&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo)&lt;/font&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;→ 12-17 PC, układ 4414  tzw </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TRÓJKOLORÓWKA
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(singiel karo)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ 12-14 PC, skład bez atutowy  tzw. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PRZYGOTOWAWCZE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">słabe NT) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ 18+ PC,  skład dowolny
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(silne dowolne)
+uwaga: może też być licytowane przy zał że partner ma skład zrównoważony i jak powiem coś innego na co on spasuje (bez punktów) i ucieknie nam końcówka (np. na układzie 5-4 lub 6-4 – układy na dwóch piątkach raczej </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -840,7 +1017,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -926,6 +1103,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
@@ -935,13 +1113,6 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1022,7 +1193,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,17 +1284,16 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,4 +2007,193 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="102" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="W-J 2013" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Other W-J" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t xml:space="preserve">bidId</t>
   </si>
@@ -831,181 +831,6 @@
   </si>
   <si>
     <t xml:space="preserve">16PC+ na  5+ karo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ 2013!!! (12)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> PC, 5+ trefl </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;font color=red&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo)&lt;/font&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;→ 12-17 PC, układ 4414  tzw </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TRÓJKOLORÓWKA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(singiel karo)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ 12-14 PC, skład bez atutowy  tzw. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PRZYGOTOWAWCZE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">słabe NT) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ 18+ PC,  skład dowolny
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(silne dowolne)
-uwaga: może też być licytowane przy zał że partner ma skład zrównoważony i jak powiem coś innego na co on spasuje (bez punktów) i ucieknie nam końcówka (np. na układzie 5-4 lub 6-4 – układy na dwóch piątkach raczej </t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1284,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2016,16 +1841,13 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,7 +1891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="323" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -2101,14 +1923,14 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="170.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -2147,7 +1969,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="282.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -2186,14 +2008,91 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,79 +5,68 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Other W-J" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">bidId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentBid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bidLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pointsMin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pointsMax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suitLength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afterInterven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shortDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bidType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bidClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wieloznaczny trefl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+  <si>
+    <t>bidId</t>
+  </si>
+  <si>
+    <t>parentBid</t>
+  </si>
+  <si>
+    <t>bidLevel</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>suit</t>
+  </si>
+  <si>
+    <t>pointsMin</t>
+  </si>
+  <si>
+    <t>pointsMax</t>
+  </si>
+  <si>
+    <t>suitLength</t>
+  </si>
+  <si>
+    <t>afterInterven</t>
+  </si>
+  <si>
+    <t>shortDesc</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>bidType</t>
+  </si>
+  <si>
+    <t>bidClass</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>dowolny</t>
+  </si>
+  <si>
+    <t>Wieloznaczny trefl</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">→ (12)</t>
     </r>
     <r>
@@ -246,22 +235,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturalne 1 karo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>Naturalne 1 karo</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">12-17 PC, 5+ kar (naturalne ale  uwaga na </t>
     </r>
     <r>
@@ -318,22 +304,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trójznaczne forsuje na 1 okrążenie</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
+    <t>S</t>
+  </si>
+  <si>
+    <t>0+</t>
+  </si>
+  <si>
+    <t>Trójznaczne forsuje na 1 okrążenie</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">→ tzw. negat , 0-6(8) PC, skład dowolny  
 (w kolejnym okrążeniu możliwy pas jeżeli jest 0-4 PC) 
 &lt;br&gt;→ 16+ PC, skład dowolny *  (w kolejnym okrążeniu przeskok)
@@ -430,16 +410,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ka kier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+ kier,  forsuje na jedno okrążenie
+    <t>H</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>4ka kier</t>
+  </si>
+  <si>
+    <t>4+ kier,  forsuje na jedno okrążenie
 uwagi:
 – kiery nie wykluczają pików przy 4 kartach
 nie wyklucza młodszej piątki przy sile poniżej 11PC
@@ -448,10 +428,10 @@
 przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t xml:space="preserve">4ka pik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+ pik,  forsuje na jedno okrążenie
+    <t>4ka pik</t>
+  </si>
+  <si>
+    <t>4+ pik,  forsuje na jedno okrążenie
 uwagi:
 &lt;br&gt;– kiery nie wykluczają pików przy 4 kartach
 nie wyklucza młodszej piątki przy sile poniżej 11PC
@@ -460,17 +440,10 @@
 przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t xml:space="preserve">Zgłoszenie 4ki kier</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
+    <t>Zgłoszenie 4ki kier</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">→</t>
     </r>
     <r>
@@ -514,16 +487,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Zgłoszenie 4ki pik</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
+    <t>Zgłoszenie 4ki pik</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> 12-14 PC   4 kpiki kykluczaj 4 kier, forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;</t>
     </r>
     <r>
@@ -539,22 +506,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">równy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mocne BA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>równy</t>
+  </si>
+  <si>
+    <t>Mocne BA</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">  1BA </t>
     </r>
     <r>
@@ -618,39 +579,29 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Słabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas ze słabym, dalej mocne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(dawnej nawet 5-6(7)PC na co otwierający pasuje ze słabym NT a licytuje 
-dalej z innymi układami. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-10 na (5)6+ treflach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-10  na 5+ karach </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Słaby</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Pas ze słabym, dalej mocne</t>
+  </si>
+  <si>
+    <t>(dawnej nawet 5-6(7)PC na co otwierający pasuje ze słabym NT a licytuje 
+dalej z innymi układami.</t>
+  </si>
+  <si>
+    <t>7-10 na (5)6+ treflach</t>
+  </si>
+  <si>
+    <t>7-10  na 5+ karach</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">1</t>
     </r>
     <r>
@@ -666,12 +617,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
       <t xml:space="preserve">1</t>
     </r>
     <r>
@@ -713,22 +658,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">SSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16+ PC 4+ pik</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Klas</t>
+  </si>
+  <si>
+    <t>16+ PC 4+ pik</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">16+ PC 4+ pik </t>
     </r>
     <r>
@@ -762,12 +701,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">dalej 3</t>
     </r>
     <r>
@@ -827,10 +760,82 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">16PC+ na  5+ trefl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16PC+ na  5+ karo</t>
+    <t>16PC+ na  5+ trefl</t>
+  </si>
+  <si>
+    <t>16PC+ na  5+ karo</t>
+  </si>
+  <si>
+    <t>Naturalne 1 kier</t>
+  </si>
+  <si>
+    <t>(w wersji pro przed partią nawet 10-17) (wyklucza piątkę pików chyba że kierów jest więcej :), może być też dowolna młodsza piątka)</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(w wersji pro przed partią nawet 10-17) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(5 pików nie wyklucza piątki kierów ani dowolnej młodszej)</t>
+    </r>
+  </si>
+  <si>
+    <t>5-3-3-2 lub 4-4-3-2</t>
+  </si>
+  <si>
+    <t>Naturalne bez Atu</t>
+  </si>
+  <si>
+    <t> skład zrównoważony bez krótkości, bez starszej piątki, otwarcie może zawierać piątkę młodszą (wyjątkowo również bardzo słabą starszą) układy 5-3-3-2 4-4-3-2 itp. Po interwencji opozycji obowiązują dalej Stayman i transfery z wykorzystaniem odzywek opozycji.</t>
+  </si>
+  <si>
+    <t>xxx6 lub XXx5</t>
+  </si>
+  <si>
+    <t>PRESSIOSION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (10)11-16 PC (w wersji pro12-15), 5+ trefli + starsza czwórka lub 6 + trefli  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Licytacja po interwencji przeciwnika
+Nowy kolor jest nieforsujący na wy­sokości dwóch i forsujący na wysoko­ści trzech. Kontra jest negatywna. Otwierający z dobrą czwórką w licyto­wanym kolorze może na nią spasować.</t>
+    </r>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+  </si>
+  <si>
+    <t>x-5-X-X</t>
+  </si>
+  <si>
+    <t>DWUKOLORÓWKA</t>
+  </si>
+  <si>
+    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna /pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+  </si>
+  <si>
+    <t>5-x-X-X</t>
   </si>
 </sst>
 </file>
@@ -838,11 +843,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -942,6 +947,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -985,7 +995,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1027,6 +1037,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,17 +1121,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="525" topLeftCell="A10" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
     <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="138.107142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -1162,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1224,23 +1241,23 @@
         <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="78.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1263,23 +1280,23 @@
         <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1293,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -1302,23 +1319,23 @@
         <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -1332,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -1341,19 +1358,19 @@
         <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="3"/>
     </row>
@@ -1371,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>12</v>
@@ -1380,19 +1397,19 @@
         <v>17</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1410,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>12</v>
@@ -1419,19 +1436,19 @@
         <v>18</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1449,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>18</v>
@@ -1458,19 +1475,19 @@
         <v>20</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" s="3"/>
     </row>
@@ -1488,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -1497,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1509,7 +1526,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -1527,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -1536,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -1575,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -1587,7 +1604,7 @@
         <v>45</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M12" s="3"/>
     </row>
@@ -1614,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -1644,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>16</v>
@@ -1653,7 +1670,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1685,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>16</v>
@@ -1694,7 +1711,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -1706,7 +1723,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>16</v>
@@ -1732,19 +1749,19 @@
         <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1787,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -1782,7 +1799,7 @@
         <v>54</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1825,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
@@ -1821,6 +1838,251 @@
       </c>
       <c r="L18" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1841,13 +2103,15 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="323" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="98.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1914,7 +2178,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -1953,19 +2217,19 @@
         <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -1992,19 +2256,19 @@
         <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -2022,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -2031,23 +2295,23 @@
         <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -2061,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -2070,19 +2334,19 @@
         <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="3"/>
     </row>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="33" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="102">
   <si>
     <t>bidId</t>
   </si>
@@ -235,7 +235,7 @@
     </r>
   </si>
   <si>
-    <t>F</t>
+    <t>F1</t>
   </si>
   <si>
     <t>D</t>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Naturalna</t>
   </si>
   <si>
     <t>0+</t>
@@ -595,6 +598,9 @@
 dalej z innymi układami.</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>7-10 na (5)6+ treflach</t>
   </si>
   <si>
@@ -772,7 +778,7 @@
     <t>(w wersji pro przed partią nawet 10-17) (wyklucza piątkę pików chyba że kierów jest więcej :), może być też dowolna młodsza piątka)</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>NF</t>
   </si>
   <si>
     <r>
@@ -817,6 +823,9 @@
     </r>
   </si>
   <si>
+    <t>słaba</t>
+  </si>
+  <si>
     <t>6+</t>
   </si>
   <si>
@@ -829,13 +838,91 @@
     <t>x-5-X-X</t>
   </si>
   <si>
-    <t>DWUKOLORÓWKA</t>
-  </si>
-  <si>
-    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna /pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+    <t>DWUKOLORÓWKA na kierach i dowolny</t>
+  </si>
+  <si>
+    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
   </si>
   <si>
     <t>5-x-X-X</t>
+  </si>
+  <si>
+    <t>DWUKOLORÓWKA na pikach i ?</t>
+  </si>
+  <si>
+    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+  </si>
+  <si>
+    <t>'x-x-5-5</t>
+  </si>
+  <si>
+    <t>DWUKOLORÓWKA na Młodszych</t>
+  </si>
+  <si>
+    <t>2BA DWUKOLORÓWNA NA MŁODSZYCH  7-10(11) PC,  dwie młodsze piątki</t>
+  </si>
+  <si>
+    <t>7+</t>
+  </si>
+  <si>
+    <t>BLOK</t>
+  </si>
+  <si>
+    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>GAMBLINGg</t>
+  </si>
+  <si>
+    <t> Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
+  </si>
+  <si>
+    <t>8-x-x-x</t>
+  </si>
+  <si>
+    <t>TEKSAS PDAF</t>
+  </si>
+  <si>
+    <t> lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew) </t>
+  </si>
+  <si>
+    <t>x-8-x-x</t>
+  </si>
+  <si>
+    <t>x-7-x-x</t>
+  </si>
+  <si>
+    <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **).</t>
+  </si>
+  <si>
+    <t>7-x-x-x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>pytanie o kolor Asa</t>
+  </si>
+  <si>
+    <t>8+</t>
+  </si>
+  <si>
+    <t> (6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew)</t>
+  </si>
+  <si>
+    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) </t>
+  </si>
+  <si>
+    <t>inne</t>
+  </si>
+  <si>
+    <t>pełen kolor</t>
   </si>
 </sst>
 </file>
@@ -1121,12 +1208,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A10" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="B18" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1255,7 +1342,9 @@
       <c r="L3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1280,21 +1369,23 @@
         <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1310,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -1319,21 +1410,23 @@
         <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1358,16 +1451,16 @@
         <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>22</v>
@@ -1388,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>12</v>
@@ -1397,16 +1490,16 @@
         <v>17</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>22</v>
@@ -1436,16 +1529,16 @@
         <v>18</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>22</v>
@@ -1466,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>18</v>
@@ -1475,16 +1568,16 @@
         <v>20</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>22</v>
@@ -1505,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
@@ -1514,16 +1607,16 @@
         <v>4</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>22</v>
@@ -1544,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5</v>
@@ -1553,19 +1646,19 @@
         <v>8</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M11" s="3"/>
     </row>
@@ -1598,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>22</v>
@@ -1637,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1661,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>16</v>
@@ -1670,22 +1763,22 @@
         <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,16 +1804,16 @@
         <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>22</v>
@@ -1740,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>16</v>
@@ -1749,16 +1842,16 @@
         <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>22</v>
@@ -1793,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>22</v>
@@ -1831,13 +1924,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>12</v>
@@ -1869,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,10 +2000,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>15</v>
@@ -1936,16 +2032,19 @@
         <v>17</v>
       </c>
       <c r="H21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,16 +2070,22 @@
         <v>16</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,15 +2111,21 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2032,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -2041,16 +2152,22 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,13 +2193,936 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">F31+13</f>
+        <v>22</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -2256,16 +3296,16 @@
         <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>22</v>
@@ -2286,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -2295,16 +3335,16 @@
         <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>22</v>
@@ -2334,16 +3374,16 @@
         <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>22</v>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="33" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="268" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Other W-J" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="poInterwencji" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Other W-J" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="150">
   <si>
     <t>bidId</t>
   </si>
@@ -238,76 +239,10 @@
     <t>F1</t>
   </si>
   <si>
+    <t>Relay</t>
+  </si>
+  <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>5+</t>
-  </si>
-  <si>
-    <t>Naturalne 1 karo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12-17 PC, 5+ kar (naturalne ale  uwaga na </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 1BA – patrz dalej)
-&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12-17PC układ na czwórkach w tym karowa  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TRÓJKOLORÓWKA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (czyli to co drugie znaczenie trefla tylko z singlem innym niż karo)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;&lt;font color=red&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
-12-14 PC (inaczej to wchodzi do trefla)&lt;/font&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Naturalna</t>
   </si>
   <si>
     <t>0+</t>
@@ -413,10 +348,69 @@
     </r>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>4+</t>
+  </si>
+  <si>
+    <t>Zgłoszenie 4ki kier</t>
+  </si>
+  <si>
+    <t>→ 12-14 PC   4 kiery (kiery nie wykluczają pików), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
+ &lt;br&gt;→ TRÓJKOLORÓWKA  cała → 12-17PC 4414, nie forsuje</t>
+  </si>
+  <si>
+    <t>słaba</t>
+  </si>
+  <si>
+    <t>Zgłoszenie 4ki pik</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 12-14 PC   4 kpiki kykluczaj 4 kier, forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Słabe</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>równy</t>
+  </si>
+  <si>
+    <t>Mocne BA</t>
+  </si>
+  <si>
+    <t>  1BA 18-20 PC  [dawniej 12-14 PC] skład zrównoważony bez starszej czwórki, nie wyklucza piątki trefl, nie forsuje [ ale jak wtedy zgłosić słabe BA? - chyba jednen w starszy – może być mylące?] &lt;b&gt; &lt;strong&gt; Dalej Stayman i teksasy tylko z punktami jak wcześniej (patrz licytacja po 1BA) &lt;font color = red&gt; POWINNO MOŻE PRZESKAKIWIAĆ DO NT? Albo tu przepisać wszystkie odzywki do NT? &lt;strong&gt; &lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Naturalna</t>
+  </si>
+  <si>
+    <t>bez starszej czwórki nie wyklucza 5 trefl</t>
+  </si>
+  <si>
+    <t>Słabsze BA</t>
+  </si>
+  <si>
+    <t>15-17  PC,  5+ trefli (nie forsuje) -  bez ztarszej czwórki!!! słabsze trefle traktujemy 1 BA (patrz wyżej)</t>
   </si>
   <si>
     <t>4ka kier</t>
@@ -443,11 +437,290 @@
 przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t>Zgłoszenie 4ki kier</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">→</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>Pas – 0-6 PC</t>
+  </si>
+  <si>
+    <t>Silne</t>
+  </si>
+  <si>
+    <t>2 10+PC – układ  dowolny – forsing do dogranej (GF) – dalsza licytacja ???</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>  (przeskok) – 16+PC czwórka w starszym (?)  - lepszy kolor? </t>
+  </si>
+  <si>
+    <t>nie wiem</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>3+ - fit!</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t> 7-9 PC, 3+trefl -  (fit)  </t>
+  </si>
+  <si>
+    <t>niezrównoważony</t>
+  </si>
+  <si>
+    <t>ACOL</t>
+  </si>
+  <si>
+    <t> forsujące do dogranej  wg WJ2005 wyklucza dwukolorówkę → (dawniej 19)23+  PC skład niezrównoważony (może być 5 starsza)  → 25+ PC  skład zrównoważony  Dalej licytacja w zasadzie naturalna poza negatem 2 kier</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>wtórny negat</t>
+  </si>
+  <si>
+    <t>wtórny negat 0-3 PC   (nie mam koloru i nie mogę zająć bez atu, ewentualnie mam słabe kiery ale na to nie licz, dalej pas (po BA) albo ewentualnie kiery? ) </t>
+  </si>
+  <si>
+    <t>4s 5m</t>
+  </si>
+  <si>
+    <t>odpowiedź</t>
+  </si>
+  <si>
+    <t>(2) 4-6 PC na  4+ kart  w starszy (lub 4s-5m), 5+ młodszy (wyklucza starszą)</t>
+  </si>
+  <si>
+    <t>zrównoważony </t>
+  </si>
+  <si>
+    <t>bez atu</t>
+  </si>
+  <si>
+    <t>4-6 PC zrównoważony (nie wyklucza czwórki) – dalej 3 jest Staymanem</t>
+  </si>
+  <si>
+    <t>Splinter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7-10(11)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> PC, KONWENCJA 5431 (singiel to kolor licytowany SPLINTER? ) albo mało PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">6+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">kart z dwiema figurami w tym kolorze???? </t>
+    </r>
+  </si>
+  <si>
+    <t>5 dokładnie</t>
+  </si>
+  <si>
+    <t>silny kolor starszy</t>
+  </si>
+  <si>
+    <t>18+ PC, dokładnie 5 kart w kierach  kolorze starszym (mniejsza siła bez przeskoku! - silny naturalny inwit)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>18+ PC, dokładnie 5 kart w pikach kolorze starszym (mniejsza siła bez przeskoku! - silny naturalny inwit)</t>
+  </si>
+  <si>
+    <t>zrównoważony</t>
+  </si>
+  <si>
+    <t>Srednie Bez Atu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   2BA  22-24 PC skład zrównoważony) - inwit  dalej </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Stayman odwrotny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> i teksasy jak po otwarciu 1BA</t>
+    </r>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>silny młodszy</t>
+  </si>
+  <si>
+    <t>18+ PC, 6+kart w młodszym bez starszej czwórki -naturalny silny inwit </t>
+  </si>
+  <si>
+    <t>długi starszy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">18+ PC, 6+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve">/  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -naturalny silny inwit </t>
+    </r>
+  </si>
+  <si>
+    <t>słabe BA</t>
+  </si>
+  <si>
+    <t>      3BA     18-21 PC i skład bezatutowy  - kontrakt jeżeli negat  końcówka jeżeli kara (choć często próba wzięcia 9 lew na karach)</t>
+  </si>
+  <si>
+    <t>Słaby</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Pas ze słabym, dalej mocne</t>
+  </si>
+  <si>
+    <t>(dawnej nawet 5-6(7)PC na co otwierający pasuje ze słabym NT a licytuje 
+dalej z innymi układami.</t>
+  </si>
+  <si>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>Słabe poparcie na 5 treflach</t>
+  </si>
+  <si>
+    <t>7-10 na (5)6+ treflach</t>
+  </si>
+  <si>
+    <t>Słabe poparcie na 5 karach</t>
+  </si>
+  <si>
+    <t>7-10  na 5+ karach</t>
+  </si>
+  <si>
+    <t>Silne poparcie na 4 kierach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6+ PC 4+ kier</t>
+    </r>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Silne poparcie na 6 pikach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16</t>
     </r>
     <r>
       <rPr>
@@ -456,7 +729,123 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 12-14 PC   4 kiery (kiery nie wykluczają pików), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;</t>
+      <t xml:space="preserve">+PC  raczej 6+ kart w pikach  (REWERS)
+odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dalej 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">w kolor 12-14PC na czwórce (uklad 3-4-4-4 lub 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trefl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -3-3-2)
+&lt;br&gt;4 w kolor inny niż trefl – SPLINTER (12-15PC - 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t xml:space="preserve"> trefl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 4 starszy zgłoszony-3-1)</t>
+    </r>
+  </si>
+  <si>
+    <t>16PC+ na  5+ trefl</t>
+  </si>
+  <si>
+    <t>16PC+ na  5+ karo</t>
+  </si>
+  <si>
+    <t>Naturalne 1 karo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12-17 PC, 5+ kar (naturalne ale  uwaga na </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1BA – patrz dalej)
+&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">12-17PC układ na czwórkach w tym karowa  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TRÓJKOLORÓWKA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (czyli to co drugie znaczenie trefla tylko z singlem innym niż karo)
+</t>
     </r>
     <r>
       <rPr>
@@ -466,18 +855,51 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;&lt;font color=red&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
+12-14 PC (inaczej to wchodzi do trefla)&lt;/font&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Naturalne 1 kier</t>
+  </si>
+  <si>
+    <t>(w wersji pro przed partią nawet 10-17) (wyklucza piątkę pików chyba że kierów jest więcej :), może być też dowolna młodsza piątka)</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(w wersji pro przed partią nawet 10-17) </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="7"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> → TRÓJKOLORÓWKA </t>
+      <t xml:space="preserve">(5 pików nie wyklucza piątki kierów ani dowolnej młodszej)</t>
+    </r>
+  </si>
+  <si>
+    <t>5-3-3-2 lub 4-4-3-2</t>
+  </si>
+  <si>
+    <t>Naturalne bez Atu</t>
+  </si>
+  <si>
+    <t>skład zrównoważony bez krótkości, bez starszej piątki, otwarcie może zawierać piątkę młodszą (wyjątkowo również bardzo słabą starszą) układy 5-3-3-2 4-4-3-2 itp. Po interwencji opozycji obowiązują dalej Stayman i transfery z wykorzystaniem odzywek opozycji.</t>
+  </si>
+  <si>
+    <t>xxx6 lub XXx5</t>
+  </si>
+  <si>
+    <t>PRESSIOSION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> (10)11-16 PC (w wersji pro12-15), 5+ trefli + starsza czwórka lub 6 + trefli  </t>
     </r>
     <r>
       <rPr>
@@ -486,353 +908,15 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> cała → 12-17PC 4414, nie forsuje</t>
-    </r>
-  </si>
-  <si>
-    <t>Zgłoszenie 4ki pik</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 12-14 PC   4 kpiki kykluczaj 4 kier, forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
-</t>
-    </r>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>równy</t>
-  </si>
-  <si>
-    <t>Mocne BA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  1BA </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">18-20 PC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[dawniej 12-14 PC] skład zrównoważony</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> bez starszej czwórki,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> nie wyklucza piątki trefl, nie forsuje</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [ ale jak wtedy zgłosić słabe BA? - chyba jednen w starszy – może być mylące?]</t>
-    </r>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Słaby</t>
-  </si>
-  <si>
-    <t>Pas</t>
-  </si>
-  <si>
-    <t>Pas ze słabym, dalej mocne</t>
-  </si>
-  <si>
-    <t>(dawnej nawet 5-6(7)PC na co otwierający pasuje ze słabym NT a licytuje 
-dalej z innymi układami.</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>7-10 na (5)6+ treflach</t>
-  </si>
-  <si>
-    <t>7-10  na 5+ karach</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6+ PC 4+ kier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6+ PC 4+ kier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">REWERS:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+PC  raczej 6+ kart w kolorze 
-odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
-    </r>
-  </si>
-  <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>Klas</t>
-  </si>
-  <si>
-    <t>16+ PC 4+ pik</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16+ PC 4+ pik </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">REWERS:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+PC  raczej 6+ kart w kolorze 
-odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dalej 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">w kolor 12-14PC na czwórce (uklad 3-4-4-4 lub 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> trefl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -3-3-2)
-&lt;br&gt;4 w kolor inny niż trefl – SPLINTER (12-15PC - 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> trefl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - 4 starszy zgłoszony-3-1)</t>
-    </r>
-  </si>
-  <si>
-    <t>16PC+ na  5+ trefl</t>
-  </si>
-  <si>
-    <t>16PC+ na  5+ karo</t>
-  </si>
-  <si>
-    <t>Naturalne 1 kier</t>
-  </si>
-  <si>
-    <t>(w wersji pro przed partią nawet 10-17) (wyklucza piątkę pików chyba że kierów jest więcej :), może być też dowolna młodsza piątka)</t>
-  </si>
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">(w wersji pro przed partią nawet 10-17) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(5 pików nie wyklucza piątki kierów ani dowolnej młodszej)</t>
-    </r>
-  </si>
-  <si>
-    <t>5-3-3-2 lub 4-4-3-2</t>
-  </si>
-  <si>
-    <t>Naturalne bez Atu</t>
-  </si>
-  <si>
-    <t> skład zrównoważony bez krótkości, bez starszej piątki, otwarcie może zawierać piątkę młodszą (wyjątkowo również bardzo słabą starszą) układy 5-3-3-2 4-4-3-2 itp. Po interwencji opozycji obowiązują dalej Stayman i transfery z wykorzystaniem odzywek opozycji.</t>
-  </si>
-  <si>
-    <t>xxx6 lub XXx5</t>
-  </si>
-  <si>
-    <t>PRESSIOSION</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> (10)11-16 PC (w wersji pro12-15), 5+ trefli + starsza czwórka lub 6 + trefli  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">Licytacja po interwencji przeciwnika
 Nowy kolor jest nieforsujący na wy­sokości dwóch i forsujący na wysoko­ści trzech. Kontra jest negatywna. Otwierający z dobrą czwórką w licyto­wanym kolorze może na nią spasować.</t>
     </r>
   </si>
   <si>
-    <t>słaba</t>
-  </si>
-  <si>
-    <t>6+</t>
-  </si>
-  <si>
     <t>MULTI</t>
   </si>
   <si>
-    <t>MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+    <t>MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
   </si>
   <si>
     <t>x-5-X-X</t>
@@ -841,7 +925,7 @@
     <t>DWUKOLORÓWKA na kierach i dowolny</t>
   </si>
   <si>
-    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
   </si>
   <si>
     <t>5-x-X-X</t>
@@ -850,7 +934,7 @@
     <t>DWUKOLORÓWKA na pikach i ?</t>
   </si>
   <si>
-    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  </t>
+    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
   </si>
   <si>
     <t>'x-x-5-5</t>
@@ -877,7 +961,7 @@
     <t>GAMBLINGg</t>
   </si>
   <si>
-    <t> Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
+    <t>Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
   </si>
   <si>
     <t>8-x-x-x</t>
@@ -886,7 +970,7 @@
     <t>TEKSAS PDAF</t>
   </si>
   <si>
-    <t> lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew) </t>
+    <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
   </si>
   <si>
     <t>x-8-x-x</t>
@@ -913,10 +997,19 @@
     <t>8+</t>
   </si>
   <si>
-    <t> (6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew)</t>
-  </si>
-  <si>
-    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) </t>
+    <t>(6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew)</t>
+  </si>
+  <si>
+    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew)</t>
+  </si>
+  <si>
+    <t>brak odzywki na otwarcie na pierwszym ręku na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t>brak odzywki na otwarcie na drugim ręku  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t>brak odzywki na otwarcie po pasie partnera  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
   </si>
   <si>
     <t>inne</t>
@@ -934,7 +1027,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -993,13 +1086,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFFF0066"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="7"/>
@@ -1010,14 +1096,19 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Symbol"/>
+      <color rgb="FFFF0066"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1036,8 +1127,23 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FFFF0066"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1082,7 +1188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1095,7 +1201,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1111,15 +1217,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,6 +1251,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1144,11 +1270,11 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0066"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFF0066"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -1208,12 +1334,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="B18" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="B4" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1303,114 +1429,119 @@
       <c r="L2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A2</f>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="K4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="L4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -1422,282 +1553,299 @@
         <v>30</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>17</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3</v>
+        <f aca="false">A2</f>
+        <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>3</v>
+        <f aca="false">A2</f>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
+        <f aca="false">A7</f>
         <v>6</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
+        <f aca="false">A7</f>
         <v>6</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">G3</f>
         <v>37</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>6</v>
+        <f aca="false">A11</f>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>22</v>
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M12" s="3"/>
     </row>
@@ -1706,45 +1854,44 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>6</v>
+        <f aca="false">A11</f>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>46</v>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
+        <f aca="false">A7</f>
         <v>6</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1754,38 +1901,34 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
+        <f aca="false">A7</f>
         <v>6</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1795,104 +1938,104 @@
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>22</v>
-      </c>
+      <c r="K16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>6</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>56</v>
+      <c r="J17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,75 +2043,72 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>6</v>
+        <f aca="false">A17</f>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>46</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A17</f>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,37 +2116,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A17</f>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,95 +2152,90 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A17</f>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A17</f>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="K22" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A17</f>
+        <v>16</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>7</v>
@@ -2110,40 +2243,35 @@
       <c r="G23" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="0" t="n">
+        <v>5431</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="s">
+      <c r="K23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>68</v>
-      </c>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>7</v>
@@ -2151,64 +2279,60 @@
       <c r="G24" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>72</v>
+      <c r="H24" s="0" t="n">
+        <v>5431</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,40 +2340,41 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="H26" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,148 +2382,146 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="G28" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="L28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="L29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
@@ -2406,161 +2529,176 @@
       <c r="J30" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="11" t="s">
         <v>83</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">F31+13</f>
-        <v>22</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>68</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A3</f>
+        <v>2</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>89</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" s="0" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,34 +2706,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35" s="0" t="s">
+      <c r="J35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>92</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,34 +2748,41 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H36" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>96</v>
+      <c r="L36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,104 +2790,122 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M37" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L38" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,34 +2913,38 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>99</v>
+      <c r="J40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,34 +2952,41 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <f aca="false">A4</f>
+        <v>3</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>37</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
@@ -2815,26 +2996,35 @@
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>6</v>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,25 +3038,31 @@
         <v>0</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,25 +3076,31 @@
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,28 +3114,34 @@
         <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
@@ -2944,25 +3152,34 @@
         <v>0</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,25 +3193,34 @@
         <v>0</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G47" s="0" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,25 +3234,34 @@
         <v>0</v>
       </c>
       <c r="D48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G48" s="0" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,25 +3275,34 @@
         <v>0</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G49" s="0" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,25 +3316,34 @@
         <v>0</v>
       </c>
       <c r="D50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="G50" s="0" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>100</v>
+        <v>124</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,25 +3357,514 @@
         <v>0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">F55+13</f>
+        <v>22</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G51" s="0" t="n">
+      <c r="H63" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>100</v>
+      <c r="H64" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3141,10 +3883,243 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">G2</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3218,7 +4193,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -3230,7 +4205,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -3248,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12</v>
@@ -3257,19 +4232,19 @@
         <v>17</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -3287,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -3296,19 +4271,19 @@
         <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -3326,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3335,19 +4310,19 @@
         <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -3365,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7</v>
@@ -3374,21 +4349,373 @@
         <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="F7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="G17" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="339">
   <si>
     <t>bidId</t>
   </si>
@@ -5010,21 +5010,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A176" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A295" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J186" activeCellId="0" sqref="J186"/>
+      <selection pane="bottomLeft" activeCell="A147" activeCellId="0" sqref="A147:A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6683673469388"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="138.107142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.11224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11203,128 +11207,129 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="8" t="n">
+      <c r="B148" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C148" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="C148" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F148" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G148" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I148" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K148" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="L148" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M148" s="14" t="s">
+      <c r="E148" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G148" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I148" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K148" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="L148" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M148" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="15" t="n">
+      <c r="B149" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C149" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D149" s="16" t="n">
+      <c r="C149" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D149" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E149" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F149" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G149" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="I149" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K149" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="L149" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M149" s="21" t="s">
+      <c r="E149" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G149" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H149" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I149" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K149" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L149" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M149" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="15" t="n">
+      <c r="B150" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C150" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D150" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E150" s="15" t="s">
+      <c r="C150" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E150" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F150" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G150" s="17" t="n">
+      <c r="F150" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="H150" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I150" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K150" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="L150" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M150" s="21" t="s">
+      <c r="H150" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I150" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K150" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="L150" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M150" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11332,125 +11337,125 @@
       <c r="A151" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="15" t="n">
+      <c r="B151" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C151" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D151" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E151" s="15" t="s">
+      <c r="C151" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D151" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F151" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="G151" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H151" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I151" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="K151" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="L151" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M151" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G151" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I151" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K151" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="L151" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M151" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="15" t="n">
+      <c r="B152" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C152" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D152" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E152" s="15" t="s">
+      <c r="C152" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F152" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="G152" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H152" s="17" t="s">
+      <c r="F152" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G152" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H152" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I152" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K152" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="L152" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M152" s="21" t="s">
+      <c r="I152" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K152" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="L152" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M152" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="15" t="n">
+      <c r="B153" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C153" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D153" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E153" s="15" t="s">
+      <c r="C153" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F153" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="G153" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H153" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I153" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="K153" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="L153" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M153" s="21" t="s">
+      <c r="F153" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G153" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H153" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I153" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="K153" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="L153" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M153" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11458,124 +11463,125 @@
       <c r="A154" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="15" t="n">
+      <c r="B154" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C154" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D154" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E154" s="15" t="s">
+      <c r="C154" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D154" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="G154" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="H154" s="17" t="s">
+      <c r="F154" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H154" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I154" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="K154" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="L154" s="17" t="s">
+      <c r="I154" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K154" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="L154" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M154" s="21" t="s">
+      <c r="M154" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="15" t="n">
+      <c r="B155" s="22" t="n">
         <f aca="false">A148</f>
         <v>147</v>
       </c>
-      <c r="C155" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E155" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F155" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="G155" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="H155" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I155" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K155" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="L155" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M155" s="21" t="s">
+      <c r="C155" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D155" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E155" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G155" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H155" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I155" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K155" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L155" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M155" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="10" t="n">
+      <c r="B156" s="22" t="n">
+        <f aca="false">A148</f>
+        <v>147</v>
+      </c>
+      <c r="C156" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D156" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="G156" s="10" t="n">
+      <c r="G156" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="H156" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I156" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="K156" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="L156" s="10" t="s">
+      <c r="H156" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I156" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K156" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L156" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M156" s="14" t="s">
+      <c r="M156" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11583,41 +11589,41 @@
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="15" t="n">
-        <f aca="false">A156</f>
-        <v>155</v>
-      </c>
-      <c r="C157" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D157" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G157" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="H157" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I157" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K157" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="L157" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M157" s="21" t="s">
+      <c r="B157" s="22" t="n">
+        <f aca="false">A148</f>
+        <v>147</v>
+      </c>
+      <c r="C157" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H157" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I157" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K157" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L157" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M157" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11625,41 +11631,41 @@
       <c r="A158" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="B158" s="15" t="n">
-        <f aca="false">A156</f>
-        <v>155</v>
-      </c>
-      <c r="C158" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D158" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F158" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G158" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="H158" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I158" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K158" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="L158" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M158" s="21" t="s">
+      <c r="B158" s="22" t="n">
+        <f aca="false">A149</f>
+        <v>148</v>
+      </c>
+      <c r="C158" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H158" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I158" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K158" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L158" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M158" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11667,125 +11673,125 @@
       <c r="A159" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="B159" s="15" t="n">
-        <f aca="false">A156</f>
-        <v>155</v>
-      </c>
-      <c r="C159" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D159" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E159" s="15" t="s">
+      <c r="B159" s="22" t="n">
+        <f aca="false">A148</f>
+        <v>147</v>
+      </c>
+      <c r="C159" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E159" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G159" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H159" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I159" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K159" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L159" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F159" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G159" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I159" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K159" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="L159" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M159" s="21" t="s">
+      <c r="M159" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="15" t="n">
-        <f aca="false">A156</f>
-        <v>155</v>
-      </c>
-      <c r="C160" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D160" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E160" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F160" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G160" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I160" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K160" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="L160" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M160" s="21" t="s">
+      <c r="B160" s="22" t="n">
+        <f aca="false">A148</f>
+        <v>147</v>
+      </c>
+      <c r="C160" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H160" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I160" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K160" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="L160" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M160" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="15" t="n">
-        <f aca="false">A156</f>
-        <v>155</v>
-      </c>
-      <c r="C161" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D161" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E161" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" s="17" t="n">
+      <c r="B161" s="22" t="n">
+        <f aca="false">A148</f>
+        <v>147</v>
+      </c>
+      <c r="C161" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="G161" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H161" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="I161" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K161" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="L161" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M161" s="21" t="s">
+      <c r="G161" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H161" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I161" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K161" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="L161" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M161" s="28" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11794,124 +11800,124 @@
         <v>161</v>
       </c>
       <c r="B162" s="15" t="n">
-        <f aca="false">A156</f>
-        <v>155</v>
+        <f aca="false">A147</f>
+        <v>146</v>
       </c>
       <c r="C162" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D162" s="16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F162" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G162" s="17" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="I162" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J162" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K162" s="64" t="s">
-        <v>277</v>
+        <v>134</v>
+      </c>
+      <c r="K162" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M162" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="15" t="n">
-        <f aca="false">A157</f>
-        <v>156</v>
-      </c>
-      <c r="C163" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D163" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E163" s="15" t="s">
+      <c r="B163" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C163" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D163" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G163" s="17" t="n">
+      <c r="F163" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G163" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="H163" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I163" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K163" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L163" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M163" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I163" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K163" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L163" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M163" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="15" t="n">
-        <f aca="false">A157</f>
-        <v>156</v>
-      </c>
-      <c r="C164" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D164" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F164" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G164" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H164" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I164" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K164" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L164" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M164" s="21" t="s">
+      <c r="B164" s="31" t="n">
+        <f aca="false">A163</f>
+        <v>162</v>
+      </c>
+      <c r="C164" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D164" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="G164" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="H164" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I164" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K164" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="L164" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M164" s="37" t="s">
         <v>18</v>
       </c>
     </row>
@@ -11919,334 +11925,335 @@
       <c r="A165" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="15" t="n">
-        <f aca="false">A157</f>
-        <v>156</v>
-      </c>
-      <c r="C165" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D165" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="17" t="n">
+      <c r="B165" s="46" t="n">
+        <f aca="false">A164</f>
+        <v>163</v>
+      </c>
+      <c r="C165" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="G165" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H165" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I165" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K165" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L165" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M165" s="21" t="s">
+      <c r="H165" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I165" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K165" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L165" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M165" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="B166" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G166" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H166" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I166" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K166" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="L166" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M166" s="14" t="s">
-        <v>61</v>
+      <c r="B166" s="46" t="n">
+        <f aca="false">A164</f>
+        <v>163</v>
+      </c>
+      <c r="C166" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D166" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H166" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I166" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K166" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L166" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M166" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C167" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D167" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F167" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G167" s="17" t="n">
+      <c r="B167" s="46" t="n">
+        <f aca="false">A164</f>
+        <v>163</v>
+      </c>
+      <c r="C167" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D167" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G167" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="H167" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I167" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K167" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L167" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M167" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I167" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K167" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="L167" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M167" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="168" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="B168" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C168" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D168" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F168" s="17" t="n">
+      <c r="B168" s="31" t="n">
+        <f aca="false">A163</f>
+        <v>162</v>
+      </c>
+      <c r="C168" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D168" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="G168" s="17" t="n">
+      <c r="G168" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="H168" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I168" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K168" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="L168" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M168" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H168" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I168" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K168" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="L168" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M168" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C169" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D169" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F169" s="17" t="n">
+      <c r="B169" s="46" t="n">
+        <f aca="false">A168</f>
+        <v>167</v>
+      </c>
+      <c r="C169" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D169" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E169" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G169" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="G169" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H169" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I169" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K169" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="L169" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M169" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H169" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I169" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K169" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L169" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M169" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C170" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D170" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G170" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="I170" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K170" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="L170" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M170" s="21" t="s">
-        <v>61</v>
+      <c r="B170" s="46" t="n">
+        <f aca="false">A168</f>
+        <v>167</v>
+      </c>
+      <c r="C170" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F170" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G170" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H170" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I170" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K170" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L170" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M170" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="B171" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C171" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D171" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F171" s="17" t="n">
+      <c r="B171" s="46" t="n">
+        <f aca="false">A168</f>
+        <v>167</v>
+      </c>
+      <c r="C171" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F171" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="G171" s="17" t="n">
+      <c r="G171" s="48" t="n">
         <v>37</v>
       </c>
-      <c r="H171" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I171" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K171" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L171" s="17" t="s">
+      <c r="H171" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I171" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K171" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L171" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M171" s="21" t="s">
+      <c r="M171" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="B172" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C172" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D172" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E172" s="15" t="s">
+      <c r="B172" s="31" t="n">
+        <f aca="false">A163</f>
+        <v>162</v>
+      </c>
+      <c r="C172" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F172" s="17" t="n">
+      <c r="F172" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G172" s="33" t="n">
         <v>15</v>
       </c>
-      <c r="G172" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H172" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I172" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K172" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L172" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M172" s="21" t="s">
+      <c r="H172" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I172" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K172" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="L172" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M172" s="37" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12254,41 +12261,41 @@
       <c r="A173" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="B173" s="15" t="n">
-        <f aca="false">A166</f>
-        <v>165</v>
-      </c>
-      <c r="C173" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D173" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E173" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F173" s="17" t="n">
+      <c r="B173" s="46" t="n">
+        <f aca="false">A172</f>
+        <v>171</v>
+      </c>
+      <c r="C173" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D173" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E173" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G173" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="G173" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H173" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I173" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K173" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="L173" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M173" s="21" t="s">
+      <c r="H173" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I173" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K173" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L173" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M173" s="37" t="s">
         <v>18</v>
       </c>
     </row>
@@ -12296,1481 +12303,5555 @@
       <c r="A174" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="B174" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E174" s="8" t="s">
+      <c r="B174" s="46" t="n">
+        <f aca="false">A172</f>
+        <v>171</v>
+      </c>
+      <c r="C174" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G174" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="I174" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K174" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="L174" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M174" s="14" t="s">
-        <v>61</v>
+      <c r="F174" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I174" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K174" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L174" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M174" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C175" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D175" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F175" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G175" s="10" t="n">
+      <c r="B175" s="46" t="n">
+        <f aca="false">A172</f>
+        <v>171</v>
+      </c>
+      <c r="C175" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G175" s="48" t="n">
         <v>37</v>
       </c>
-      <c r="H175" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="I175" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="K175" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="L175" s="10" t="s">
+      <c r="H175" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I175" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K175" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L175" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M175" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M175" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="B176" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C176" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E176" s="8" t="s">
+      <c r="B176" s="31" t="n">
+        <f aca="false">A163</f>
+        <v>162</v>
+      </c>
+      <c r="C176" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F176" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="G176" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H176" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I176" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K176" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="L176" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M176" s="14" t="s">
-        <v>61</v>
+      <c r="F176" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G176" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H176" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I176" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K176" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="L176" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M176" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="15" t="n">
+      <c r="B177" s="46" t="n">
         <f aca="false">A176</f>
         <v>175</v>
       </c>
-      <c r="C177" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D177" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F177" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G177" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H177" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I177" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K177" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="L177" s="17" t="s">
+      <c r="C177" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D177" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E177" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G177" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H177" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I177" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K177" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L177" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="M177" s="21" t="s">
-        <v>61</v>
+      <c r="M177" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="15" t="n">
+      <c r="B178" s="46" t="n">
         <f aca="false">A176</f>
         <v>175</v>
       </c>
-      <c r="C178" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D178" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" s="17" t="n">
+      <c r="C178" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D178" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G178" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="G178" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H178" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I178" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K178" s="63" t="s">
-        <v>282</v>
-      </c>
-      <c r="L178" s="17" t="s">
+      <c r="H178" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I178" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K178" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L178" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M178" s="21" t="s">
-        <v>61</v>
+      <c r="M178" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="B179" s="15" t="n">
+      <c r="B179" s="46" t="n">
         <f aca="false">A176</f>
         <v>175</v>
       </c>
-      <c r="C179" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D179" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="17" t="n">
+      <c r="C179" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D179" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G179" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="H179" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I179" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K179" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L179" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M179" s="37" t="s">
         <v>18</v>
-      </c>
-      <c r="G179" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H179" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I179" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K179" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="L179" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M179" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="15" t="n">
-        <f aca="false">A176</f>
-        <v>175</v>
-      </c>
-      <c r="C180" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D180" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F180" s="17" t="n">
+      <c r="B180" s="31" t="n">
+        <f aca="false">A163</f>
+        <v>162</v>
+      </c>
+      <c r="C180" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D180" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G180" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H180" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="I180" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K180" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="L180" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M180" s="37" t="s">
         <v>18</v>
-      </c>
-      <c r="G180" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="H180" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I180" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K180" s="63" t="s">
-        <v>284</v>
-      </c>
-      <c r="L180" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M180" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="15" t="n">
-        <f aca="false">A176</f>
-        <v>175</v>
-      </c>
-      <c r="C181" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D181" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E181" s="15" t="s">
+      <c r="B181" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C181" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E181" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F181" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="G181" s="17" t="n">
+      <c r="F181" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G181" s="24" t="n">
         <v>37</v>
       </c>
-      <c r="H181" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I181" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="K181" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="L181" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M181" s="21" t="s">
+      <c r="H181" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I181" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K181" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="L181" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M181" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C182" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E182" s="8" t="s">
+      <c r="B182" s="31" t="n">
+        <f aca="false">A181</f>
+        <v>180</v>
+      </c>
+      <c r="C182" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D182" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="G182" s="33" t="n">
         <v>13</v>
       </c>
-      <c r="F182" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G182" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I182" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K182" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="L182" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M182" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H182" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I182" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K182" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="L182" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M182" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G183" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I183" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K183" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="L183" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M183" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="46" t="n">
+        <f aca="false">A182</f>
+        <v>181</v>
+      </c>
+      <c r="C183" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G183" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H183" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I183" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K183" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L183" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M183" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="B184" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C184" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E184" s="8" t="s">
+      <c r="B184" s="46" t="n">
+        <f aca="false">A182</f>
+        <v>181</v>
+      </c>
+      <c r="C184" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D184" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F184" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G184" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H184" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I184" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K184" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="L184" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M184" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F184" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G184" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H184" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I184" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K184" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L184" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M184" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C185" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D185" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F185" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G185" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="H185" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I185" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K185" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="L185" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M185" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="46" t="n">
+        <f aca="false">A182</f>
+        <v>181</v>
+      </c>
+      <c r="C185" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D185" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G185" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I185" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K185" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L185" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M185" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C186" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D186" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F186" s="10" t="n">
+      <c r="B186" s="31" t="n">
+        <f aca="false">A181</f>
+        <v>180</v>
+      </c>
+      <c r="C186" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D186" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="G186" s="33" t="n">
         <v>13</v>
       </c>
-      <c r="G186" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H186" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I186" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K186" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="L186" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M186" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H186" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I186" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K186" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="L186" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M186" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G187" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I187" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="K187" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="L187" s="3" t="s">
+      <c r="B187" s="46" t="n">
+        <f aca="false">A186</f>
+        <v>185</v>
+      </c>
+      <c r="C187" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E187" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G187" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I187" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K187" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L187" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="M187" s="7" t="s">
-        <v>61</v>
+      <c r="M187" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="B188" s="46" t="n">
+        <f aca="false">A186</f>
+        <v>185</v>
+      </c>
+      <c r="C188" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D188" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F188" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G188" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I188" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K188" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L188" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>61</v>
+      <c r="F188" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G188" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H188" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I188" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K188" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L188" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M188" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C189" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F189" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G189" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H189" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I189" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K189" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="L189" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M189" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="46" t="n">
+        <f aca="false">A186</f>
+        <v>185</v>
+      </c>
+      <c r="C189" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D189" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G189" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="H189" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I189" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K189" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L189" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M189" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C190" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F190" s="3" t="n">
+      <c r="B190" s="31" t="n">
+        <f aca="false">A181</f>
+        <v>180</v>
+      </c>
+      <c r="C190" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G190" s="33" t="n">
         <v>15</v>
       </c>
-      <c r="G190" s="3" t="n">
+      <c r="H190" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I190" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K190" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="L190" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H190" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I190" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="K190" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="L190" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M190" s="3" t="s">
-        <v>61</v>
+      <c r="M190" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C191" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E191" s="1" t="s">
+      <c r="B191" s="46" t="n">
+        <f aca="false">A190</f>
+        <v>189</v>
+      </c>
+      <c r="C191" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D191" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E191" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="F191" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G191" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I191" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K191" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="L191" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M191" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H191" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I191" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K191" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L191" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M191" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C192" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G192" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I192" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="K192" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="L192" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M192" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="46" t="n">
+        <f aca="false">A190</f>
+        <v>189</v>
+      </c>
+      <c r="C192" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H192" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I192" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K192" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="L192" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M192" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F193" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G193" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H193" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I193" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="K193" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="L193" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M193" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="46" t="n">
+        <f aca="false">A190</f>
+        <v>189</v>
+      </c>
+      <c r="C193" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G193" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I193" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K193" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L193" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M193" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F194" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G194" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I194" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="K194" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="L194" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M194" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="31" t="n">
+        <f aca="false">A181</f>
+        <v>180</v>
+      </c>
+      <c r="C194" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D194" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G194" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H194" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I194" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K194" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="L194" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M194" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F195" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G195" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="I195" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="K195" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M195" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="46" t="n">
+        <f aca="false">A194</f>
+        <v>193</v>
+      </c>
+      <c r="C195" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D195" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E195" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G195" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I195" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K195" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="L195" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="M195" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G196" s="3" t="n">
+      <c r="B196" s="46" t="n">
+        <f aca="false">A194</f>
+        <v>193</v>
+      </c>
+      <c r="C196" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D196" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E196" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I196" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K196" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="L196" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M196" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="H196" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I196" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K196" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="L196" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M196" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F197" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G197" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I197" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K197" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="L197" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M197" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="46" t="n">
+        <f aca="false">A194</f>
+        <v>193</v>
+      </c>
+      <c r="C197" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G197" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="H197" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I197" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K197" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="L197" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M197" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F198" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G198" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I198" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K198" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="L198" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M198" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="31" t="n">
+        <f aca="false">A181</f>
+        <v>180</v>
+      </c>
+      <c r="C198" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D198" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G198" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H198" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I198" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K198" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="L198" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M198" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C199" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F199" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G199" s="3" t="n">
+      <c r="B199" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C199" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D199" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G199" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H199" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I199" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K199" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="L199" s="3" t="s">
+      <c r="H199" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I199" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K199" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="L199" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="M199" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M199" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F200" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G200" s="3" t="n">
-        <f aca="false">F200+13</f>
+      <c r="B200" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C200" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D200" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="I200" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="K200" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="L200" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M200" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F200" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G200" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H200" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I200" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K200" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L200" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M200" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="I201" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="K201" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="L201" s="3" t="s">
+      <c r="B201" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C201" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D201" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F201" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G201" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H201" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="I201" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K201" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L201" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="M201" s="3" t="s">
+      <c r="M201" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C202" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I202" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="K202" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="L202" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M202" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C202" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G202" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H202" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I202" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K202" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="L202" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M202" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="B203" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C203" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" s="1" t="n">
+      <c r="B203" s="31" t="n">
+        <f aca="false">A202</f>
+        <v>201</v>
+      </c>
+      <c r="C203" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F203" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I203" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K203" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="L203" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M203" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="33" t="n">
+        <f aca="false">F162</f>
+        <v>12</v>
+      </c>
+      <c r="G203" s="33" t="n">
+        <f aca="false">G162</f>
+        <v>14</v>
+      </c>
+      <c r="H203" s="33" t="str">
+        <f aca="false">H162</f>
+        <v>bez starszej czwórki</v>
+      </c>
+      <c r="I203" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="K203" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="L203" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M203" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="B204" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F204" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="I204" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K204" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M204" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="46" t="n">
+        <f aca="false">A203</f>
+        <v>202</v>
+      </c>
+      <c r="C204" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D204" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E204" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F204" s="48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G204" s="48" t="n">
+        <v>9</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I204" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K204" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="L204" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M204" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C205" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F205" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G205" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="H205" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I205" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="K205" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="L205" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M205" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="46" t="n">
+        <f aca="false">A203</f>
+        <v>202</v>
+      </c>
+      <c r="C205" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D205" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E205" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" s="48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G205" s="48" t="n">
+        <v>11</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I205" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K205" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="L205" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M205" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" s="1" t="n">
+      <c r="B206" s="46" t="n">
+        <f aca="false">A203</f>
+        <v>202</v>
+      </c>
+      <c r="C206" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F206" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G206" s="3" t="n">
+      <c r="D206" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E206" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="H206" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="I206" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K206" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L206" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M206" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G206" s="48" t="n">
+        <v>11</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I206" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K206" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="L206" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="M206" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C207" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" s="1" t="n">
+      <c r="B207" s="46" t="n">
+        <f aca="false">A204</f>
+        <v>203</v>
+      </c>
+      <c r="C207" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G207" s="3" t="n">
+      <c r="D207" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E207" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="H207" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="I207" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K207" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="L207" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M207" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G207" s="48" t="n">
+        <v>11</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I207" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K207" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="L207" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M207" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" s="1" t="n">
+      <c r="B208" s="46" t="n">
+        <f aca="false">A205</f>
+        <v>204</v>
+      </c>
+      <c r="C208" s="46" t="n">
         <v>5</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F208" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="H208" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I208" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K208" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="L208" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M208" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D208" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E208" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" s="48" t="n">
+        <v>12</v>
+      </c>
+      <c r="G208" s="48" t="n">
+        <v>12</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="I208" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K208" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="L208" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M208" s="54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C209" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" s="1" t="n">
+      <c r="B209" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C209" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D209" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G209" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="H209" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I209" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K209" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L209" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M209" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C210" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D210" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G210" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="H210" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="I210" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K210" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="L210" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M210" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C211" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D211" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E211" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G211" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H211" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I211" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K211" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L211" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M211" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C212" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D212" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E212" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F212" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G212" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H212" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I212" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K212" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="L212" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M212" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C213" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D213" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F213" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G213" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H213" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I213" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K213" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="L213" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M213" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C214" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D214" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F214" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G214" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H214" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I214" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K214" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="L214" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M214" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C215" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E215" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G215" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H215" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I215" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K215" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="L215" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M215" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C216" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E216" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G216" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H216" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I216" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K216" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L216" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M216" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="22" t="n">
+        <f aca="false">A162</f>
+        <v>161</v>
+      </c>
+      <c r="C217" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D217" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E217" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F217" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G217" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H217" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I217" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K217" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L217" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M217" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C218" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D218" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E218" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G218" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I218" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K218" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="L218" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M218" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C219" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D219" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E219" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G219" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H219" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I219" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K219" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L219" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M219" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C220" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D220" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G220" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H220" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I220" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K220" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L220" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M220" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C221" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D221" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F221" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G221" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H221" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I221" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K221" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L221" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M221" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C222" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D222" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F222" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G222" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H222" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I222" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K222" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L222" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M222" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C223" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D223" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G223" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H223" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I223" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K223" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L223" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M223" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C224" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E224" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G224" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H224" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I224" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K224" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L224" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M224" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C225" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D225" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E225" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G225" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H225" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I225" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K225" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L225" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M225" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="22" t="n">
+        <f aca="false">A218</f>
+        <v>217</v>
+      </c>
+      <c r="C226" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E226" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F226" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G226" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H226" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="I226" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K226" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L226" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M226" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C227" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F227" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G227" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H227" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I227" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="K227" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="L227" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M227" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C228" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E228" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G228" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H228" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I228" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K228" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L228" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M228" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C229" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F229" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G229" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H229" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I229" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K229" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="L229" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M229" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C230" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D230" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F230" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G230" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H230" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I230" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K230" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="L230" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M230" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C231" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D231" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E231" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G231" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H231" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I231" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K231" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="L231" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M231" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C232" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E232" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G232" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H232" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I232" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K232" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="L232" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M232" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C233" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D233" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E233" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G233" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H233" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I233" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K233" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L233" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M233" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="22" t="n">
+        <f aca="false">A227</f>
+        <v>226</v>
+      </c>
+      <c r="C234" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D234" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E234" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F234" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G234" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H234" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I234" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K234" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="L234" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M234" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C235" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D235" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G235" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H235" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I235" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K235" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L235" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M235" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C236" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D236" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F236" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G236" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H236" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I236" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K236" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L236" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M236" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C237" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D237" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G237" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H237" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I237" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K237" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="L237" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M237" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C238" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D238" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E238" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F238" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G238" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H238" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I238" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K238" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="L238" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M238" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C239" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E239" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G239" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="H239" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I239" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K239" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L239" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M239" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C240" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E240" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F240" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G240" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H240" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I240" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K240" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L240" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M240" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C241" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D241" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F241" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G241" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H241" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I241" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K241" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L241" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M241" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C242" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E242" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F242" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="G242" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H242" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I242" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K242" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="L242" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M242" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C243" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D243" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E243" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G243" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H243" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I243" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K243" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L243" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M243" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" s="15" t="n">
+        <f aca="false">A147</f>
+        <v>146</v>
+      </c>
+      <c r="C244" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F244" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G244" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H244" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I244" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K244" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="L244" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M244" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F245" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G245" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H245" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I245" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K245" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="L245" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M245" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C246" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G246" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H246" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I246" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="K246" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="L246" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M246" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C247" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D247" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G247" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H247" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I247" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K247" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="L247" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M247" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C248" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D248" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G248" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H248" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="K248" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="L248" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M248" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C249" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F249" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G249" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H249" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I249" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K249" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="L249" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M249" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C250" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D250" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F250" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G250" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H250" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I250" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K250" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="L250" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M250" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C251" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D251" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E251" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F251" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="G251" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="H251" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I251" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="K251" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="L251" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M251" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" s="15" t="n">
+        <f aca="false">A245</f>
+        <v>244</v>
+      </c>
+      <c r="C252" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E252" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F252" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G252" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="H252" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I252" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K252" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="L252" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M252" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G253" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H253" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I253" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K253" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L253" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M253" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" s="15" t="n">
+        <f aca="false">A253</f>
+        <v>252</v>
+      </c>
+      <c r="C254" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D254" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G254" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H254" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I254" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K254" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L254" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M254" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" s="15" t="n">
+        <f aca="false">A253</f>
+        <v>252</v>
+      </c>
+      <c r="C255" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D255" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E255" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F255" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G255" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H255" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I255" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K255" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L255" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M255" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" s="15" t="n">
+        <f aca="false">A253</f>
+        <v>252</v>
+      </c>
+      <c r="C256" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D256" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E256" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F256" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G256" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H256" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I256" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="K256" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L256" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M256" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" s="15" t="n">
+        <f aca="false">A253</f>
+        <v>252</v>
+      </c>
+      <c r="C257" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F257" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G257" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H257" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I257" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K257" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="L257" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M257" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" s="15" t="n">
+        <f aca="false">A253</f>
+        <v>252</v>
+      </c>
+      <c r="C258" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D258" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F258" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G258" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H258" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I258" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="K258" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="L258" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M258" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" s="15" t="n">
+        <f aca="false">A253</f>
+        <v>252</v>
+      </c>
+      <c r="C259" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F259" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G259" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H259" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I259" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K259" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L259" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M259" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" s="15" t="n">
+        <f aca="false">A254</f>
+        <v>253</v>
+      </c>
+      <c r="C260" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G260" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H260" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I260" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K260" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L260" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M260" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" s="15" t="n">
+        <f aca="false">A254</f>
+        <v>253</v>
+      </c>
+      <c r="C261" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F261" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G261" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H261" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I261" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K261" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L261" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M261" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" s="15" t="n">
+        <f aca="false">A254</f>
+        <v>253</v>
+      </c>
+      <c r="C262" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F262" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G262" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H262" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I262" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K262" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L262" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M262" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F263" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G263" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H263" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I263" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K263" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L263" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M263" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C264" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G264" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H264" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I264" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K264" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L264" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M264" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C265" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D265" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F265" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G265" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="H265" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I265" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="K265" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="L265" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M265" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C266" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D266" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E266" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G266" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H266" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I266" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K266" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="L266" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M266" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C267" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G267" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H267" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I267" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="K267" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="L267" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M267" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C268" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D268" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E268" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G268" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H268" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I268" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K268" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L268" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M268" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C269" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F269" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G269" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H269" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I269" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K269" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L269" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M269" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" s="15" t="n">
+        <f aca="false">A263</f>
+        <v>262</v>
+      </c>
+      <c r="C270" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D270" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E270" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F270" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G270" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H270" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I270" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K270" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M270" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G271" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H271" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I271" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K271" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="L271" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M271" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F272" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G272" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H272" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I272" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="K272" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="L272" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M272" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F273" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G273" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H273" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I273" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K273" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="L273" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M273" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" s="15" t="n">
+        <f aca="false">A273</f>
+        <v>272</v>
+      </c>
+      <c r="C274" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D274" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F274" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G274" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H274" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I274" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K274" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="L274" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M274" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" s="15" t="n">
+        <f aca="false">A273</f>
+        <v>272</v>
+      </c>
+      <c r="C275" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D275" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G275" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H275" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I275" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="K275" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="L275" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M275" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" s="15" t="n">
+        <f aca="false">A273</f>
+        <v>272</v>
+      </c>
+      <c r="C276" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E276" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G276" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H276" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I276" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K276" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="L276" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M276" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" s="15" t="n">
+        <f aca="false">A273</f>
+        <v>272</v>
+      </c>
+      <c r="C277" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E277" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G277" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H277" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I277" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K277" s="63" t="s">
+        <v>284</v>
+      </c>
+      <c r="L277" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M277" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" s="15" t="n">
+        <f aca="false">A273</f>
+        <v>272</v>
+      </c>
+      <c r="C278" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D278" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F278" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G278" s="17" t="n">
+        <v>37</v>
+      </c>
+      <c r="H278" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I278" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K278" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="L278" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M278" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F279" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G279" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H279" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I279" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K279" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="L279" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M279" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F280" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G280" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H280" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I280" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K280" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="L280" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M280" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G281" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H281" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I281" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K281" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="L281" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M281" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F282" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G282" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H282" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I282" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K282" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="L282" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M282" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F283" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G283" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H283" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I283" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K283" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="L283" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M283" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F284" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G284" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I284" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="K284" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M284" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G285" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I285" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K285" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F286" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G286" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I286" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K286" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M286" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F287" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G287" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I287" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K287" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M287" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G288" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I288" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K288" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M288" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F289" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G289" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I289" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K289" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F290" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G290" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I290" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K290" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F291" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G291" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I291" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K291" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F292" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G292" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I292" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K292" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G293" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I293" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K293" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F294" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G294" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I294" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K294" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F295" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G295" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I295" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K295" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F296" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G296" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I296" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K296" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F297" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G297" s="3" t="n">
+        <f aca="false">F297+13</f>
+        <v>22</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K297" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M297" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F298" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I298" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K298" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F299" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="I299" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K299" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F300" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I300" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K300" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F301" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I301" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K301" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F302" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G302" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I302" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="K302" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M302" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E303" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F303" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G303" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I303" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K303" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M303" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F304" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G304" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I304" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K304" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M304" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K305" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M305" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F209" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" s="3" t="n">
+      <c r="F306" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G306" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H306" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I209" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" s="5" t="s">
+      <c r="I306" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K209" s="6" t="s">
+      <c r="K306" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="L209" s="3" t="s">
+      <c r="L306" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M209" s="3" t="s">
+      <c r="M306" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13793,7 +17874,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="A147:A306 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,18 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Other W-J" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="poInterwencji" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Other W-J" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SA_z_piatek" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="357">
   <si>
     <t>bidId</t>
   </si>
@@ -174,8 +176,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+PC  raczej 6+ kart w pikach  (REWERS) odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
@@ -194,57 +196,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">w kolor 12-14PC na czwórce (uklad 3-4-4-4 lub 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> trefl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -3-3-2)
-&lt;br&gt;4 w kolor inny niż trefl – SPLINTER (12-15PC - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5 trefl </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- 4 starszy zgłoszony-3-1)</t>
+      <t xml:space="preserve"> w kolor 12-14PC na czwórce (uklad 3-4-4-4 lub 5 trefl -3-3-2)
+&lt;br&gt;4 w kolor inny niż trefl – SPLINTER (12-15PC - 5 trefl - 4 starszy zgłoszony-3-1)</t>
     </r>
   </si>
   <si>
@@ -275,8 +232,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">+PC  raczej 4+ kart w pikach</t>
@@ -375,30 +332,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> PC, KONWENCJA 5431 (singiel to kolor licytowany SPLINTER? ) albo mało PC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">6+  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kart z dwiema figurami w tym kolorze???? </t>
+      <t xml:space="preserve"> PC, KONWENCJA 5431 (singiel to kolor licytowany SPLINTER? ) albo mało PC 6+  kart z dwiema figurami w tym kolorze???? </t>
     </r>
   </si>
   <si>
@@ -422,22 +361,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Stayman odwrotny</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> i teksasy jak po otwarciu 1BA</t>
+      <t xml:space="preserve">Stayman odwrotny i teksasy jak po otwarciu 1BA</t>
     </r>
   </si>
   <si>
@@ -458,59 +387,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">18+ PC, 6+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -naturalny silny inwit </t>
+      <t xml:space="preserve">/ 18+ PC, 6+ /   -naturalny silny inwit </t>
     </r>
   </si>
   <si>
@@ -538,10 +420,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"></t>
     </r>
@@ -562,115 +444,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  → 10+ PC, 5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RELAY -  MAGISTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> – pytanie o PC i kiery
-        →  16+PC, 4+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[ew. 7-10PC 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 5+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ] (odpowiedzi patrz niżej)</t>
+      <t xml:space="preserve">  → 10+ PC, 5+      RELAY -  MAGISTER – pytanie o PC i kiery
+        →  16+PC, 4+      [ew. 7-10PC 4i 5+ ] (odpowiedzi patrz niżej)</t>
     </r>
   </si>
   <si>
@@ -685,31 +464,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">i 5+♦</t>
+      <t xml:space="preserve"> i 5+♦</t>
     </r>
   </si>
   <si>
@@ -722,67 +482,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7-10 PC, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
+      <t xml:space="preserve">   7-10 PC, 5+ </t>
     </r>
   </si>
   <si>
@@ -798,66 +502,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7-10 PC, 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (układy na starszych 4-4, 5-4)</t>
+      <t xml:space="preserve">7-10 PC, 4+   i 4  (układy na starszych 4-4, 5-4)</t>
     </r>
   </si>
   <si>
@@ -870,29 +519,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11-12PC, skład zrównoważony, brak 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (inwit do 3BA)</t>
+      <t xml:space="preserve">11-12PC, skład zrównoważony, brak 4 (inwit do 3BA)</t>
     </r>
   </si>
   <si>
@@ -907,58 +538,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">♦  12+ PC, 5+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 5+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">♦ forsuje do końcówki </t>
+      <t xml:space="preserve">♦  12+ PC, 5+ i 5+/♦ forsuje do końcówki </t>
     </r>
   </si>
   <si>
@@ -973,160 +558,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 10-11PC,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 6+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">układ 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (inwit do 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
+      <t xml:space="preserve"> / 10-11PC, 6+  /układ 4-4  (inwit do 4/4 )</t>
     </r>
   </si>
   <si>
@@ -1141,21 +578,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> (do gry)</t>
+      <t xml:space="preserve"> (do gry)</t>
     </r>
   </si>
   <si>
@@ -1167,105 +595,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 12-16PC, 6+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  /</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">układ 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (do gry)</t>
+      <t xml:space="preserve"> / 12-16PC, 6+  /układ 4-4  (do gry)</t>
     </r>
   </si>
   <si>
@@ -1330,20 +665,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">drugi starszy) - 14-15 PC - 3 karty w kolor (fit 3 kartowy)</t>
+      <t xml:space="preserve"> (drugi starszy) - 14-15 PC - 3 karty w kolor (fit 3 kartowy)</t>
     </r>
   </si>
   <si>
@@ -1361,22 +687,12 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> - 14-15 PC - dubel w kolor i 4 trefle / wyższe odzywki pokazują nadwyżki siłowe i układowe</t>
+      <t xml:space="preserve"> - 14-15 PC - dubel w kolor i 4 trefle / wyższe odzywki pokazują nadwyżki siłowe i układowe</t>
     </r>
   </si>
   <si>
@@ -1410,22 +726,12 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> - 14-15 PC - dubel w kolor i 4 trefl / wyższe odzywki pokazują nadwyżki siłowe i układowe</t>
+      <t xml:space="preserve"> - 14-15 PC - dubel w kolor i 4 trefl / wyższe odzywki pokazują nadwyżki siłowe i układowe</t>
     </r>
   </si>
   <si>
@@ -1438,48 +744,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> kier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kolor zgłoszony w pierwszej kolejce)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 5+karo</t>
+      <t xml:space="preserve"> kier (kolor zgłoszony w pierwszej kolejce) i 5+karo</t>
     </r>
   </si>
   <si>
@@ -1501,21 +770,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">kier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> i 4pik</t>
+      <t xml:space="preserve">kier  i 4pik</t>
     </r>
   </si>
   <si>
@@ -1576,75 +835,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">♦  12+ PC, 5+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(kolor zgłoszony)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 5+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">♦ forsuje do końcówki </t>
+      <t xml:space="preserve">♦  12+ PC, 5+/(kolor zgłoszony) i 5+/♦ forsuje do końcówki </t>
     </r>
   </si>
   <si>
@@ -1659,123 +854,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 9(10)-11PC,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 6+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (inwit do 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
+      <t xml:space="preserve"> / 9(10)-11PC, 6+/  (inwit do 4/4 )</t>
     </r>
   </si>
   <si>
@@ -1790,153 +874,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">REWERS po kierach  – </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AUTOSPLINTER: 12+PC,  6+</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">krótkość w </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> REWERS po pikach]  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12+</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> PC  5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 5+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"></t>
+      <t xml:space="preserve">REWERS po kierach  – AUTOSPLINTER: 12+PC,  6+ krótkość w   3 [ REWERS po pikach]  12+ PC  5+  i 5+</t>
     </r>
   </si>
   <si>
@@ -1951,134 +894,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">♦ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AUTOSPLINTER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12+ PC, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6+</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(kolor zgłoszony)</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i krótkość </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">♦ </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ???? </t>
+      <t xml:space="preserve">♦   AUTOSPLINTER 12+ PC, 6+/(kolor zgłoszony) i krótkość /♦  ???? </t>
     </r>
   </si>
   <si>
@@ -2090,971 +911,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> 12-16PC, 6+</t>
+      <t xml:space="preserve"> / 12-16PC, 6+/   (do gry)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (do gry)</t>
-    </r>
   </si>
   <si>
     <t>5+ trefl, brak starszej czwórki</t>
   </si>
   <si>
     <t>Naturalne silny 1 trefl</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  15-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">17PC 5 trefli -brak starszej czwórki w kolorze zgłoszonym przez partnera</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (słabszy trefl jak BA chyba???)</t>
-    </r>
-  </si>
-  <si>
-    <t>prawie dowolny</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10+PC – układ </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PRAWIE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">dowolny – forsing do dogranej (GF) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">– dalsza licytacja ???</t>
-    </r>
-  </si>
-  <si>
-    <t>5+ w kolor</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   7-9(10) PC, 5+  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/   </t>
-    </r>
-  </si>
-  <si>
-    <t>4+ kierów i 4 piki</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> REWERS po kierach]  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 7-10PC, 4+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">REWERS po pikach ]   7-10PC, 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i 4+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Dokładnie 4 kiery, brak drugiej czwórki</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2BA   7-9(10) PC, dokładnie 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">brak drugiej czwórki</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (inwit do 3BA)</t>
-    </r>
-  </si>
-  <si>
-    <t>3 + fit pikowy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   7-9 PC, 3+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">fit)      </t>
-    </r>
-  </si>
-  <si>
-    <t>5 + w kolor, 5 kar</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  10+ PC, 5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  i 5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - forsuje do dogranej (GF)    </t>
-    </r>
-  </si>
-  <si>
-    <t>6+ w kolor</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8-9 PC, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (inwit do 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-  </si>
-  <si>
-    <t>5 kierów i 5+ pików</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">REWERS [ tylko po piku] 10+PC,  5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  i 5+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  forsuje do dogranej (GF)   </t>
-    </r>
-  </si>
-  <si>
-    <t>3 fit</t>
-  </si>
-  <si>
-    <t>ODWROTKA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">( RELAY - ODWROTKA )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">– 15(18)+  PC, 3 kartowy fit  w kolorze partnera,  jest  to  pytanie  o długość koloru i siłę) </t>
-    </r>
-  </si>
-  <si>
-    <t>4 kiery</t>
-  </si>
-  <si>
-    <t>odpowiedź na odwrotkę</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    7-9(10) PC, 4 kiery(piki) – ten kolor który zgłosił odpowiadający</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    11+ PC, 4 kiery(piki) – słaby na czwórce!</t>
-    </r>
-  </si>
-  <si>
-    <t>5 kierów</t>
-  </si>
-  <si>
-    <t>2BA   7-9(10) PC, 5 kierów(pików)             (Bubrotka – 11+ PC 5+ w starszym)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    11+ PC, 5 kierów(pików)                                       9-11 PC 4 starsza + 5 trefli     </t>
-    </r>
-  </si>
-  <si>
-    <t>6 kierów</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">    7-9(10) PC, 6 kierów(pików)                                 9-11 PC  4 starsza + 5 kar  itd.  
-dalej 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- pytanie o singla                            </t>
-    </r>
-  </si>
-  <si>
-    <t>Na 5 (układ 5332)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - 10+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PC na 5 układ (5-3-3-2)                               7-10 PC  5 starsza niezrównoważona </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - 7-9(10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PC  na 5 uklad  (5-3-3-2)                       7-10 PC 5 starsza zrównoważona            /  3BA  - 7-10  na co najmniej szóstce   /    4x  7-10 PC 6+ kart -  SPLINTERY  </t>
-    </r>
-  </si>
-  <si>
-    <t>4 karty</t>
-  </si>
-  <si>
-    <t>czwórka w kierach</t>
   </si>
   <si>
     <r>
@@ -3063,30 +932,290 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"></t>
+      <t xml:space="preserve">  15-17PC 5 trefli -brak starszej czwórki w kolorze zgłoszonym przez partnera (słabszy trefl jak BA chyba???)</t>
+    </r>
+  </si>
+  <si>
+    <t>prawie dowolny</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/2  </t>
+      <t xml:space="preserve"> 10+PC – układ PRAWIE dowolny – forsing do dogranej (GF) – dalsza licytacja ???</t>
+    </r>
+  </si>
+  <si>
+    <t>5+ w kolor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12-14 PC, 4 karty  kolor licytowany Dalsza licytacja: 
+      <t xml:space="preserve">/   7-9(10) PC, 5+  /   </t>
+    </r>
+  </si>
+  <si>
+    <t>4+ kierów i 4 piki</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [ REWERS po kierach]   7-10PC, 4+  i 4  2  [ REWERS po pikach ]   7-10PC, 5+   i 4+ </t>
+    </r>
+  </si>
+  <si>
+    <t>Dokładnie 4 kiery, brak drugiej czwórki</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2BA   7-9(10) PC, dokładnie 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ - brak drugiej czwórki  (inwit do 3BA)</t>
+    </r>
+  </si>
+  <si>
+    <t>3 + fit pikowy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   7-9 PC, 3+ (fit)      </t>
+    </r>
+  </si>
+  <si>
+    <t>5 + w kolor, 5 kar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  10+ PC, 5+ /  i 5+  - forsuje do dogranej (GF)    </t>
+    </r>
+  </si>
+  <si>
+    <t>6+ w kolor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/  8-9 PC,  6+/  (inwit do 4/4 )</t>
+    </r>
+  </si>
+  <si>
+    <t>5 kierów i 5+ pików</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REWERS [ tylko po piku] 10+PC,  5+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  i 5+    forsuje do dogranej (GF)   </t>
+    </r>
+  </si>
+  <si>
+    <t>3 fit</t>
+  </si>
+  <si>
+    <t>ODWROTKA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">( RELAY - ODWROTKA )– 15(18)+  PC, 3 kartowy fit  w kolorze partnera,  jest  to  pytanie  o długość koloru i siłę) </t>
+    </r>
+  </si>
+  <si>
+    <t>4 kiery</t>
+  </si>
+  <si>
+    <t>odpowiedź na odwrotkę</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    7-9(10) PC, 4 kiery(piki) – ten kolor który zgłosił odpowiadający</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    11+ PC, 4 kiery(piki) – słaby na czwórce!</t>
+    </r>
+  </si>
+  <si>
+    <t>5 kierów</t>
+  </si>
+  <si>
+    <t>2BA   7-9(10) PC, 5 kierów(pików)             (Bubrotka – 11+ PC 5+ w starszym)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    11+ PC, 5 kierów(pików)                                       9-11 PC 4 starsza + 5 trefli     </t>
+    </r>
+  </si>
+  <si>
+    <t>6 kierów</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">    7-9(10) PC, 6 kierów(pików)                                 9-11 PC  4 starsza + 5 kar  itd.  
+dalej 3 - pytanie o singla                            </t>
+    </r>
+  </si>
+  <si>
+    <t>Na 5 (układ 5332)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - 10+ PC na 5 układ (5-3-3-2)                               7-10 PC  5 starsza niezrównoważona </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  - 7-9(10)PC  na 5 uklad  (5-3-3-2)                       7-10 PC 5 starsza zrównoważona            /  3BA  - 7-10  na co najmniej szóstce   /    4x  7-10 PC 6+ kart -  SPLINTERY  </t>
+    </r>
+  </si>
+  <si>
+    <t>4 karty</t>
+  </si>
+  <si>
+    <t>czwórka w kierach</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/2  12-14 PC, 4 karty  kolor licytowany Dalsza licytacja: 
 - najsłabsze poparcie – końcówka,
 - 2BA i po dowolnej odpowiedzi końcówka w kolor  pierwszy (znaczy fit 3 karty, ale bez krótkości)
 - poparcie na wysokości 3 – obiecuje fit i np. bocznego dubla
@@ -3106,8 +1235,8 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dalsza licytacja: 
@@ -3126,59 +1255,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">18+ PC, 5(6)+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - b.dobry kolor -aspiracje szlemikowe </t>
+      <t xml:space="preserve"> 18+ PC, 5(6)+ / - b.dobry kolor -aspiracje szlemikowe </t>
     </r>
   </si>
   <si>
@@ -3193,49 +1275,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/ 15-16</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC – 4-4-4-1 lub 4 starsza i 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">inwit do koncówki </t>
+      <t xml:space="preserve">/ 15-16PC – 4-4-4-1 lub 4 starsza i 5 - inwit do koncówki </t>
     </r>
   </si>
   <si>
@@ -3262,388 +1307,35 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/4  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">kontrakt</t>
-    </r>
-  </si>
-  <si>
-    <t>4ka pik</t>
-  </si>
-  <si>
-    <t>4+ pik,  forsuje na jedno okrążenie 
-&lt;br&gt;  → 4 kiery wykluczone  (5 możliwe) -  nie wyklucza młodszej piątki przy sile poniżej 11PC - przy dwóch starszych zgłaszam dłuższy - przy dwóch czwórkach kierową,  przy dwóch piątkach pikową :)</t>
-  </si>
-  <si>
-    <t>1BA (7)8-10 PC, bez starszej czwórki, może zawierać młodszą piątkę, nie forsuje (przy słabych 7PC lepiej negat)</t>
-  </si>
-  <si>
-    <t>4414 albo zrównoważony</t>
-  </si>
-  <si>
-    <t>negat</t>
-  </si>
-  <si>
-    <t>Pas  12-14 PC układ zrównoważony albo 4414</t>
-  </si>
-  <si>
-    <t>kolor treflowy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PC   5+ trefli </t>
+      <t xml:space="preserve">/4  kontrakt</t>
     </r>
   </si>
   <si>
-    <t>PYTANIE O SKŁAD</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  18+  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PC,</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">RELAY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> karta układowa (pytanie o skład ) → patrz obok </t>
-    </r>
-  </si>
-  <si>
-    <t>silny kolor kierowy</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/2  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">18+  PC, 5 kart  kolor licytowany (bo odpowiadający wykluczył czwórki, gdyby było mniej punktów to otwarcie było by w piki!!!)</t>
-    </r>
-  </si>
-  <si>
-    <t>silny kolor pikowy</t>
-  </si>
-  <si>
-    <t>inwit do szlemika</t>
-  </si>
-  <si>
-    <t>2BA  22-24 PC, układ zrównoważony inwit do szlemika ??? coś było inaczej ale bez sensu</t>
-  </si>
-  <si>
-    <t>3BA  18-21 PC  układ zrównoważony - kontrakt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12+  PC, 5+ trefli/kar, forsuje do końcówki  (nie wyklucza starszej czwórki? ) Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana, otwierający zgłasza starsze czwórki, podniesienie jest fitem bez nadwyżek </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2w kolor </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 12-18 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PC   na czwórce </t>
-    </r>
-  </si>
-  <si>
-    <t>kolor pikowy</t>
-  </si>
-  <si>
-    <t>2BA  12-14 PC, układ zrównoważony bez starszej czówórki</t>
-  </si>
-  <si>
-    <t>4 kara</t>
-  </si>
-  <si>
-    <t>silne uzgodnienie koloru</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  12-14  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PC, 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">silne uzgodnienie koloru</t>
-    </r>
-  </si>
-  <si>
-    <t>4 kara + splinter</t>
-  </si>
-  <si>
-    <t>SPLINTER</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">/3/4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"></t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">lub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
-    </r>
-  </si>
-  <si>
-    <t>Dobra 5 lub 6+</t>
+    <t>4ka pik</t>
+  </si>
+  <si>
+    <t>4+ pik,  forsuje na jedno okrążenie 
+&lt;br&gt;  → 4 kiery wykluczone  (5 możliwe) -  nie wyklucza młodszej piątki przy sile poniżej 11PC - przy dwóch starszych zgłaszam dłuższy - przy dwóch czwórkach kierową,  przy dwóch piątkach pikową :)</t>
+  </si>
+  <si>
+    <t>1BA (7)8-10 PC, bez starszej czwórki, może zawierać młodszą piątkę, nie forsuje (przy słabych 7PC lepiej negat)</t>
+  </si>
+  <si>
+    <t>4414 albo zrównoważony</t>
+  </si>
+  <si>
+    <t>negat</t>
+  </si>
+  <si>
+    <t>Pas  12-14 PC układ zrównoważony albo 4414</t>
+  </si>
+  <si>
+    <t>kolor treflowy</t>
   </si>
   <si>
     <r>
@@ -3652,88 +1344,98 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"></t>
+      <t xml:space="preserve"> 15+ PC   5+ trefli </t>
+    </r>
+  </si>
+  <si>
+    <t>PYTANIE O SKŁAD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> / 2  </t>
+      <t xml:space="preserve">  18+  PC,RELAY karta układowa (pytanie o skład ) → patrz obok </t>
+    </r>
+  </si>
+  <si>
+    <t>silny kolor kierowy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12+  PC,  dobra 5 lub 6+, forsing do  końcówki Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana – szanse na szlemika...</t>
+      <t xml:space="preserve">/2  18+  PC, 5 kart  kolor licytowany (bo odpowiadający wykluczył czwórki, gdyby było mniej punktów to otwarcie było by w piki!!!)</t>
     </r>
   </si>
   <si>
-    <t>2BA 11-12 PC, bez starszej czwórki, inwit do 3BA</t>
-  </si>
-  <si>
-    <t>do gry</t>
-  </si>
-  <si>
-    <t>15-17 PC piątka trefli – kolor treflowy</t>
-  </si>
-  <si>
-    <t>18+PC piątka kar …</t>
-  </si>
-  <si>
-    <t>18+ PC piątka kierów</t>
-  </si>
-  <si>
-    <t>18+ PC piątka pików</t>
-  </si>
-  <si>
-    <t>(6?) 7+</t>
+    <t>silny kolor pikowy</t>
+  </si>
+  <si>
+    <t>inwit do szlemika</t>
+  </si>
+  <si>
+    <t>2BA  22-24 PC, układ zrównoważony inwit do szlemika ??? coś było inaczej ale bez sensu</t>
+  </si>
+  <si>
+    <t>3BA  18-21 PC  układ zrównoważony - kontrakt</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3 / 3</t>
+      <t xml:space="preserve">2</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"></t>
+      <t xml:space="preserve"> / 2  12+  PC, 5+ trefli/kar, forsuje do końcówki  (nie wyklucza starszej czwórki? ) Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana, otwierający zgłasza starsze czwórki, podniesienie jest fitem bez nadwyżek </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2w kolor </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">  9-11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> PC, (6?)7+ trefli/kar, raczej wyklucza starszą czwórkę - inwit do 3BA  Potem trzeba sprawdzić zatrzymania do 3BA najlepiej en passant (wskazanie koloru w którym posiada się zatrzymania żeby sprawdzić czy idzie BA czy kolor) – nie stosuje się gdy przeciwnicy się oddzywali – wtedy wywiad bezatutowy</t>
+      <t xml:space="preserve"> 12-18 PC   na czwórce </t>
     </r>
   </si>
   <si>
-    <t>Blok albo autosplintere</t>
+    <t>kolor pikowy</t>
+  </si>
+  <si>
+    <t>2BA  12-14 PC, układ zrównoważony bez starszej czówórki</t>
+  </si>
+  <si>
+    <t>4 kara</t>
+  </si>
+  <si>
+    <t>silne uzgodnienie koloru</t>
   </si>
   <si>
     <r>
@@ -3742,60 +1444,131 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"></t>
+      <t xml:space="preserve">  12-14  PC, 4 - silne uzgodnienie koloru</t>
+    </r>
+  </si>
+  <si>
+    <t>4 kara + splinter</t>
+  </si>
+  <si>
+    <t>SPLINTER</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> / 3  4-7</t>
+      <t xml:space="preserve">/3/4 lub   15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+    </r>
+  </si>
+  <si>
+    <t>Dobra 5 lub 6+</t>
+  </si>
+  <si>
+    <t>12+  PC,  dobra 5 lub 6+, forsing do  końcówki Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana – szanse na szlemika...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> PC, (6)7+ kierów/pików z KD (nic z boku),  blokujące</t>
+      <t xml:space="preserve">12+  PC,  dobra 5 lub 6+, forsing do  końcówki Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana – szanse na szlemika...</t>
+    </r>
+  </si>
+  <si>
+    <t>2BA 11-12 PC, bez starszej czwórki, inwit do 3BA</t>
+  </si>
+  <si>
+    <t>do gry</t>
+  </si>
+  <si>
+    <t>15-17 PC piątka trefli – kolor treflowy</t>
+  </si>
+  <si>
+    <t>18+PC piątka kar …</t>
+  </si>
+  <si>
+    <t>18+ PC piątka kierów</t>
+  </si>
+  <si>
+    <t>18+ PC piątka pików</t>
+  </si>
+  <si>
+    <t>(6?) 7+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 9-11</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.(a może AUTOSPLINTER - 6</t>
+      <t xml:space="preserve"> PC, (6?)7+ trefli/kar, raczej wyklucza starszą czwórkę - inwit do 3BA  Potem trzeba sprawdzić zatrzymania do 3BA najlepiej en passant (wskazanie koloru w którym posiada się zatrzymania żeby sprawdzić czy idzie BA czy kolor) – nie stosuje się gdy przeciwnicy się oddzywali – wtedy wywiad bezatutowy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9-11</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> + </t>
+      <t xml:space="preserve"> PC, (6?)7+ trefli/kar, raczej wyklucza starszą czwórkę - inwit do 3BA  Potem trzeba sprawdzić zatrzymania do 3BA najlepiej en passant (wskazanie koloru w którym posiada się zatrzymania żeby sprawdzić czy idzie BA czy kolor) – nie stosuje się gdy przeciwnicy się oddzywali – wtedy wywiad bezatutowy</t>
+    </r>
+  </si>
+  <si>
+    <t>Blok albo autosplintere</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 4-7</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">singiel w kolor)</t>
+      <t xml:space="preserve"> PC, (6)7+ kierów/pików z KD (nic z boku),  blokujące.(a może AUTOSPLINTER - 6 + singiel w kolor)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4-7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> PC, (6)7+ kierów/pików z KD (nic z boku),  blokujące.(a może AUTOSPLINTER - 6 + singiel w kolor)</t>
     </r>
   </si>
   <si>
@@ -3813,54 +1586,15 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 1BA – patrz dalej)
-&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12-17PC układ na czwórkach w tym karowa  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TRÓJKOLORÓWKA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (czyli to co drugie znaczenie trefla tylko z singlem innym niż karo)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;br&gt;&lt;font color=red&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
+&lt;br&gt;12-17PC układ na czwórkach w tym karowa  
+TRÓJKOLORÓWKA (czyli to co drugie znaczenie trefla tylko z singlem innym niż karo)
+&lt;br&gt;&lt;br&gt;&lt;font color=red&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
 12-14 PC (inaczej to wchodzi do trefla)&lt;/font&gt;</t>
     </r>
   </si>
@@ -3876,9 +1610,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(5 pików nie wyklucza piątki kierów ani dowolnej młodszej)</t>
@@ -3905,9 +1639,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Licytacja po interwencji przeciwnika
@@ -4002,6 +1736,18 @@
     <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew)</t>
   </si>
   <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>brak odzywki na otwarcie na pierwszym ręku na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t>brak odzywki na otwarcie na drugim ręku  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t>brak odzywki na otwarcie po pasie partnera  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
     <t>Wieloznaczny trefl</t>
   </si>
   <si>
@@ -4010,166 +1756,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF3333"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">15</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> PC, 5+ trefl </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;&lt;font color=red&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo)&lt;/font&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;→ 12-17 PC, układ 4414  tzw </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TRÓJKOLORÓWKA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(singiel karo)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ 12-14 PC, skład bez atutowy  tzw. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PRZYGOTOWAWCZE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">słabe NT) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ 18+ PC,  skład dowolny
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(silne dowolne)
+      <t xml:space="preserve">15-17 PC, 5+ trefl (naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
+&lt;br&gt;&lt;font color=red&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo)&lt;/font&gt;
+&lt;br&gt;→ 12-17 PC, układ 4414  tzw TRÓJKOLORÓWKA
+(singiel karo)
+&lt;br&gt;→ 12-14 PC, skład bez atutowy  tzw. PRZYGOTOWAWCZE 
+(słabe NT) 
+&lt;br&gt;→ 18+ PC,  skład dowolny
+(silne dowolne)
 uwaga: może też być licytowane przy zał że partner ma skład zrównoważony i jak powiem coś innego na co on spasuje (bez punktów) i ucieknie nam końcówka (np. na układzie 5-4 lub 6-4 – układy na dwóch piątkach raczej </t>
     </r>
   </si>
@@ -4185,92 +1784,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;font color=red&gt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">skład bez starszych czwórek- patrz niżej i młodszych piątek</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> – skład zrównoważony– chyba sensownie, ale karta niedobra do zajęcia BA i na 12-16PC!!!!] &lt;/font&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">→ 7-10(11)  PC, 5+ kar  (w kolejny okrążeniu powtarza kolor karowy)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(inna opcja to 7(9)-11 PC, SKŁAD NIEZRÓWNOWAŻONY – chyba fajne - młodsza szóstka, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bez czwórki starsze lub układ 5/4 na młodszych!</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="7"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Ale jak to dalej zgłaszać?? )</t>
+      <t xml:space="preserve">&lt;font color=red&gt;[skład bez starszych czwórek- patrz niżej i młodszych piątek – skład zrównoważony– chyba sensownie, ale karta niedobra do zajęcia BA i na 12-16PC!!!!] &lt;/font&gt;
+&lt;br&gt;→ 7-10(11)  PC, 5+ kar  (w kolejny okrążeniu powtarza kolor karowy)
+(inna opcja to 7(9)-11 PC, SKŁAD NIEZRÓWNOWAŻONY – chyba fajne - młodsza szóstka, bez czwórki starsze lub układ 5/4 na młodszych! Ale jak to dalej zgłaszać?? )</t>
     </r>
   </si>
   <si>
@@ -4293,6 +1814,39 @@
 przy dwóch starszych zgłaszam dłuższy
 przy dwóch czwórkach kierową, 
 przy dwóch piątkach pikową :)</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>Otwarcie 1 młodszy</t>
+  </si>
+  <si>
+    <t>otwarcie bez starszej piątki – w dłuższy młodszy oraz 3-3 na karach i treflach</t>
+  </si>
+  <si>
+    <t>poparcie na 4 karo</t>
+  </si>
+  <si>
+    <t>czwórka karowa nie wyklucza fitu trefl ani starszej czwórki...</t>
+  </si>
+  <si>
+    <t>poparcie na 4 kier</t>
+  </si>
+  <si>
+    <t>czwórka kierowa, wyklucza czwórkę karo, nie wyklucza pikowej, ani fitu trefl</t>
+  </si>
+  <si>
+    <t>poparcie na 4 pik</t>
+  </si>
+  <si>
+    <t>czwórka pikowa, wyklucza czwórki karo i kier, nie wyklucza fitu trefl</t>
+  </si>
+  <si>
+    <t>6-10 PC, wyklucza 4 kara, 4 kiery, 4 piki i 5 trefli;</t>
+  </si>
+  <si>
+    <t>6+ PC, 5+ trefli, wyklucza 4 kara, 4 kiery, 4 piki;</t>
   </si>
 </sst>
 </file>
@@ -4304,7 +1858,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4348,15 +1902,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -4365,35 +1913,7 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFF0066"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
@@ -4405,66 +1925,9 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -4475,62 +1938,15 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FFFF3333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <color rgb="FFFF3333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF3333"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <strike val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <color rgb="FFFF0066"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="7"/>
-      <color rgb="FFFF0066"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -4640,7 +2056,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4801,7 +2217,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4809,15 +2225,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4849,11 +2265,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4861,11 +2277,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4873,7 +2289,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4881,7 +2297,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4889,7 +2305,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4897,11 +2313,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4909,15 +2325,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4925,8 +2345,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4950,7 +2374,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF66"/>
-      <rgbColor rgb="FFFF0066"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -4989,7 +2413,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -5012,10 +2436,10 @@
   </sheetPr>
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A295" activePane="bottomLeft" state="split"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="525" topLeftCell="A124" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A147" activeCellId="0" sqref="A147:A306"/>
+      <selection pane="bottomLeft" activeCell="J269" activeCellId="1" sqref="K14:K19 J269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5281,7 +2705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
@@ -5323,7 +2747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -5365,7 +2789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
@@ -5617,7 +3041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
@@ -5743,7 +3167,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
@@ -6878,7 +4302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
@@ -6920,7 +4344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
@@ -6962,7 +4386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
@@ -7046,7 +4470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
@@ -7088,7 +4512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
@@ -7214,7 +4638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
@@ -7382,7 +4806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
@@ -7424,7 +4848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
@@ -7760,7 +5184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
@@ -7844,7 +5268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
@@ -7970,7 +5394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
@@ -8096,7 +5520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
@@ -8138,7 +5562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
@@ -8264,7 +5688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
@@ -8390,7 +5814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
@@ -8600,7 +6024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>85</v>
       </c>
@@ -8642,7 +6066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>86</v>
       </c>
@@ -8684,7 +6108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>87</v>
       </c>
@@ -8852,7 +6276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
@@ -8978,7 +6402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>94</v>
       </c>
@@ -9062,7 +6486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>96</v>
       </c>
@@ -9104,7 +6528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>97</v>
       </c>
@@ -9146,7 +6570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
@@ -9188,7 +6612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
@@ -9230,7 +6654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
@@ -9443,7 +6867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>105</v>
       </c>
@@ -9485,7 +6909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>106</v>
       </c>
@@ -9527,7 +6951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>107</v>
       </c>
@@ -9569,7 +6993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>108</v>
       </c>
@@ -9611,7 +7035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>109</v>
       </c>
@@ -9653,7 +7077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
@@ -9695,7 +7119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
@@ -9737,7 +7161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>112</v>
       </c>
@@ -9779,7 +7203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
@@ -9821,7 +7245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
@@ -9863,7 +7287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>115</v>
       </c>
@@ -9905,7 +7329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
@@ -9947,7 +7371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>117</v>
       </c>
@@ -9989,7 +7413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>118</v>
       </c>
@@ -10031,7 +7455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>119</v>
       </c>
@@ -10115,7 +7539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
@@ -10199,7 +7623,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>123</v>
       </c>
@@ -10283,7 +7707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>125</v>
       </c>
@@ -10325,7 +7749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>126</v>
       </c>
@@ -10409,7 +7833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>128</v>
       </c>
@@ -10451,7 +7875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>129</v>
       </c>
@@ -10493,7 +7917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>130</v>
       </c>
@@ -10535,7 +7959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>131</v>
       </c>
@@ -10577,7 +8001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>132</v>
       </c>
@@ -10619,7 +8043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>133</v>
       </c>
@@ -10661,7 +8085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>134</v>
       </c>
@@ -10703,7 +8127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>135</v>
       </c>
@@ -10829,7 +8253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>138</v>
       </c>
@@ -10871,7 +8295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>139</v>
       </c>
@@ -10913,7 +8337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>140</v>
       </c>
@@ -10955,7 +8379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>141</v>
       </c>
@@ -10997,7 +8421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>142</v>
       </c>
@@ -11039,7 +8463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>143</v>
       </c>
@@ -11081,7 +8505,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>144</v>
       </c>
@@ -11123,7 +8547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>145</v>
       </c>
@@ -11207,7 +8631,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>147</v>
       </c>
@@ -11333,7 +8757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>150</v>
       </c>
@@ -11375,7 +8799,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>151</v>
       </c>
@@ -11417,7 +8841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>152</v>
       </c>
@@ -11459,7 +8883,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>153</v>
       </c>
@@ -11501,7 +8925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>154</v>
       </c>
@@ -11543,7 +8967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>155</v>
       </c>
@@ -11585,7 +9009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
@@ -11627,7 +9051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>157</v>
       </c>
@@ -11669,7 +9093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>158</v>
       </c>
@@ -11711,7 +9135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>159</v>
       </c>
@@ -11753,7 +9177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>160</v>
       </c>
@@ -11795,7 +9219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>161</v>
       </c>
@@ -11879,7 +9303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>163</v>
       </c>
@@ -11921,7 +9345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>164</v>
       </c>
@@ -11963,7 +9387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>165</v>
       </c>
@@ -12005,7 +9429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>166</v>
       </c>
@@ -12047,7 +9471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>167</v>
       </c>
@@ -12089,7 +9513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
@@ -12131,7 +9555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>169</v>
       </c>
@@ -12173,7 +9597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>170</v>
       </c>
@@ -12215,7 +9639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>171</v>
       </c>
@@ -12257,7 +9681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>172</v>
       </c>
@@ -12299,7 +9723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>173</v>
       </c>
@@ -12341,7 +9765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
@@ -12383,7 +9807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>175</v>
       </c>
@@ -12425,7 +9849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
@@ -12467,7 +9891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>177</v>
       </c>
@@ -12509,7 +9933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>178</v>
       </c>
@@ -12551,7 +9975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
@@ -12635,7 +10059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>181</v>
       </c>
@@ -12677,7 +10101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>182</v>
       </c>
@@ -12719,7 +10143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>183</v>
       </c>
@@ -12761,7 +10185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>184</v>
       </c>
@@ -12845,7 +10269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>186</v>
       </c>
@@ -12887,7 +10311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
@@ -12929,7 +10353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>188</v>
       </c>
@@ -12971,7 +10395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
@@ -13013,7 +10437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>190</v>
       </c>
@@ -13055,7 +10479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>191</v>
       </c>
@@ -13097,7 +10521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>192</v>
       </c>
@@ -13139,7 +10563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>193</v>
       </c>
@@ -13181,7 +10605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>194</v>
       </c>
@@ -13223,7 +10647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>195</v>
       </c>
@@ -13265,7 +10689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>196</v>
       </c>
@@ -13307,7 +10731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>197</v>
       </c>
@@ -13349,7 +10773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>198</v>
       </c>
@@ -13475,7 +10899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>201</v>
       </c>
@@ -13517,7 +10941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>202</v>
       </c>
@@ -13562,7 +10986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>203</v>
       </c>
@@ -13604,7 +11028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>204</v>
       </c>
@@ -13646,7 +11070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>205</v>
       </c>
@@ -13688,7 +11112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>206</v>
       </c>
@@ -13730,7 +11154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>207</v>
       </c>
@@ -13772,7 +11196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>208</v>
       </c>
@@ -13814,7 +11238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>209</v>
       </c>
@@ -13856,7 +11280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>210</v>
       </c>
@@ -13898,7 +11322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>211</v>
       </c>
@@ -13940,7 +11364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <v>212</v>
       </c>
@@ -13982,7 +11406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>213</v>
       </c>
@@ -14024,7 +11448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>214</v>
       </c>
@@ -14066,7 +11490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>215</v>
       </c>
@@ -14108,7 +11532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>216</v>
       </c>
@@ -14234,7 +11658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>219</v>
       </c>
@@ -14318,7 +11742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>221</v>
       </c>
@@ -14402,7 +11826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>223</v>
       </c>
@@ -14444,7 +11868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>224</v>
       </c>
@@ -14570,7 +11994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
         <v>227</v>
       </c>
@@ -14612,7 +12036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
         <v>228</v>
       </c>
@@ -14654,7 +12078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
         <v>229</v>
       </c>
@@ -14696,7 +12120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>230</v>
       </c>
@@ -14738,7 +12162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>231</v>
       </c>
@@ -14780,7 +12204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
         <v>232</v>
       </c>
@@ -14822,7 +12246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
         <v>233</v>
       </c>
@@ -16289,7 +13713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
         <v>268</v>
       </c>
@@ -16331,7 +13755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
         <v>269</v>
       </c>
@@ -16373,7 +13797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
         <v>270</v>
       </c>
@@ -16404,7 +13828,7 @@
       <c r="J271" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K271" s="61" t="s">
+      <c r="K271" s="67" t="s">
         <v>279</v>
       </c>
       <c r="L271" s="10" t="s">
@@ -16414,7 +13838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
         <v>271</v>
       </c>
@@ -16445,8 +13869,8 @@
       <c r="J272" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="K272" s="61" t="s">
-        <v>279</v>
+      <c r="K272" s="68" t="s">
+        <v>280</v>
       </c>
       <c r="L272" s="10" t="s">
         <v>44</v>
@@ -16455,7 +13879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
         <v>272</v>
       </c>
@@ -16487,7 +13911,7 @@
         <v>119</v>
       </c>
       <c r="K273" s="61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L273" s="10" t="s">
         <v>35</v>
@@ -16496,7 +13920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
         <v>273</v>
       </c>
@@ -16529,7 +13953,7 @@
         <v>128</v>
       </c>
       <c r="K274" s="63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L274" s="17" t="s">
         <v>31</v>
@@ -16538,7 +13962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
         <v>274</v>
       </c>
@@ -16571,7 +13995,7 @@
         <v>258</v>
       </c>
       <c r="K275" s="63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L275" s="17" t="s">
         <v>35</v>
@@ -16580,7 +14004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
         <v>275</v>
       </c>
@@ -16613,7 +14037,7 @@
         <v>112</v>
       </c>
       <c r="K276" s="63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L276" s="17" t="s">
         <v>35</v>
@@ -16622,7 +14046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
         <v>276</v>
       </c>
@@ -16655,7 +14079,7 @@
         <v>262</v>
       </c>
       <c r="K277" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L277" s="17" t="s">
         <v>35</v>
@@ -16664,7 +14088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
         <v>277</v>
       </c>
@@ -16697,7 +14121,7 @@
         <v>264</v>
       </c>
       <c r="K278" s="63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L278" s="17" t="s">
         <v>35</v>
@@ -16729,7 +14153,7 @@
         <v>11</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I279" s="11" t="n">
         <v>0</v>
@@ -16737,8 +14161,8 @@
       <c r="J279" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K279" s="67" t="s">
-        <v>287</v>
+      <c r="K279" s="69" t="s">
+        <v>288</v>
       </c>
       <c r="L279" s="10" t="s">
         <v>35</v>
@@ -16770,7 +14194,7 @@
         <v>11</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I280" s="11" t="n">
         <v>0</v>
@@ -16778,8 +14202,8 @@
       <c r="J280" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K280" s="67" t="s">
-        <v>287</v>
+      <c r="K280" s="69" t="s">
+        <v>289</v>
       </c>
       <c r="L280" s="10" t="s">
         <v>35</v>
@@ -16788,7 +14212,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
         <v>280</v>
       </c>
@@ -16811,16 +14235,16 @@
         <v>7</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I281" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J281" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K281" s="68" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L281" s="10" t="s">
         <v>107</v>
@@ -16829,7 +14253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
         <v>281</v>
       </c>
@@ -16852,16 +14276,16 @@
         <v>7</v>
       </c>
       <c r="H282" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I282" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K282" s="68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L282" s="10" t="s">
         <v>107</v>
@@ -16870,7 +14294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
         <v>282</v>
       </c>
@@ -16899,10 +14323,10 @@
         <v>0</v>
       </c>
       <c r="J283" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K283" s="69" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="K283" s="70" t="s">
+        <v>294</v>
       </c>
       <c r="L283" s="10" t="s">
         <v>107</v>
@@ -16940,10 +14364,10 @@
         <v>0</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L284" s="3" t="s">
         <v>31</v>
@@ -16952,7 +14376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
         <v>284</v>
       </c>
@@ -16981,10 +14405,10 @@
         <v>0</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K285" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L285" s="3" t="s">
         <v>107</v>
@@ -16993,7 +14417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
         <v>285</v>
       </c>
@@ -17022,10 +14446,10 @@
         <v>0</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L286" s="3" t="s">
         <v>107</v>
@@ -17057,16 +14481,16 @@
         <v>17</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I287" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K287" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L287" s="3" t="s">
         <v>107</v>
@@ -17075,7 +14499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
         <v>287</v>
       </c>
@@ -17098,16 +14522,16 @@
         <v>16</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I288" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K288" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L288" s="3" t="s">
         <v>107</v>
@@ -17145,10 +14569,10 @@
         <v>0</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L289" s="3" t="s">
         <v>17</v>
@@ -17157,7 +14581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
         <v>289</v>
       </c>
@@ -17180,16 +14604,16 @@
         <v>11</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I290" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L290" s="3" t="s">
         <v>107</v>
@@ -17198,7 +14622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
         <v>290</v>
       </c>
@@ -17221,16 +14645,16 @@
         <v>11</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I291" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L291" s="3" t="s">
         <v>107</v>
@@ -17239,7 +14663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
         <v>291</v>
       </c>
@@ -17262,16 +14686,16 @@
         <v>11</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I292" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L292" s="3" t="s">
         <v>107</v>
@@ -17303,16 +14727,16 @@
         <v>10</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I293" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L293" s="3" t="s">
         <v>107</v>
@@ -17344,16 +14768,16 @@
         <v>10</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I294" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L294" s="3" t="s">
         <v>107</v>
@@ -17385,16 +14809,16 @@
         <v>10</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I295" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L295" s="3" t="s">
         <v>107</v>
@@ -17426,16 +14850,16 @@
         <v>10</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I296" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L296" s="3" t="s">
         <v>107</v>
@@ -17444,7 +14868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>296</v>
       </c>
@@ -17468,16 +14892,16 @@
         <v>22</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I297" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L297" s="3" t="s">
         <v>107</v>
@@ -17509,16 +14933,16 @@
         <v>0</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I298" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K298" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L298" s="3" t="s">
         <v>107</v>
@@ -17550,16 +14974,16 @@
         <v>0</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I299" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J299" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L299" s="3" t="s">
         <v>107</v>
@@ -17591,16 +15015,16 @@
         <v>10</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I300" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L300" s="3" t="s">
         <v>107</v>
@@ -17632,16 +15056,16 @@
         <v>10</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I301" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L301" s="3" t="s">
         <v>107</v>
@@ -17679,10 +15103,10 @@
         <v>0</v>
       </c>
       <c r="J302" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L302" s="3" t="s">
         <v>107</v>
@@ -17714,16 +15138,16 @@
         <v>10</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I303" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J303" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L303" s="3" t="s">
         <v>107</v>
@@ -17755,16 +15179,16 @@
         <v>10</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I304" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L304" s="3" t="s">
         <v>107</v>
@@ -17796,16 +15220,16 @@
         <v>37</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I305" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L305" s="3" t="s">
         <v>107</v>
@@ -17837,16 +15261,16 @@
         <v>37</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I306" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J306" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L306" s="3" t="s">
         <v>107</v>
@@ -17871,10 +15295,243 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K14:K19 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">G2</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="A147:A306 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="K14:K19 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17935,7 +15592,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="n">
+      <c r="D2" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -17954,15 +15611,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>333</v>
+        <v>339</v>
+      </c>
+      <c r="K2" s="72" t="s">
+        <v>340</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="72"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" customFormat="false" ht="170.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -17974,7 +15631,7 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="70" t="n">
+      <c r="D3" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -17993,15 +15650,15 @@
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>296</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="72"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" customFormat="false" ht="282.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -18013,7 +15670,7 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="70" t="n">
+      <c r="D4" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -18032,15 +15689,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>342</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -18052,7 +15709,7 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="70" t="n">
+      <c r="D5" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -18071,15 +15728,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="K5" s="72" t="s">
+        <v>344</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="72"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -18091,7 +15748,7 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="70" t="n">
+      <c r="D6" s="71" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -18112,13 +15769,13 @@
       <c r="J6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="71" t="s">
-        <v>338</v>
+      <c r="K6" s="72" t="s">
+        <v>345</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="72"/>
+      <c r="M6" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18129,4 +15786,1148 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="525" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14:K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="138.107142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.11224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <f aca="false">A2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <f aca="false">A2</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <f aca="false">A2</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="365">
   <si>
     <t>bidId</t>
   </si>
@@ -69,8 +69,8 @@
   </si>
   <si>
     <t>&lt;br&gt; → (12)15-17 PC, 5+ trefl (naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
-&lt;br&gt;&lt;font color=green&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo)&lt;/font&gt;
-&lt;br&gt;→ 12-17 PC, układ 4414  tzw TRÓJKOLORÓWKA (singiel karo)
+&lt;br&gt;&lt;font color=green&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo )&lt;/font&gt;
+&lt;br&gt;→ 12-17 PC, układ 4414  tzw TRÓJKOLORÓWKA (singiel karo )
 &lt;br&gt;→ 12-14 PC, skład bez atutowy  tzw. PRZYGOTOWAWCZE  (słabe NT) 
 &lt;br&gt;→ 18+ PC,  skład dowolny (silne dowolne)
 uwaga: może też być licytowane przy założeniu że partner ma skład zrównoważony i jak powiem coś innego na co on spasuje (bez punktów) i ucieknie nam końcówka (np. na układzie 5-4 lub 6-4 – układy na dwóch piątkach raczej wykluczone)</t>
@@ -90,7 +90,7 @@
   <si>
     <t>Trójznaczne słaby  forsing na 1 okrążenie &lt;br&gt; → tzw. negat , 0-6(8) PC, skład dowolny  (w kolejnym okrążeniu możliwy pas jeżeli jest 0-4 PC) 
 &lt;br&gt;→ 16+ PC, skład dowolny *  (w kolejnym okrążeniu przeskok) &lt;font color=red&gt;[skład bez starszych czwórek- patrz niżej i młodszych piątek – skład zrównoważony– chyba sensownie, ale karta niedobra do zajęcia BA i na 12-16PC!!!!] &lt;/font&gt;
-&lt;br&gt;→ 7-10(11)  PC, 5+ kar  (w kolejny okrążeniu powtarza kolor karowy)
+&lt;br&gt;→ 7-10(11)  PC, 5+ karo  (w kolejny okrążeniu powtarza kolor karowy)
 (inna opcja to 7(9)-11 PC, SKŁAD NIEZRÓWNOWAŻONY – chyba fajne - młodsza szóstka, bez czwórki starsze lub układ 5/4 na młodszych! Ale jak to dalej zgłaszać?? )</t>
   </si>
   <si>
@@ -103,7 +103,7 @@
     <t>Kolor kierowy (4) lub trójkolorówka z singlem karo</t>
   </si>
   <si>
-    <t>→ 12-14 PC   4 kiery (kiery nie wykluczają pików), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
+    <t>→ 12-14 PC   4 kier (kier nie wykluczają pik), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
  &lt;br&gt;→ TRÓJKOLORÓWKA  cała → 12-17PC 4414, nie forsuje</t>
   </si>
   <si>
@@ -143,13 +143,13 @@
     <t>Słabe poparcie na 5 treflach</t>
   </si>
   <si>
-    <t>7-10 na (5)6+ treflach</t>
+    <t>7-10 na (5)6+ trefl</t>
   </si>
   <si>
     <t>Słabe poparcie na 5 karach</t>
   </si>
   <si>
-    <t>7-10  na 5+ karach</t>
+    <t>7-10  na 5+ karo</t>
   </si>
   <si>
     <t>4+</t>
@@ -180,7 +180,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+PC  raczej 6+ kart w pikach  (REWERS) odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
+      <t xml:space="preserve">+PC  raczej 6+ kart w pik  (REWERS) odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
     </r>
   </si>
   <si>
@@ -214,7 +214,7 @@
     <t>Kolor pikowy (4)</t>
   </si>
   <si>
-    <t>→ 12-14 PC   4 piki (kiery wykluczone ), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;</t>
+    <t>→ 12-14 PC  dokładnie 4 pik (kier wykluczone ), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;</t>
   </si>
   <si>
     <t>słaba</t>
@@ -236,7 +236,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+PC  raczej 4+ kart w pikach</t>
+      <t xml:space="preserve">+PC  raczej 4+  pik</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dalej 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> w kolor 12-14PC na czwórce (układ 3-4-4-4 lub 5 trefl -3-3-2)
+&lt;br&gt;4 w kolor inny niż trefl – SPLINTER (12-15PC - 5 trefl - 4 starszy zgłoszony-3-1)</t>
     </r>
   </si>
   <si>
@@ -1323,6 +1338,18 @@
 &lt;br&gt;  → 4 kiery wykluczone  (5 możliwe) -  nie wyklucza młodszej piątki przy sile poniżej 11PC - przy dwóch starszych zgłaszam dłuższy - przy dwóch czwórkach kierową,  przy dwóch piątkach pikową :)</t>
   </si>
   <si>
+    <t>18+ PC, 5(6)+kart w kolorze - b.dobry kolor -aspiracje szlemikowe</t>
+  </si>
+  <si>
+    <t>18+ PC, 5(6)+ kart w kolorze - b.dobry kolor -aspiracje szlemikowe</t>
+  </si>
+  <si>
+    <t>15-16PC – 4-4-4-1 lub 4 starsza i 5  - inwit do koncówki</t>
+  </si>
+  <si>
+    <t>kontrakt</t>
+  </si>
+  <si>
     <t>1BA (7)8-10 PC, bez starszej czwórki, może zawierać młodszą piątkę, nie forsuje (przy słabych 7PC lepiej negat)</t>
   </si>
   <si>
@@ -1338,52 +1365,19 @@
     <t>kolor treflowy</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 15+ PC   5+ trefli </t>
-    </r>
+    <t>15+ PC   5+ trefli</t>
   </si>
   <si>
     <t>PYTANIE O SKŁAD</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  18+  PC,RELAY karta układowa (pytanie o skład ) → patrz obok </t>
-    </r>
+    <t>18+  PC,RELAY karta układowa (pytanie o skład ) → patrz obok</t>
   </si>
   <si>
     <t>silny kolor kierowy</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/2  18+  PC, 5 kart  kolor licytowany (bo odpowiadający wykluczył czwórki, gdyby było mniej punktów to otwarcie było by w piki!!!)</t>
-    </r>
+    <t>18+  PC, 5 kart  kolor licytowany (bo odpowiadający wykluczył czwórki, gdyby było mniej punktów to otwarcie było by w piki!!!)</t>
   </si>
   <si>
     <t>silny kolor pikowy</t>
@@ -1398,18 +1392,7 @@
     <t>3BA  18-21 PC  układ zrównoważony - kontrakt</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> / 2  12+  PC, 5+ trefli/kar, forsuje do końcówki  (nie wyklucza starszej czwórki? ) Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana, otwierający zgłasza starsze czwórki, podniesienie jest fitem bez nadwyżek </t>
-    </r>
+    <t>12+  PC, 5+ trefli/kar, forsuje do końcówki  (nie wyklucza starszej czwórki? ) Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana, otwierający zgłasza starsze czwórki, podniesienie jest fitem bez nadwyżek</t>
   </si>
   <si>
     <r>
@@ -1438,18 +1421,7 @@
     <t>silne uzgodnienie koloru</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  12-14  PC, 4 - silne uzgodnienie koloru</t>
-    </r>
+    <t>12-14  PC, 4 kar- silne uzgodnienie koloru</t>
   </si>
   <si>
     <t>4 kara + splinter</t>
@@ -1458,18 +1430,16 @@
     <t>SPLINTER</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/3/4 lub   15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
-    </r>
+    <t>15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t>16+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t>17+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t>18+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
   </si>
   <si>
     <t>Dobra 5 lub 6+</t>
@@ -1492,7 +1462,7 @@
     </r>
   </si>
   <si>
-    <t>2BA 11-12 PC, bez starszej czwórki, inwit do 3BA</t>
+    <t>11-12 PC, bez starszej czwórki, inwit do 3BA</t>
   </si>
   <si>
     <t>do gry</t>
@@ -2056,7 +2026,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2301,6 +2271,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2309,19 +2291,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2330,6 +2316,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2436,10 +2426,10 @@
   </sheetPr>
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A124" activePane="bottomLeft" state="split"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="525" topLeftCell="A10" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J269" activeCellId="1" sqref="K14:K19 J269"/>
+      <selection pane="bottomLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2873,7 +2863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
@@ -2999,7 +2989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
@@ -3125,7 +3115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
@@ -3251,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
@@ -3293,7 +3283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
@@ -3326,7 +3316,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L21" s="24" t="s">
         <v>44</v>
@@ -3335,7 +3325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
@@ -3443,7 +3433,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I24" s="18" t="n">
         <v>0</v>
@@ -3452,13 +3442,13 @@
         <v>49</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,22 +3475,22 @@
         <v>17</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I25" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L26" s="24" t="s">
         <v>31</v>
@@ -3579,10 +3569,10 @@
         <v>45</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M27" s="28" t="s">
         <v>45</v>
@@ -3618,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L28" s="33" t="s">
         <v>44</v>
@@ -3660,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L29" s="33" t="s">
         <v>44</v>
@@ -3702,16 +3692,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,16 +3734,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,22 +3770,22 @@
         <v>9</v>
       </c>
       <c r="H32" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="M32" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,19 +3812,19 @@
         <v>37</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>45</v>
@@ -3870,16 +3860,16 @@
         <v>0</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3906,22 +3896,22 @@
         <v>6</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K35" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,22 +3938,22 @@
         <v>6</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I36" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,22 +3980,22 @@
         <v>6</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,22 +4022,22 @@
         <v>6</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I38" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M39" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M40" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,16 +4148,16 @@
         <v>37</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I41" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>35</v>
@@ -4200,16 +4190,16 @@
         <v>37</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I42" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>35</v>
@@ -4242,16 +4232,16 @@
         <v>24</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" s="17" t="s">
         <v>35</v>
@@ -4284,16 +4274,16 @@
         <v>37</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I44" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L44" s="17" t="s">
         <v>35</v>
@@ -4326,16 +4316,16 @@
         <v>37</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I45" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>35</v>
@@ -4368,16 +4358,16 @@
         <v>37</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L46" s="17" t="s">
         <v>35</v>
@@ -4410,16 +4400,16 @@
         <v>37</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L47" s="17" t="s">
         <v>35</v>
@@ -4452,16 +4442,16 @@
         <v>21</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I48" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>31</v>
@@ -4500,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,16 +4532,16 @@
         <v>0</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L50" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,7 +4568,7 @@
         <v>10</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I51" s="25" t="n">
         <v>0</v>
@@ -4587,13 +4577,13 @@
         <v>33</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,22 +4610,22 @@
         <v>37</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I52" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L52" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,22 +4652,22 @@
         <v>10</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I53" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K53" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M53" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,16 +4700,16 @@
         <v>0</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K54" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M54" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4746,22 +4736,22 @@
         <v>10</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I55" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K55" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M55" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,22 +4778,22 @@
         <v>12</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I56" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J56" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K56" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L56" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,22 +4820,22 @@
         <v>37</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I57" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K57" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L57" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M57" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,22 +4862,22 @@
         <v>37</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I58" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K58" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L58" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M58" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4914,22 +4904,22 @@
         <v>11</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I59" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K59" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L59" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M59" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,22 +4946,22 @@
         <v>11</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I60" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J60" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K60" s="39" t="s">
         <v>127</v>
-      </c>
-      <c r="K60" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="L60" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M60" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,22 +4988,22 @@
         <v>16</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I61" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K61" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L61" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M61" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,22 +5030,22 @@
         <v>16</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I62" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K62" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L62" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M62" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,22 +5072,22 @@
         <v>16</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I63" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J63" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K63" s="39" t="s">
         <v>132</v>
-      </c>
-      <c r="K63" s="39" t="s">
-        <v>131</v>
       </c>
       <c r="L63" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M63" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,22 +5114,22 @@
         <v>14</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I64" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K64" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L65" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M65" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,16 +5198,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I66" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K66" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>17</v>
@@ -5250,16 +5240,16 @@
         <v>15</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I67" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J67" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K67" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L67" s="48" t="s">
         <v>31</v>
@@ -5292,16 +5282,16 @@
         <v>15</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I68" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J68" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K68" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L68" s="48" t="s">
         <v>35</v>
@@ -5334,16 +5324,16 @@
         <v>37</v>
       </c>
       <c r="H69" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I69" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J69" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K69" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L69" s="48" t="s">
         <v>44</v>
@@ -5376,16 +5366,16 @@
         <v>13</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I70" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J70" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K70" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L70" s="33" t="s">
         <v>17</v>
@@ -5418,16 +5408,16 @@
         <v>15</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I71" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J71" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K71" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L71" s="48" t="s">
         <v>31</v>
@@ -5460,16 +5450,16 @@
         <v>15</v>
       </c>
       <c r="H72" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I72" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J72" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K72" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L72" s="48" t="s">
         <v>35</v>
@@ -5502,16 +5492,16 @@
         <v>37</v>
       </c>
       <c r="H73" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I73" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J73" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K73" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L73" s="48" t="s">
         <v>44</v>
@@ -5544,16 +5534,16 @@
         <v>15</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I74" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K74" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L74" s="33" t="s">
         <v>17</v>
@@ -5586,16 +5576,16 @@
         <v>15</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I75" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J75" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K75" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L75" s="48" t="s">
         <v>31</v>
@@ -5628,16 +5618,16 @@
         <v>15</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I76" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J76" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K76" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L76" s="48" t="s">
         <v>35</v>
@@ -5670,16 +5660,16 @@
         <v>37</v>
       </c>
       <c r="H77" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I77" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J77" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K77" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L77" s="48" t="s">
         <v>44</v>
@@ -5712,16 +5702,16 @@
         <v>15</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I78" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J78" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K78" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L78" s="33" t="s">
         <v>17</v>
@@ -5754,16 +5744,16 @@
         <v>15</v>
       </c>
       <c r="H79" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I79" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J79" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K79" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L79" s="48" t="s">
         <v>31</v>
@@ -5796,16 +5786,16 @@
         <v>15</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I80" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J80" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K80" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L80" s="48" t="s">
         <v>35</v>
@@ -5838,16 +5828,16 @@
         <v>37</v>
       </c>
       <c r="H81" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I81" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J81" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K81" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L81" s="48" t="s">
         <v>44</v>
@@ -5880,16 +5870,16 @@
         <v>15</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I82" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J82" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K82" s="52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L82" s="33" t="s">
         <v>17</v>
@@ -5922,22 +5912,22 @@
         <v>37</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I83" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J83" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K83" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L83" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M83" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,16 +5954,16 @@
         <v>13</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I84" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J84" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K84" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>17</v>
@@ -6006,16 +5996,16 @@
         <v>15</v>
       </c>
       <c r="H85" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I85" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J85" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K85" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L85" s="48" t="s">
         <v>31</v>
@@ -6048,16 +6038,16 @@
         <v>15</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I86" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J86" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K86" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L86" s="48" t="s">
         <v>35</v>
@@ -6090,16 +6080,16 @@
         <v>37</v>
       </c>
       <c r="H87" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I87" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J87" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K87" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L87" s="48" t="s">
         <v>44</v>
@@ -6132,16 +6122,16 @@
         <v>13</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I88" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K88" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L88" s="33" t="s">
         <v>17</v>
@@ -6174,16 +6164,16 @@
         <v>15</v>
       </c>
       <c r="H89" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I89" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J89" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K89" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L89" s="48" t="s">
         <v>31</v>
@@ -6216,16 +6206,16 @@
         <v>15</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I90" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J90" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K90" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L90" s="48" t="s">
         <v>35</v>
@@ -6258,16 +6248,16 @@
         <v>37</v>
       </c>
       <c r="H91" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I91" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J91" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K91" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L91" s="48" t="s">
         <v>44</v>
@@ -6300,16 +6290,16 @@
         <v>15</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I92" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J92" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K92" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L92" s="33" t="s">
         <v>17</v>
@@ -6342,16 +6332,16 @@
         <v>15</v>
       </c>
       <c r="H93" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I93" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J93" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K93" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L93" s="48" t="s">
         <v>31</v>
@@ -6384,16 +6374,16 @@
         <v>15</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I94" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J94" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K94" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L94" s="48" t="s">
         <v>35</v>
@@ -6426,16 +6416,16 @@
         <v>37</v>
       </c>
       <c r="H95" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I95" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J95" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K95" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" s="48" t="s">
         <v>44</v>
@@ -6468,16 +6458,16 @@
         <v>15</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I96" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K96" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L96" s="33" t="s">
         <v>17</v>
@@ -6510,16 +6500,16 @@
         <v>15</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I97" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K97" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L97" s="48" t="s">
         <v>31</v>
@@ -6552,16 +6542,16 @@
         <v>15</v>
       </c>
       <c r="H98" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I98" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K98" s="51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L98" s="48" t="s">
         <v>35</v>
@@ -6594,16 +6584,16 @@
         <v>37</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I99" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K99" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L99" s="48" t="s">
         <v>44</v>
@@ -6636,16 +6626,16 @@
         <v>15</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I100" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J100" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K100" s="53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>17</v>
@@ -6678,22 +6668,22 @@
         <v>10</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I101" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K101" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L101" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M101" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,22 +6710,22 @@
         <v>10</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I102" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K102" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L102" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M102" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6762,7 +6752,7 @@
         <v>37</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I103" s="25" t="n">
         <v>0</v>
@@ -6771,13 +6761,13 @@
         <v>46</v>
       </c>
       <c r="K103" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M103" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,16 +6794,16 @@
         <v>12</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I104" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K104" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L104" s="24" t="s">
         <v>17</v>
@@ -6855,10 +6845,10 @@
         <v>0</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K105" s="45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L105" s="33" t="s">
         <v>17</v>
@@ -6891,16 +6881,16 @@
         <v>9</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I106" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J106" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K106" s="51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L106" s="48" t="s">
         <v>17</v>
@@ -6933,16 +6923,16 @@
         <v>11</v>
       </c>
       <c r="H107" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I107" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J107" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K107" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L107" s="48" t="s">
         <v>17</v>
@@ -6975,16 +6965,16 @@
         <v>11</v>
       </c>
       <c r="H108" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I108" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J108" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K108" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L108" s="48" t="s">
         <v>17</v>
@@ -7017,16 +7007,16 @@
         <v>11</v>
       </c>
       <c r="H109" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I109" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J109" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K109" s="51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L109" s="48" t="s">
         <v>44</v>
@@ -7059,16 +7049,16 @@
         <v>12</v>
       </c>
       <c r="H110" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I110" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J110" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K110" s="51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L110" s="48" t="s">
         <v>44</v>
@@ -7101,22 +7091,22 @@
         <v>14</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I111" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J111" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K111" s="42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L111" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M111" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,22 +7133,22 @@
         <v>14</v>
       </c>
       <c r="H112" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I112" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K112" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="I112" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="K112" s="42" t="s">
-        <v>188</v>
       </c>
       <c r="L112" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M112" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7185,22 +7175,22 @@
         <v>11</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I113" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L113" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M113" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,16 +7217,16 @@
         <v>37</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I114" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K114" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L114" s="24" t="s">
         <v>17</v>
@@ -7269,16 +7259,16 @@
         <v>16</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I115" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K115" s="55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L115" s="24" t="s">
         <v>31</v>
@@ -7311,16 +7301,16 @@
         <v>37</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I116" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J116" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K116" s="43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L116" s="24" t="s">
         <v>17</v>
@@ -7353,16 +7343,16 @@
         <v>37</v>
       </c>
       <c r="H117" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I117" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K117" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="I117" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="K117" s="43" t="s">
-        <v>197</v>
       </c>
       <c r="L117" s="24" t="s">
         <v>17</v>
@@ -7395,22 +7385,22 @@
         <v>16</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I118" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L118" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M118" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,22 +7427,22 @@
         <v>16</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I119" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L119" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M119" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,22 +7469,22 @@
         <v>17</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I120" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J120" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L120" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M120" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,7 +7511,7 @@
         <v>37</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I121" s="25" t="n">
         <v>0</v>
@@ -7530,13 +7520,13 @@
         <v>28</v>
       </c>
       <c r="K121" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L121" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M121" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,22 +7553,22 @@
         <v>10</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I122" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J122" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M122" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7605,7 +7595,7 @@
         <v>10</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I123" s="25" t="n">
         <v>0</v>
@@ -7614,13 +7604,13 @@
         <v>46</v>
       </c>
       <c r="K123" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L123" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M123" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,22 +7637,22 @@
         <v>10</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I124" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J124" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K124" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L124" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M124" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,7 +7679,7 @@
         <v>9</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I125" s="25" t="n">
         <v>0</v>
@@ -7698,13 +7688,13 @@
         <v>28</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M125" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,22 +7721,22 @@
         <v>37</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I126" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J126" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L126" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M126" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,22 +7763,22 @@
         <v>9</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I127" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L127" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M127" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7815,7 +7805,7 @@
         <v>37</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I128" s="25" t="n">
         <v>0</v>
@@ -7824,13 +7814,13 @@
         <v>46</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L128" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M128" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,16 +7847,16 @@
         <v>37</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I129" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J129" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K129" s="56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L129" s="17" t="s">
         <v>17</v>
@@ -7899,16 +7889,16 @@
         <v>10</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I130" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L130" s="24" t="s">
         <v>17</v>
@@ -7941,16 +7931,16 @@
         <v>37</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I131" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J131" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K131" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L131" s="24" t="s">
         <v>17</v>
@@ -7983,16 +7973,16 @@
         <v>10</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I132" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J132" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K132" s="58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L132" s="24" t="s">
         <v>17</v>
@@ -8025,16 +8015,16 @@
         <v>37</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I133" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J133" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K133" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L133" s="24" t="s">
         <v>17</v>
@@ -8067,16 +8057,16 @@
         <v>10</v>
       </c>
       <c r="H134" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I134" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J134" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K134" s="59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L134" s="24" t="s">
         <v>17</v>
@@ -8109,16 +8099,16 @@
         <v>37</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I135" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J135" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K135" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L135" s="24" t="s">
         <v>17</v>
@@ -8151,16 +8141,16 @@
         <v>10</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I136" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K136" s="60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L136" s="24" t="s">
         <v>17</v>
@@ -8193,22 +8183,22 @@
         <v>14</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I137" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J137" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K137" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L137" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M137" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,22 +8225,22 @@
         <v>37</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I138" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J138" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K138" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L138" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M138" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,22 +8267,22 @@
         <v>37</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I139" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J139" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K139" s="56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L139" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M139" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,22 +8309,22 @@
         <v>37</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I140" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J140" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K140" s="56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L140" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M140" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8361,22 +8351,22 @@
         <v>16</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I141" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J141" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K141" s="56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L141" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M141" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,22 +8393,22 @@
         <v>37</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I142" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J142" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K142" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L142" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M142" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,22 +8435,22 @@
         <v>37</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I143" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J143" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K143" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L143" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M143" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8487,22 +8477,22 @@
         <v>17</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I144" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K144" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L144" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M144" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,22 +8519,22 @@
         <v>17</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I145" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J145" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K145" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L145" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M145" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8571,22 +8561,22 @@
         <v>17</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I146" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J146" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K146" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L146" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M146" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8619,16 +8609,16 @@
         <v>0</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K147" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L147" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M147" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8661,16 +8651,16 @@
         <v>0</v>
       </c>
       <c r="J148" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K148" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L148" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M148" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8697,7 +8687,7 @@
         <v>10</v>
       </c>
       <c r="H149" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I149" s="25" t="n">
         <v>0</v>
@@ -8706,13 +8696,13 @@
         <v>33</v>
       </c>
       <c r="K149" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L149" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M149" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,22 +8729,22 @@
         <v>37</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I150" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J150" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K150" s="40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L150" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M150" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8781,22 +8771,22 @@
         <v>10</v>
       </c>
       <c r="H151" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I151" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J151" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K151" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L151" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M151" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,16 +8819,16 @@
         <v>0</v>
       </c>
       <c r="J152" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K152" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L152" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M152" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8865,22 +8855,22 @@
         <v>10</v>
       </c>
       <c r="H153" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I153" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J153" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K153" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L153" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M153" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,22 +8897,22 @@
         <v>12</v>
       </c>
       <c r="H154" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I154" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J154" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K154" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L154" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M154" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,22 +8939,22 @@
         <v>37</v>
       </c>
       <c r="H155" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I155" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J155" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K155" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L155" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M155" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,22 +8981,22 @@
         <v>37</v>
       </c>
       <c r="H156" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I156" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J156" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K156" s="44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L156" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M156" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,22 +9023,22 @@
         <v>11</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I157" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K157" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L157" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M157" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9075,22 +9065,22 @@
         <v>11</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I158" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J158" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K158" s="39" t="s">
         <v>127</v>
-      </c>
-      <c r="K158" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="L158" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M158" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9117,22 +9107,22 @@
         <v>16</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I159" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K159" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L159" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M159" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9159,22 +9149,22 @@
         <v>16</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I160" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K160" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L160" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M160" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9201,22 +9191,22 @@
         <v>16</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I161" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J161" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="K161" s="39" t="s">
         <v>132</v>
-      </c>
-      <c r="K161" s="39" t="s">
-        <v>131</v>
       </c>
       <c r="L161" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M161" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9243,22 +9233,22 @@
         <v>14</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I162" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J162" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K162" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L162" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M162" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9291,16 +9281,16 @@
         <v>0</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K163" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L163" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M163" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9327,16 +9317,16 @@
         <v>13</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I164" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J164" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K164" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L164" s="33" t="s">
         <v>17</v>
@@ -9369,16 +9359,16 @@
         <v>15</v>
       </c>
       <c r="H165" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I165" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J165" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K165" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L165" s="48" t="s">
         <v>31</v>
@@ -9411,16 +9401,16 @@
         <v>15</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I166" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J166" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K166" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L166" s="48" t="s">
         <v>35</v>
@@ -9453,16 +9443,16 @@
         <v>37</v>
       </c>
       <c r="H167" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I167" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J167" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K167" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L167" s="48" t="s">
         <v>44</v>
@@ -9495,16 +9485,16 @@
         <v>13</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I168" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J168" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K168" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L168" s="33" t="s">
         <v>17</v>
@@ -9537,16 +9527,16 @@
         <v>15</v>
       </c>
       <c r="H169" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I169" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J169" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K169" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L169" s="48" t="s">
         <v>31</v>
@@ -9579,16 +9569,16 @@
         <v>15</v>
       </c>
       <c r="H170" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I170" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J170" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K170" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L170" s="48" t="s">
         <v>35</v>
@@ -9621,16 +9611,16 @@
         <v>37</v>
       </c>
       <c r="H171" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I171" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J171" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K171" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L171" s="48" t="s">
         <v>44</v>
@@ -9663,16 +9653,16 @@
         <v>15</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I172" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J172" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K172" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L172" s="33" t="s">
         <v>17</v>
@@ -9705,16 +9695,16 @@
         <v>15</v>
       </c>
       <c r="H173" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I173" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J173" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K173" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L173" s="48" t="s">
         <v>31</v>
@@ -9747,16 +9737,16 @@
         <v>15</v>
       </c>
       <c r="H174" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I174" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J174" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K174" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L174" s="48" t="s">
         <v>35</v>
@@ -9789,16 +9779,16 @@
         <v>37</v>
       </c>
       <c r="H175" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I175" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J175" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K175" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L175" s="48" t="s">
         <v>44</v>
@@ -9831,16 +9821,16 @@
         <v>15</v>
       </c>
       <c r="H176" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I176" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J176" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K176" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L176" s="33" t="s">
         <v>17</v>
@@ -9873,16 +9863,16 @@
         <v>15</v>
       </c>
       <c r="H177" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I177" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J177" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K177" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L177" s="48" t="s">
         <v>31</v>
@@ -9915,16 +9905,16 @@
         <v>15</v>
       </c>
       <c r="H178" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I178" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J178" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K178" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L178" s="48" t="s">
         <v>35</v>
@@ -9957,16 +9947,16 @@
         <v>37</v>
       </c>
       <c r="H179" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I179" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J179" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K179" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L179" s="48" t="s">
         <v>44</v>
@@ -9999,16 +9989,16 @@
         <v>15</v>
       </c>
       <c r="H180" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I180" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J180" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K180" s="52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L180" s="33" t="s">
         <v>17</v>
@@ -10041,22 +10031,22 @@
         <v>37</v>
       </c>
       <c r="H181" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I181" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J181" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K181" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L181" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M181" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,16 +10073,16 @@
         <v>13</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I182" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J182" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K182" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L182" s="33" t="s">
         <v>17</v>
@@ -10125,16 +10115,16 @@
         <v>15</v>
       </c>
       <c r="H183" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I183" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J183" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K183" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L183" s="48" t="s">
         <v>31</v>
@@ -10167,16 +10157,16 @@
         <v>15</v>
       </c>
       <c r="H184" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I184" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J184" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K184" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L184" s="48" t="s">
         <v>35</v>
@@ -10209,16 +10199,16 @@
         <v>37</v>
       </c>
       <c r="H185" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I185" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J185" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K185" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L185" s="48" t="s">
         <v>44</v>
@@ -10251,16 +10241,16 @@
         <v>13</v>
       </c>
       <c r="H186" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I186" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K186" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L186" s="33" t="s">
         <v>17</v>
@@ -10293,16 +10283,16 @@
         <v>15</v>
       </c>
       <c r="H187" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I187" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J187" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K187" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L187" s="48" t="s">
         <v>31</v>
@@ -10335,16 +10325,16 @@
         <v>15</v>
       </c>
       <c r="H188" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I188" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J188" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K188" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L188" s="48" t="s">
         <v>35</v>
@@ -10377,16 +10367,16 @@
         <v>37</v>
       </c>
       <c r="H189" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I189" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J189" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K189" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L189" s="48" t="s">
         <v>44</v>
@@ -10419,16 +10409,16 @@
         <v>15</v>
       </c>
       <c r="H190" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I190" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J190" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K190" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L190" s="33" t="s">
         <v>17</v>
@@ -10461,16 +10451,16 @@
         <v>15</v>
       </c>
       <c r="H191" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I191" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J191" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K191" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L191" s="48" t="s">
         <v>31</v>
@@ -10503,16 +10493,16 @@
         <v>15</v>
       </c>
       <c r="H192" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I192" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J192" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K192" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L192" s="48" t="s">
         <v>35</v>
@@ -10545,16 +10535,16 @@
         <v>37</v>
       </c>
       <c r="H193" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I193" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J193" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K193" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L193" s="48" t="s">
         <v>44</v>
@@ -10587,16 +10577,16 @@
         <v>15</v>
       </c>
       <c r="H194" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I194" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J194" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K194" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L194" s="33" t="s">
         <v>17</v>
@@ -10629,16 +10619,16 @@
         <v>15</v>
       </c>
       <c r="H195" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I195" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J195" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K195" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L195" s="48" t="s">
         <v>31</v>
@@ -10671,16 +10661,16 @@
         <v>15</v>
       </c>
       <c r="H196" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I196" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J196" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K196" s="51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L196" s="48" t="s">
         <v>35</v>
@@ -10713,16 +10703,16 @@
         <v>37</v>
       </c>
       <c r="H197" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I197" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J197" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K197" s="51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L197" s="48" t="s">
         <v>44</v>
@@ -10755,16 +10745,16 @@
         <v>15</v>
       </c>
       <c r="H198" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I198" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J198" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K198" s="53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L198" s="33" t="s">
         <v>17</v>
@@ -10797,22 +10787,22 @@
         <v>10</v>
       </c>
       <c r="H199" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I199" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J199" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K199" s="39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L199" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M199" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10839,22 +10829,22 @@
         <v>10</v>
       </c>
       <c r="H200" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I200" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J200" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K200" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L200" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M200" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10881,7 +10871,7 @@
         <v>37</v>
       </c>
       <c r="H201" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I201" s="25" t="n">
         <v>0</v>
@@ -10890,13 +10880,13 @@
         <v>46</v>
       </c>
       <c r="K201" s="39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L201" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M201" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10923,16 +10913,16 @@
         <v>12</v>
       </c>
       <c r="H202" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I202" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J202" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K202" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L202" s="24" t="s">
         <v>17</v>
@@ -10974,10 +10964,10 @@
         <v>0</v>
       </c>
       <c r="J203" s="35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K203" s="45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L203" s="33" t="s">
         <v>17</v>
@@ -11010,16 +11000,16 @@
         <v>9</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I204" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J204" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K204" s="51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L204" s="48" t="s">
         <v>17</v>
@@ -11052,16 +11042,16 @@
         <v>11</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I205" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J205" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K205" s="51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L205" s="48" t="s">
         <v>17</v>
@@ -11094,16 +11084,16 @@
         <v>11</v>
       </c>
       <c r="H206" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I206" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J206" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K206" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L206" s="48" t="s">
         <v>17</v>
@@ -11136,16 +11126,16 @@
         <v>11</v>
       </c>
       <c r="H207" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I207" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J207" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K207" s="51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L207" s="48" t="s">
         <v>44</v>
@@ -11178,16 +11168,16 @@
         <v>12</v>
       </c>
       <c r="H208" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I208" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J208" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K208" s="51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L208" s="48" t="s">
         <v>44</v>
@@ -11220,22 +11210,22 @@
         <v>14</v>
       </c>
       <c r="H209" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I209" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J209" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K209" s="42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L209" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M209" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11262,22 +11252,22 @@
         <v>14</v>
       </c>
       <c r="H210" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I210" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="K210" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="I210" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="K210" s="42" t="s">
-        <v>188</v>
       </c>
       <c r="L210" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M210" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,22 +11294,22 @@
         <v>11</v>
       </c>
       <c r="H211" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I211" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J211" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K211" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L211" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M211" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11346,16 +11336,16 @@
         <v>37</v>
       </c>
       <c r="H212" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I212" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J212" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K212" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L212" s="24" t="s">
         <v>17</v>
@@ -11388,16 +11378,16 @@
         <v>16</v>
       </c>
       <c r="H213" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I213" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J213" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K213" s="55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L213" s="24" t="s">
         <v>31</v>
@@ -11430,16 +11420,16 @@
         <v>37</v>
       </c>
       <c r="H214" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I214" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J214" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K214" s="43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L214" s="24" t="s">
         <v>17</v>
@@ -11472,16 +11462,16 @@
         <v>37</v>
       </c>
       <c r="H215" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I215" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K215" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="I215" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="K215" s="43" t="s">
-        <v>197</v>
       </c>
       <c r="L215" s="24" t="s">
         <v>17</v>
@@ -11514,22 +11504,22 @@
         <v>16</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I216" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J216" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K216" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L216" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M216" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11556,22 +11546,22 @@
         <v>16</v>
       </c>
       <c r="H217" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I217" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J217" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L217" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M217" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11598,22 +11588,22 @@
         <v>17</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I218" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J218" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K218" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L218" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M218" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11640,7 +11630,7 @@
         <v>37</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I219" s="25" t="n">
         <v>0</v>
@@ -11649,13 +11639,13 @@
         <v>28</v>
       </c>
       <c r="K219" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L219" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M219" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11682,22 +11672,22 @@
         <v>10</v>
       </c>
       <c r="H220" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I220" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J220" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K220" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L220" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M220" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11724,7 +11714,7 @@
         <v>10</v>
       </c>
       <c r="H221" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I221" s="25" t="n">
         <v>0</v>
@@ -11733,13 +11723,13 @@
         <v>46</v>
       </c>
       <c r="K221" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L221" s="24" t="s">
         <v>17</v>
       </c>
       <c r="M221" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11766,22 +11756,22 @@
         <v>10</v>
       </c>
       <c r="H222" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I222" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J222" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K222" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L222" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M222" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11808,7 +11798,7 @@
         <v>9</v>
       </c>
       <c r="H223" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I223" s="25" t="n">
         <v>0</v>
@@ -11817,13 +11807,13 @@
         <v>28</v>
       </c>
       <c r="K223" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L223" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M223" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11850,22 +11840,22 @@
         <v>37</v>
       </c>
       <c r="H224" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I224" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J224" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K224" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L224" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M224" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11892,22 +11882,22 @@
         <v>9</v>
       </c>
       <c r="H225" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I225" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J225" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K225" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L225" s="24" t="s">
         <v>35</v>
       </c>
       <c r="M225" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11934,7 +11924,7 @@
         <v>37</v>
       </c>
       <c r="H226" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I226" s="25" t="n">
         <v>0</v>
@@ -11943,13 +11933,13 @@
         <v>46</v>
       </c>
       <c r="K226" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L226" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M226" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11976,16 +11966,16 @@
         <v>37</v>
       </c>
       <c r="H227" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I227" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J227" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K227" s="56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L227" s="17" t="s">
         <v>17</v>
@@ -12018,16 +12008,16 @@
         <v>10</v>
       </c>
       <c r="H228" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I228" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J228" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K228" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L228" s="24" t="s">
         <v>17</v>
@@ -12060,16 +12050,16 @@
         <v>37</v>
       </c>
       <c r="H229" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I229" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J229" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K229" s="57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L229" s="24" t="s">
         <v>17</v>
@@ -12102,16 +12092,16 @@
         <v>10</v>
       </c>
       <c r="H230" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I230" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J230" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K230" s="58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L230" s="24" t="s">
         <v>17</v>
@@ -12144,16 +12134,16 @@
         <v>37</v>
       </c>
       <c r="H231" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I231" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J231" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K231" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L231" s="24" t="s">
         <v>17</v>
@@ -12186,16 +12176,16 @@
         <v>10</v>
       </c>
       <c r="H232" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I232" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J232" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K232" s="59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L232" s="24" t="s">
         <v>17</v>
@@ -12228,16 +12218,16 @@
         <v>37</v>
       </c>
       <c r="H233" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I233" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J233" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K233" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L233" s="24" t="s">
         <v>17</v>
@@ -12270,16 +12260,16 @@
         <v>10</v>
       </c>
       <c r="H234" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I234" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J234" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K234" s="60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L234" s="24" t="s">
         <v>17</v>
@@ -12312,22 +12302,22 @@
         <v>14</v>
       </c>
       <c r="H235" s="17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I235" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J235" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K235" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L235" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M235" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12354,25 +12344,25 @@
         <v>37</v>
       </c>
       <c r="H236" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I236" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J236" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K236" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L236" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M236" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>236</v>
       </c>
@@ -12396,25 +12386,25 @@
         <v>37</v>
       </c>
       <c r="H237" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I237" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J237" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K237" s="56" t="s">
         <v>241</v>
+      </c>
+      <c r="K237" s="61" t="s">
+        <v>255</v>
       </c>
       <c r="L237" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M237" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
         <v>237</v>
       </c>
@@ -12438,25 +12428,25 @@
         <v>37</v>
       </c>
       <c r="H238" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I238" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J238" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K238" s="56" t="s">
         <v>241</v>
+      </c>
+      <c r="K238" s="61" t="s">
+        <v>256</v>
       </c>
       <c r="L238" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M238" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
         <v>238</v>
       </c>
@@ -12480,25 +12470,25 @@
         <v>16</v>
       </c>
       <c r="H239" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I239" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J239" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="K239" s="56" t="s">
         <v>244</v>
+      </c>
+      <c r="K239" s="62" t="s">
+        <v>257</v>
       </c>
       <c r="L239" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M239" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
         <v>239</v>
       </c>
@@ -12522,22 +12512,22 @@
         <v>37</v>
       </c>
       <c r="H240" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I240" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J240" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K240" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L240" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M240" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12564,25 +12554,25 @@
         <v>37</v>
       </c>
       <c r="H241" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I241" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J241" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K241" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L241" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M241" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
         <v>241</v>
       </c>
@@ -12606,25 +12596,25 @@
         <v>17</v>
       </c>
       <c r="H242" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I242" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J242" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K242" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L242" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M242" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
         <v>242</v>
       </c>
@@ -12648,25 +12638,25 @@
         <v>17</v>
       </c>
       <c r="H243" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I243" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J243" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K243" s="30" t="s">
-        <v>251</v>
+        <v>131</v>
+      </c>
+      <c r="K243" s="63" t="s">
+        <v>258</v>
       </c>
       <c r="L243" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M243" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
         <v>243</v>
       </c>
@@ -12690,25 +12680,25 @@
         <v>17</v>
       </c>
       <c r="H244" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I244" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J244" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K244" s="30" t="s">
-        <v>251</v>
+        <v>133</v>
+      </c>
+      <c r="K244" s="63" t="s">
+        <v>258</v>
       </c>
       <c r="L244" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M244" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>244</v>
       </c>
@@ -12731,22 +12721,22 @@
         <v>10</v>
       </c>
       <c r="H245" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I245" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K245" s="61" t="s">
-        <v>254</v>
+        <v>101</v>
+      </c>
+      <c r="K245" s="64" t="s">
+        <v>259</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M245" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12773,25 +12763,25 @@
         <v>14</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I246" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J246" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K246" s="62" t="s">
-        <v>257</v>
+        <v>261</v>
+      </c>
+      <c r="K246" s="65" t="s">
+        <v>262</v>
       </c>
       <c r="L246" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M246" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>246</v>
       </c>
@@ -12821,16 +12811,16 @@
         <v>0</v>
       </c>
       <c r="J247" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K247" s="63" t="s">
-        <v>259</v>
+        <v>263</v>
+      </c>
+      <c r="K247" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="L247" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M247" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12863,10 +12853,10 @@
         <v>0</v>
       </c>
       <c r="J248" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="K248" s="64" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="K248" s="66" t="s">
+        <v>266</v>
       </c>
       <c r="L248" s="17" t="s">
         <v>44</v>
@@ -12875,7 +12865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
         <v>248</v>
       </c>
@@ -12905,19 +12895,19 @@
         <v>0</v>
       </c>
       <c r="J249" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K249" s="63" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="K249" s="66" t="s">
+        <v>268</v>
       </c>
       <c r="L249" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M249" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
         <v>249</v>
       </c>
@@ -12947,19 +12937,19 @@
         <v>0</v>
       </c>
       <c r="J250" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="K250" s="63" t="s">
-        <v>263</v>
+        <v>269</v>
+      </c>
+      <c r="K250" s="66" t="s">
+        <v>268</v>
       </c>
       <c r="L250" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M250" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
         <v>250</v>
       </c>
@@ -12983,25 +12973,25 @@
         <v>24</v>
       </c>
       <c r="H251" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I251" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J251" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="K251" s="65" t="s">
-        <v>266</v>
+        <v>270</v>
+      </c>
+      <c r="K251" s="67" t="s">
+        <v>271</v>
       </c>
       <c r="L251" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M251" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
         <v>251</v>
       </c>
@@ -13025,22 +13015,22 @@
         <v>21</v>
       </c>
       <c r="H252" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I252" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J252" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K252" s="65" t="s">
-        <v>267</v>
+        <v>129</v>
+      </c>
+      <c r="K252" s="67" t="s">
+        <v>272</v>
       </c>
       <c r="L252" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M252" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,19 +13062,19 @@
         <v>0</v>
       </c>
       <c r="J253" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="K253" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
+      </c>
+      <c r="K253" s="68" t="s">
+        <v>273</v>
       </c>
       <c r="L253" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M253" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
         <v>253</v>
       </c>
@@ -13114,16 +13104,16 @@
         <v>0</v>
       </c>
       <c r="J254" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K254" s="66" t="s">
-        <v>269</v>
+        <v>113</v>
+      </c>
+      <c r="K254" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="L254" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M254" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13156,16 +13146,16 @@
         <v>0</v>
       </c>
       <c r="J255" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K255" s="66" t="s">
-        <v>269</v>
+        <v>115</v>
+      </c>
+      <c r="K255" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="L255" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M255" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13198,16 +13188,16 @@
         <v>0</v>
       </c>
       <c r="J256" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K256" s="66" t="s">
-        <v>269</v>
+        <v>275</v>
+      </c>
+      <c r="K256" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="L256" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M256" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13234,25 +13224,25 @@
         <v>17</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I257" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J257" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K257" s="65" t="s">
-        <v>271</v>
+        <v>86</v>
+      </c>
+      <c r="K257" s="70" t="s">
+        <v>276</v>
       </c>
       <c r="L257" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M257" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
         <v>257</v>
       </c>
@@ -13276,25 +13266,25 @@
         <v>14</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I258" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J258" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K258" s="64" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="K258" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="L258" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M258" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
         <v>258</v>
       </c>
@@ -13318,16 +13308,16 @@
         <v>37</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I259" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J259" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K259" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K259" s="67" t="s">
+        <v>282</v>
       </c>
       <c r="L259" s="17" t="s">
         <v>44</v>
@@ -13336,7 +13326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
         <v>259</v>
       </c>
@@ -13360,16 +13350,16 @@
         <v>37</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I260" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J260" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K260" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K260" s="67" t="s">
+        <v>283</v>
       </c>
       <c r="L260" s="17" t="s">
         <v>44</v>
@@ -13378,7 +13368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
         <v>260</v>
       </c>
@@ -13402,16 +13392,16 @@
         <v>37</v>
       </c>
       <c r="H261" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I261" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J261" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K261" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K261" s="67" t="s">
+        <v>284</v>
       </c>
       <c r="L261" s="17" t="s">
         <v>44</v>
@@ -13420,7 +13410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
         <v>261</v>
       </c>
@@ -13444,16 +13434,16 @@
         <v>37</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I262" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J262" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K262" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K262" s="67" t="s">
+        <v>285</v>
       </c>
       <c r="L262" s="17" t="s">
         <v>44</v>
@@ -13491,16 +13481,16 @@
         <v>0</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K263" s="13" t="s">
-        <v>268</v>
+        <v>113</v>
+      </c>
+      <c r="K263" s="68" t="s">
+        <v>273</v>
       </c>
       <c r="L263" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M263" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13533,16 +13523,16 @@
         <v>0</v>
       </c>
       <c r="J264" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="K264" s="66" t="s">
-        <v>269</v>
+        <v>115</v>
+      </c>
+      <c r="K264" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="L264" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M264" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13575,16 +13565,16 @@
         <v>0</v>
       </c>
       <c r="J265" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K265" s="66" t="s">
-        <v>269</v>
+        <v>275</v>
+      </c>
+      <c r="K265" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="L265" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M265" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13611,25 +13601,25 @@
         <v>17</v>
       </c>
       <c r="H266" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I266" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J266" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K266" s="65" t="s">
-        <v>271</v>
+        <v>86</v>
+      </c>
+      <c r="K266" s="70" t="s">
+        <v>276</v>
       </c>
       <c r="L266" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M266" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
         <v>266</v>
       </c>
@@ -13653,25 +13643,25 @@
         <v>14</v>
       </c>
       <c r="H267" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I267" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J267" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K267" s="64" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="K267" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="L267" s="17" t="s">
         <v>17</v>
       </c>
       <c r="M267" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
         <v>267</v>
       </c>
@@ -13695,16 +13685,16 @@
         <v>37</v>
       </c>
       <c r="H268" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I268" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J268" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K268" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K268" s="67" t="s">
+        <v>282</v>
       </c>
       <c r="L268" s="17" t="s">
         <v>44</v>
@@ -13713,7 +13703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
         <v>268</v>
       </c>
@@ -13737,16 +13727,16 @@
         <v>37</v>
       </c>
       <c r="H269" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I269" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J269" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K269" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K269" s="67" t="s">
+        <v>282</v>
       </c>
       <c r="L269" s="17" t="s">
         <v>44</v>
@@ -13755,7 +13745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
         <v>269</v>
       </c>
@@ -13779,16 +13769,16 @@
         <v>37</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I270" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J270" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="K270" s="64" t="s">
-        <v>277</v>
+        <v>281</v>
+      </c>
+      <c r="K270" s="67" t="s">
+        <v>282</v>
       </c>
       <c r="L270" s="17" t="s">
         <v>44</v>
@@ -13820,22 +13810,22 @@
         <v>37</v>
       </c>
       <c r="H271" s="10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I271" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J271" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K271" s="67" t="s">
-        <v>279</v>
+        <v>115</v>
+      </c>
+      <c r="K271" s="71" t="s">
+        <v>287</v>
       </c>
       <c r="L271" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M271" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13861,22 +13851,22 @@
         <v>37</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="I272" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J272" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="K272" s="68" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="K272" s="72" t="s">
+        <v>288</v>
       </c>
       <c r="L272" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M272" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13902,22 +13892,22 @@
         <v>12</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I273" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K273" s="61" t="s">
-        <v>281</v>
+        <v>120</v>
+      </c>
+      <c r="K273" s="64" t="s">
+        <v>289</v>
       </c>
       <c r="L273" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M273" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13944,22 +13934,22 @@
         <v>14</v>
       </c>
       <c r="H274" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I274" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J274" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K274" s="63" t="s">
-        <v>282</v>
+        <v>129</v>
+      </c>
+      <c r="K274" s="73" t="s">
+        <v>290</v>
       </c>
       <c r="L274" s="17" t="s">
         <v>31</v>
       </c>
       <c r="M274" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13992,16 +13982,16 @@
         <v>0</v>
       </c>
       <c r="J275" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K275" s="63" t="s">
-        <v>283</v>
+        <v>263</v>
+      </c>
+      <c r="K275" s="73" t="s">
+        <v>291</v>
       </c>
       <c r="L275" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M275" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14034,16 +14024,16 @@
         <v>0</v>
       </c>
       <c r="J276" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K276" s="63" t="s">
-        <v>284</v>
+        <v>113</v>
+      </c>
+      <c r="K276" s="73" t="s">
+        <v>292</v>
       </c>
       <c r="L276" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M276" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14076,16 +14066,16 @@
         <v>0</v>
       </c>
       <c r="J277" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K277" s="63" t="s">
-        <v>285</v>
+        <v>267</v>
+      </c>
+      <c r="K277" s="73" t="s">
+        <v>293</v>
       </c>
       <c r="L277" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M277" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14118,16 +14108,16 @@
         <v>0</v>
       </c>
       <c r="J278" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="K278" s="63" t="s">
-        <v>286</v>
+        <v>269</v>
+      </c>
+      <c r="K278" s="73" t="s">
+        <v>294</v>
       </c>
       <c r="L278" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M278" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14153,22 +14143,22 @@
         <v>11</v>
       </c>
       <c r="H279" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I279" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J279" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K279" s="69" t="s">
-        <v>288</v>
+        <v>120</v>
+      </c>
+      <c r="K279" s="74" t="s">
+        <v>296</v>
       </c>
       <c r="L279" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M279" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,22 +14184,22 @@
         <v>11</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I280" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K280" s="69" t="s">
-        <v>289</v>
+        <v>120</v>
+      </c>
+      <c r="K280" s="74" t="s">
+        <v>297</v>
       </c>
       <c r="L280" s="10" t="s">
         <v>35</v>
       </c>
       <c r="M280" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14235,22 +14225,22 @@
         <v>7</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I281" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J281" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K281" s="68" t="s">
-        <v>291</v>
+        <v>298</v>
+      </c>
+      <c r="K281" s="72" t="s">
+        <v>299</v>
       </c>
       <c r="L281" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M281" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14276,22 +14266,22 @@
         <v>7</v>
       </c>
       <c r="H282" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I282" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K282" s="68" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+      <c r="K282" s="72" t="s">
+        <v>300</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M282" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14317,22 +14307,22 @@
         <v>16</v>
       </c>
       <c r="H283" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I283" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J283" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="K283" s="70" t="s">
-        <v>294</v>
+        <v>301</v>
+      </c>
+      <c r="K283" s="75" t="s">
+        <v>302</v>
       </c>
       <c r="L283" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M283" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14364,16 +14354,16 @@
         <v>0</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L284" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M284" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14405,16 +14395,16 @@
         <v>0</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K285" s="6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14446,16 +14436,16 @@
         <v>0</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14481,22 +14471,22 @@
         <v>17</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I287" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="K287" s="6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L287" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M287" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14522,19 +14512,19 @@
         <v>16</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I288" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K288" s="6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L288" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M288" s="3" t="s">
         <v>55</v>
@@ -14563,16 +14553,16 @@
         <v>11</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I289" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L289" s="3" t="s">
         <v>17</v>
@@ -14604,19 +14594,19 @@
         <v>11</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="I290" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M290" s="3" t="s">
         <v>55</v>
@@ -14645,19 +14635,19 @@
         <v>11</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I291" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M291" s="3" t="s">
         <v>55</v>
@@ -14686,19 +14676,19 @@
         <v>11</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I292" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M292" s="3" t="s">
         <v>55</v>
@@ -14727,19 +14717,19 @@
         <v>10</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I293" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M293" s="3" t="s">
         <v>55</v>
@@ -14768,19 +14758,19 @@
         <v>10</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I294" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M294" s="3" t="s">
         <v>55</v>
@@ -14809,19 +14799,19 @@
         <v>10</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I295" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M295" s="3" t="s">
         <v>55</v>
@@ -14850,19 +14840,19 @@
         <v>10</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I296" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M296" s="3" t="s">
         <v>55</v>
@@ -14892,19 +14882,19 @@
         <v>22</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I297" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M297" s="3" t="s">
         <v>55</v>
@@ -14933,22 +14923,22 @@
         <v>0</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="I298" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K298" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14974,22 +14964,22 @@
         <v>0</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="I299" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J299" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15015,22 +15005,22 @@
         <v>10</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I300" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M300" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15056,22 +15046,22 @@
         <v>10</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I301" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15097,22 +15087,22 @@
         <v>32</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I302" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J302" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15138,22 +15128,22 @@
         <v>10</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I303" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J303" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15179,22 +15169,22 @@
         <v>10</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I304" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15220,22 +15210,22 @@
         <v>37</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I305" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15261,22 +15251,22 @@
         <v>37</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I306" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J306" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -15298,7 +15288,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K14:K19 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15357,7 +15347,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="71" t="n">
+      <c r="D2" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -15376,16 +15366,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="K2" s="72" t="s">
-        <v>336</v>
+        <v>343</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>344</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="73" t="s">
-        <v>61</v>
+      <c r="M2" s="78" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15398,7 +15388,7 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="71" t="n">
+      <c r="D3" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -15418,16 +15408,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>345</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="73" t="s">
-        <v>61</v>
+      <c r="M3" s="78" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15440,7 +15430,7 @@
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="71" t="n">
+      <c r="D4" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -15459,16 +15449,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>346</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="73" t="s">
-        <v>61</v>
+      <c r="M4" s="78" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="75.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15481,7 +15471,7 @@
       <c r="C5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="71" t="n">
+      <c r="D5" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -15500,16 +15490,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="K5" s="72" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>346</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="73" t="s">
-        <v>61</v>
+      <c r="M5" s="78" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -15531,7 +15521,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="K14:K19 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15592,7 +15582,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="71" t="n">
+      <c r="D2" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -15611,15 +15601,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" s="72" t="s">
-        <v>340</v>
+        <v>347</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>348</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="74"/>
+        <v>80</v>
+      </c>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" customFormat="false" ht="170.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -15631,7 +15621,7 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="71" t="n">
+      <c r="D3" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -15650,15 +15640,15 @@
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="K3" s="72" t="s">
-        <v>296</v>
+        <v>303</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>304</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" customFormat="false" ht="282.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -15670,7 +15660,7 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="71" t="n">
+      <c r="D4" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -15689,15 +15679,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="72" t="s">
-        <v>342</v>
+        <v>349</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>350</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -15709,7 +15699,7 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="71" t="n">
+      <c r="D5" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -15728,15 +15718,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="K5" s="72" t="s">
-        <v>344</v>
+        <v>351</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>352</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="74"/>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -15748,7 +15738,7 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="71" t="n">
+      <c r="D6" s="76" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -15767,15 +15757,15 @@
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>345</v>
+        <v>253</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>353</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="74"/>
+      <c r="M6" s="79"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15795,10 +15785,10 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="525" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14:K19"/>
+      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15878,22 +15868,22 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15926,16 +15916,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15968,16 +15958,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16010,16 +16000,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16045,22 +16035,22 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16092,16 +16082,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16127,20 +16117,20 @@
         <v>37</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16166,20 +16156,20 @@
         <v>17</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16205,20 +16195,20 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16250,14 +16240,14 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16289,14 +16279,14 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16322,20 +16312,20 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16365,11 +16355,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -16398,13 +16388,13 @@
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -16437,17 +16427,17 @@
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>55</v>
@@ -16476,17 +16466,17 @@
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>55</v>
@@ -16515,17 +16505,17 @@
         <v>21</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>55</v>
@@ -16554,17 +16544,17 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>55</v>
@@ -16593,17 +16583,17 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>55</v>
@@ -16632,17 +16622,17 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>55</v>
@@ -16671,17 +16661,17 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>55</v>
@@ -16710,7 +16700,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>0</v>
@@ -16720,7 +16710,7 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>45</v>
@@ -16749,17 +16739,17 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>55</v>
@@ -16788,17 +16778,17 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>55</v>
@@ -16827,17 +16817,17 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>55</v>
@@ -16866,17 +16856,17 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>55</v>
@@ -16905,7 +16895,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>0</v>
@@ -16915,7 +16905,7 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>45</v>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="367">
   <si>
     <t>bidId</t>
   </si>
@@ -1592,7 +1592,7 @@
     <t>5-3-3-2 lub 4-4-3-2</t>
   </si>
   <si>
-    <t>Naturalne bez Atu</t>
+    <t>Naturalne BA</t>
   </si>
   <si>
     <t>skład zrównoważony bez krótkości, bez starszej piątki, otwarcie może zawierać piątkę młodszą (wyjątkowo również bardzo słabą starszą) układy 5-3-3-2 4-4-3-2 itp. Po interwencji opozycji obowiązują dalej Stayman i transfery z wykorzystaniem odzywek opozycji.</t>
@@ -1601,7 +1601,7 @@
     <t>xxx6 lub XXx5</t>
   </si>
   <si>
-    <t>PRESSIOSION</t>
+    <t>PRESSISION</t>
   </si>
   <si>
     <r>
@@ -1628,7 +1628,7 @@
     <t>x-5-X-X</t>
   </si>
   <si>
-    <t>DWUKOLORÓWKA na kierach i dowolny</t>
+    <t>DWUKOLORÓWKA  5+ kier i 5+ młodszy</t>
   </si>
   <si>
     <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
@@ -1637,7 +1637,7 @@
     <t>5-x-X-X</t>
   </si>
   <si>
-    <t>DWUKOLORÓWKA na pikach i ?</t>
+    <t>DWUKOLORÓWKA 5+ pik i 5+ dowolny</t>
   </si>
   <si>
     <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
@@ -1655,34 +1655,37 @@
     <t>7+</t>
   </si>
   <si>
+    <t>BLOK słaby</t>
+  </si>
+  <si>
+    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>GAMBLING</t>
+  </si>
+  <si>
+    <t>Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
+  </si>
+  <si>
+    <t>8-x-x-x</t>
+  </si>
+  <si>
+    <t>TEKSAS PDAF</t>
+  </si>
+  <si>
+    <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
+  </si>
+  <si>
+    <t>x-8-x-x</t>
+  </si>
+  <si>
+    <t>x-7-x-x</t>
+  </si>
+  <si>
     <t>BLOK</t>
-  </si>
-  <si>
-    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>GAMBLINGg</t>
-  </si>
-  <si>
-    <t>Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
-  </si>
-  <si>
-    <t>8-x-x-x</t>
-  </si>
-  <si>
-    <t>TEKSAS PDAF</t>
-  </si>
-  <si>
-    <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
-  </si>
-  <si>
-    <t>x-8-x-x</t>
-  </si>
-  <si>
-    <t>x-7-x-x</t>
   </si>
   <si>
     <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **).</t>
@@ -1817,6 +1820,9 @@
   </si>
   <si>
     <t>6+ PC, 5+ trefli, wyklucza 4 kara, 4 kiery, 4 piki;</t>
+  </si>
+  <si>
+    <t>Naturalne bez Atu</t>
   </si>
 </sst>
 </file>
@@ -2427,9 +2433,9 @@
   <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A10" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A280" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="J292" activeCellId="0" sqref="J292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14489,7 +14495,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
         <v>287</v>
       </c>
@@ -14917,10 +14923,10 @@
         <v>13</v>
       </c>
       <c r="F298" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G298" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H298" s="3" t="s">
         <v>331</v>
@@ -14958,10 +14964,10 @@
         <v>19</v>
       </c>
       <c r="F299" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G299" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H299" s="3" t="s">
         <v>334</v>
@@ -14999,7 +15005,7 @@
         <v>22</v>
       </c>
       <c r="F300" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G300" s="3" t="n">
         <v>10</v>
@@ -15011,10 +15017,10 @@
         <v>0</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L300" s="3" t="s">
         <v>108</v>
@@ -15040,22 +15046,22 @@
         <v>31</v>
       </c>
       <c r="F301" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G301" s="3" t="n">
         <v>10</v>
       </c>
       <c r="H301" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I301" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K301" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="I301" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="K301" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="L301" s="3" t="s">
         <v>108</v>
@@ -15093,10 +15099,10 @@
         <v>0</v>
       </c>
       <c r="J302" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L302" s="3" t="s">
         <v>108</v>
@@ -15128,16 +15134,16 @@
         <v>10</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I303" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J303" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L303" s="3" t="s">
         <v>108</v>
@@ -15169,16 +15175,16 @@
         <v>10</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I304" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L304" s="3" t="s">
         <v>108</v>
@@ -15216,10 +15222,10 @@
         <v>0</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L305" s="3" t="s">
         <v>108</v>
@@ -15257,10 +15263,10 @@
         <v>0</v>
       </c>
       <c r="J306" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L306" s="3" t="s">
         <v>108</v>
@@ -15366,10 +15372,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>31</v>
@@ -15408,10 +15414,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
@@ -15449,10 +15455,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
@@ -15490,10 +15496,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
@@ -15601,10 +15607,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>80</v>
@@ -15679,10 +15685,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
@@ -15718,10 +15724,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
@@ -15760,7 +15766,7 @@
         <v>253</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
@@ -15868,16 +15874,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -15916,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>108</v>
@@ -15958,10 +15964,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>108</v>
@@ -16000,10 +16006,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>108</v>
@@ -16044,7 +16050,7 @@
         <v>101</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>108</v>
@@ -16085,7 +16091,7 @@
         <v>263</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>108</v>
@@ -16195,13 +16201,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
@@ -16318,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
@@ -16394,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -16433,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
@@ -16472,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
@@ -16550,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
@@ -16589,7 +16595,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
@@ -16628,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
@@ -16667,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
@@ -16739,13 +16745,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
@@ -16778,13 +16784,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
@@ -16817,13 +16823,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
@@ -16856,13 +16862,13 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="368">
   <si>
     <t>bidId</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>forsujące do dogranej  wg WJ2005 wyklucza dwukolorówkę → (dawniej 19)23+  PC skład niezrównoważony (może być 5 starsza)  → 25+ PC  skład zrównoważony  Dalej licytacja w zasadzie naturalna poza negatem 2 kier</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>wtórny negat</t>
@@ -1661,6 +1658,9 @@
     <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
   </si>
   <si>
+    <t>BL</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -1673,7 +1673,7 @@
     <t>8-x-x-x</t>
   </si>
   <si>
-    <t>TEKSAS PDAF</t>
+    <t>BLOK (dawny Teksas pdaf)</t>
   </si>
   <si>
     <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
@@ -1744,6 +1744,9 @@
 (silne dowolne)
 uwaga: może też być licytowane przy zał że partner ma skład zrównoważony i jak powiem coś innego na co on spasuje (bez punktów) i ucieknie nam końcówka (np. na układzie 5-4 lub 6-4 – układy na dwóch piątkach raczej </t>
     </r>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>Trójznaczne forsuje na 1 okrążenie</t>
@@ -2432,10 +2435,10 @@
   </sheetPr>
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A280" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J292" activeCellId="0" sqref="J292"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="525" topLeftCell="A282" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J299" activeCellId="0" sqref="J299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3830,7 +3833,7 @@
         <v>79</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="M33" s="21" t="s">
         <v>45</v>
@@ -3866,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="27" t="s">
         <v>81</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>82</v>
       </c>
       <c r="L34" s="24" t="s">
         <v>73</v>
@@ -3902,16 +3905,16 @@
         <v>6</v>
       </c>
       <c r="H35" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="26" t="s">
+      <c r="K35" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="K35" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="L35" s="24" t="s">
         <v>73</v>
@@ -3944,16 +3947,16 @@
         <v>6</v>
       </c>
       <c r="H36" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="26" t="s">
+      <c r="K36" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="K36" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="L36" s="24" t="s">
         <v>73</v>
@@ -3986,16 +3989,16 @@
         <v>6</v>
       </c>
       <c r="H37" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="26" t="s">
+      <c r="K37" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>85</v>
       </c>
       <c r="L37" s="24" t="s">
         <v>73</v>
@@ -4034,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>87</v>
       </c>
       <c r="L38" s="24" t="s">
         <v>73</v>
@@ -4076,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>89</v>
       </c>
       <c r="L39" s="24" t="s">
         <v>73</v>
@@ -4118,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>89</v>
       </c>
       <c r="L40" s="24" t="s">
         <v>73</v>
@@ -4154,16 +4157,16 @@
         <v>37</v>
       </c>
       <c r="H41" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="19" t="s">
+      <c r="K41" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="K41" s="30" t="s">
-        <v>92</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>35</v>
@@ -4196,16 +4199,16 @@
         <v>37</v>
       </c>
       <c r="H42" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="I42" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="K42" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>35</v>
@@ -4244,10 +4247,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="K43" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="L43" s="17" t="s">
         <v>35</v>
@@ -4280,16 +4283,16 @@
         <v>37</v>
       </c>
       <c r="H44" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="19" t="s">
+      <c r="K44" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>98</v>
       </c>
       <c r="L44" s="17" t="s">
         <v>35</v>
@@ -4322,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="H45" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I45" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="19" t="s">
+      <c r="K45" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="K45" s="30" t="s">
-        <v>98</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>35</v>
@@ -4364,16 +4367,16 @@
         <v>37</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I46" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J46" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="K46" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="L46" s="17" t="s">
         <v>35</v>
@@ -4406,16 +4409,16 @@
         <v>37</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I47" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J47" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="K47" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="L47" s="17" t="s">
         <v>35</v>
@@ -4454,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" s="30" t="s">
         <v>101</v>
-      </c>
-      <c r="K48" s="30" t="s">
-        <v>102</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>31</v>
@@ -4496,10 +4499,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>17</v>
@@ -4538,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="J50" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="K50" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="L50" s="17" t="s">
         <v>17</v>
@@ -4583,10 +4586,10 @@
         <v>33</v>
       </c>
       <c r="K51" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="L51" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="M51" s="28" t="s">
         <v>62</v>
@@ -4616,16 +4619,16 @@
         <v>37</v>
       </c>
       <c r="H52" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="26" t="s">
+      <c r="K52" s="40" t="s">
         <v>110</v>
-      </c>
-      <c r="K52" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="L52" s="24" t="s">
         <v>44</v>
@@ -4658,16 +4661,16 @@
         <v>10</v>
       </c>
       <c r="H53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I53" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="26" t="s">
+      <c r="K53" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>114</v>
       </c>
       <c r="L53" s="24" t="s">
         <v>73</v>
@@ -4706,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K54" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="K54" s="41" t="s">
-        <v>116</v>
       </c>
       <c r="L54" s="24" t="s">
         <v>73</v>
@@ -4742,16 +4745,16 @@
         <v>10</v>
       </c>
       <c r="H55" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I55" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="26" t="s">
+      <c r="K55" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="K55" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="L55" s="24" t="s">
         <v>73</v>
@@ -4790,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K56" s="43" t="s">
         <v>120</v>
-      </c>
-      <c r="K56" s="43" t="s">
-        <v>121</v>
       </c>
       <c r="L56" s="24" t="s">
         <v>35</v>
@@ -4826,16 +4829,16 @@
         <v>37</v>
       </c>
       <c r="H57" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="26" t="s">
+      <c r="K57" s="44" t="s">
         <v>123</v>
-      </c>
-      <c r="K57" s="44" t="s">
-        <v>124</v>
       </c>
       <c r="L57" s="24" t="s">
         <v>44</v>
@@ -4868,16 +4871,16 @@
         <v>37</v>
       </c>
       <c r="H58" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I58" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="26" t="s">
+      <c r="K58" s="44" t="s">
         <v>123</v>
-      </c>
-      <c r="K58" s="44" t="s">
-        <v>124</v>
       </c>
       <c r="L58" s="24" t="s">
         <v>44</v>
@@ -4910,16 +4913,16 @@
         <v>11</v>
       </c>
       <c r="H59" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I59" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="26" t="s">
+      <c r="K59" s="39" t="s">
         <v>126</v>
-      </c>
-      <c r="K59" s="39" t="s">
-        <v>127</v>
       </c>
       <c r="L59" s="24" t="s">
         <v>35</v>
@@ -4952,16 +4955,16 @@
         <v>11</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K60" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L60" s="24" t="s">
         <v>35</v>
@@ -5000,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K61" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="K61" s="39" t="s">
-        <v>130</v>
       </c>
       <c r="L61" s="24" t="s">
         <v>31</v>
@@ -5036,16 +5039,16 @@
         <v>16</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I62" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J62" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K62" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="L62" s="24" t="s">
         <v>31</v>
@@ -5078,16 +5081,16 @@
         <v>16</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I63" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L63" s="24" t="s">
         <v>31</v>
@@ -5120,19 +5123,19 @@
         <v>14</v>
       </c>
       <c r="H64" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I64" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="19" t="s">
+      <c r="K64" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="K64" s="30" t="s">
-        <v>136</v>
-      </c>
       <c r="L64" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M64" s="21" t="s">
         <v>62</v>
@@ -5168,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="K65" s="26" t="s">
-        <v>138</v>
       </c>
       <c r="L65" s="24" t="s">
         <v>17</v>
@@ -5204,16 +5207,16 @@
         <v>13</v>
       </c>
       <c r="H66" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I66" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="I66" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" s="35" t="s">
+      <c r="K66" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="K66" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>17</v>
@@ -5246,16 +5249,16 @@
         <v>15</v>
       </c>
       <c r="H67" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I67" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" s="50" t="s">
+      <c r="K67" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K67" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L67" s="48" t="s">
         <v>31</v>
@@ -5288,16 +5291,16 @@
         <v>15</v>
       </c>
       <c r="H68" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I68" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K68" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L68" s="48" t="s">
         <v>35</v>
@@ -5330,16 +5333,16 @@
         <v>37</v>
       </c>
       <c r="H69" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I69" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I69" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K69" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L69" s="48" t="s">
         <v>44</v>
@@ -5372,16 +5375,16 @@
         <v>13</v>
       </c>
       <c r="H70" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" s="45" t="s">
         <v>149</v>
-      </c>
-      <c r="I70" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K70" s="45" t="s">
-        <v>150</v>
       </c>
       <c r="L70" s="33" t="s">
         <v>17</v>
@@ -5414,16 +5417,16 @@
         <v>15</v>
       </c>
       <c r="H71" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I71" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="50" t="s">
+      <c r="K71" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K71" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L71" s="48" t="s">
         <v>31</v>
@@ -5456,16 +5459,16 @@
         <v>15</v>
       </c>
       <c r="H72" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I72" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I72" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K72" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L72" s="48" t="s">
         <v>35</v>
@@ -5498,16 +5501,16 @@
         <v>37</v>
       </c>
       <c r="H73" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I73" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K73" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L73" s="48" t="s">
         <v>44</v>
@@ -5540,16 +5543,16 @@
         <v>15</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I74" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K74" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L74" s="33" t="s">
         <v>17</v>
@@ -5582,16 +5585,16 @@
         <v>15</v>
       </c>
       <c r="H75" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I75" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I75" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" s="50" t="s">
+      <c r="K75" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K75" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L75" s="48" t="s">
         <v>31</v>
@@ -5624,16 +5627,16 @@
         <v>15</v>
       </c>
       <c r="H76" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I76" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K76" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I76" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K76" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L76" s="48" t="s">
         <v>35</v>
@@ -5666,16 +5669,16 @@
         <v>37</v>
       </c>
       <c r="H77" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I77" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I77" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K77" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L77" s="48" t="s">
         <v>44</v>
@@ -5708,16 +5711,16 @@
         <v>15</v>
       </c>
       <c r="H78" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K78" s="45" t="s">
         <v>152</v>
-      </c>
-      <c r="I78" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K78" s="45" t="s">
-        <v>153</v>
       </c>
       <c r="L78" s="33" t="s">
         <v>17</v>
@@ -5750,16 +5753,16 @@
         <v>15</v>
       </c>
       <c r="H79" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I79" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" s="50" t="s">
+      <c r="K79" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K79" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L79" s="48" t="s">
         <v>31</v>
@@ -5792,16 +5795,16 @@
         <v>15</v>
       </c>
       <c r="H80" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I80" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K80" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L80" s="48" t="s">
         <v>35</v>
@@ -5834,16 +5837,16 @@
         <v>37</v>
       </c>
       <c r="H81" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I81" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I81" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K81" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L81" s="48" t="s">
         <v>44</v>
@@ -5876,16 +5879,16 @@
         <v>15</v>
       </c>
       <c r="H82" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="I82" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82" s="52" t="s">
         <v>154</v>
-      </c>
-      <c r="I82" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K82" s="52" t="s">
-        <v>155</v>
       </c>
       <c r="L82" s="33" t="s">
         <v>17</v>
@@ -5918,16 +5921,16 @@
         <v>37</v>
       </c>
       <c r="H83" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I83" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="I83" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K83" s="26" t="s">
-        <v>157</v>
       </c>
       <c r="L83" s="24" t="s">
         <v>17</v>
@@ -5960,16 +5963,16 @@
         <v>13</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I84" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J84" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K84" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="K84" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>17</v>
@@ -6002,16 +6005,16 @@
         <v>15</v>
       </c>
       <c r="H85" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I85" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I85" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" s="50" t="s">
+      <c r="K85" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K85" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L85" s="48" t="s">
         <v>31</v>
@@ -6044,16 +6047,16 @@
         <v>15</v>
       </c>
       <c r="H86" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I86" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I86" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K86" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L86" s="48" t="s">
         <v>35</v>
@@ -6086,16 +6089,16 @@
         <v>37</v>
       </c>
       <c r="H87" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I87" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I87" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K87" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L87" s="48" t="s">
         <v>44</v>
@@ -6128,16 +6131,16 @@
         <v>13</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I88" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J88" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K88" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L88" s="33" t="s">
         <v>17</v>
@@ -6170,16 +6173,16 @@
         <v>15</v>
       </c>
       <c r="H89" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I89" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" s="50" t="s">
+      <c r="K89" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K89" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L89" s="48" t="s">
         <v>31</v>
@@ -6212,16 +6215,16 @@
         <v>15</v>
       </c>
       <c r="H90" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I90" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I90" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K90" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L90" s="48" t="s">
         <v>35</v>
@@ -6254,16 +6257,16 @@
         <v>37</v>
       </c>
       <c r="H91" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K91" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I91" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K91" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L91" s="48" t="s">
         <v>44</v>
@@ -6296,16 +6299,16 @@
         <v>15</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I92" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J92" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K92" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L92" s="33" t="s">
         <v>17</v>
@@ -6338,16 +6341,16 @@
         <v>15</v>
       </c>
       <c r="H93" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I93" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I93" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" s="50" t="s">
+      <c r="K93" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K93" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L93" s="48" t="s">
         <v>31</v>
@@ -6380,16 +6383,16 @@
         <v>15</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I94" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J94" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K94" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L94" s="48" t="s">
         <v>35</v>
@@ -6422,16 +6425,16 @@
         <v>37</v>
       </c>
       <c r="H95" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I95" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K95" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L95" s="48" t="s">
         <v>44</v>
@@ -6464,16 +6467,16 @@
         <v>15</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I96" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K96" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L96" s="33" t="s">
         <v>17</v>
@@ -6506,16 +6509,16 @@
         <v>15</v>
       </c>
       <c r="H97" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I97" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I97" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" s="50" t="s">
+      <c r="K97" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K97" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L97" s="48" t="s">
         <v>31</v>
@@ -6548,16 +6551,16 @@
         <v>15</v>
       </c>
       <c r="H98" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I98" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K98" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L98" s="48" t="s">
         <v>35</v>
@@ -6590,16 +6593,16 @@
         <v>37</v>
       </c>
       <c r="H99" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I99" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K99" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I99" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K99" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L99" s="48" t="s">
         <v>44</v>
@@ -6632,16 +6635,16 @@
         <v>15</v>
       </c>
       <c r="H100" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I100" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K100" s="53" t="s">
         <v>163</v>
-      </c>
-      <c r="I100" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K100" s="53" t="s">
-        <v>164</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>17</v>
@@ -6674,19 +6677,19 @@
         <v>10</v>
       </c>
       <c r="H101" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I101" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K101" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="I101" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K101" s="39" t="s">
-        <v>166</v>
-      </c>
       <c r="L101" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M101" s="28" t="s">
         <v>62</v>
@@ -6716,16 +6719,16 @@
         <v>10</v>
       </c>
       <c r="H102" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I102" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="I102" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="26" t="s">
+      <c r="K102" s="39" t="s">
         <v>168</v>
-      </c>
-      <c r="K102" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="L102" s="24" t="s">
         <v>31</v>
@@ -6758,7 +6761,7 @@
         <v>37</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I103" s="25" t="n">
         <v>0</v>
@@ -6767,10 +6770,10 @@
         <v>46</v>
       </c>
       <c r="K103" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M103" s="28" t="s">
         <v>62</v>
@@ -6800,16 +6803,16 @@
         <v>12</v>
       </c>
       <c r="H104" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I104" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="I104" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" s="26" t="s">
+      <c r="K104" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="K104" s="39" t="s">
-        <v>174</v>
       </c>
       <c r="L104" s="24" t="s">
         <v>17</v>
@@ -6851,10 +6854,10 @@
         <v>0</v>
       </c>
       <c r="J105" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="K105" s="45" t="s">
         <v>175</v>
-      </c>
-      <c r="K105" s="45" t="s">
-        <v>176</v>
       </c>
       <c r="L105" s="33" t="s">
         <v>17</v>
@@ -6887,16 +6890,16 @@
         <v>9</v>
       </c>
       <c r="H106" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I106" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="I106" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" s="50" t="s">
+      <c r="K106" s="51" t="s">
         <v>178</v>
-      </c>
-      <c r="K106" s="51" t="s">
-        <v>179</v>
       </c>
       <c r="L106" s="48" t="s">
         <v>17</v>
@@ -6929,16 +6932,16 @@
         <v>11</v>
       </c>
       <c r="H107" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I107" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K107" s="51" t="s">
         <v>180</v>
-      </c>
-      <c r="I107" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K107" s="51" t="s">
-        <v>181</v>
       </c>
       <c r="L107" s="48" t="s">
         <v>17</v>
@@ -6971,16 +6974,16 @@
         <v>11</v>
       </c>
       <c r="H108" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K108" s="51" t="s">
         <v>182</v>
-      </c>
-      <c r="I108" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K108" s="51" t="s">
-        <v>183</v>
       </c>
       <c r="L108" s="48" t="s">
         <v>17</v>
@@ -7013,16 +7016,16 @@
         <v>11</v>
       </c>
       <c r="H109" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I109" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K109" s="51" t="s">
         <v>184</v>
-      </c>
-      <c r="I109" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K109" s="51" t="s">
-        <v>185</v>
       </c>
       <c r="L109" s="48" t="s">
         <v>44</v>
@@ -7055,16 +7058,16 @@
         <v>12</v>
       </c>
       <c r="H110" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="I110" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K110" s="51" t="s">
         <v>186</v>
-      </c>
-      <c r="I110" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K110" s="51" t="s">
-        <v>187</v>
       </c>
       <c r="L110" s="48" t="s">
         <v>44</v>
@@ -7097,16 +7100,16 @@
         <v>14</v>
       </c>
       <c r="H111" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I111" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K111" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="I111" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="K111" s="42" t="s">
-        <v>189</v>
       </c>
       <c r="L111" s="24" t="s">
         <v>44</v>
@@ -7139,16 +7142,16 @@
         <v>14</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I112" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J112" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K112" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L112" s="24" t="s">
         <v>44</v>
@@ -7181,16 +7184,16 @@
         <v>11</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I113" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J113" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K113" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="K113" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="L113" s="24" t="s">
         <v>35</v>
@@ -7223,16 +7226,16 @@
         <v>37</v>
       </c>
       <c r="H114" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I114" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="I114" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" s="26" t="s">
+      <c r="K114" s="43" t="s">
         <v>194</v>
-      </c>
-      <c r="K114" s="43" t="s">
-        <v>195</v>
       </c>
       <c r="L114" s="24" t="s">
         <v>17</v>
@@ -7271,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="J115" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K115" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L115" s="24" t="s">
         <v>31</v>
@@ -7307,16 +7310,16 @@
         <v>37</v>
       </c>
       <c r="H116" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I116" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K116" s="43" t="s">
         <v>197</v>
-      </c>
-      <c r="I116" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K116" s="43" t="s">
-        <v>198</v>
       </c>
       <c r="L116" s="24" t="s">
         <v>17</v>
@@ -7349,16 +7352,16 @@
         <v>37</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I117" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J117" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K117" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L117" s="24" t="s">
         <v>17</v>
@@ -7391,16 +7394,16 @@
         <v>16</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I118" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J118" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L118" s="24" t="s">
         <v>31</v>
@@ -7433,16 +7436,16 @@
         <v>16</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I119" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J119" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L119" s="24" t="s">
         <v>31</v>
@@ -7475,19 +7478,19 @@
         <v>17</v>
       </c>
       <c r="H120" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I120" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" s="19" t="s">
+      <c r="K120" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="K120" s="17" t="s">
-        <v>203</v>
-      </c>
       <c r="L120" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M120" s="21" t="s">
         <v>62</v>
@@ -7517,7 +7520,7 @@
         <v>37</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I121" s="25" t="n">
         <v>0</v>
@@ -7526,7 +7529,7 @@
         <v>28</v>
       </c>
       <c r="K121" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L121" s="24" t="s">
         <v>44</v>
@@ -7559,19 +7562,19 @@
         <v>10</v>
       </c>
       <c r="H122" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I122" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K122" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="I122" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K122" s="24" t="s">
-        <v>207</v>
-      </c>
       <c r="L122" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M122" s="28" t="s">
         <v>62</v>
@@ -7601,7 +7604,7 @@
         <v>10</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I123" s="25" t="n">
         <v>0</v>
@@ -7610,7 +7613,7 @@
         <v>46</v>
       </c>
       <c r="K123" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L123" s="24" t="s">
         <v>17</v>
@@ -7643,16 +7646,16 @@
         <v>10</v>
       </c>
       <c r="H124" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I124" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K124" s="24" t="s">
         <v>210</v>
-      </c>
-      <c r="I124" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K124" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="L124" s="24" t="s">
         <v>35</v>
@@ -7685,7 +7688,7 @@
         <v>9</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I125" s="25" t="n">
         <v>0</v>
@@ -7694,7 +7697,7 @@
         <v>28</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L125" s="24" t="s">
         <v>73</v>
@@ -7727,16 +7730,16 @@
         <v>37</v>
       </c>
       <c r="H126" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I126" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K126" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="I126" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K126" s="24" t="s">
-        <v>215</v>
       </c>
       <c r="L126" s="24" t="s">
         <v>44</v>
@@ -7769,16 +7772,16 @@
         <v>9</v>
       </c>
       <c r="H127" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I127" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K127" s="24" t="s">
         <v>216</v>
-      </c>
-      <c r="I127" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="K127" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="L127" s="24" t="s">
         <v>35</v>
@@ -7811,7 +7814,7 @@
         <v>37</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I128" s="25" t="n">
         <v>0</v>
@@ -7820,7 +7823,7 @@
         <v>46</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L128" s="24" t="s">
         <v>44</v>
@@ -7853,16 +7856,16 @@
         <v>37</v>
       </c>
       <c r="H129" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I129" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I129" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="19" t="s">
+      <c r="K129" s="56" t="s">
         <v>221</v>
-      </c>
-      <c r="K129" s="56" t="s">
-        <v>222</v>
       </c>
       <c r="L129" s="17" t="s">
         <v>17</v>
@@ -7895,16 +7898,16 @@
         <v>10</v>
       </c>
       <c r="H130" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I130" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I130" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="26" t="s">
+      <c r="K130" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="K130" s="24" t="s">
-        <v>225</v>
       </c>
       <c r="L130" s="24" t="s">
         <v>17</v>
@@ -7937,16 +7940,16 @@
         <v>37</v>
       </c>
       <c r="H131" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I131" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I131" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="K131" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L131" s="24" t="s">
         <v>17</v>
@@ -7979,16 +7982,16 @@
         <v>10</v>
       </c>
       <c r="H132" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I132" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K132" s="58" t="s">
         <v>227</v>
-      </c>
-      <c r="I132" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K132" s="58" t="s">
-        <v>228</v>
       </c>
       <c r="L132" s="24" t="s">
         <v>17</v>
@@ -8021,16 +8024,16 @@
         <v>37</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I133" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J133" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K133" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L133" s="24" t="s">
         <v>17</v>
@@ -8063,16 +8066,16 @@
         <v>10</v>
       </c>
       <c r="H134" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I134" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K134" s="59" t="s">
         <v>230</v>
-      </c>
-      <c r="I134" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K134" s="59" t="s">
-        <v>231</v>
       </c>
       <c r="L134" s="24" t="s">
         <v>17</v>
@@ -8105,16 +8108,16 @@
         <v>37</v>
       </c>
       <c r="H135" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I135" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K135" s="57" t="s">
         <v>232</v>
-      </c>
-      <c r="I135" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K135" s="57" t="s">
-        <v>233</v>
       </c>
       <c r="L135" s="24" t="s">
         <v>17</v>
@@ -8147,16 +8150,16 @@
         <v>10</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I136" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K136" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L136" s="24" t="s">
         <v>17</v>
@@ -8189,19 +8192,19 @@
         <v>14</v>
       </c>
       <c r="H137" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I137" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="I137" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" s="19" t="s">
+      <c r="K137" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K137" s="30" t="s">
-        <v>237</v>
-      </c>
       <c r="L137" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M137" s="21" t="s">
         <v>62</v>
@@ -8231,16 +8234,16 @@
         <v>37</v>
       </c>
       <c r="H138" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I138" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I138" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" s="19" t="s">
+      <c r="K138" s="30" t="s">
         <v>239</v>
-      </c>
-      <c r="K138" s="30" t="s">
-        <v>240</v>
       </c>
       <c r="L138" s="17" t="s">
         <v>35</v>
@@ -8273,16 +8276,16 @@
         <v>37</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I139" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J139" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K139" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="K139" s="56" t="s">
-        <v>242</v>
       </c>
       <c r="L139" s="17" t="s">
         <v>44</v>
@@ -8315,16 +8318,16 @@
         <v>37</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I140" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J140" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K140" s="56" t="s">
         <v>241</v>
-      </c>
-      <c r="K140" s="56" t="s">
-        <v>242</v>
       </c>
       <c r="L140" s="17" t="s">
         <v>44</v>
@@ -8357,16 +8360,16 @@
         <v>16</v>
       </c>
       <c r="H141" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I141" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I141" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" s="19" t="s">
+      <c r="K141" s="56" t="s">
         <v>244</v>
-      </c>
-      <c r="K141" s="56" t="s">
-        <v>245</v>
       </c>
       <c r="L141" s="17" t="s">
         <v>35</v>
@@ -8399,16 +8402,16 @@
         <v>37</v>
       </c>
       <c r="H142" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I142" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K142" s="30" t="s">
         <v>246</v>
-      </c>
-      <c r="I142" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="K142" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="L142" s="17" t="s">
         <v>44</v>
@@ -8447,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J143" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K143" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="K143" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="L143" s="17" t="s">
         <v>17</v>
@@ -8489,10 +8492,10 @@
         <v>0</v>
       </c>
       <c r="J144" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K144" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L144" s="17" t="s">
         <v>31</v>
@@ -8525,16 +8528,16 @@
         <v>17</v>
       </c>
       <c r="H145" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I145" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K145" s="30" t="s">
         <v>251</v>
-      </c>
-      <c r="I145" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K145" s="30" t="s">
-        <v>252</v>
       </c>
       <c r="L145" s="17" t="s">
         <v>31</v>
@@ -8567,16 +8570,16 @@
         <v>17</v>
       </c>
       <c r="H146" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="I146" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K146" s="30" t="s">
         <v>251</v>
-      </c>
-      <c r="I146" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K146" s="30" t="s">
-        <v>252</v>
       </c>
       <c r="L146" s="17" t="s">
         <v>31</v>
@@ -8615,10 +8618,10 @@
         <v>0</v>
       </c>
       <c r="J147" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K147" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="K147" s="13" t="s">
-        <v>254</v>
       </c>
       <c r="L147" s="10" t="s">
         <v>17</v>
@@ -8657,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="J148" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K148" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="K148" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="L148" s="17" t="s">
         <v>17</v>
@@ -8702,10 +8705,10 @@
         <v>33</v>
       </c>
       <c r="K149" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L149" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="L149" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="M149" s="28" t="s">
         <v>62</v>
@@ -8735,16 +8738,16 @@
         <v>37</v>
       </c>
       <c r="H150" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I150" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I150" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" s="26" t="s">
+      <c r="K150" s="40" t="s">
         <v>110</v>
-      </c>
-      <c r="K150" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="L150" s="24" t="s">
         <v>44</v>
@@ -8777,16 +8780,16 @@
         <v>10</v>
       </c>
       <c r="H151" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I151" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="I151" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" s="26" t="s">
+      <c r="K151" s="41" t="s">
         <v>113</v>
-      </c>
-      <c r="K151" s="41" t="s">
-        <v>114</v>
       </c>
       <c r="L151" s="24" t="s">
         <v>73</v>
@@ -8825,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="J152" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K152" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="K152" s="41" t="s">
-        <v>116</v>
       </c>
       <c r="L152" s="24" t="s">
         <v>73</v>
@@ -8861,16 +8864,16 @@
         <v>10</v>
       </c>
       <c r="H153" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I153" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I153" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" s="26" t="s">
+      <c r="K153" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="K153" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="L153" s="24" t="s">
         <v>73</v>
@@ -8909,10 +8912,10 @@
         <v>0</v>
       </c>
       <c r="J154" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K154" s="43" t="s">
         <v>120</v>
-      </c>
-      <c r="K154" s="43" t="s">
-        <v>121</v>
       </c>
       <c r="L154" s="24" t="s">
         <v>35</v>
@@ -8945,16 +8948,16 @@
         <v>37</v>
       </c>
       <c r="H155" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I155" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I155" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" s="26" t="s">
+      <c r="K155" s="44" t="s">
         <v>123</v>
-      </c>
-      <c r="K155" s="44" t="s">
-        <v>124</v>
       </c>
       <c r="L155" s="24" t="s">
         <v>44</v>
@@ -8987,16 +8990,16 @@
         <v>37</v>
       </c>
       <c r="H156" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I156" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I156" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" s="26" t="s">
+      <c r="K156" s="44" t="s">
         <v>123</v>
-      </c>
-      <c r="K156" s="44" t="s">
-        <v>124</v>
       </c>
       <c r="L156" s="24" t="s">
         <v>44</v>
@@ -9029,16 +9032,16 @@
         <v>11</v>
       </c>
       <c r="H157" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I157" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I157" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" s="26" t="s">
+      <c r="K157" s="39" t="s">
         <v>126</v>
-      </c>
-      <c r="K157" s="39" t="s">
-        <v>127</v>
       </c>
       <c r="L157" s="24" t="s">
         <v>35</v>
@@ -9071,16 +9074,16 @@
         <v>11</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I158" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K158" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L158" s="24" t="s">
         <v>35</v>
@@ -9119,10 +9122,10 @@
         <v>0</v>
       </c>
       <c r="J159" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K159" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="K159" s="39" t="s">
-        <v>130</v>
       </c>
       <c r="L159" s="24" t="s">
         <v>31</v>
@@ -9155,16 +9158,16 @@
         <v>16</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I160" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J160" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K160" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="K160" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="L160" s="24" t="s">
         <v>31</v>
@@ -9197,16 +9200,16 @@
         <v>16</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I161" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K161" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L161" s="24" t="s">
         <v>31</v>
@@ -9239,19 +9242,19 @@
         <v>14</v>
       </c>
       <c r="H162" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I162" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I162" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" s="19" t="s">
+      <c r="K162" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="K162" s="30" t="s">
-        <v>136</v>
-      </c>
       <c r="L162" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M162" s="21" t="s">
         <v>62</v>
@@ -9287,10 +9290,10 @@
         <v>0</v>
       </c>
       <c r="J163" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K163" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="K163" s="26" t="s">
-        <v>138</v>
       </c>
       <c r="L163" s="24" t="s">
         <v>17</v>
@@ -9323,16 +9326,16 @@
         <v>13</v>
       </c>
       <c r="H164" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I164" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="I164" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" s="35" t="s">
+      <c r="K164" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="K164" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="L164" s="33" t="s">
         <v>17</v>
@@ -9365,16 +9368,16 @@
         <v>15</v>
       </c>
       <c r="H165" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I165" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I165" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" s="50" t="s">
+      <c r="K165" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K165" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L165" s="48" t="s">
         <v>31</v>
@@ -9407,16 +9410,16 @@
         <v>15</v>
       </c>
       <c r="H166" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I166" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K166" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I166" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K166" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L166" s="48" t="s">
         <v>35</v>
@@ -9449,16 +9452,16 @@
         <v>37</v>
       </c>
       <c r="H167" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I167" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K167" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I167" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K167" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L167" s="48" t="s">
         <v>44</v>
@@ -9491,16 +9494,16 @@
         <v>13</v>
       </c>
       <c r="H168" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="I168" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K168" s="45" t="s">
         <v>149</v>
-      </c>
-      <c r="I168" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K168" s="45" t="s">
-        <v>150</v>
       </c>
       <c r="L168" s="33" t="s">
         <v>17</v>
@@ -9533,16 +9536,16 @@
         <v>15</v>
       </c>
       <c r="H169" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I169" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I169" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" s="50" t="s">
+      <c r="K169" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K169" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L169" s="48" t="s">
         <v>31</v>
@@ -9575,16 +9578,16 @@
         <v>15</v>
       </c>
       <c r="H170" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I170" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K170" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I170" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K170" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L170" s="48" t="s">
         <v>35</v>
@@ -9617,16 +9620,16 @@
         <v>37</v>
       </c>
       <c r="H171" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I171" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K171" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I171" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K171" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L171" s="48" t="s">
         <v>44</v>
@@ -9659,16 +9662,16 @@
         <v>15</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I172" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J172" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K172" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L172" s="33" t="s">
         <v>17</v>
@@ -9701,16 +9704,16 @@
         <v>15</v>
       </c>
       <c r="H173" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I173" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I173" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" s="50" t="s">
+      <c r="K173" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K173" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L173" s="48" t="s">
         <v>31</v>
@@ -9743,16 +9746,16 @@
         <v>15</v>
       </c>
       <c r="H174" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I174" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K174" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I174" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K174" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L174" s="48" t="s">
         <v>35</v>
@@ -9785,16 +9788,16 @@
         <v>37</v>
       </c>
       <c r="H175" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I175" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K175" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I175" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K175" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L175" s="48" t="s">
         <v>44</v>
@@ -9827,16 +9830,16 @@
         <v>15</v>
       </c>
       <c r="H176" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I176" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K176" s="45" t="s">
         <v>152</v>
-      </c>
-      <c r="I176" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K176" s="45" t="s">
-        <v>153</v>
       </c>
       <c r="L176" s="33" t="s">
         <v>17</v>
@@ -9869,16 +9872,16 @@
         <v>15</v>
       </c>
       <c r="H177" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I177" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I177" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" s="50" t="s">
+      <c r="K177" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K177" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L177" s="48" t="s">
         <v>31</v>
@@ -9911,16 +9914,16 @@
         <v>15</v>
       </c>
       <c r="H178" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I178" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K178" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I178" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K178" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L178" s="48" t="s">
         <v>35</v>
@@ -9953,16 +9956,16 @@
         <v>37</v>
       </c>
       <c r="H179" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I179" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K179" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I179" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K179" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L179" s="48" t="s">
         <v>44</v>
@@ -9995,16 +9998,16 @@
         <v>15</v>
       </c>
       <c r="H180" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="I180" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K180" s="52" t="s">
         <v>154</v>
-      </c>
-      <c r="I180" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K180" s="52" t="s">
-        <v>155</v>
       </c>
       <c r="L180" s="33" t="s">
         <v>17</v>
@@ -10037,16 +10040,16 @@
         <v>37</v>
       </c>
       <c r="H181" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="I181" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="K181" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="I181" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K181" s="26" t="s">
-        <v>157</v>
       </c>
       <c r="L181" s="24" t="s">
         <v>17</v>
@@ -10079,16 +10082,16 @@
         <v>13</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I182" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J182" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K182" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="K182" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="L182" s="33" t="s">
         <v>17</v>
@@ -10121,16 +10124,16 @@
         <v>15</v>
       </c>
       <c r="H183" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I183" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I183" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" s="50" t="s">
+      <c r="K183" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K183" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L183" s="48" t="s">
         <v>31</v>
@@ -10163,16 +10166,16 @@
         <v>15</v>
       </c>
       <c r="H184" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I184" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K184" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I184" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K184" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L184" s="48" t="s">
         <v>35</v>
@@ -10205,16 +10208,16 @@
         <v>37</v>
       </c>
       <c r="H185" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I185" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K185" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I185" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K185" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L185" s="48" t="s">
         <v>44</v>
@@ -10247,16 +10250,16 @@
         <v>13</v>
       </c>
       <c r="H186" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I186" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J186" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K186" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L186" s="33" t="s">
         <v>17</v>
@@ -10289,16 +10292,16 @@
         <v>15</v>
       </c>
       <c r="H187" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I187" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I187" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" s="50" t="s">
+      <c r="K187" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K187" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L187" s="48" t="s">
         <v>31</v>
@@ -10331,16 +10334,16 @@
         <v>15</v>
       </c>
       <c r="H188" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I188" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K188" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="I188" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K188" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="L188" s="48" t="s">
         <v>35</v>
@@ -10373,16 +10376,16 @@
         <v>37</v>
       </c>
       <c r="H189" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I189" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K189" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I189" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K189" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L189" s="48" t="s">
         <v>44</v>
@@ -10415,16 +10418,16 @@
         <v>15</v>
       </c>
       <c r="H190" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I190" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J190" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K190" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L190" s="33" t="s">
         <v>17</v>
@@ -10457,16 +10460,16 @@
         <v>15</v>
       </c>
       <c r="H191" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I191" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I191" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" s="50" t="s">
+      <c r="K191" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K191" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L191" s="48" t="s">
         <v>31</v>
@@ -10499,16 +10502,16 @@
         <v>15</v>
       </c>
       <c r="H192" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I192" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J192" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K192" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L192" s="48" t="s">
         <v>35</v>
@@ -10541,16 +10544,16 @@
         <v>37</v>
       </c>
       <c r="H193" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I193" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K193" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I193" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K193" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L193" s="48" t="s">
         <v>44</v>
@@ -10583,16 +10586,16 @@
         <v>15</v>
       </c>
       <c r="H194" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I194" s="34" t="n">
         <v>0</v>
       </c>
       <c r="J194" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K194" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L194" s="33" t="s">
         <v>17</v>
@@ -10625,16 +10628,16 @@
         <v>15</v>
       </c>
       <c r="H195" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I195" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="I195" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" s="50" t="s">
+      <c r="K195" s="51" t="s">
         <v>143</v>
-      </c>
-      <c r="K195" s="51" t="s">
-        <v>144</v>
       </c>
       <c r="L195" s="48" t="s">
         <v>31</v>
@@ -10667,16 +10670,16 @@
         <v>15</v>
       </c>
       <c r="H196" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I196" s="49" t="n">
         <v>0</v>
       </c>
       <c r="J196" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K196" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L196" s="48" t="s">
         <v>35</v>
@@ -10709,16 +10712,16 @@
         <v>37</v>
       </c>
       <c r="H197" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I197" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K197" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="I197" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="K197" s="51" t="s">
-        <v>148</v>
       </c>
       <c r="L197" s="48" t="s">
         <v>44</v>
@@ -10751,16 +10754,16 @@
         <v>15</v>
       </c>
       <c r="H198" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I198" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K198" s="53" t="s">
         <v>163</v>
-      </c>
-      <c r="I198" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K198" s="53" t="s">
-        <v>164</v>
       </c>
       <c r="L198" s="33" t="s">
         <v>17</v>
@@ -10793,19 +10796,19 @@
         <v>10</v>
       </c>
       <c r="H199" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="I199" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K199" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="I199" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K199" s="39" t="s">
-        <v>166</v>
-      </c>
       <c r="L199" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M199" s="28" t="s">
         <v>62</v>
@@ -10835,16 +10838,16 @@
         <v>10</v>
       </c>
       <c r="H200" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="I200" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="I200" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" s="26" t="s">
+      <c r="K200" s="39" t="s">
         <v>168</v>
-      </c>
-      <c r="K200" s="39" t="s">
-        <v>169</v>
       </c>
       <c r="L200" s="24" t="s">
         <v>31</v>
@@ -10877,7 +10880,7 @@
         <v>37</v>
       </c>
       <c r="H201" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I201" s="25" t="n">
         <v>0</v>
@@ -10886,10 +10889,10 @@
         <v>46</v>
       </c>
       <c r="K201" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L201" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M201" s="28" t="s">
         <v>62</v>
@@ -10919,16 +10922,16 @@
         <v>12</v>
       </c>
       <c r="H202" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="I202" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="I202" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" s="26" t="s">
+      <c r="K202" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="K202" s="39" t="s">
-        <v>174</v>
       </c>
       <c r="L202" s="24" t="s">
         <v>17</v>
@@ -10970,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="J203" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="K203" s="45" t="s">
         <v>175</v>
-      </c>
-      <c r="K203" s="45" t="s">
-        <v>176</v>
       </c>
       <c r="L203" s="33" t="s">
         <v>17</v>
@@ -11006,16 +11009,16 @@
         <v>9</v>
       </c>
       <c r="H204" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I204" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="I204" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" s="50" t="s">
+      <c r="K204" s="51" t="s">
         <v>178</v>
-      </c>
-      <c r="K204" s="51" t="s">
-        <v>179</v>
       </c>
       <c r="L204" s="48" t="s">
         <v>17</v>
@@ -11048,16 +11051,16 @@
         <v>11</v>
       </c>
       <c r="H205" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I205" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K205" s="51" t="s">
         <v>180</v>
-      </c>
-      <c r="I205" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K205" s="51" t="s">
-        <v>181</v>
       </c>
       <c r="L205" s="48" t="s">
         <v>17</v>
@@ -11090,16 +11093,16 @@
         <v>11</v>
       </c>
       <c r="H206" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I206" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K206" s="51" t="s">
         <v>182</v>
-      </c>
-      <c r="I206" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K206" s="51" t="s">
-        <v>183</v>
       </c>
       <c r="L206" s="48" t="s">
         <v>17</v>
@@ -11132,16 +11135,16 @@
         <v>11</v>
       </c>
       <c r="H207" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I207" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K207" s="51" t="s">
         <v>184</v>
-      </c>
-      <c r="I207" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K207" s="51" t="s">
-        <v>185</v>
       </c>
       <c r="L207" s="48" t="s">
         <v>44</v>
@@ -11174,16 +11177,16 @@
         <v>12</v>
       </c>
       <c r="H208" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="I208" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="K208" s="51" t="s">
         <v>186</v>
-      </c>
-      <c r="I208" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="K208" s="51" t="s">
-        <v>187</v>
       </c>
       <c r="L208" s="48" t="s">
         <v>44</v>
@@ -11216,16 +11219,16 @@
         <v>14</v>
       </c>
       <c r="H209" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I209" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="K209" s="42" t="s">
         <v>188</v>
-      </c>
-      <c r="I209" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="K209" s="42" t="s">
-        <v>189</v>
       </c>
       <c r="L209" s="24" t="s">
         <v>44</v>
@@ -11258,16 +11261,16 @@
         <v>14</v>
       </c>
       <c r="H210" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I210" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J210" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K210" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L210" s="24" t="s">
         <v>44</v>
@@ -11300,16 +11303,16 @@
         <v>11</v>
       </c>
       <c r="H211" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I211" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J211" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K211" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="K211" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="L211" s="24" t="s">
         <v>35</v>
@@ -11342,16 +11345,16 @@
         <v>37</v>
       </c>
       <c r="H212" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I212" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="I212" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" s="26" t="s">
+      <c r="K212" s="43" t="s">
         <v>194</v>
-      </c>
-      <c r="K212" s="43" t="s">
-        <v>195</v>
       </c>
       <c r="L212" s="24" t="s">
         <v>17</v>
@@ -11390,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="J213" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K213" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L213" s="24" t="s">
         <v>31</v>
@@ -11426,16 +11429,16 @@
         <v>37</v>
       </c>
       <c r="H214" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I214" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K214" s="43" t="s">
         <v>197</v>
-      </c>
-      <c r="I214" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K214" s="43" t="s">
-        <v>198</v>
       </c>
       <c r="L214" s="24" t="s">
         <v>17</v>
@@ -11468,16 +11471,16 @@
         <v>37</v>
       </c>
       <c r="H215" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I215" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J215" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K215" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L215" s="24" t="s">
         <v>17</v>
@@ -11510,16 +11513,16 @@
         <v>16</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I216" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J216" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K216" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L216" s="24" t="s">
         <v>31</v>
@@ -11552,16 +11555,16 @@
         <v>16</v>
       </c>
       <c r="H217" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I217" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J217" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L217" s="24" t="s">
         <v>31</v>
@@ -11594,19 +11597,19 @@
         <v>17</v>
       </c>
       <c r="H218" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I218" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I218" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" s="19" t="s">
+      <c r="K218" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="K218" s="17" t="s">
-        <v>203</v>
-      </c>
       <c r="L218" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M218" s="21" t="s">
         <v>62</v>
@@ -11636,7 +11639,7 @@
         <v>37</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I219" s="25" t="n">
         <v>0</v>
@@ -11645,7 +11648,7 @@
         <v>28</v>
       </c>
       <c r="K219" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L219" s="24" t="s">
         <v>44</v>
@@ -11678,19 +11681,19 @@
         <v>10</v>
       </c>
       <c r="H220" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I220" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K220" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="I220" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K220" s="24" t="s">
-        <v>207</v>
-      </c>
       <c r="L220" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M220" s="28" t="s">
         <v>62</v>
@@ -11720,7 +11723,7 @@
         <v>10</v>
       </c>
       <c r="H221" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I221" s="25" t="n">
         <v>0</v>
@@ -11729,7 +11732,7 @@
         <v>46</v>
       </c>
       <c r="K221" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L221" s="24" t="s">
         <v>17</v>
@@ -11762,16 +11765,16 @@
         <v>10</v>
       </c>
       <c r="H222" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I222" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K222" s="24" t="s">
         <v>210</v>
-      </c>
-      <c r="I222" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K222" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="L222" s="24" t="s">
         <v>35</v>
@@ -11804,7 +11807,7 @@
         <v>9</v>
       </c>
       <c r="H223" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I223" s="25" t="n">
         <v>0</v>
@@ -11813,7 +11816,7 @@
         <v>28</v>
       </c>
       <c r="K223" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L223" s="24" t="s">
         <v>73</v>
@@ -11846,16 +11849,16 @@
         <v>37</v>
       </c>
       <c r="H224" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I224" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K224" s="24" t="s">
         <v>214</v>
-      </c>
-      <c r="I224" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K224" s="24" t="s">
-        <v>215</v>
       </c>
       <c r="L224" s="24" t="s">
         <v>44</v>
@@ -11888,16 +11891,16 @@
         <v>9</v>
       </c>
       <c r="H225" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I225" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K225" s="24" t="s">
         <v>216</v>
-      </c>
-      <c r="I225" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="K225" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="L225" s="24" t="s">
         <v>35</v>
@@ -11930,7 +11933,7 @@
         <v>37</v>
       </c>
       <c r="H226" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I226" s="25" t="n">
         <v>0</v>
@@ -11939,7 +11942,7 @@
         <v>46</v>
       </c>
       <c r="K226" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L226" s="24" t="s">
         <v>44</v>
@@ -11972,16 +11975,16 @@
         <v>37</v>
       </c>
       <c r="H227" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I227" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I227" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" s="19" t="s">
+      <c r="K227" s="56" t="s">
         <v>221</v>
-      </c>
-      <c r="K227" s="56" t="s">
-        <v>222</v>
       </c>
       <c r="L227" s="17" t="s">
         <v>17</v>
@@ -12014,16 +12017,16 @@
         <v>10</v>
       </c>
       <c r="H228" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I228" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I228" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" s="26" t="s">
+      <c r="K228" s="24" t="s">
         <v>224</v>
-      </c>
-      <c r="K228" s="24" t="s">
-        <v>225</v>
       </c>
       <c r="L228" s="24" t="s">
         <v>17</v>
@@ -12056,16 +12059,16 @@
         <v>37</v>
       </c>
       <c r="H229" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="I229" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="I229" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" s="26" t="s">
-        <v>224</v>
-      </c>
       <c r="K229" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L229" s="24" t="s">
         <v>17</v>
@@ -12098,16 +12101,16 @@
         <v>10</v>
       </c>
       <c r="H230" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I230" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K230" s="58" t="s">
         <v>227</v>
-      </c>
-      <c r="I230" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K230" s="58" t="s">
-        <v>228</v>
       </c>
       <c r="L230" s="24" t="s">
         <v>17</v>
@@ -12140,16 +12143,16 @@
         <v>37</v>
       </c>
       <c r="H231" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I231" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J231" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K231" s="57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L231" s="24" t="s">
         <v>17</v>
@@ -12182,16 +12185,16 @@
         <v>10</v>
       </c>
       <c r="H232" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I232" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K232" s="59" t="s">
         <v>230</v>
-      </c>
-      <c r="I232" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K232" s="59" t="s">
-        <v>231</v>
       </c>
       <c r="L232" s="24" t="s">
         <v>17</v>
@@ -12224,16 +12227,16 @@
         <v>37</v>
       </c>
       <c r="H233" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I233" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K233" s="57" t="s">
         <v>232</v>
-      </c>
-      <c r="I233" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="K233" s="57" t="s">
-        <v>233</v>
       </c>
       <c r="L233" s="24" t="s">
         <v>17</v>
@@ -12266,16 +12269,16 @@
         <v>10</v>
       </c>
       <c r="H234" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I234" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J234" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K234" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L234" s="24" t="s">
         <v>17</v>
@@ -12308,19 +12311,19 @@
         <v>14</v>
       </c>
       <c r="H235" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I235" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="I235" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" s="19" t="s">
+      <c r="K235" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K235" s="30" t="s">
-        <v>237</v>
-      </c>
       <c r="L235" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M235" s="21" t="s">
         <v>62</v>
@@ -12350,16 +12353,16 @@
         <v>37</v>
       </c>
       <c r="H236" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I236" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I236" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" s="19" t="s">
+      <c r="K236" s="30" t="s">
         <v>239</v>
-      </c>
-      <c r="K236" s="30" t="s">
-        <v>240</v>
       </c>
       <c r="L236" s="17" t="s">
         <v>35</v>
@@ -12392,16 +12395,16 @@
         <v>37</v>
       </c>
       <c r="H237" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I237" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J237" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K237" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L237" s="17" t="s">
         <v>44</v>
@@ -12434,16 +12437,16 @@
         <v>37</v>
       </c>
       <c r="H238" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I238" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J238" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K238" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L238" s="17" t="s">
         <v>44</v>
@@ -12476,16 +12479,16 @@
         <v>16</v>
       </c>
       <c r="H239" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="I239" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I239" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="K239" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L239" s="17" t="s">
         <v>35</v>
@@ -12518,16 +12521,16 @@
         <v>37</v>
       </c>
       <c r="H240" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="I240" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K240" s="30" t="s">
         <v>246</v>
-      </c>
-      <c r="I240" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="K240" s="30" t="s">
-        <v>247</v>
       </c>
       <c r="L240" s="17" t="s">
         <v>44</v>
@@ -12566,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="J241" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K241" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="K241" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="L241" s="17" t="s">
         <v>17</v>
@@ -12608,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="J242" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K242" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L242" s="17" t="s">
         <v>31</v>
@@ -12644,16 +12647,16 @@
         <v>17</v>
       </c>
       <c r="H243" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I243" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J243" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K243" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L243" s="17" t="s">
         <v>31</v>
@@ -12686,16 +12689,16 @@
         <v>17</v>
       </c>
       <c r="H244" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I244" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J244" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K244" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L244" s="17" t="s">
         <v>31</v>
@@ -12727,19 +12730,19 @@
         <v>10</v>
       </c>
       <c r="H245" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I245" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J245" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K245" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L245" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M245" s="14" t="s">
         <v>62</v>
@@ -12769,16 +12772,16 @@
         <v>14</v>
       </c>
       <c r="H246" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="I246" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="I246" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" s="19" t="s">
+      <c r="K246" s="65" t="s">
         <v>261</v>
-      </c>
-      <c r="K246" s="65" t="s">
-        <v>262</v>
       </c>
       <c r="L246" s="17" t="s">
         <v>31</v>
@@ -12817,10 +12820,10 @@
         <v>0</v>
       </c>
       <c r="J247" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K247" s="66" t="s">
         <v>263</v>
-      </c>
-      <c r="K247" s="66" t="s">
-        <v>264</v>
       </c>
       <c r="L247" s="17" t="s">
         <v>17</v>
@@ -12859,10 +12862,10 @@
         <v>0</v>
       </c>
       <c r="J248" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K248" s="66" t="s">
         <v>265</v>
-      </c>
-      <c r="K248" s="66" t="s">
-        <v>266</v>
       </c>
       <c r="L248" s="17" t="s">
         <v>44</v>
@@ -12901,10 +12904,10 @@
         <v>0</v>
       </c>
       <c r="J249" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K249" s="66" t="s">
         <v>267</v>
-      </c>
-      <c r="K249" s="66" t="s">
-        <v>268</v>
       </c>
       <c r="L249" s="17" t="s">
         <v>44</v>
@@ -12943,10 +12946,10 @@
         <v>0</v>
       </c>
       <c r="J250" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K250" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L250" s="17" t="s">
         <v>44</v>
@@ -12985,10 +12988,10 @@
         <v>0</v>
       </c>
       <c r="J251" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="K251" s="67" t="s">
         <v>270</v>
-      </c>
-      <c r="K251" s="67" t="s">
-        <v>271</v>
       </c>
       <c r="L251" s="17" t="s">
         <v>35</v>
@@ -13027,10 +13030,10 @@
         <v>0</v>
       </c>
       <c r="J252" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K252" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L252" s="17" t="s">
         <v>31</v>
@@ -13068,10 +13071,10 @@
         <v>0</v>
       </c>
       <c r="J253" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K253" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L253" s="10" t="s">
         <v>44</v>
@@ -13110,10 +13113,10 @@
         <v>0</v>
       </c>
       <c r="J254" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K254" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L254" s="17" t="s">
         <v>17</v>
@@ -13152,10 +13155,10 @@
         <v>0</v>
       </c>
       <c r="J255" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K255" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L255" s="17" t="s">
         <v>17</v>
@@ -13194,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="J256" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K256" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L256" s="17" t="s">
         <v>17</v>
@@ -13230,19 +13233,19 @@
         <v>17</v>
       </c>
       <c r="H257" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I257" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J257" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K257" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L257" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M257" s="21" t="s">
         <v>62</v>
@@ -13272,16 +13275,16 @@
         <v>14</v>
       </c>
       <c r="H258" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I258" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="I258" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" s="19" t="s">
+      <c r="K258" s="67" t="s">
         <v>278</v>
-      </c>
-      <c r="K258" s="67" t="s">
-        <v>279</v>
       </c>
       <c r="L258" s="17" t="s">
         <v>17</v>
@@ -13314,16 +13317,16 @@
         <v>37</v>
       </c>
       <c r="H259" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I259" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I259" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" s="19" t="s">
+      <c r="K259" s="67" t="s">
         <v>281</v>
-      </c>
-      <c r="K259" s="67" t="s">
-        <v>282</v>
       </c>
       <c r="L259" s="17" t="s">
         <v>44</v>
@@ -13356,16 +13359,16 @@
         <v>37</v>
       </c>
       <c r="H260" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I260" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I260" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" s="19" t="s">
-        <v>281</v>
-      </c>
       <c r="K260" s="67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L260" s="17" t="s">
         <v>44</v>
@@ -13398,16 +13401,16 @@
         <v>37</v>
       </c>
       <c r="H261" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I261" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I261" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" s="19" t="s">
-        <v>281</v>
-      </c>
       <c r="K261" s="67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L261" s="17" t="s">
         <v>44</v>
@@ -13440,16 +13443,16 @@
         <v>37</v>
       </c>
       <c r="H262" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I262" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I262" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" s="19" t="s">
-        <v>281</v>
-      </c>
       <c r="K262" s="67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L262" s="17" t="s">
         <v>44</v>
@@ -13487,10 +13490,10 @@
         <v>0</v>
       </c>
       <c r="J263" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K263" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L263" s="10" t="s">
         <v>44</v>
@@ -13529,10 +13532,10 @@
         <v>0</v>
       </c>
       <c r="J264" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K264" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L264" s="17" t="s">
         <v>17</v>
@@ -13571,10 +13574,10 @@
         <v>0</v>
       </c>
       <c r="J265" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K265" s="69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L265" s="17" t="s">
         <v>17</v>
@@ -13607,19 +13610,19 @@
         <v>17</v>
       </c>
       <c r="H266" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I266" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J266" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K266" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L266" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M266" s="21" t="s">
         <v>62</v>
@@ -13649,16 +13652,16 @@
         <v>14</v>
       </c>
       <c r="H267" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I267" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="I267" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" s="19" t="s">
+      <c r="K267" s="67" t="s">
         <v>278</v>
-      </c>
-      <c r="K267" s="67" t="s">
-        <v>279</v>
       </c>
       <c r="L267" s="17" t="s">
         <v>17</v>
@@ -13691,16 +13694,16 @@
         <v>37</v>
       </c>
       <c r="H268" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I268" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I268" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" s="19" t="s">
+      <c r="K268" s="67" t="s">
         <v>281</v>
-      </c>
-      <c r="K268" s="67" t="s">
-        <v>282</v>
       </c>
       <c r="L268" s="17" t="s">
         <v>44</v>
@@ -13733,16 +13736,16 @@
         <v>37</v>
       </c>
       <c r="H269" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I269" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I269" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" s="19" t="s">
+      <c r="K269" s="67" t="s">
         <v>281</v>
-      </c>
-      <c r="K269" s="67" t="s">
-        <v>282</v>
       </c>
       <c r="L269" s="17" t="s">
         <v>44</v>
@@ -13775,16 +13778,16 @@
         <v>37</v>
       </c>
       <c r="H270" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I270" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I270" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" s="19" t="s">
+      <c r="K270" s="67" t="s">
         <v>281</v>
-      </c>
-      <c r="K270" s="67" t="s">
-        <v>282</v>
       </c>
       <c r="L270" s="17" t="s">
         <v>44</v>
@@ -13816,16 +13819,16 @@
         <v>37</v>
       </c>
       <c r="H271" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I271" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K271" s="71" t="s">
         <v>286</v>
-      </c>
-      <c r="I271" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K271" s="71" t="s">
-        <v>287</v>
       </c>
       <c r="L271" s="10" t="s">
         <v>44</v>
@@ -13857,16 +13860,16 @@
         <v>37</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I272" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J272" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K272" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L272" s="10" t="s">
         <v>44</v>
@@ -13898,16 +13901,16 @@
         <v>12</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I273" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J273" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K273" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L273" s="10" t="s">
         <v>35</v>
@@ -13946,10 +13949,10 @@
         <v>0</v>
       </c>
       <c r="J274" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K274" s="73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L274" s="17" t="s">
         <v>31</v>
@@ -13988,10 +13991,10 @@
         <v>0</v>
       </c>
       <c r="J275" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K275" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L275" s="17" t="s">
         <v>35</v>
@@ -14030,10 +14033,10 @@
         <v>0</v>
       </c>
       <c r="J276" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K276" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L276" s="17" t="s">
         <v>35</v>
@@ -14072,10 +14075,10 @@
         <v>0</v>
       </c>
       <c r="J277" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K277" s="73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L277" s="17" t="s">
         <v>35</v>
@@ -14114,10 +14117,10 @@
         <v>0</v>
       </c>
       <c r="J278" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K278" s="73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L278" s="17" t="s">
         <v>35</v>
@@ -14149,16 +14152,16 @@
         <v>11</v>
       </c>
       <c r="H279" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I279" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K279" s="74" t="s">
         <v>295</v>
-      </c>
-      <c r="I279" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K279" s="74" t="s">
-        <v>296</v>
       </c>
       <c r="L279" s="10" t="s">
         <v>35</v>
@@ -14190,16 +14193,16 @@
         <v>11</v>
       </c>
       <c r="H280" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I280" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J280" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K280" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L280" s="10" t="s">
         <v>35</v>
@@ -14231,19 +14234,19 @@
         <v>7</v>
       </c>
       <c r="H281" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I281" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J281" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="K281" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="K281" s="72" t="s">
-        <v>299</v>
-      </c>
       <c r="L281" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M281" s="14" t="s">
         <v>62</v>
@@ -14272,19 +14275,19 @@
         <v>7</v>
       </c>
       <c r="H282" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I282" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J282" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K282" s="72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L282" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M282" s="14" t="s">
         <v>62</v>
@@ -14313,19 +14316,19 @@
         <v>16</v>
       </c>
       <c r="H283" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I283" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J283" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="K283" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="K283" s="75" t="s">
-        <v>302</v>
-      </c>
       <c r="L283" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M283" s="14" t="s">
         <v>62</v>
@@ -14360,13 +14363,13 @@
         <v>0</v>
       </c>
       <c r="J284" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="K284" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K284" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="L284" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M284" s="7" t="s">
         <v>62</v>
@@ -14401,13 +14404,13 @@
         <v>0</v>
       </c>
       <c r="J285" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K285" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K285" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="L285" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M285" s="3" t="s">
         <v>62</v>
@@ -14442,13 +14445,13 @@
         <v>0</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M286" s="3" t="s">
         <v>62</v>
@@ -14477,19 +14480,19 @@
         <v>17</v>
       </c>
       <c r="H287" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I287" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="I287" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" s="5" t="s">
+      <c r="K287" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K287" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="L287" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M287" s="3" t="s">
         <v>62</v>
@@ -14515,22 +14518,22 @@
         <v>11</v>
       </c>
       <c r="G288" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H288" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I288" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="I288" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" s="5" t="s">
+      <c r="K288" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="K288" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="L288" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M288" s="3" t="s">
         <v>55</v>
@@ -14559,22 +14562,22 @@
         <v>11</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I289" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J289" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K289" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="K289" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="L289" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14600,22 +14603,22 @@
         <v>11</v>
       </c>
       <c r="H290" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I290" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="I290" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" s="5" t="s">
+      <c r="K290" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="K290" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="L290" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14641,22 +14644,22 @@
         <v>11</v>
       </c>
       <c r="H291" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I291" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="I291" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" s="5" t="s">
+      <c r="K291" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="K291" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="L291" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M291" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14682,22 +14685,22 @@
         <v>11</v>
       </c>
       <c r="H292" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I292" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="I292" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" s="5" t="s">
+      <c r="K292" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="K292" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="L292" s="3" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14723,19 +14726,19 @@
         <v>10</v>
       </c>
       <c r="H293" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I293" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" s="5" t="s">
+      <c r="K293" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="K293" s="6" t="s">
+      <c r="L293" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="L293" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="M293" s="3" t="s">
         <v>55</v>
@@ -14764,19 +14767,19 @@
         <v>10</v>
       </c>
       <c r="H294" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I294" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I294" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" s="5" t="s">
+      <c r="K294" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="K294" s="6" t="s">
+      <c r="L294" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="L294" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="M294" s="3" t="s">
         <v>55</v>
@@ -14805,19 +14808,19 @@
         <v>10</v>
       </c>
       <c r="H295" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I295" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I295" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" s="5" t="s">
+      <c r="K295" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="K295" s="6" t="s">
+      <c r="L295" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="L295" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="M295" s="3" t="s">
         <v>55</v>
@@ -14846,19 +14849,19 @@
         <v>10</v>
       </c>
       <c r="H296" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I296" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I296" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" s="5" t="s">
+      <c r="K296" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="K296" s="6" t="s">
+      <c r="L296" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="L296" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="M296" s="3" t="s">
         <v>55</v>
@@ -14900,7 +14903,7 @@
         <v>330</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M297" s="3" t="s">
         <v>55</v>
@@ -14941,10 +14944,10 @@
         <v>333</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14982,10 +14985,10 @@
         <v>333</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15023,7 +15026,7 @@
         <v>337</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M300" s="3" t="s">
         <v>62</v>
@@ -15064,7 +15067,7 @@
         <v>337</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M301" s="3" t="s">
         <v>62</v>
@@ -15105,10 +15108,10 @@
         <v>340</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15146,7 +15149,7 @@
         <v>342</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M303" s="3" t="s">
         <v>62</v>
@@ -15187,7 +15190,7 @@
         <v>342</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M304" s="3" t="s">
         <v>62</v>
@@ -15216,7 +15219,7 @@
         <v>37</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I305" s="4" t="n">
         <v>0</v>
@@ -15228,7 +15231,7 @@
         <v>343</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M305" s="3" t="s">
         <v>62</v>
@@ -15257,7 +15260,7 @@
         <v>37</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I306" s="4" t="n">
         <v>0</v>
@@ -15269,7 +15272,7 @@
         <v>343</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="M306" s="3" t="s">
         <v>62</v>
@@ -15294,7 +15297,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J299 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15527,7 +15530,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="J299 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15613,7 +15616,7 @@
         <v>349</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="M2" s="79"/>
     </row>
@@ -15646,10 +15649,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="K3" s="77" t="s">
         <v>303</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>304</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
@@ -15685,10 +15688,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
@@ -15724,10 +15727,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
@@ -15763,10 +15766,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
@@ -15794,7 +15797,7 @@
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="525" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="K14" activeCellId="1" sqref="J299 K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15874,16 +15877,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -15922,13 +15925,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>62</v>
@@ -15964,13 +15967,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>62</v>
@@ -16006,13 +16009,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>62</v>
@@ -16041,19 +16044,19 @@
         <v>10</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>62</v>
@@ -16088,13 +16091,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>62</v>
@@ -16129,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="10" t="s">
@@ -16168,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="10" t="s">
@@ -16201,13 +16204,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
@@ -16246,11 +16249,11 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>62</v>
@@ -16285,11 +16288,11 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>62</v>
@@ -16324,11 +16327,11 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>62</v>
@@ -16365,7 +16368,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -16394,7 +16397,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0</v>
@@ -16433,7 +16436,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0</v>
@@ -16443,7 +16446,7 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>55</v>
@@ -16472,7 +16475,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="4" t="n">
         <v>0</v>
@@ -16482,7 +16485,7 @@
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>55</v>
@@ -16517,11 +16520,11 @@
         <v>0</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>55</v>
@@ -16550,7 +16553,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
@@ -16560,7 +16563,7 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>55</v>
@@ -16589,7 +16592,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
@@ -16599,7 +16602,7 @@
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>55</v>
@@ -16628,7 +16631,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
@@ -16638,7 +16641,7 @@
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>55</v>
@@ -16667,7 +16670,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
@@ -16677,7 +16680,7 @@
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>55</v>
@@ -16716,7 +16719,7 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>45</v>
@@ -16755,7 +16758,7 @@
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>55</v>
@@ -16794,7 +16797,7 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>55</v>
@@ -16833,7 +16836,7 @@
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>55</v>
@@ -16872,7 +16875,7 @@
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>55</v>
@@ -16911,7 +16914,7 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>45</v>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="781" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="544" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="421">
   <si>
     <t>bidId</t>
   </si>
@@ -1561,9 +1561,171 @@
       <t xml:space="preserve"> 1BA – patrz dalej)
 &lt;br&gt;12-17PC układ na czwórkach w tym karowa  
 TRÓJKOLORÓWKA (czyli to co drugie znaczenie trefla tylko z singlem innym niż karo)
-&lt;br&gt;&lt;br&gt;&lt;font color=red&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
+&lt;br&gt;&lt;br&gt;&lt;font color=green&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
 12-14 PC (inaczej to wchodzi do trefla)&lt;/font&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Brak 4 kar</t>
+  </si>
+  <si>
+    <t>pas</t>
+  </si>
+  <si>
+    <t>nic ciekawego – patrz 3 kara...</t>
+  </si>
+  <si>
+    <t>7+ PC,  4 +  kierów/pików ; przy dwóch czwórkach kierowa, przy dwóch piątkach pikowa;  forsuje na jedno okrążenie</t>
+  </si>
+  <si>
+    <t>czwórka w pikach</t>
+  </si>
+  <si>
+    <t>brak 4s</t>
+  </si>
+  <si>
+    <t> 7-9(10) PC, bez starszej czwórki, nie forsuje</t>
+  </si>
+  <si>
+    <t>5+ kar i 4+ trefl</t>
+  </si>
+  <si>
+    <t>kara i trefle</t>
+  </si>
+  <si>
+    <t>12-14 PC   5+ kar i  4+  trefl .(w wersji opcjonalnej też z 5 trefli i czwórką karo przy 12-17 PC oraz na dwóch piątkach młodszych 12-14PC)</t>
+  </si>
+  <si>
+    <t>6+, brak 4s</t>
+  </si>
+  <si>
+    <t>kara bez starszej</t>
+  </si>
+  <si>
+    <t> 12-14 PC, 6+ kar, możliwe trefle, starsza czwórka wykluczona </t>
+  </si>
+  <si>
+    <t>4 kiery 5+kar</t>
+  </si>
+  <si>
+    <t>kara i kiery</t>
+  </si>
+  <si>
+    <t>15-17 PC  4 w kolor, 5+ kar</t>
+  </si>
+  <si>
+    <t>4 piki 5+kar</t>
+  </si>
+  <si>
+    <t>kara i piki</t>
+  </si>
+  <si>
+    <t>5+, 5+ na młodszych</t>
+  </si>
+  <si>
+    <t>15-17 PC, układ 5+-5+ na kolorach młodszych</t>
+  </si>
+  <si>
+    <t>6 kar</t>
+  </si>
+  <si>
+    <t>sześć kar</t>
+  </si>
+  <si>
+    <t>15-17 PC, 6 kar z dwiema starszymi figurami, forsing</t>
+  </si>
+  <si>
+    <t>10 (12)+ PC, 5+-trefli,nie wyklucza starszej czwórki, forsuje na jedno okrążenie</t>
+  </si>
+  <si>
+    <t>kara</t>
+  </si>
+  <si>
+    <t>12-14 PC – 5+ kar</t>
+  </si>
+  <si>
+    <t>5+kar i 4 kiery</t>
+  </si>
+  <si>
+    <t>15-17  PC –5+kar 4 w kolor</t>
+  </si>
+  <si>
+    <t>5+ kar i 4 piki</t>
+  </si>
+  <si>
+    <t>4-4-4-1</t>
+  </si>
+  <si>
+    <t>układ na czwórkach</t>
+  </si>
+  <si>
+    <t>(RELAY) 15-17  PC 4-4-4-1 (singiel trefl)</t>
+  </si>
+  <si>
+    <t>5+ kar i 4 trefle</t>
+  </si>
+  <si>
+    <t>15-17 PC – 5+ kar oraz  4+trefl</t>
+  </si>
+  <si>
+    <t>15-17 PC –6+kar</t>
+  </si>
+  <si>
+    <t>5+ kar, 4 trefle i krótkość</t>
+  </si>
+  <si>
+    <t>15-17  PC –5+ kar,  4trefle oraz krótkość w kolor  SPLINTER</t>
+  </si>
+  <si>
+    <t>(RELAY) –12-14 PC  4-4-4-1 </t>
+  </si>
+  <si>
+    <t>3+ kara brak 4s</t>
+  </si>
+  <si>
+    <t>12+  PC, fit (3+), brak starszej czwórki, ze względu na krótkość nie nadająca się do zalicytowania 1BA</t>
+  </si>
+  <si>
+    <t>12+  PC,  5+-kierów/pików, forsing do końcówki</t>
+  </si>
+  <si>
+    <t>11-12 PC, bez starszej czwórki, nie forsuje (jest to inwit do 3BA)</t>
+  </si>
+  <si>
+    <t>4+ kar bez 4s</t>
+  </si>
+  <si>
+    <t>9-11 PC, fit (4+ kar), brak starszej czwórki, inwit do 3BA</t>
+  </si>
+  <si>
+    <t>4+ kara</t>
+  </si>
+  <si>
+    <t>BLOK</t>
+  </si>
+  <si>
+    <t>7-9 PC (wersja pro 0-6PC), fit (4+ kar), blok</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>4+ kara i krótkość w kolorze</t>
+  </si>
+  <si>
+    <t>12-15  PC,  4+KARA i krótkość w kierach/ pikach SPLINTER forsing do końcówki</t>
+  </si>
+  <si>
+    <t>bez 4s i 5m</t>
+  </si>
+  <si>
+    <t> (12)13-16 PC, bez starszej czwórki i młodszej piątki – do gry</t>
+  </si>
+  <si>
+    <t>4+ kara i singiel terfl</t>
+  </si>
+  <si>
+    <t>12-15  PC,  4+KARA i krótkość w   SPLINTER forsing do końcówki</t>
   </si>
   <si>
     <t>Naturalne 1 kier</t>
@@ -1658,9 +1820,6 @@
     <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
   </si>
   <si>
-    <t>BL</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1683,9 +1842,6 @@
   </si>
   <si>
     <t>x-7-x-x</t>
-  </si>
-  <si>
-    <t>BLOK</t>
   </si>
   <si>
     <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **).</t>
@@ -1747,6 +1903,24 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12-17 PC, 5+ kar (naturalne ale  uwaga na </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1BA – patrz dalej)
+&lt;br&gt;12-17PC układ na czwórkach w tym karowa  
+TRÓJKOLORÓWKA (czyli to co drugie znaczenie trefla tylko z singlem innym niż karo)
+&lt;br&gt;&lt;br&gt;&lt;font color=red&gt;opcjonalnie układ na piątce trefl i czwórce karo? 
+12-14 PC (inaczej to wchodzi do trefla)&lt;/font&gt;</t>
+    </r>
   </si>
   <si>
     <t>Trójznaczne forsuje na 1 okrążenie</t>
@@ -2433,12 +2607,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A282" activePane="bottomLeft" state="split"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J299" activeCellId="0" sqref="J299"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="525" topLeftCell="A278" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L291" activeCellId="0" sqref="L291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14334,7 +14508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
         <v>283</v>
       </c>
@@ -14379,40 +14553,41 @@
       <c r="A285" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="B285" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C285" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D285" s="1" t="n">
+      <c r="B285" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C285" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F285" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G285" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H285" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I285" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" s="5" t="s">
+      <c r="D285" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F285" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H285" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="K285" s="6" t="s">
+      <c r="I285" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="L285" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M285" s="3" t="s">
+      <c r="K285" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="L285" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M285" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14420,656 +14595,671 @@
       <c r="A286" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="B286" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C286" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D286" s="1" t="n">
+      <c r="B286" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C286" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F286" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G286" s="3" t="n">
+      <c r="D286" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G286" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H286" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I286" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K286" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L286" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H286" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I286" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="K286" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="L286" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M286" s="3" t="s">
+      <c r="M286" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="B287" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C287" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D287" s="1" t="n">
+      <c r="B287" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C287" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F287" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G287" s="3" t="n">
+      <c r="D287" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F287" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G287" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H287" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I287" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K287" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L287" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H287" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I287" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="K287" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="L287" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M287" s="3" t="s">
+      <c r="M287" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="B288" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C288" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D288" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G288" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H288" s="3" t="s">
+      <c r="B288" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C288" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F288" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G288" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H288" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I288" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K288" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="I288" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="K288" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="L288" s="3" t="s">
+      <c r="L288" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="M288" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M288" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B289" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C289" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D289" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F289" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G289" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H289" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I289" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" s="5" t="s">
+      <c r="B289" s="15" t="n">
+        <f aca="false">A288</f>
+        <v>287</v>
+      </c>
+      <c r="C289" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D289" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E289" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F289" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G289" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H289" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I289" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="K289" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="K289" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="L289" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M289" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L289" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M289" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="B290" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C290" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D290" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F290" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G290" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H290" s="3" t="s">
+      <c r="B290" s="15" t="n">
+        <f aca="false">A288</f>
+        <v>287</v>
+      </c>
+      <c r="C290" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D290" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E290" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F290" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G290" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H290" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="I290" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="I290" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" s="5" t="s">
+      <c r="K290" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="K290" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="L290" s="3" t="s">
+      <c r="L290" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M290" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M290" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="B291" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C291" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D291" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F291" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G291" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H291" s="3" t="s">
+      <c r="B291" s="15" t="n">
+        <f aca="false">A288</f>
+        <v>287</v>
+      </c>
+      <c r="C291" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E291" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F291" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G291" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H291" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I291" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="I291" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" s="5" t="s">
+      <c r="K291" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="K291" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="L291" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M291" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L291" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M291" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="B292" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C292" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D292" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F292" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G292" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H292" s="3" t="s">
+      <c r="B292" s="15" t="n">
+        <f aca="false">A288</f>
+        <v>287</v>
+      </c>
+      <c r="C292" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D292" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F292" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G292" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H292" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="I292" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="I292" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="K292" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="L292" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M292" s="3" t="s">
-        <v>18</v>
+      <c r="K292" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="L292" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M292" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="B293" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C293" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D293" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E293" s="1" t="s">
+      <c r="B293" s="15" t="n">
+        <f aca="false">A288</f>
+        <v>287</v>
+      </c>
+      <c r="C293" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D293" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E293" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F293" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G293" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H293" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K293" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="L293" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M293" s="3" t="s">
-        <v>55</v>
+      <c r="F293" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G293" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H293" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="I293" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="K293" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="L293" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M293" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="B294" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C294" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D294" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E294" s="1" t="s">
+      <c r="B294" s="15" t="n">
+        <f aca="false">A288</f>
+        <v>287</v>
+      </c>
+      <c r="C294" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D294" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E294" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F294" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G294" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H294" s="3" t="s">
+      <c r="F294" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G294" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H294" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="I294" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" s="5" t="s">
+      <c r="I294" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="K294" s="6" t="s">
+      <c r="K294" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="L294" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M294" s="3" t="s">
-        <v>55</v>
+      <c r="L294" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M294" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="B295" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C295" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D295" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F295" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G295" s="3" t="n">
+      <c r="B295" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C295" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H295" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I295" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K295" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="L295" s="3" t="s">
+      <c r="G295" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H295" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I295" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K295" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="M295" s="3" t="s">
-        <v>55</v>
+      <c r="L295" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M295" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="B296" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C296" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F296" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G296" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H296" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I296" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K296" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="L296" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M296" s="3" t="s">
-        <v>55</v>
+      <c r="B296" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C296" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D296" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E296" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F296" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G296" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H296" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I296" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="K296" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L296" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M296" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C297" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D297" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F297" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G297" s="3" t="n">
-        <f aca="false">F297+13</f>
+      <c r="B297" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C297" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D297" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H297" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="I297" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="K297" s="6" t="s">
+      <c r="F297" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G297" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H297" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="L297" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M297" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I297" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K297" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="L297" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M297" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C298" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D298" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G298" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H298" s="3" t="s">
+      <c r="B298" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C298" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D298" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F298" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G298" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H298" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I298" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="K298" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="I298" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="K298" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="L298" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M298" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L298" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M298" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C299" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D299" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F299" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G299" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H299" s="3" t="s">
+      <c r="B299" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C299" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D299" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F299" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G299" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H299" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I299" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="I299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="K299" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="L299" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M299" s="3" t="s">
+      <c r="K299" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="L299" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M299" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="B300" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C300" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D300" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F300" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G300" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I300" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" s="5" t="s">
+      <c r="B300" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C300" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E300" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F300" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G300" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H300" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="K300" s="6" t="s">
+      <c r="I300" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="K300" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L300" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M300" s="3" t="s">
+      <c r="L300" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M300" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C301" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D301" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F301" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G301" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H301" s="3" t="s">
+      <c r="B301" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C301" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D301" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E301" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F301" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G301" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I301" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K301" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="I301" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K301" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="L301" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M301" s="3" t="s">
+      <c r="L301" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M301" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15077,40 +15267,41 @@
       <c r="A302" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C302" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D302" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F302" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G302" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I302" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" s="5" t="s">
+      <c r="B302" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C302" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D302" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E302" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F302" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G302" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H302" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="K302" s="6" t="s">
+      <c r="I302" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K302" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="L302" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M302" s="3" t="s">
+      <c r="L302" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M302" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15118,122 +15309,125 @@
       <c r="A303" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C303" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D303" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F303" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G303" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H303" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I303" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K303" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M303" s="3" t="s">
-        <v>62</v>
+      <c r="B303" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C303" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D303" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E303" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F303" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G303" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H303" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="I303" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K303" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="L303" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M303" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C304" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D304" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F304" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G304" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H304" s="3" t="s">
+      <c r="B304" s="15" t="n">
+        <f aca="false">A295</f>
+        <v>294</v>
+      </c>
+      <c r="C304" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D304" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E304" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F304" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G304" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H304" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I304" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K304" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I304" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K304" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L304" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M304" s="3" t="s">
-        <v>62</v>
+      <c r="L304" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M304" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C305" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D305" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F305" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G305" s="3" t="n">
+      <c r="B305" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C305" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F305" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G305" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="H305" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I305" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K305" s="6" t="s">
+      <c r="H305" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="I305" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K305" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="L305" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M305" s="3" t="s">
+      <c r="L305" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M305" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15241,40 +15435,1280 @@
       <c r="A306" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C306" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D306" s="1" t="n">
+      <c r="B306" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C306" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F306" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G306" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H306" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I306" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K306" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="L306" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M306" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C307" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F307" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G307" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H307" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I307" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K307" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="L307" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M307" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C308" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E308" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F308" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G308" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H308" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="I308" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K308" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="L308" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M308" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C309" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F309" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G309" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H309" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I309" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K309" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="L309" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M309" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C310" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E310" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F310" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G310" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H310" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I310" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="K310" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="L310" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M310" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C311" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F311" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G311" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H311" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="I311" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K311" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="L311" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M311" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C312" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F312" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G312" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H312" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="I312" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K312" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="L312" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M312" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C313" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F313" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G313" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H313" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I313" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K313" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="L313" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M313" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C314" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G314" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H314" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="I314" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K314" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L314" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M314" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F315" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G315" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I315" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K315" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F316" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G316" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I316" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K316" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M316" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F317" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G317" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I317" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="K317" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F318" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G318" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I318" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K318" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M318" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F319" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G319" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I319" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K319" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M319" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F320" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G320" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I320" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="K320" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F321" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G321" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I321" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K321" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F322" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G322" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I322" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="K322" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M322" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F323" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G323" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I323" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K323" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G324" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I324" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K324" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F325" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G325" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I325" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K325" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F326" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G326" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I326" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="K326" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F327" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G327" s="3" t="n">
+        <f aca="false">F327+13</f>
+        <v>22</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="I327" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K327" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F328" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G328" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I328" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="K328" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M328" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G329" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I329" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="K329" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M329" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F330" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G330" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I330" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K330" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M330" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F331" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G331" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I331" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K331" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M331" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F332" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G332" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I332" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K332" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M332" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E306" s="1" t="s">
+      <c r="E333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F333" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G333" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I333" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K333" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M333" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G334" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I334" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K334" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M334" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F335" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I335" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K335" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M335" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F306" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G306" s="3" t="n">
+      <c r="F336" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H306" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I306" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K306" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="L306" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="M306" s="3" t="s">
+      <c r="H336" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I336" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K336" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M336" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15297,7 +16731,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J299 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15375,10 +16809,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>31</v>
@@ -15417,10 +16851,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
@@ -15458,10 +16892,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
@@ -15499,10 +16933,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
@@ -15530,7 +16964,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="J299 J2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15610,13 +17044,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="M2" s="79"/>
     </row>
@@ -15652,7 +17086,7 @@
         <v>302</v>
       </c>
       <c r="K3" s="77" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
@@ -15688,10 +17122,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
@@ -15727,10 +17161,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="K5" s="77" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
@@ -15769,7 +17203,7 @@
         <v>252</v>
       </c>
       <c r="K6" s="77" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
@@ -15797,7 +17231,7 @@
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="525" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K14" activeCellId="1" sqref="J299 K14"/>
+      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15877,16 +17311,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -15925,10 +17359,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>107</v>
@@ -15967,10 +17401,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>107</v>
@@ -16009,10 +17443,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>107</v>
@@ -16053,7 +17487,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>107</v>
@@ -16094,7 +17528,7 @@
         <v>262</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>107</v>
@@ -16204,13 +17638,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
@@ -16249,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
@@ -16288,7 +17722,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
@@ -16327,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
@@ -16368,7 +17802,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -16403,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -16442,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
@@ -16481,7 +17915,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
@@ -16553,13 +17987,13 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
@@ -16592,13 +18026,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
@@ -16631,13 +18065,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
@@ -16670,13 +18104,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
@@ -16748,13 +18182,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
@@ -16787,13 +18221,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
@@ -16826,13 +18260,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
@@ -16865,13 +18299,13 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="544" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="W-J 2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,61 +14,66 @@
     <sheet name="SA_z_piatek" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="421">
-  <si>
-    <t>bidId</t>
-  </si>
-  <si>
-    <t>parentBid</t>
-  </si>
-  <si>
-    <t>bidLevel</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>suit</t>
-  </si>
-  <si>
-    <t>pointsMin</t>
-  </si>
-  <si>
-    <t>pointsMax</t>
-  </si>
-  <si>
-    <t>suitLength</t>
-  </si>
-  <si>
-    <t>afterInterven</t>
-  </si>
-  <si>
-    <t>shortDesc</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>bidType</t>
-  </si>
-  <si>
-    <t>bidClass</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>dowolny</t>
-  </si>
-  <si>
-    <t>Czteroznaczne trefl</t>
-  </si>
-  <si>
-    <t>&lt;br&gt; → (12)15-17 PC, 5+ trefl (naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="424">
+  <si>
+    <t xml:space="preserve">bidId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parentBid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bidLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pointsMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pointsMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suitLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afterInterven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bidType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bidClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dowolny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czteroznaczne trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;br&gt; → (12)15-17 PC, 5+ trefl (naturalne, słaba piątka może też pasować na  1BA – patrz dalej)
 &lt;br&gt;&lt;font color=green&gt;w wersji pro od 15 a nawet 16 PC!!! - słaby trefl wtedy do BA albo 1 karo (o ile jest 4 karo )&lt;/font&gt;
 &lt;br&gt;→ 12-17 PC, układ 4414  tzw TRÓJKOLORÓWKA (singiel karo )
 &lt;br&gt;→ 12-14 PC, skład bez atutowy  tzw. PRZYGOTOWAWCZE  (słabe NT) 
@@ -76,101 +81,107 @@
 uwaga: może też być licytowane przy założeniu że partner ma skład zrównoważony i jak powiem coś innego na co on spasuje (bez punktów) i ucieknie nam końcówka (np. na układzie 5-4 lub 6-4 – układy na dwóch piątkach raczej wykluczone)</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Relay</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Trójznaczne karo</t>
-  </si>
-  <si>
-    <t>Trójznaczne słaby  forsing na 1 okrążenie &lt;br&gt; → tzw. negat , 0-6(8) PC, skład dowolny  (w kolejnym okrążeniu możliwy pas jeżeli jest 0-4 PC) 
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trójznaczne karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trójznaczne słaby  forsing na 1 okrążenie &lt;br&gt; → tzw. negat , 0-6(8) PC, skład dowolny  (w kolejnym okrążeniu możliwy pas jeżeli jest 0-4 PC) 
 &lt;br&gt;→ 16+ PC, skład dowolny *  (w kolejnym okrążeniu przeskok) &lt;font color=red&gt;[skład bez starszych czwórek- patrz niżej i młodszych piątek – skład zrównoważony– chyba sensownie, ale karta niedobra do zajęcia BA i na 12-16PC!!!!] &lt;/font&gt;
 &lt;br&gt;→ 7-10(11)  PC, 5+ karo  (w kolejny okrążeniu powtarza kolor karowy)
 (inna opcja to 7(9)-11 PC, SKŁAD NIEZRÓWNOWAŻONY – chyba fajne - młodsza szóstka, bez czwórki starsze lub układ 5/4 na młodszych! Ale jak to dalej zgłaszać?? )</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>czwórka</t>
-  </si>
-  <si>
-    <t>Kolor kierowy (4) lub trójkolorówka z singlem karo</t>
-  </si>
-  <si>
-    <t>→ 12-14 PC   4 kier (kier nie wykluczają pik), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czwórka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolor kierowy (4) lub trójkolorówka z singlem karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→ 12-14 PC   4 kier (kier nie wykluczają pik), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;
  &lt;br&gt;→ TRÓJKOLORÓWKA  cała → 12-17PC 4414, nie forsuje</t>
   </si>
   <si>
-    <t>Słaba</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Bardzo słabe</t>
-  </si>
-  <si>
-    <t>Pas (ale co z układem ???)</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>Negat</t>
-  </si>
-  <si>
-    <t>(dawnej nawet 5-6(7)PC na co otwierający pasuje ze słabym NT a licytuje  dalej z innymi układami.</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>5+</t>
-  </si>
-  <si>
-    <t>Słabe poparcie na 5 treflach</t>
-  </si>
-  <si>
-    <t>7-10 na (5)6+ trefl</t>
-  </si>
-  <si>
-    <t>Słabe poparcie na 5 karach</t>
-  </si>
-  <si>
-    <t>7-10  na 5+ karo</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>Silne poparcie na 4 kierach</t>
-  </si>
-  <si>
-    <t>16+ PC 4+ kier</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>Silne</t>
-  </si>
-  <si>
-    <t>REWERS</t>
+    <t xml:space="preserve">Słaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bardzo słabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas (ale co z układem ???)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(dawnej nawet 5-6(7)PC na co otwierający pasuje ze słabym NT a licytuje  dalej z innymi układami.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słabe poparcie na 5 treflach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-10 na (5)6+ trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słabe poparcie na 5 karach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-10  na 5+ karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silne poparcie na 4 kierach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16+ PC 4+ kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REWERS</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">16</t>
     </r>
     <r>
@@ -184,13 +195,19 @@
     </r>
   </si>
   <si>
-    <t>0+</t>
-  </si>
-  <si>
-    <t>Mocne BA</t>
+    <t xml:space="preserve">0+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocne BA</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">dalej 3</t>
     </r>
     <r>
@@ -205,28 +222,34 @@
     </r>
   </si>
   <si>
-    <t>16PC+ na  5+ trefl</t>
-  </si>
-  <si>
-    <t>16PC+ na  5+ karo</t>
-  </si>
-  <si>
-    <t>Kolor pikowy (4)</t>
-  </si>
-  <si>
-    <t>→ 12-14 PC  dokładnie 4 pik (kier wykluczone ), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;</t>
-  </si>
-  <si>
-    <t>słaba</t>
-  </si>
-  <si>
-    <t>16+ PC 6+ kier   (REWERS) odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
-  </si>
-  <si>
-    <t>Silne poparcie</t>
+    <t xml:space="preserve">16PC+ na  5+ trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16PC+ na  5+ karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolor pikowy (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→ 12-14 PC  dokładnie 4 pik (kier wykluczone ), forsuje do 1BA &lt;br&gt;&lt;font color=red&gt;[uwaga – układ raczej zrównoważony – ew propozycja nawet od 3 kart??- bez sensu wg mnie ale konieczne jeżeli poniżej silne BA]&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">słaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16+ PC 6+ kier   (REWERS) odzywka skacząca w drugi starszy wymusza zgłoszenie 3BA przez odpowiadającego o ile ma słabe otwarcie, a jeżeli nie to coś sobie dalej powie..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silne poparcie</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">16</t>
     </r>
     <r>
@@ -241,6 +264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">dalej 3</t>
     </r>
     <r>
@@ -255,91 +284,97 @@
     </r>
   </si>
   <si>
-    <t>zrównoważony</t>
-  </si>
-  <si>
-    <t>1BA 18-20 PC  [dawniej 12-14 PC] skład zrównoważony bez starszej czwórki, nie wyklucza piątki trefl, nie forsuje [ ale jak wtedy zgłosić słabe BA? - chyba jednen w starszy – może być mylące?] &lt;b&gt; &lt;strong&gt; Dalej Stayman i teksasy tylko z punktami jak wcześniej (patrz licytacja po 1BA) &lt;font color = red&gt; POWINNO MOŻE PRZESKAKIWIAĆ DO NT? Albo tu przepisać wszystkie odzywki do NT? &lt;strong&gt; &lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Naturalna</t>
-  </si>
-  <si>
-    <t>bez starszej czwórki nie wyklucza 5 trefl</t>
-  </si>
-  <si>
-    <t>Słabsze BA</t>
-  </si>
-  <si>
-    <t>15-17  PC,  5+ trefli (nie forsuje) -  bez ztarszej czwórki!!! słabsze trefle traktujemy 1 BA (patrz wyżej)</t>
-  </si>
-  <si>
-    <t>Nic</t>
-  </si>
-  <si>
-    <t>Pas – 0-6 PC</t>
-  </si>
-  <si>
-    <t>2 10+PC – układ  dowolny – forsing do dogranej (GF) – dalsza licytacja ???</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>(przeskok) – 16+PC czwórka w starszym (?)  - lepszy kolor?</t>
-  </si>
-  <si>
-    <t>nie wiem</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>3+ - fit!</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>7-9 PC, 3+trefl -  (fit)</t>
-  </si>
-  <si>
-    <t>niezrównoważony</t>
-  </si>
-  <si>
-    <t>ACOL</t>
-  </si>
-  <si>
-    <t>forsujące do dogranej  wg WJ2005 wyklucza dwukolorówkę → (dawniej 19)23+  PC skład niezrównoważony (może być 5 starsza)  → 25+ PC  skład zrównoważony  Dalej licytacja w zasadzie naturalna poza negatem 2 kier</t>
-  </si>
-  <si>
-    <t>wtórny negat</t>
-  </si>
-  <si>
-    <t>wtórny negat 0-3 PC   (nie mam koloru i nie mogę zająć bez atu, ewentualnie mam słabe kiery ale na to nie licz, dalej pas (po BA) albo ewentualnie kiery? )</t>
-  </si>
-  <si>
-    <t>4s 5m</t>
-  </si>
-  <si>
-    <t>odpowiedź</t>
-  </si>
-  <si>
-    <t>(2) 4-6 PC na  4+ kart  w starszy (lub 4s-5m), 5+ młodszy (wyklucza starszą)</t>
-  </si>
-  <si>
-    <t>bez atu</t>
-  </si>
-  <si>
-    <t>4-6 PC zrównoważony (nie wyklucza czwórki) – dalej 3 jest Staymanem</t>
-  </si>
-  <si>
-    <t>Splinter</t>
+    <t xml:space="preserve">zrównoważony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BA 18-20 PC  [dawniej 12-14 PC] skład zrównoważony bez starszej czwórki, nie wyklucza piątki trefl, nie forsuje [ ale jak wtedy zgłosić słabe BA? - chyba jednen w starszy – może być mylące?] &lt;b&gt; &lt;strong&gt; Dalej Stayman i teksasy tylko z punktami jak wcześniej (patrz licytacja po 1BA) &lt;font color = red&gt; POWINNO MOŻE PRZESKAKIWIAĆ DO NT? Albo tu przepisać wszystkie odzywki do NT? &lt;strong&gt; &lt;b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez starszej czwórki nie wyklucza 5 trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słabsze BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17  PC,  5+ trefli (nie forsuje) -  bez ztarszej czwórki!!! słabsze trefle traktujemy 1 BA (patrz wyżej)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas – 0-6 PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 10+PC – układ  dowolny – forsing do dogranej (GF) – dalsza licytacja ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(przeskok) – 16+PC czwórka w starszym (?)  - lepszy kolor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nie wiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+ - fit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9 PC, 3+trefl -  (fit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niezrównoważony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forsujące do dogranej  wg WJ2005 wyklucza dwukolorówkę → (dawniej 19)23+  PC skład niezrównoważony (może być 5 starsza)  → 25+ PC  skład zrównoważony  Dalej licytacja w zasadzie naturalna poza negatem 2 kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wtórny negat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wtórny negat 0-3 PC   (nie mam koloru i nie mogę zająć bez atu, ewentualnie mam słabe kiery ale na to nie licz, dalej pas (po BA) albo ewentualnie kiery? )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4s 5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odpowiedź</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) 4-6 PC na  4+ kart  w starszy (lub 4s-5m), 5+ młodszy (wyklucza starszą)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez atu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-6 PC zrównoważony (nie wyklucza czwórki) – dalej 3 jest Staymanem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splinter</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">7-10(11)</t>
     </r>
     <r>
@@ -353,22 +388,28 @@
     </r>
   </si>
   <si>
-    <t>5 dokładnie</t>
-  </si>
-  <si>
-    <t>silny kolor starszy</t>
-  </si>
-  <si>
-    <t>18+ PC, dokładnie 5 kart w kierach  kolorze starszym (mniejsza siła bez przeskoku! - silny naturalny inwit)</t>
-  </si>
-  <si>
-    <t>18+ PC, dokładnie 5 kart w pikach kolorze starszym (mniejsza siła bez przeskoku! - silny naturalny inwit)</t>
-  </si>
-  <si>
-    <t>Srednie Bez Atu</t>
+    <t xml:space="preserve">5 dokładnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silny kolor starszy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+ PC, dokładnie 5 kart w kierach  kolorze starszym (mniejsza siła bez przeskoku! - silny naturalny inwit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+ PC, dokładnie 5 kart w pikach kolorze starszym (mniejsza siła bez przeskoku! - silny naturalny inwit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srednie Bez Atu</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">   2BA  22-24 PC skład zrównoważony) - inwit  dalej </t>
     </r>
     <r>
@@ -382,19 +423,25 @@
     </r>
   </si>
   <si>
-    <t>6+</t>
-  </si>
-  <si>
-    <t>silny młodszy</t>
-  </si>
-  <si>
-    <t>18+ PC, 6+kart w młodszym bez starszej czwórki -naturalny silny inwit</t>
-  </si>
-  <si>
-    <t>długi starszy</t>
+    <t xml:space="preserve">6+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silny młodszy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+ PC, 6+kart w młodszym bez starszej czwórki -naturalny silny inwit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">długi starszy</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3 </t>
     </r>
     <r>
@@ -408,26 +455,32 @@
     </r>
   </si>
   <si>
-    <t>słabe BA</t>
-  </si>
-  <si>
-    <t>3BA     18-21 PC i skład bezatutowy  - kontrakt jeżeli negat  końcówka jeżeli kara (choć często próba wzięcia 9 lew na karach)</t>
-  </si>
-  <si>
-    <t>4+ kier, nie limitowane</t>
-  </si>
-  <si>
-    <t>4+ kier,  forsuje na jedno okrążenie
+    <t xml:space="preserve">słabe BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA     18-21 PC i skład bezatutowy  - kontrakt jeżeli negat  końcówka jeżeli kara (choć często próba wzięcia 9 lew na karach)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kier, nie limitowane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kier,  forsuje na jedno okrążenie
 &lt;br&gt;  →  kiery nie wykluczają pików przy 4 kartach &lt;br&gt; → nie wyklucza młodszej piątki przy sile poniżej 11PC &lt;br&gt; przy dwóch starszych zgłaszam  dłuższy - przy dwóch czwórkach kierową, przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t>4+ pik, nie limitowane</t>
-  </si>
-  <si>
-    <t>forsuje na jedno okrążenie  : &lt;br&gt; → 12-14(17) PC, 4pików (dokładnie), brak 4 kierów (słabe BA), &lt;br&gt; → 15+ PC 5+ trefli i 4 pik (w kolejnym okrążeniu trefl – dalej forsuje),  &lt;br&gt; → 18+ (4)5+ pik! (w kolejnym okrążeniu  piki = 18+PC i 5+pik i to forsuje do końcówki)</t>
+    <t xml:space="preserve">4+ pik, nie limitowane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forsuje na jedno okrążenie  : &lt;br&gt; → 12-14(17) PC, 4pików (dokładnie), brak 4 kierów (słabe BA), &lt;br&gt; → 15+ PC 5+ trefli i 4 pik (w kolejnym okrążeniu trefl – dalej forsuje),  &lt;br&gt; → 18+ (4)5+ pik! (w kolejnym okrążeniu  piki = 18+PC i 5+pik i to forsuje do końcówki)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">1BA  7-10PC skład zrównoważony brak 4</t>
     </r>
     <r>
@@ -441,16 +494,22 @@
     </r>
   </si>
   <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>4(5)+ kierów</t>
-  </si>
-  <si>
-    <t>Magister</t>
+    <t xml:space="preserve">NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4(5)+ kierów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magister</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">2 </t>
     </r>
     <r>
@@ -465,13 +524,19 @@
     </r>
   </si>
   <si>
-    <t>4 kiery i 5+ kar</t>
-  </si>
-  <si>
-    <t>kolor karowy</t>
+    <t xml:space="preserve">4 kiery i 5+ kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kolor karowy</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2 ♦   7-10 PC, 4</t>
     </r>
     <r>
@@ -485,10 +550,16 @@
     </r>
   </si>
   <si>
-    <t>kolor kierowy</t>
+    <t xml:space="preserve">kolor kierowy</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -502,13 +573,19 @@
     </r>
   </si>
   <si>
-    <t>na starszych 4-4 lub 5-4</t>
-  </si>
-  <si>
-    <t>sprzedaż układu</t>
+    <t xml:space="preserve">na starszych 4-4 lub 5-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprzedaż układu</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">2   </t>
     </r>
     <r>
@@ -522,10 +599,16 @@
     </r>
   </si>
   <si>
-    <t>inwit do 3 NT</t>
+    <t xml:space="preserve">inwit do 3 NT</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">2BA </t>
     </r>
     <r>
@@ -539,13 +622,19 @@
     </r>
   </si>
   <si>
-    <t>5 kierów i młodsza piątka</t>
-  </si>
-  <si>
-    <t>forsing do końcówki kolorowej</t>
+    <t xml:space="preserve">5 kierów i młodsza piątka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forsing do końcówki kolorowej</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">3/3</t>
     </r>
     <r>
@@ -559,13 +648,19 @@
     </r>
   </si>
   <si>
-    <t>6 kierów / lub 4- 4</t>
-  </si>
-  <si>
-    <t>inwit do 4 kier</t>
+    <t xml:space="preserve">6 kierów / lub 4- 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inwit do 4 kier</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -579,13 +674,19 @@
     </r>
   </si>
   <si>
-    <t>inwit do 4 pik</t>
-  </si>
-  <si>
-    <t>kontakt 3NT</t>
+    <t xml:space="preserve">inwit do 4 pik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kontakt 3NT</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3BA 13-16PC  skład zrównoważony, brak 4</t>
     </r>
     <r>
@@ -599,10 +700,16 @@
     </r>
   </si>
   <si>
-    <t>Kontrakt 4 kier</t>
+    <t xml:space="preserve">Kontrakt 4 kier</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">4</t>
     </r>
     <r>
@@ -616,62 +723,68 @@
     </r>
   </si>
   <si>
-    <t>Kontrakt 4 pik</t>
-  </si>
-  <si>
-    <t>bez starszej czwórki</t>
-  </si>
-  <si>
-    <t>Brak koloru</t>
-  </si>
-  <si>
-    <t>1BA  12-14 PC, bez starszej czwórki (po pikach nie wyklucza 4 kierów)</t>
-  </si>
-  <si>
-    <t>Relay Magister</t>
-  </si>
-  <si>
-    <t>RELAY -  MAGISTER – pytanie o PC i kiery  &lt;br&gt;  → 10+ PC, 5+kiery     &lt;br&gt;  → ewentualnie  16+PC, 4+kiery     &lt;br&gt; [ → ew. 7-10PC 4kiery  i 5+trefli (odpowiedzi patrz niżej)  &lt;br&gt; &lt;strong&gt; gadżet  MAGISTER(zwany też PRO pytający rebid odpowiadającego:
+    <t xml:space="preserve">Kontrakt 4 pik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez starszej czwórki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak koloru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BA  12-14 PC, bez starszej czwórki (po pikach nie wyklucza 4 kierów)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay Magister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY -  MAGISTER – pytanie o PC i kiery  &lt;br&gt;  → 10+ PC, 5+kiery     &lt;br&gt;  → ewentualnie  16+PC, 4+kiery     &lt;br&gt; [ → ew. 7-10PC 4kiery  i 5+trefli (odpowiedzi patrz niżej)  &lt;br&gt; &lt;strong&gt; gadżet  MAGISTER(zwany też PRO pytający rebid odpowiadającego:
 (pytanie o liczbę kart w kolorze, czyli ma sens chyba jeżeli sam ma więcej w starszy i trefle???) &lt;strong&gt;</t>
   </si>
   <si>
-    <t>2kiery</t>
-  </si>
-  <si>
-    <t>Odpowiedź Magister</t>
-  </si>
-  <si>
-    <t>2♦ - 12-13 PC, dubel w kolor (fit 2 kartowy)</t>
-  </si>
-  <si>
-    <t>4 (5) pik – brak fitu, dużo terfli</t>
-  </si>
-  <si>
-    <t>Rebid Magister</t>
-  </si>
-  <si>
-    <t>Sing off – do gry – też na innej wysokości</t>
-  </si>
-  <si>
-    <t>5 pików</t>
-  </si>
-  <si>
-    <t>→ 2 kiery / piki jest 10-12PC i kierach (można przenieść na 2BA)</t>
-  </si>
-  <si>
-    <t>'4+pików</t>
-  </si>
-  <si>
-    <t>→  2BA jest forsująca !</t>
-  </si>
-  <si>
-    <t>3 kiery</t>
-  </si>
-  <si>
-    <t>2♥ (kolor partnera) - 12-13 PC - 3 karty w kolor (fit 3 kartowy)</t>
+    <t xml:space="preserve">2kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odpowiedź Magister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2♦ - 12-13 PC, dubel w kolor (fit 2 kartowy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (5) pik – brak fitu, dużo terfli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebid Magister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sing off – do gry – też na innej wysokości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 pików</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→ 2 kiery / piki jest 10-12PC i kierach (można przenieść na 2BA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'4+pików</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→  2BA jest forsująca !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2♥ (kolor partnera) - 12-13 PC - 3 karty w kolor (fit 3 kartowy)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -685,16 +798,22 @@
     </r>
   </si>
   <si>
-    <t>2kiery brak 4 trefli</t>
-  </si>
-  <si>
-    <t>2BA - 14-15, dubel w kolor, brak 4 trefli (fit 2 kartowy)</t>
-  </si>
-  <si>
-    <t>2kiery i 4 trefli</t>
+    <t xml:space="preserve">2kiery brak 4 trefli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA - 14-15, dubel w kolor, brak 4 trefli (fit 2 kartowy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2kiery i 4 trefli</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -708,32 +827,38 @@
     </r>
   </si>
   <si>
-    <t>5+ (ew 4)</t>
-  </si>
-  <si>
-    <t>RELAY -  MAGISTER – pytanie o PC i piki  &lt;br&gt;  → 10+ PC, 5+pik     &lt;br&gt;  → ewentualnie  16+PC, 4+pik     &lt;br&gt; [ → ew. 7-10PC 4pik  i 5+trefli (odpowiedzi patrz niżej)  &lt;br&gt; &lt;strong&gt; gadżet  MAGISTER(zwany też PRO pytający rebid odpowiadającego:
+    <t xml:space="preserve">5+ (ew 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY -  MAGISTER – pytanie o PC i piki  &lt;br&gt;  → 10+ PC, 5+pik     &lt;br&gt;  → ewentualnie  16+PC, 4+pik     &lt;br&gt; [ → ew. 7-10PC 4pik  i 5+trefli (odpowiedzi patrz niżej)  &lt;br&gt; &lt;strong&gt; gadżet  MAGISTER(zwany też PRO pytający rebid odpowiadającego:
 (pytanie o liczbę kart w kolorze, czyli ma sens chyba jeżeli sam ma więcej w starszy i trefle???) &lt;strong&gt;</t>
   </si>
   <si>
-    <t>2 pik</t>
-  </si>
-  <si>
-    <t>3 piki</t>
-  </si>
-  <si>
-    <t>→ jest 10-12PC i (4)5+ kier (można przenieść na 2BA)</t>
-  </si>
-  <si>
-    <t>2 pik brak 4 trefli</t>
-  </si>
-  <si>
-    <t>→ jest 10-12PC i (4)5+ pik (można przenieść na 2BA)</t>
-  </si>
-  <si>
-    <t>2 piki i 4 trefli</t>
+    <t xml:space="preserve">2 pik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 piki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→ jest 10-12PC i (4)5+ kier (można przenieść na 2BA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 pik brak 4 trefli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→ jest 10-12PC i (4)5+ pik (można przenieść na 2BA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 piki i 4 trefli</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -747,10 +872,16 @@
     </r>
   </si>
   <si>
-    <t>4 s + 5 karo</t>
+    <t xml:space="preserve">4 s + 5 karo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> 7-10 PC, 4</t>
     </r>
     <r>
@@ -764,19 +895,25 @@
     </r>
   </si>
   <si>
-    <t>5+ kierów</t>
-  </si>
-  <si>
-    <t>Do gry</t>
-  </si>
-  <si>
-    <t>(kolor zgłoszony w pierwszym okrążeniu) 7-10 PC, 5+ kier  (sing off)</t>
-  </si>
-  <si>
-    <t>5 kierów i 4 piki</t>
+    <t xml:space="preserve">5+ kierów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do gry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(kolor zgłoszony w pierwszym okrążeniu) 7-10 PC, 5+ kier  (sing off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 kierów i 4 piki</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">REWERS  12+ PC  5+ </t>
     </r>
     <r>
@@ -790,58 +927,64 @@
     </r>
   </si>
   <si>
-    <t>5+ trefli</t>
-  </si>
-  <si>
-    <t>inwit do 3 NT/ Magister INŻYNIER</t>
-  </si>
-  <si>
-    <t>2BA 11-12 PC skład zrównoważony inwit do 3BA – ??????? albo  (AUTORELAY) - gadżet  MAGISTER INŻYNIER (jak MAGISTER.  oraz 5+ trefli!)</t>
-  </si>
-  <si>
-    <t>AUTOMAT</t>
-  </si>
-  <si>
-    <t>automat (tego co zaczął) i potem warianty (ten co zgłosił kolor i inżyniera):</t>
-  </si>
-  <si>
-    <t>6 trefli i 4 w kolor</t>
-  </si>
-  <si>
-    <t>odpowiedź na Inzyniera</t>
-  </si>
-  <si>
-    <t>pas - 6-9 PC, 6 trefli, 4 w kolor</t>
-  </si>
-  <si>
-    <t>6 trefli, 4 3 kolor i krótkość w karo</t>
-  </si>
-  <si>
-    <t>2♦ - 10-11 PC, 6 trefli, 4  w kolor, krótkość karo</t>
-  </si>
-  <si>
-    <t>6 trefli 4 w kolor (piki) i krótkość kier</t>
-  </si>
-  <si>
-    <t>2♥ - (po pikach) - 10-11 PC, 6 trefli, 4  w kolor(piki), krótkość kier</t>
-  </si>
-  <si>
-    <t>5 + w kolor, 5 trefli</t>
-  </si>
-  <si>
-    <t>3 w kolor odpowiedzi  - 5+ w kolor, 5+ trefli, forsing do końcówki</t>
-  </si>
-  <si>
-    <t>5 trefli 4 kiery</t>
-  </si>
-  <si>
-    <t>3BA - maksimum siły, 5+ trefli, 4 kiery</t>
-  </si>
-  <si>
-    <t>5 kierów i 5 trefli</t>
+    <t xml:space="preserve">5+ trefli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inwit do 3 NT/ Magister INŻYNIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA 11-12 PC skład zrównoważony inwit do 3BA – ??????? albo  (AUTORELAY) - gadżet  MAGISTER INŻYNIER (jak MAGISTER.  oraz 5+ trefli!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automat (tego co zaczął) i potem warianty (ten co zgłosił kolor i inżyniera):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 trefli i 4 w kolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odpowiedź na Inzyniera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas - 6-9 PC, 6 trefli, 4 w kolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 trefli, 4 3 kolor i krótkość w karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2♦ - 10-11 PC, 6 trefli, 4  w kolor, krótkość karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 trefli 4 w kolor (piki) i krótkość kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2♥ - (po pikach) - 10-11 PC, 6 trefli, 4  w kolor(piki), krótkość kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 + w kolor, 5 trefli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 w kolor odpowiedzi  - 5+ w kolor, 5+ trefli, forsing do końcówki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 trefli 4 kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA - maksimum siły, 5+ trefli, 4 kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 kierów i 5 trefli</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">3/3</t>
     </r>
     <r>
@@ -855,13 +998,19 @@
     </r>
   </si>
   <si>
-    <t>5 kierów i 5 kar</t>
-  </si>
-  <si>
-    <t>Inwit do końcówki</t>
+    <t xml:space="preserve">5 kierów i 5 kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inwit do końcówki</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -875,13 +1024,19 @@
     </r>
   </si>
   <si>
-    <t>6 kierów  krótkość w pikach</t>
-  </si>
-  <si>
-    <t>AUTOSPLINTER</t>
+    <t xml:space="preserve">6 kierów  krótkość w pikach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOSPLINTER</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">3  [</t>
     </r>
     <r>
@@ -895,13 +1050,19 @@
     </r>
   </si>
   <si>
-    <t>3BA 13-16 PC, skład zrównoważony (sing off) do gry</t>
-  </si>
-  <si>
-    <t>6+ krótkość trefl</t>
+    <t xml:space="preserve">3BA 13-16 PC, skład zrównoważony (sing off) do gry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+ krótkość trefl</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">4/4</t>
     </r>
     <r>
@@ -915,10 +1076,16 @@
     </r>
   </si>
   <si>
-    <t>6+ krótkośc karo</t>
+    <t xml:space="preserve">6+ krótkośc karo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">4</t>
     </r>
     <r>
@@ -932,13 +1099,19 @@
     </r>
   </si>
   <si>
-    <t>5+ trefl, brak starszej czwórki</t>
-  </si>
-  <si>
-    <t>Naturalne silny 1 trefl</t>
+    <t xml:space="preserve">5+ trefl, brak starszej czwórki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalne silny 1 trefl</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -952,10 +1125,16 @@
     </r>
   </si>
   <si>
-    <t>prawie dowolny</t>
+    <t xml:space="preserve">prawie dowolny</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -969,10 +1148,16 @@
     </r>
   </si>
   <si>
-    <t>5+ w kolor</t>
+    <t xml:space="preserve">5+ w kolor</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -986,10 +1171,16 @@
     </r>
   </si>
   <si>
-    <t>4+ kierów i 4 piki</t>
+    <t xml:space="preserve">4+ kierów i 4 piki</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2 </t>
     </r>
     <r>
@@ -1003,10 +1194,16 @@
     </r>
   </si>
   <si>
-    <t>Dokładnie 4 kiery, brak drugiej czwórki</t>
+    <t xml:space="preserve">Dokładnie 4 kiery, brak drugiej czwórki</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2BA   7-9(10) PC, dokładnie 4 </t>
     </r>
     <r>
@@ -1020,10 +1217,16 @@
     </r>
   </si>
   <si>
-    <t>3 + fit pikowy</t>
+    <t xml:space="preserve">3 + fit pikowy</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1037,10 +1240,16 @@
     </r>
   </si>
   <si>
-    <t>5 + w kolor, 5 kar</t>
+    <t xml:space="preserve">5 + w kolor, 5 kar</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1054,10 +1263,16 @@
     </r>
   </si>
   <si>
-    <t>6+ w kolor</t>
+    <t xml:space="preserve">6+ w kolor</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1071,10 +1286,16 @@
     </r>
   </si>
   <si>
-    <t>5 kierów i 5+ pików</t>
+    <t xml:space="preserve">5 kierów i 5+ pików</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">REWERS [ tylko po piku] 10+PC,  5+ </t>
     </r>
     <r>
@@ -1088,13 +1309,19 @@
     </r>
   </si>
   <si>
-    <t>3 fit</t>
-  </si>
-  <si>
-    <t>ODWROTKA</t>
+    <t xml:space="preserve">3 fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODWROTKA</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -1108,13 +1335,19 @@
     </r>
   </si>
   <si>
-    <t>4 kiery</t>
-  </si>
-  <si>
-    <t>odpowiedź na odwrotkę</t>
+    <t xml:space="preserve">4 kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odpowiedź na odwrotkę</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -1129,6 +1362,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -1142,13 +1381,19 @@
     </r>
   </si>
   <si>
-    <t>5 kierów</t>
-  </si>
-  <si>
-    <t>2BA   7-9(10) PC, 5 kierów(pików)             (Bubrotka – 11+ PC 5+ w starszym)</t>
+    <t xml:space="preserve">5 kierów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA   7-9(10) PC, 5 kierów(pików)             (Bubrotka – 11+ PC 5+ w starszym)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1162,10 +1407,16 @@
     </r>
   </si>
   <si>
-    <t>6 kierów</t>
+    <t xml:space="preserve">6 kierów</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1180,10 +1431,16 @@
     </r>
   </si>
   <si>
-    <t>Na 5 (układ 5332)</t>
+    <t xml:space="preserve">Na 5 (układ 5332)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1198,6 +1455,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">3</t>
     </r>
     <r>
@@ -1211,13 +1474,19 @@
     </r>
   </si>
   <si>
-    <t>4 karty</t>
-  </si>
-  <si>
-    <t>czwórka w kierach</t>
+    <t xml:space="preserve">4 karty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czwórka w kierach</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2</t>
     </r>
     <r>
@@ -1235,13 +1504,19 @@
     </r>
   </si>
   <si>
-    <t>5(6) kart</t>
-  </si>
-  <si>
-    <t>własny kolor silny</t>
+    <t xml:space="preserve">5(6) kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">własny kolor silny</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">REWERS 18+ PC,  5(6) kart drugi starszy, forsing dalej jak po otwarciu jeden w starszy i podniesieniu do 2 </t>
     </r>
     <r>
@@ -1259,10 +1534,16 @@
     </r>
   </si>
   <si>
-    <t>aspiracje szlemikowe</t>
+    <t xml:space="preserve">aspiracje szlemikowe</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve"> 3/</t>
     </r>
     <r>
@@ -1276,13 +1557,19 @@
     </r>
   </si>
   <si>
-    <t>4-4-4-1 lub 4s i 5 trefl</t>
-  </si>
-  <si>
-    <t>inwit do końćówki</t>
+    <t xml:space="preserve">4-4-4-1 lub 4s i 5 trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inwit do końćówki</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">3 </t>
     </r>
     <r>
@@ -1296,25 +1583,31 @@
     </r>
   </si>
   <si>
-    <t>6+ pików</t>
-  </si>
-  <si>
-    <t>REWERS: 18+ PC, 6+ kart w licytowanym kolorze – aspiracje szlemikowe albo SPLINTER 17-18PC</t>
-  </si>
-  <si>
-    <t>szukanie koloru</t>
-  </si>
-  <si>
-    <t>2BA  18+ PC, brak fitu (po kierze nie wyklucza 4 pik), forsing</t>
-  </si>
-  <si>
-    <t>3BA  14-17PC ?  kontrakt</t>
-  </si>
-  <si>
-    <t>układ</t>
+    <t xml:space="preserve">6+ pików</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REWERS: 18+ PC, 6+ kart w licytowanym kolorze – aspiracje szlemikowe albo SPLINTER 17-18PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">szukanie koloru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA  18+ PC, brak fitu (po kierze nie wyklucza 4 pik), forsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA  14-17PC ?  kontrakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">układ</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">4</t>
     </r>
     <r>
@@ -1328,71 +1621,77 @@
     </r>
   </si>
   <si>
-    <t>4ka pik</t>
-  </si>
-  <si>
-    <t>4+ pik,  forsuje na jedno okrążenie 
+    <t xml:space="preserve">4ka pik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ pik,  forsuje na jedno okrążenie 
 &lt;br&gt;  → 4 kiery wykluczone  (5 możliwe) -  nie wyklucza młodszej piątki przy sile poniżej 11PC - przy dwóch starszych zgłaszam dłuższy - przy dwóch czwórkach kierową,  przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t>18+ PC, 5(6)+kart w kolorze - b.dobry kolor -aspiracje szlemikowe</t>
-  </si>
-  <si>
-    <t>18+ PC, 5(6)+ kart w kolorze - b.dobry kolor -aspiracje szlemikowe</t>
-  </si>
-  <si>
-    <t>15-16PC – 4-4-4-1 lub 4 starsza i 5  - inwit do koncówki</t>
-  </si>
-  <si>
-    <t>kontrakt</t>
-  </si>
-  <si>
-    <t>1BA (7)8-10 PC, bez starszej czwórki, może zawierać młodszą piątkę, nie forsuje (przy słabych 7PC lepiej negat)</t>
-  </si>
-  <si>
-    <t>4414 albo zrównoważony</t>
-  </si>
-  <si>
-    <t>negat</t>
-  </si>
-  <si>
-    <t>Pas  12-14 PC układ zrównoważony albo 4414</t>
-  </si>
-  <si>
-    <t>kolor treflowy</t>
-  </si>
-  <si>
-    <t>15+ PC   5+ trefli</t>
-  </si>
-  <si>
-    <t>PYTANIE O SKŁAD</t>
-  </si>
-  <si>
-    <t>18+  PC,RELAY karta układowa (pytanie o skład ) → patrz obok</t>
-  </si>
-  <si>
-    <t>silny kolor kierowy</t>
-  </si>
-  <si>
-    <t>18+  PC, 5 kart  kolor licytowany (bo odpowiadający wykluczył czwórki, gdyby było mniej punktów to otwarcie było by w piki!!!)</t>
-  </si>
-  <si>
-    <t>silny kolor pikowy</t>
-  </si>
-  <si>
-    <t>inwit do szlemika</t>
-  </si>
-  <si>
-    <t>2BA  22-24 PC, układ zrównoważony inwit do szlemika ??? coś było inaczej ale bez sensu</t>
-  </si>
-  <si>
-    <t>3BA  18-21 PC  układ zrównoważony - kontrakt</t>
-  </si>
-  <si>
-    <t>12+  PC, 5+ trefli/kar, forsuje do końcówki  (nie wyklucza starszej czwórki? ) Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana, otwierający zgłasza starsze czwórki, podniesienie jest fitem bez nadwyżek</t>
+    <t xml:space="preserve">18+ PC, 5(6)+kart w kolorze - b.dobry kolor -aspiracje szlemikowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+ PC, 5(6)+ kart w kolorze - b.dobry kolor -aspiracje szlemikowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-16PC – 4-4-4-1 lub 4 starsza i 5  - inwit do koncówki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kontrakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BA (7)8-10 PC, bez starszej czwórki, może zawierać młodszą piątkę, nie forsuje (przy słabych 7PC lepiej negat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414 albo zrównoważony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas  12-14 PC układ zrównoważony albo 4414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kolor treflowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15+ PC   5+ trefli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYTANIE O SKŁAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+  PC,RELAY karta układowa (pytanie o skład ) → patrz obok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silny kolor kierowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+  PC, 5 kart  kolor licytowany (bo odpowiadający wykluczył czwórki, gdyby było mniej punktów to otwarcie było by w piki!!!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silny kolor pikowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inwit do szlemika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA  22-24 PC, układ zrównoważony inwit do szlemika ??? coś było inaczej ale bez sensu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA  18-21 PC  układ zrównoważony - kontrakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12+  PC, 5+ trefli/kar, forsuje do końcówki  (nie wyklucza starszej czwórki? ) Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana, otwierający zgłasza starsze czwórki, podniesienie jest fitem bez nadwyżek</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">2w kolor </t>
     </r>
     <r>
@@ -1406,46 +1705,52 @@
     </r>
   </si>
   <si>
-    <t>kolor pikowy</t>
-  </si>
-  <si>
-    <t>2BA  12-14 PC, układ zrównoważony bez starszej czówórki</t>
-  </si>
-  <si>
-    <t>4 kara</t>
-  </si>
-  <si>
-    <t>silne uzgodnienie koloru</t>
-  </si>
-  <si>
-    <t>12-14  PC, 4 kar- silne uzgodnienie koloru</t>
-  </si>
-  <si>
-    <t>4 kara + splinter</t>
-  </si>
-  <si>
-    <t>SPLINTER</t>
-  </si>
-  <si>
-    <t>15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
-  </si>
-  <si>
-    <t>16+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
-  </si>
-  <si>
-    <t>17+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
-  </si>
-  <si>
-    <t>18+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
-  </si>
-  <si>
-    <t>Dobra 5 lub 6+</t>
-  </si>
-  <si>
-    <t>12+  PC,  dobra 5 lub 6+, forsing do  końcówki Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana – szanse na szlemika...</t>
+    <t xml:space="preserve">kolor pikowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA  12-14 PC, układ zrównoważony bez starszej czówórki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 kara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silne uzgodnienie koloru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-14  PC, 4 kar- silne uzgodnienie koloru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 kara + splinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPLINTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobra 5 lub 6+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12+  PC,  dobra 5 lub 6+, forsing do  końcówki Nie ma sensu przeskakiwać bo i tak licytacja jest sforsowana – szanse na szlemika...</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
@@ -1459,28 +1764,34 @@
     </r>
   </si>
   <si>
-    <t>11-12 PC, bez starszej czwórki, inwit do 3BA</t>
-  </si>
-  <si>
-    <t>do gry</t>
-  </si>
-  <si>
-    <t>15-17 PC piątka trefli – kolor treflowy</t>
-  </si>
-  <si>
-    <t>18+PC piątka kar …</t>
-  </si>
-  <si>
-    <t>18+ PC piątka kierów</t>
-  </si>
-  <si>
-    <t>18+ PC piątka pików</t>
-  </si>
-  <si>
-    <t>(6?) 7+</t>
+    <t xml:space="preserve">11-12 PC, bez starszej czwórki, inwit do 3BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do gry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17 PC piątka trefli – kolor treflowy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+PC piątka kar …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+ PC piątka kierów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18+ PC piątka pików</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6?) 7+</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve"> 9-11</t>
     </r>
     <r>
@@ -1495,6 +1806,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">9-11</t>
     </r>
     <r>
@@ -1508,10 +1825,16 @@
     </r>
   </si>
   <si>
-    <t>Blok albo autosplintere</t>
+    <t xml:space="preserve">Blok albo autosplintere</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve"> 4-7</t>
     </r>
     <r>
@@ -1526,6 +1849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
       <t xml:space="preserve">4-7</t>
     </r>
     <r>
@@ -1539,16 +1868,22 @@
     </r>
   </si>
   <si>
-    <t>Nie ma takiej odzywki</t>
-  </si>
-  <si>
-    <t>3BA 13-16 PC, bez starszej czwórki i młodszej piątki, nie forsuje – kontrakt (kiepski pomysł bo może blokować)</t>
-  </si>
-  <si>
-    <t>Naturalne 1 karo</t>
+    <t xml:space="preserve">Nie ma takiej odzywki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA 13-16 PC, bez starszej czwórki i młodszej piątki, nie forsuje – kontrakt (kiepski pomysł bo może blokować)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalne 1 karo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">12-17 PC, 5+ kar (naturalne ale  uwaga na </t>
     </r>
     <r>
@@ -1566,175 +1901,190 @@
     </r>
   </si>
   <si>
-    <t>Brak 4 kar</t>
-  </si>
-  <si>
-    <t>pas</t>
-  </si>
-  <si>
-    <t>nic ciekawego – patrz 3 kara...</t>
-  </si>
-  <si>
-    <t>7+ PC,  4 +  kierów/pików ; przy dwóch czwórkach kierowa, przy dwóch piątkach pikowa;  forsuje na jedno okrążenie</t>
-  </si>
-  <si>
-    <t>czwórka w pikach</t>
-  </si>
-  <si>
-    <t>brak 4s</t>
-  </si>
-  <si>
-    <t> 7-9(10) PC, bez starszej czwórki, nie forsuje</t>
-  </si>
-  <si>
-    <t>5+ kar i 4+ trefl</t>
-  </si>
-  <si>
-    <t>kara i trefle</t>
-  </si>
-  <si>
-    <t>12-14 PC   5+ kar i  4+  trefl .(w wersji opcjonalnej też z 5 trefli i czwórką karo przy 12-17 PC oraz na dwóch piątkach młodszych 12-14PC)</t>
-  </si>
-  <si>
-    <t>6+, brak 4s</t>
-  </si>
-  <si>
-    <t>kara bez starszej</t>
-  </si>
-  <si>
-    <t> 12-14 PC, 6+ kar, możliwe trefle, starsza czwórka wykluczona </t>
-  </si>
-  <si>
-    <t>4 kiery 5+kar</t>
-  </si>
-  <si>
-    <t>kara i kiery</t>
-  </si>
-  <si>
-    <t>15-17 PC  4 w kolor, 5+ kar</t>
-  </si>
-  <si>
-    <t>4 piki 5+kar</t>
-  </si>
-  <si>
-    <t>kara i piki</t>
-  </si>
-  <si>
-    <t>5+, 5+ na młodszych</t>
-  </si>
-  <si>
-    <t>15-17 PC, układ 5+-5+ na kolorach młodszych</t>
-  </si>
-  <si>
-    <t>6 kar</t>
-  </si>
-  <si>
-    <t>sześć kar</t>
-  </si>
-  <si>
-    <t>15-17 PC, 6 kar z dwiema starszymi figurami, forsing</t>
-  </si>
-  <si>
-    <t>10 (12)+ PC, 5+-trefli,nie wyklucza starszej czwórki, forsuje na jedno okrążenie</t>
-  </si>
-  <si>
-    <t>kara</t>
-  </si>
-  <si>
-    <t>12-14 PC – 5+ kar</t>
-  </si>
-  <si>
-    <t>5+kar i 4 kiery</t>
-  </si>
-  <si>
-    <t>15-17  PC –5+kar 4 w kolor</t>
-  </si>
-  <si>
-    <t>5+ kar i 4 piki</t>
-  </si>
-  <si>
-    <t>4-4-4-1</t>
-  </si>
-  <si>
-    <t>układ na czwórkach</t>
-  </si>
-  <si>
-    <t>(RELAY) 15-17  PC 4-4-4-1 (singiel trefl)</t>
-  </si>
-  <si>
-    <t>5+ kar i 4 trefle</t>
-  </si>
-  <si>
-    <t>15-17 PC – 5+ kar oraz  4+trefl</t>
-  </si>
-  <si>
-    <t>15-17 PC –6+kar</t>
-  </si>
-  <si>
-    <t>5+ kar, 4 trefle i krótkość</t>
-  </si>
-  <si>
-    <t>15-17  PC –5+ kar,  4trefle oraz krótkość w kolor  SPLINTER</t>
-  </si>
-  <si>
-    <t>(RELAY) –12-14 PC  4-4-4-1 </t>
-  </si>
-  <si>
-    <t>3+ kara brak 4s</t>
-  </si>
-  <si>
-    <t>12+  PC, fit (3+), brak starszej czwórki, ze względu na krótkość nie nadająca się do zalicytowania 1BA</t>
-  </si>
-  <si>
-    <t>12+  PC,  5+-kierów/pików, forsing do końcówki</t>
-  </si>
-  <si>
-    <t>11-12 PC, bez starszej czwórki, nie forsuje (jest to inwit do 3BA)</t>
-  </si>
-  <si>
-    <t>4+ kar bez 4s</t>
-  </si>
-  <si>
-    <t>9-11 PC, fit (4+ kar), brak starszej czwórki, inwit do 3BA</t>
-  </si>
-  <si>
-    <t>4+ kara</t>
-  </si>
-  <si>
-    <t>BLOK</t>
-  </si>
-  <si>
-    <t>7-9 PC (wersja pro 0-6PC), fit (4+ kar), blok</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>4+ kara i krótkość w kolorze</t>
-  </si>
-  <si>
-    <t>12-15  PC,  4+KARA i krótkość w kierach/ pikach SPLINTER forsing do końcówki</t>
-  </si>
-  <si>
-    <t>bez 4s i 5m</t>
-  </si>
-  <si>
-    <t> (12)13-16 PC, bez starszej czwórki i młodszej piątki – do gry</t>
-  </si>
-  <si>
-    <t>4+ kara i singiel terfl</t>
-  </si>
-  <si>
-    <t>12-15  PC,  4+KARA i krótkość w   SPLINTER forsing do końcówki</t>
-  </si>
-  <si>
-    <t>Naturalne 1 kier</t>
-  </si>
-  <si>
-    <t>(w wersji pro przed partią nawet 10-17) (wyklucza piątkę pików chyba że kierów jest więcej :), może być też dowolna młodsza piątka)</t>
+    <t xml:space="preserve">Brak 4 kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nic ciekawego – patrz 3 kara...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czwórka w KOLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7+ PC,  4 +  KOLORów ; przy dwóch czwórkach kierowa, przy dwóch piątkach pikowa;  forsuje na jedno okrążenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-3-3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez starszej czwórki - układ -5-3-3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ', / ( ) 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+ kar i 4+ trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kara i trefle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 ! , !.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+, brak 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kara bez starszej</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,*,&lt;,&lt;,'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 kiery 5+kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kara i kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17 PC  4 w kolor, 5+ kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 piki 5+kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kara i piki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+, 5+ na młodszych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17 PC, układ 5+-5+ na kolorach młodszych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sześć kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17 PC, 6 kar z dwiema starszymi figurami, forsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (12)+ PC, 5+-trefli,nie wyklucza starszej czwórki, forsuje na jedno okrążenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-14 PC – 5+ kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+kar i 4 kiery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17  PC –5+kar 4 w kolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+ kar i 4 piki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-4-4-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">układ na czwórkach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RELAY) 15-17  PC 4-4-4-1 (singiel trefl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+ kar i 4 trefle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17 PC – 5+ kar oraz  4+trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17 PC –6+kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5+ kar, 4 trefle i krótkość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-17  PC –5+ kar,  4trefle oraz krótkość w kolor  SPLINTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RELAY) –12-14 PC  4-4-4-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+ kara brak 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12+  PC, fit (3+), brak starszej czwórki, ze względu na krótkość nie nadająca się do zalicytowania 1BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12+  PC,  5+-kierów/pików, forsing do końcówki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-12 PC, bez starszej czwórki, nie forsuje (jest to inwit do 3BA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kar bez 4s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-11 PC, fit (4+ kar), brak starszej czwórki, inwit do 3BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9 PC (wersja pro 0-6PC), fit (4+ kar), blok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kara i krótkość w kolorze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-15  PC,  4+KARA i krótkość w kierach/ pikach SPLINTER forsing do końcówki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez 4s i 5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (12)13-16 PC, bez starszej czwórki i młodszej piątki – do gry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kara i singiel terfl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-15  PC,  4+KARA i krótkość w   SPLINTER forsing do końcówki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalne 1 kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(w wersji pro przed partią nawet 10-17) (wyklucza piątkę pików chyba że kierów jest więcej :), może być też dowolna młodsza piątka)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">(w wersji pro przed partią nawet 10-17) </t>
     </r>
     <r>
@@ -1748,22 +2098,28 @@
     </r>
   </si>
   <si>
-    <t>5-3-3-2 lub 4-4-3-2</t>
-  </si>
-  <si>
-    <t>Naturalne BA</t>
-  </si>
-  <si>
-    <t>skład zrównoważony bez krótkości, bez starszej piątki, otwarcie może zawierać piątkę młodszą (wyjątkowo również bardzo słabą starszą) układy 5-3-3-2 4-4-3-2 itp. Po interwencji opozycji obowiązują dalej Stayman i transfery z wykorzystaniem odzywek opozycji.</t>
-  </si>
-  <si>
-    <t>xxx6 lub XXx5</t>
-  </si>
-  <si>
-    <t>PRESSISION</t>
+    <t xml:space="preserve">5-3-3-2 lub 4-4-3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalne BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skład zrównoważony bez krótkości, bez starszej piątki, otwarcie może zawierać piątkę młodszą (wyjątkowo również bardzo słabą starszą) układy 5-3-3-2 4-4-3-2 itp. Po interwencji opozycji obowiązują dalej Stayman i transfery z wykorzystaniem odzywek opozycji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx6 lub XXx5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSISION</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve"> (10)11-16 PC (w wersji pro12-15), 5+ trefli + starsza czwórka lub 6 + trefli  </t>
     </r>
     <r>
@@ -1778,109 +2134,115 @@
     </r>
   </si>
   <si>
-    <t>MULTI</t>
-  </si>
-  <si>
-    <t>MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
-  </si>
-  <si>
-    <t>x-5-X-X</t>
-  </si>
-  <si>
-    <t>DWUKOLORÓWKA  5+ kier i 5+ młodszy</t>
-  </si>
-  <si>
-    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
-  </si>
-  <si>
-    <t>5-x-X-X</t>
-  </si>
-  <si>
-    <t>DWUKOLORÓWKA 5+ pik i 5+ dowolny</t>
-  </si>
-  <si>
-    <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
-  </si>
-  <si>
-    <t>'x-x-5-5</t>
-  </si>
-  <si>
-    <t>DWUKOLORÓWKA na Młodszych</t>
-  </si>
-  <si>
-    <t>2BA DWUKOLORÓWNA NA MŁODSZYCH  7-10(11) PC,  dwie młodsze piątki</t>
-  </si>
-  <si>
-    <t>7+</t>
-  </si>
-  <si>
-    <t>BLOK słaby</t>
-  </si>
-  <si>
-    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>GAMBLING</t>
-  </si>
-  <si>
-    <t>Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
-  </si>
-  <si>
-    <t>8-x-x-x</t>
-  </si>
-  <si>
-    <t>BLOK (dawny Teksas pdaf)</t>
-  </si>
-  <si>
-    <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
-  </si>
-  <si>
-    <t>x-8-x-x</t>
-  </si>
-  <si>
-    <t>x-7-x-x</t>
-  </si>
-  <si>
-    <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **).</t>
-  </si>
-  <si>
-    <t>7-x-x-x</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>pytanie o kolor Asa</t>
-  </si>
-  <si>
-    <t>8+</t>
-  </si>
-  <si>
-    <t>(6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew)</t>
-  </si>
-  <si>
-    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew)</t>
-  </si>
-  <si>
-    <t>Pas</t>
-  </si>
-  <si>
-    <t>brak odzywki na otwarcie na pierwszym ręku na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
-  </si>
-  <si>
-    <t>brak odzywki na otwarcie na drugim ręku  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
-  </si>
-  <si>
-    <t>brak odzywki na otwarcie po pasie partnera  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
-  </si>
-  <si>
-    <t>Wieloznaczny trefl</t>
+    <t xml:space="preserve">MULTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-5-X-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWUKOLORÓWKA  5+ kier i 5+ młodszy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-x-X-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWUKOLORÓWKA 5+ pik i 5+ dowolny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'x-x-5-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWUKOLORÓWKA na Młodszych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA DWUKOLORÓWNA NA MŁODSZYCH  7-10(11) PC,  dwie młodsze piątki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOK słaby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-x-x-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOK (dawny Teksas pdaf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-8-x-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x-7-x-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-x-x-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pytanie o kolor Asa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak odzywki na otwarcie na pierwszym ręku na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak odzywki na otwarcie na drugim ręku  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak odzywki na otwarcie po pasie partnera  na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wieloznaczny trefl</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">→ (12)</t>
     </r>
     <r>
@@ -1902,10 +2264,16 @@
     </r>
   </si>
   <si>
-    <t>F</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">12-17 PC, 5+ kar (naturalne ale  uwaga na </t>
     </r>
     <r>
@@ -1923,10 +2291,16 @@
     </r>
   </si>
   <si>
-    <t>Trójznaczne forsuje na 1 okrążenie</t>
+    <t xml:space="preserve">Trójznaczne forsuje na 1 okrążenie</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">→ tzw. negat , 0-6(8) PC, skład dowolny  
 (w kolejnym okrążeniu możliwy pas jeżeli jest 0-4 PC) 
 &lt;br&gt;→ 16+ PC, skład dowolny *  (w kolejnym okrążeniu przeskok)
@@ -1945,10 +2319,10 @@
     </r>
   </si>
   <si>
-    <t>4ka kier</t>
-  </si>
-  <si>
-    <t>4+ kier,  forsuje na jedno okrążenie
+    <t xml:space="preserve">4ka kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ kier,  forsuje na jedno okrążenie
 uwagi:
 – kiery nie wykluczają pików przy 4 kartach
 nie wyklucza młodszej piątki przy sile poniżej 11PC
@@ -1957,7 +2331,7 @@
 przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t>4+ pik,  forsuje na jedno okrążenie
+    <t xml:space="preserve">4+ pik,  forsuje na jedno okrążenie
 uwagi:
 &lt;br&gt;– kiery nie wykluczają pików przy 4 kartach
 nie wyklucza młodszej piątki przy sile poniżej 11PC
@@ -1966,40 +2340,40 @@
 przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>Otwarcie 1 młodszy</t>
-  </si>
-  <si>
-    <t>otwarcie bez starszej piątki – w dłuższy młodszy oraz 3-3 na karach i treflach</t>
-  </si>
-  <si>
-    <t>poparcie na 4 karo</t>
-  </si>
-  <si>
-    <t>czwórka karowa nie wyklucza fitu trefl ani starszej czwórki...</t>
-  </si>
-  <si>
-    <t>poparcie na 4 kier</t>
-  </si>
-  <si>
-    <t>czwórka kierowa, wyklucza czwórkę karo, nie wyklucza pikowej, ani fitu trefl</t>
-  </si>
-  <si>
-    <t>poparcie na 4 pik</t>
-  </si>
-  <si>
-    <t>czwórka pikowa, wyklucza czwórki karo i kier, nie wyklucza fitu trefl</t>
-  </si>
-  <si>
-    <t>6-10 PC, wyklucza 4 kara, 4 kiery, 4 piki i 5 trefli;</t>
-  </si>
-  <si>
-    <t>6+ PC, 5+ trefli, wyklucza 4 kara, 4 kiery, 4 piki;</t>
-  </si>
-  <si>
-    <t>Naturalne bez Atu</t>
+    <t xml:space="preserve">3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otwarcie 1 młodszy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otwarcie bez starszej piątki – w dłuższy młodszy oraz 3-3 na karach i treflach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poparcie na 4 karo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czwórka karowa nie wyklucza fitu trefl ani starszej czwórki...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poparcie na 4 kier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czwórka kierowa, wyklucza czwórkę karo, nie wyklucza pikowej, ani fitu trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poparcie na 4 pik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czwórka pikowa, wyklucza czwórki karo i kier, nie wyklucza fitu trefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 PC, wyklucza 4 kara, 4 kiery, 4 piki i 5 trefli;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6+ PC, 5+ trefli, wyklucza 4 kara, 4 kiery, 4 piki;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalne bez Atu</t>
   </si>
 </sst>
 </file>
@@ -2007,11 +2381,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2101,6 +2475,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2209,7 +2588,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2514,6 +2893,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2610,22 +2993,22 @@
   <dimension ref="A1:M336"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A278" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="735" topLeftCell="A279" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L291" activeCellId="0" sqref="L291"/>
+      <selection pane="bottomLeft" activeCell="C287" activeCellId="0" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="138.107142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.11224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="136.612244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14591,7 +14974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
         <v>285</v>
       </c>
@@ -14606,7 +14989,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="F286" s="10" t="n">
         <v>7</v>
@@ -14621,10 +15004,10 @@
         <v>0</v>
       </c>
       <c r="J286" s="12" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="K286" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L286" s="10" t="s">
         <v>17</v>
@@ -14633,44 +15016,41 @@
         <v>62</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
         <v>286</v>
       </c>
       <c r="B287" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C287" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F287" s="10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G287" s="10" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H287" s="10" t="s">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="I287" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J287" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K287" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="L287" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K287" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="L287" s="10"/>
       <c r="M287" s="14" t="s">
         <v>62</v>
       </c>
@@ -14699,7 +15079,7 @@
         <v>9</v>
       </c>
       <c r="H288" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I288" s="11" t="n">
         <v>0</v>
@@ -14708,7 +15088,7 @@
         <v>100</v>
       </c>
       <c r="K288" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L288" s="10" t="s">
         <v>107</v>
@@ -14741,16 +15121,16 @@
         <v>14</v>
       </c>
       <c r="H289" s="17" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I289" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J289" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K289" s="30" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L289" s="17" t="s">
         <v>107</v>
@@ -14783,16 +15163,16 @@
         <v>14</v>
       </c>
       <c r="H290" s="17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I290" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J290" s="19" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K290" s="30" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L290" s="17" t="s">
         <v>107</v>
@@ -14825,16 +15205,16 @@
         <v>17</v>
       </c>
       <c r="H291" s="17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I291" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J291" s="19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K291" s="30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L291" s="17" t="s">
         <v>35</v>
@@ -14867,16 +15247,16 @@
         <v>17</v>
       </c>
       <c r="H292" s="17" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I292" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J292" s="19" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K292" s="30" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L292" s="17" t="s">
         <v>35</v>
@@ -14909,16 +15289,16 @@
         <v>17</v>
       </c>
       <c r="H293" s="17" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I293" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J293" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K293" s="30" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L293" s="17" t="s">
         <v>35</v>
@@ -14951,16 +15331,16 @@
         <v>17</v>
       </c>
       <c r="H294" s="17" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I294" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J294" s="19" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K294" s="30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L294" s="17" t="s">
         <v>35</v>
@@ -15002,7 +15382,7 @@
         <v>262</v>
       </c>
       <c r="K295" s="13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L295" s="10" t="s">
         <v>17</v>
@@ -15041,10 +15421,10 @@
         <v>0</v>
       </c>
       <c r="J296" s="19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K296" s="30" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L296" s="17" t="s">
         <v>107</v>
@@ -15077,16 +15457,16 @@
         <v>17</v>
       </c>
       <c r="H297" s="17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I297" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J297" s="19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K297" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L297" s="17" t="s">
         <v>44</v>
@@ -15119,16 +15499,16 @@
         <v>17</v>
       </c>
       <c r="H298" s="17" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I298" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J298" s="19" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K298" s="30" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L298" s="17" t="s">
         <v>44</v>
@@ -15161,16 +15541,16 @@
         <v>17</v>
       </c>
       <c r="H299" s="17" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I299" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J299" s="19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K299" s="30" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L299" s="17" t="s">
         <v>44</v>
@@ -15203,16 +15583,16 @@
         <v>17</v>
       </c>
       <c r="H300" s="17" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I300" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J300" s="19" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K300" s="30" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L300" s="17" t="s">
         <v>44</v>
@@ -15254,7 +15634,7 @@
         <v>112</v>
       </c>
       <c r="K301" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L301" s="17" t="s">
         <v>44</v>
@@ -15287,7 +15667,7 @@
         <v>17</v>
       </c>
       <c r="H302" s="17" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I302" s="18" t="n">
         <v>0</v>
@@ -15296,7 +15676,7 @@
         <v>280</v>
       </c>
       <c r="K302" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L302" s="17" t="s">
         <v>44</v>
@@ -15329,7 +15709,7 @@
         <v>17</v>
       </c>
       <c r="H303" s="17" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I303" s="18" t="n">
         <v>0</v>
@@ -15338,7 +15718,7 @@
         <v>280</v>
       </c>
       <c r="K303" s="30" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L303" s="17" t="s">
         <v>44</v>
@@ -15371,7 +15751,7 @@
         <v>14</v>
       </c>
       <c r="H304" s="17" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I304" s="18" t="n">
         <v>0</v>
@@ -15380,7 +15760,7 @@
         <v>167</v>
       </c>
       <c r="K304" s="30" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L304" s="17" t="s">
         <v>31</v>
@@ -15413,7 +15793,7 @@
         <v>37</v>
       </c>
       <c r="H305" s="10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I305" s="11" t="n">
         <v>0</v>
@@ -15422,7 +15802,7 @@
         <v>57</v>
       </c>
       <c r="K305" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L305" s="10" t="s">
         <v>44</v>
@@ -15464,7 +15844,7 @@
         <v>114</v>
       </c>
       <c r="K306" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L306" s="10" t="s">
         <v>44</v>
@@ -15506,7 +15886,7 @@
         <v>274</v>
       </c>
       <c r="K307" s="13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L307" s="10" t="s">
         <v>44</v>
@@ -15539,7 +15919,7 @@
         <v>12</v>
       </c>
       <c r="H308" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I308" s="11" t="n">
         <v>0</v>
@@ -15548,7 +15928,7 @@
         <v>119</v>
       </c>
       <c r="K308" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L308" s="10" t="s">
         <v>35</v>
@@ -15581,7 +15961,7 @@
         <v>11</v>
       </c>
       <c r="H309" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="I309" s="11" t="n">
         <v>0</v>
@@ -15590,7 +15970,7 @@
         <v>119</v>
       </c>
       <c r="K309" s="13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L309" s="10" t="s">
         <v>35</v>
@@ -15623,19 +16003,19 @@
         <v>9</v>
       </c>
       <c r="H310" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I310" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J310" s="12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K310" s="13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L310" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M310" s="14" t="s">
         <v>62</v>
@@ -15665,7 +16045,7 @@
         <v>15</v>
       </c>
       <c r="H311" s="10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I311" s="11" t="n">
         <v>0</v>
@@ -15674,7 +16054,7 @@
         <v>280</v>
       </c>
       <c r="K311" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L311" s="10" t="s">
         <v>44</v>
@@ -15707,7 +16087,7 @@
         <v>15</v>
       </c>
       <c r="H312" s="10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I312" s="11" t="n">
         <v>0</v>
@@ -15716,7 +16096,7 @@
         <v>280</v>
       </c>
       <c r="K312" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L312" s="10" t="s">
         <v>44</v>
@@ -15749,7 +16129,7 @@
         <v>16</v>
       </c>
       <c r="H313" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I313" s="11" t="n">
         <v>0</v>
@@ -15758,7 +16138,7 @@
         <v>128</v>
       </c>
       <c r="K313" s="13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L313" s="10" t="s">
         <v>31</v>
@@ -15791,7 +16171,7 @@
         <v>15</v>
       </c>
       <c r="H314" s="10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I314" s="11" t="n">
         <v>0</v>
@@ -15800,7 +16180,7 @@
         <v>280</v>
       </c>
       <c r="K314" s="13" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L314" s="10" t="s">
         <v>44</v>
@@ -15838,10 +16218,10 @@
         <v>0</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L315" s="3" t="s">
         <v>107</v>
@@ -15879,10 +16259,10 @@
         <v>0</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L316" s="3" t="s">
         <v>107</v>
@@ -15914,16 +16294,16 @@
         <v>17</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="I317" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J317" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L317" s="3" t="s">
         <v>107</v>
@@ -15955,16 +16335,16 @@
         <v>15</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I318" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J318" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K318" s="6" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L318" s="3" t="s">
         <v>107</v>
@@ -16002,10 +16382,10 @@
         <v>0</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L319" s="3" t="s">
         <v>17</v>
@@ -16037,16 +16417,16 @@
         <v>11</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I320" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K320" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L320" s="3" t="s">
         <v>107</v>
@@ -16078,16 +16458,16 @@
         <v>11</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="I321" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L321" s="3" t="s">
         <v>107</v>
@@ -16119,16 +16499,16 @@
         <v>11</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I322" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L322" s="3" t="s">
         <v>17</v>
@@ -16160,19 +16540,19 @@
         <v>10</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I323" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M323" s="3" t="s">
         <v>55</v>
@@ -16201,19 +16581,19 @@
         <v>10</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I324" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J324" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K324" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M324" s="3" t="s">
         <v>55</v>
@@ -16242,19 +16622,19 @@
         <v>10</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I325" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J325" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K325" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M325" s="3" t="s">
         <v>55</v>
@@ -16283,19 +16663,19 @@
         <v>10</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I326" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J326" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M326" s="3" t="s">
         <v>55</v>
@@ -16325,19 +16705,19 @@
         <v>22</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I327" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J327" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L327" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M327" s="3" t="s">
         <v>55</v>
@@ -16366,19 +16746,19 @@
         <v>10</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I328" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J328" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K328" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M328" s="3" t="s">
         <v>18</v>
@@ -16407,19 +16787,19 @@
         <v>10</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I329" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J329" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M329" s="3" t="s">
         <v>18</v>
@@ -16448,19 +16828,19 @@
         <v>10</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I330" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J330" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M330" s="3" t="s">
         <v>62</v>
@@ -16489,19 +16869,19 @@
         <v>10</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I331" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J331" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L331" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M331" s="3" t="s">
         <v>62</v>
@@ -16536,10 +16916,10 @@
         <v>0</v>
       </c>
       <c r="J332" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K332" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L332" s="3" t="s">
         <v>17</v>
@@ -16571,19 +16951,19 @@
         <v>10</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I333" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J333" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L333" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M333" s="3" t="s">
         <v>62</v>
@@ -16612,19 +16992,19 @@
         <v>10</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I334" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J334" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M334" s="3" t="s">
         <v>62</v>
@@ -16653,19 +17033,19 @@
         <v>37</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I335" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J335" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L335" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M335" s="3" t="s">
         <v>62</v>
@@ -16694,19 +17074,19 @@
         <v>37</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I336" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L336" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M336" s="3" t="s">
         <v>62</v>
@@ -16736,7 +17116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16790,7 +17170,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="76" t="n">
+      <c r="D2" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -16809,15 +17189,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>397</v>
+        <v>399</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>400</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16831,7 +17211,7 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="76" t="n">
+      <c r="D3" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -16851,15 +17231,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>401</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16873,7 +17253,7 @@
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="76" t="n">
+      <c r="D4" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -16892,15 +17272,15 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K4" s="77" t="s">
         <v>399</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>402</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16914,7 +17294,7 @@
       <c r="C5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -16933,15 +17313,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K5" s="77" t="s">
         <v>399</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>402</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16969,9 +17349,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17025,7 +17403,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="76" t="n">
+      <c r="D2" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -17044,15 +17422,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>404</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="M2" s="79"/>
+        <v>405</v>
+      </c>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" customFormat="false" ht="170.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -17064,7 +17442,7 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="76" t="n">
+      <c r="D3" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -17085,13 +17463,13 @@
       <c r="J3" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="77" t="s">
-        <v>403</v>
+      <c r="K3" s="78" t="s">
+        <v>406</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" customFormat="false" ht="282.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -17103,7 +17481,7 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="76" t="n">
+      <c r="D4" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -17122,15 +17500,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>405</v>
+        <v>407</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>408</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="79"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -17142,7 +17520,7 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -17161,15 +17539,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>407</v>
+        <v>409</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>410</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="79"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -17181,7 +17559,7 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="76" t="n">
+      <c r="D6" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -17202,13 +17580,13 @@
       <c r="J6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="77" t="s">
-        <v>408</v>
+      <c r="K6" s="78" t="s">
+        <v>411</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="79"/>
+      <c r="M6" s="80"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17229,22 +17607,22 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A1" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="735" topLeftCell="A1" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="138.107142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.11224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="136.612244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17311,16 +17689,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -17359,10 +17737,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>107</v>
@@ -17401,10 +17779,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>107</v>
@@ -17443,10 +17821,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>107</v>
@@ -17487,7 +17865,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>107</v>
@@ -17528,7 +17906,7 @@
         <v>262</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>107</v>
@@ -17638,13 +18016,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
@@ -17683,7 +18061,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
@@ -17722,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
@@ -17761,7 +18139,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
@@ -17802,7 +18180,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -17837,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -17876,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
@@ -17915,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
@@ -17987,13 +18365,13 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
@@ -18026,13 +18404,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
@@ -18065,13 +18443,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
@@ -18104,13 +18482,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
@@ -18182,13 +18560,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
@@ -18221,13 +18599,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
@@ -18260,13 +18638,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
@@ -18299,13 +18677,13 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="449">
   <si>
     <t>bidId</t>
   </si>
@@ -1578,21 +1578,108 @@
     <t>7+ PC,  4 +  kierów/pików ; przy dwóch czwórkach kierowa, przy dwóch piątkach pikowa;  forsuje na jedno okrążenie</t>
   </si>
   <si>
+    <t>4+ karo brak 4 kier</t>
+  </si>
+  <si>
+    <t>kara i piki</t>
+  </si>
+  <si>
+    <t>1pik (tylko po kierze :))- 12-17PC-  4+ karo, 4 piki, brak czterech kierów, [u mnie było forsuje na jedno okrążenie]</t>
+  </si>
+  <si>
+    <t>5-3-3-2</t>
+  </si>
+  <si>
+    <t>1BA  12-14 PC, bez starszej czwórki -  układ -5-3-3-2</t>
+  </si>
+  <si>
+    <t>5+ karo i 4+ trefle</t>
+  </si>
+  <si>
+    <t>kara i trefle</t>
+  </si>
+  <si>
+    <t>2trefl  12-14 PC   5+ karo i  4+  trefli. (w wersji opcjonalnej też z 5 trefli i czwórką karo przy 12-17 PC oraz na dwóch piątkach młodszych 12-14PC)</t>
+  </si>
+  <si>
+    <t>6+ karo, możliwe trefl, bez 4s</t>
+  </si>
+  <si>
+    <t>szóstka karo</t>
+  </si>
+  <si>
+    <t>2karo  12-14 PC, 6+ karo, możliwe trefle, starsza czwórka wykluczona</t>
+  </si>
+  <si>
+    <t>4+ kier, 4+ karo</t>
+  </si>
+  <si>
+    <t>kiery i kara</t>
+  </si>
+  <si>
+    <t>2kier 2pik (licytowany) 12-14 PC  4+ kier pik, 4+ karo;  jeżeli REWERS(po przeciwnym) 15-17 PC,4 drugi starszy i 5 kar</t>
+  </si>
+  <si>
+    <t>4+ pik i 5 karo</t>
+  </si>
+  <si>
+    <t>brak 4s</t>
+  </si>
+  <si>
+    <t>nie BA</t>
+  </si>
+  <si>
+    <t>2BA    15-17 PC, brak starszej  czwórki, karta nie nadająca się do otwarcia 1BA np. ze względu na krótkość lub 6 kar, forsing</t>
+  </si>
+  <si>
+    <t>5-5 na mł</t>
+  </si>
+  <si>
+    <t>5-5 na młodszych</t>
+  </si>
+  <si>
+    <t>3trefl    15-17 PC, układ 5-5 na kolorach młodszych</t>
+  </si>
+  <si>
+    <t>6 karo</t>
+  </si>
+  <si>
+    <t>3karo    15-17 PC, 6 kar z dwiema starszymi figurami, forsing?</t>
+  </si>
+  <si>
+    <t>4+kier, 4+karo</t>
+  </si>
+  <si>
+    <t>3kier 3pik 15-17 PC (licytowany)   4+ kier pik, 4+ karo ;  jeżeli REWERS(po przeciwnym) 4 fit w kolorze odpowiadającego,  5 kar  oraz krótkość w zgłaszanym starszym SPLINTER</t>
+  </si>
+  <si>
+    <t>5 karo  4 kiery i krotkość w pikach</t>
+  </si>
+  <si>
+    <t>pełne kara</t>
+  </si>
+  <si>
+    <t>3BA  kontrakt do gry na pełnych karach (ale lepiej grać bez atu)</t>
+  </si>
+  <si>
+    <t>5+ karo i fit 4 + krótkość trefl</t>
+  </si>
+  <si>
+    <t>4trefl    15-17 PC, 5+ karo - fit 4  w kolorze odpowiadającego (kier pik) + krótkość trefl w  SPLINTER</t>
+  </si>
+  <si>
+    <t>4kier pik  15-17 PC (licytowany kolor) (nie ma REWERSU)- kontrakt  (liczymy że pójdzie na układzie)</t>
+  </si>
+  <si>
     <t>czwórka w pikach</t>
   </si>
   <si>
-    <t>brak 4s</t>
-  </si>
-  <si>
-    <t> 7-9(10) PC, bez starszej czwórki, nie forsuje</t>
+    <t>7-9(10) PC, bez starszej czwórki, nie forsuje</t>
   </si>
   <si>
     <t>5+ kar i 4+ trefl</t>
   </si>
   <si>
-    <t>kara i trefle</t>
-  </si>
-  <si>
     <t>12-14 PC   5+ kar i  4+  trefl .(w wersji opcjonalnej też z 5 trefli i czwórką karo przy 12-17 PC oraz na dwóch piątkach młodszych 12-14PC)</t>
   </si>
   <si>
@@ -1602,7 +1689,7 @@
     <t>kara bez starszej</t>
   </si>
   <si>
-    <t> 12-14 PC, 6+ kar, możliwe trefle, starsza czwórka wykluczona </t>
+    <t>12-14 PC, 6+ kar, możliwe trefle, starsza czwórka wykluczona</t>
   </si>
   <si>
     <t>4 kiery 5+kar</t>
@@ -1617,9 +1704,6 @@
     <t>4 piki 5+kar</t>
   </si>
   <si>
-    <t>kara i piki</t>
-  </si>
-  <si>
     <t>5+, 5+ na młodszych</t>
   </si>
   <si>
@@ -1677,7 +1761,7 @@
     <t>15-17  PC –5+ kar,  4trefle oraz krótkość w kolor  SPLINTER</t>
   </si>
   <si>
-    <t>(RELAY) –12-14 PC  4-4-4-1 </t>
+    <t>(RELAY) –12-14 PC  4-4-4-1</t>
   </si>
   <si>
     <t>3+ kara brak 4s</t>
@@ -1719,7 +1803,7 @@
     <t>bez 4s i 5m</t>
   </si>
   <si>
-    <t> (12)13-16 PC, bez starszej czwórki i młodszej piątki – do gry</t>
+    <t>(12)13-16 PC, bez starszej czwórki i młodszej piątki – do gry</t>
   </si>
   <si>
     <t>4+ kara i singiel terfl</t>
@@ -2209,7 +2293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2514,6 +2598,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2607,12 +2695,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M336"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A278" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A283" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L291" activeCellId="0" sqref="L291"/>
+      <selection pane="bottomLeft" activeCell="B301" activeCellId="0" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14637,83 +14725,83 @@
       <c r="A287" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="B287" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C287" s="8" t="n">
+      <c r="B287" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C287" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D287" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D287" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E287" s="8" t="s">
+      <c r="E287" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F287" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G287" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H287" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I287" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" s="12" t="s">
+      <c r="F287" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G287" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H287" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="K287" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="L287" s="10" t="s">
+      <c r="I287" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K287" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="L287" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M287" s="14" t="s">
+      <c r="M287" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="B288" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C288" s="8" t="n">
+      <c r="B288" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C288" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D288" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D288" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F288" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G288" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H288" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="I288" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K288" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="L288" s="10" t="s">
+      <c r="F288" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G288" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H288" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I288" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K288" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L288" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M288" s="14" t="s">
+      <c r="M288" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14722,8 +14810,8 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="n">
-        <f aca="false">A288</f>
-        <v>287</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C289" s="15" t="n">
         <v>2</v>
@@ -14741,16 +14829,16 @@
         <v>14</v>
       </c>
       <c r="H289" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I289" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J289" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K289" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L289" s="17" t="s">
         <v>107</v>
@@ -14764,8 +14852,8 @@
         <v>289</v>
       </c>
       <c r="B290" s="15" t="n">
-        <f aca="false">A288</f>
-        <v>287</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C290" s="15" t="n">
         <v>2</v>
@@ -14783,16 +14871,16 @@
         <v>14</v>
       </c>
       <c r="H290" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I290" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J290" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K290" s="30" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L290" s="17" t="s">
         <v>107</v>
@@ -14806,8 +14894,8 @@
         <v>290</v>
       </c>
       <c r="B291" s="15" t="n">
-        <f aca="false">A288</f>
-        <v>287</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C291" s="15" t="n">
         <v>2</v>
@@ -14819,25 +14907,25 @@
         <v>22</v>
       </c>
       <c r="F291" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G291" s="17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H291" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I291" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J291" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K291" s="30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L291" s="17" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="M291" s="21" t="s">
         <v>62</v>
@@ -14848,8 +14936,8 @@
         <v>291</v>
       </c>
       <c r="B292" s="15" t="n">
-        <f aca="false">A288</f>
-        <v>287</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C292" s="15" t="n">
         <v>2</v>
@@ -14861,22 +14949,22 @@
         <v>31</v>
       </c>
       <c r="F292" s="17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G292" s="17" t="n">
         <v>17</v>
       </c>
       <c r="H292" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I292" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J292" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K292" s="30" t="s">
         <v>321</v>
-      </c>
-      <c r="K292" s="30" t="s">
-        <v>319</v>
       </c>
       <c r="L292" s="17" t="s">
         <v>35</v>
@@ -14890,17 +14978,17 @@
         <v>292</v>
       </c>
       <c r="B293" s="15" t="n">
-        <f aca="false">A288</f>
-        <v>287</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C293" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D293" s="16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E293" s="15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F293" s="17" t="n">
         <v>15</v>
@@ -14909,16 +14997,16 @@
         <v>17</v>
       </c>
       <c r="H293" s="17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I293" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J293" s="19" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="K293" s="30" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L293" s="17" t="s">
         <v>35</v>
@@ -14932,8 +15020,8 @@
         <v>293</v>
       </c>
       <c r="B294" s="15" t="n">
-        <f aca="false">A288</f>
-        <v>287</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C294" s="15" t="n">
         <v>2</v>
@@ -14942,7 +15030,7 @@
         <v>3</v>
       </c>
       <c r="E294" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F294" s="17" t="n">
         <v>15</v>
@@ -14951,16 +15039,16 @@
         <v>17</v>
       </c>
       <c r="H294" s="17" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I294" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J294" s="19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K294" s="30" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L294" s="17" t="s">
         <v>35</v>
@@ -14973,102 +15061,102 @@
       <c r="A295" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="B295" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C295" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D295" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E295" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G295" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H295" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I295" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="K295" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="L295" s="10" t="s">
+      <c r="B295" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C295" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D295" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E295" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F295" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G295" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="M295" s="14" t="s">
+      <c r="H295" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="I295" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="K295" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="L295" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M295" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
         <v>295</v>
       </c>
       <c r="B296" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C296" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D296" s="16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E296" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F296" s="17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G296" s="17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H296" s="17" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="I296" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J296" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="K296" s="30" t="s">
-        <v>329</v>
+        <v>320</v>
+      </c>
+      <c r="K296" s="76" t="s">
+        <v>332</v>
       </c>
       <c r="L296" s="17" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="M296" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>296</v>
       </c>
       <c r="B297" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C297" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D297" s="16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E297" s="15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F297" s="17" t="n">
         <v>15</v>
@@ -15077,22 +15165,22 @@
         <v>17</v>
       </c>
       <c r="H297" s="17" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I297" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J297" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="K297" s="30" t="s">
-        <v>331</v>
+        <v>280</v>
+      </c>
+      <c r="K297" s="76" t="s">
+        <v>332</v>
       </c>
       <c r="L297" s="17" t="s">
         <v>44</v>
       </c>
       <c r="M297" s="21" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15100,17 +15188,17 @@
         <v>297</v>
       </c>
       <c r="B298" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C298" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D298" s="16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E298" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F298" s="17" t="n">
         <v>15</v>
@@ -15119,19 +15207,19 @@
         <v>17</v>
       </c>
       <c r="H298" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I298" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J298" s="19" t="s">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="K298" s="30" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L298" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M298" s="21" t="s">
         <v>62</v>
@@ -15142,17 +15230,17 @@
         <v>298</v>
       </c>
       <c r="B299" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C299" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D299" s="16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E299" s="15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F299" s="17" t="n">
         <v>15</v>
@@ -15161,19 +15249,19 @@
         <v>17</v>
       </c>
       <c r="H299" s="17" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I299" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J299" s="19" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="K299" s="30" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L299" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M299" s="21" t="s">
         <v>18</v>
@@ -15184,17 +15272,17 @@
         <v>299</v>
       </c>
       <c r="B300" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C300" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D300" s="16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E300" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F300" s="17" t="n">
         <v>15</v>
@@ -15202,20 +15290,18 @@
       <c r="G300" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="H300" s="17" t="s">
-        <v>336</v>
-      </c>
+      <c r="H300" s="17"/>
       <c r="I300" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J300" s="19" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="K300" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L300" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M300" s="21" t="s">
         <v>62</v>
@@ -15226,17 +15312,17 @@
         <v>300</v>
       </c>
       <c r="B301" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C301" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D301" s="16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E301" s="15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F301" s="17" t="n">
         <v>15</v>
@@ -15244,20 +15330,18 @@
       <c r="G301" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="H301" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="H301" s="17"/>
       <c r="I301" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J301" s="19" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="K301" s="30" t="s">
         <v>338</v>
       </c>
       <c r="L301" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M301" s="21" t="s">
         <v>62</v>
@@ -15267,84 +15351,84 @@
       <c r="A302" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
-      </c>
-      <c r="C302" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D302" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E302" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F302" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G302" s="17" t="n">
+      <c r="B302" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C302" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F302" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G302" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H302" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I302" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="K302" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L302" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H302" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I302" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K302" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="L302" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M302" s="21" t="s">
-        <v>18</v>
+      <c r="M302" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
-      </c>
-      <c r="C303" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D303" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E303" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F303" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G303" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H303" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="I303" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K303" s="30" t="s">
+      <c r="B303" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C303" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F303" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G303" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H303" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I303" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K303" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="L303" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M303" s="21" t="s">
-        <v>18</v>
+      <c r="L303" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M303" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15352,17 +15436,17 @@
         <v>303</v>
       </c>
       <c r="B304" s="15" t="n">
-        <f aca="false">A295</f>
-        <v>294</v>
+        <f aca="false">A303</f>
+        <v>302</v>
       </c>
       <c r="C304" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D304" s="16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E304" s="15" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F304" s="17" t="n">
         <v>12</v>
@@ -15371,63 +15455,63 @@
         <v>14</v>
       </c>
       <c r="H304" s="17" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I304" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J304" s="19" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="K304" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L304" s="17" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="M304" s="21" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C305" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D305" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E305" s="8" t="s">
+      <c r="B305" s="15" t="n">
+        <f aca="false">A303</f>
+        <v>302</v>
+      </c>
+      <c r="C305" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E305" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F305" s="10" t="n">
+      <c r="F305" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="G305" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H305" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="I305" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K305" s="13" t="s">
+      <c r="G305" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H305" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="L305" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M305" s="14" t="s">
+      <c r="I305" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="K305" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="L305" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M305" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15435,41 +15519,41 @@
       <c r="A306" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C306" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D306" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E306" s="8" t="s">
+      <c r="B306" s="15" t="n">
+        <f aca="false">A303</f>
+        <v>302</v>
+      </c>
+      <c r="C306" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D306" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F306" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G306" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H306" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I306" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K306" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="L306" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M306" s="14" t="s">
+      <c r="F306" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G306" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I306" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="K306" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="L306" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M306" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15477,41 +15561,41 @@
       <c r="A307" s="0" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C307" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D307" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E307" s="8" t="s">
+      <c r="B307" s="15" t="n">
+        <f aca="false">A303</f>
+        <v>302</v>
+      </c>
+      <c r="C307" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D307" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F307" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G307" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H307" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I307" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="K307" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="L307" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M307" s="14" t="s">
+      <c r="F307" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G307" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H307" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="I307" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K307" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="L307" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M307" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15519,41 +15603,41 @@
       <c r="A308" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="B308" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C308" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D308" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F308" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="G308" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H308" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="I308" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K308" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="L308" s="10" t="s">
+      <c r="B308" s="15" t="n">
+        <f aca="false">A303</f>
+        <v>302</v>
+      </c>
+      <c r="C308" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D308" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E308" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G308" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H308" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="I308" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="K308" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="L308" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M308" s="14" t="s">
+      <c r="M308" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15561,41 +15645,41 @@
       <c r="A309" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="B309" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C309" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D309" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E309" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F309" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G309" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H309" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="I309" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K309" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="L309" s="10" t="s">
+      <c r="B309" s="15" t="n">
+        <f aca="false">A303</f>
+        <v>302</v>
+      </c>
+      <c r="C309" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D309" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E309" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F309" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G309" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H309" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="I309" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="K309" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="L309" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M309" s="14" t="s">
+      <c r="M309" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15611,31 +15695,31 @@
         <v>1</v>
       </c>
       <c r="D310" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F310" s="10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G310" s="10" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="H310" s="10" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="I310" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J310" s="12" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="K310" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L310" s="10" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="M310" s="14" t="s">
         <v>62</v>
@@ -15645,125 +15729,125 @@
       <c r="A311" s="0" t="n">
         <v>310</v>
       </c>
-      <c r="B311" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C311" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D311" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E311" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F311" s="10" t="n">
+      <c r="B311" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C311" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D311" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E311" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F311" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="G311" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="H311" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I311" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="K311" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="L311" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M311" s="14" t="s">
-        <v>18</v>
+      <c r="G311" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H311" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I311" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="K311" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="L311" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M311" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="B312" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C312" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D312" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E312" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F312" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G312" s="10" t="n">
+      <c r="B312" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C312" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E312" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F312" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="H312" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I312" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="K312" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="L312" s="10" t="s">
+      <c r="G312" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H312" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="I312" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="K312" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L312" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M312" s="14" t="s">
-        <v>18</v>
+      <c r="M312" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="B313" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C313" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D313" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E313" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F313" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="G313" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H313" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="I313" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K313" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="L313" s="10" t="s">
+      <c r="B313" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C313" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E313" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M313" s="14" t="s">
+      <c r="F313" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G313" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H313" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="I313" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K313" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L313" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M313" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15771,41 +15855,41 @@
       <c r="A314" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="B314" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C314" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D314" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E314" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F314" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G314" s="10" t="n">
+      <c r="B314" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C314" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E314" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F314" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="H314" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="I314" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="K314" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="L314" s="10" t="s">
+      <c r="G314" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H314" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="I314" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="K314" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="L314" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M314" s="14" t="s">
+      <c r="M314" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15813,40 +15897,41 @@
       <c r="A315" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="B315" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C315" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D315" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F315" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G315" s="3" t="n">
+      <c r="B315" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C315" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D315" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E315" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G315" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="H315" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I315" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K315" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="L315" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M315" s="3" t="s">
+      <c r="H315" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="I315" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="K315" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="L315" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M315" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15854,578 +15939,591 @@
       <c r="A316" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="B316" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C316" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D316" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F316" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G316" s="3" t="n">
+      <c r="B316" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C316" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E316" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F316" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G316" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="H316" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I316" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K316" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="L316" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M316" s="3" t="s">
+      <c r="H316" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I316" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K316" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="L316" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M316" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="B317" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C317" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D317" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F317" s="3" t="n">
+      <c r="B317" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C317" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E317" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F317" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="G317" s="3" t="n">
+      <c r="G317" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="H317" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="I317" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="K317" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="L317" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M317" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H317" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="I317" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K317" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="L317" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M317" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="B318" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C318" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D318" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F318" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G318" s="3" t="n">
+      <c r="B318" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C318" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D318" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E318" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F318" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="H318" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="I318" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="K318" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="L318" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M318" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G318" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H318" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="I318" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K318" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="L318" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M318" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="B319" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C319" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D319" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F319" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G319" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H319" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I319" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="K319" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="L319" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M319" s="3" t="s">
+      <c r="B319" s="15" t="n">
+        <f aca="false">A310</f>
+        <v>309</v>
+      </c>
+      <c r="C319" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D319" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E319" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F319" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G319" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H319" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="I319" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K319" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="L319" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M319" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="B320" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C320" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D320" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F320" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G320" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H320" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I320" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" s="5" t="s">
+      <c r="B320" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C320" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F320" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G320" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H320" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="K320" s="6" t="s">
+      <c r="I320" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K320" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="L320" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M320" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L320" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M320" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="B321" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C321" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D321" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F321" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G321" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H321" s="3" t="s">
+      <c r="B321" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C321" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F321" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G321" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H321" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I321" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K321" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="I321" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="K321" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="L321" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M321" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L321" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M321" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="B322" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C322" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D322" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F322" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G322" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I322" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="K322" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="L322" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M322" s="3" t="s">
-        <v>18</v>
+      <c r="B322" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C322" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F322" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G322" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H322" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I322" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K322" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="L322" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M322" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="B323" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C323" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D323" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F323" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G323" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H323" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I323" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K323" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="L323" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M323" s="3" t="s">
-        <v>55</v>
+      <c r="B323" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C323" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F323" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G323" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H323" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I323" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K323" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="L323" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M323" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="B324" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C324" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D324" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F324" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G324" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H324" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I324" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K324" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="L324" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M324" s="3" t="s">
-        <v>55</v>
+      <c r="B324" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C324" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G324" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H324" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I324" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K324" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="L324" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M324" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C325" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D325" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F325" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G325" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H325" s="3" t="s">
+      <c r="B325" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C325" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F325" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G325" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H325" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="I325" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="K325" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="I325" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" s="5" t="s">
+      <c r="L325" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="K325" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="L325" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M325" s="3" t="s">
-        <v>55</v>
+      <c r="M325" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="B326" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C326" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D326" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F326" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G326" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H326" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I326" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K326" s="6" t="s">
+      <c r="B326" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C326" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F326" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G326" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H326" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L326" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M326" s="3" t="s">
-        <v>55</v>
+      <c r="I326" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K326" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="L326" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M326" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="B327" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C327" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D327" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F327" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G327" s="3" t="n">
-        <f aca="false">F327+13</f>
-        <v>22</v>
-      </c>
-      <c r="H327" s="3" t="s">
+      <c r="B327" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C327" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F327" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G327" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H327" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="I327" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K327" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="I327" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K327" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="L327" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M327" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L327" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M327" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="B328" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C328" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D328" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E328" s="1" t="s">
+      <c r="B328" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C328" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F328" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="F328" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G328" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H328" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I328" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="K328" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="L328" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M328" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G328" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H328" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="I328" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K328" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="L328" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M328" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="B329" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C329" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D329" s="1" t="n">
+      <c r="B329" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C329" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F329" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G329" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H329" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="I329" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" s="5" t="s">
+      <c r="E329" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F329" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G329" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H329" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="I329" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K329" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="K329" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="L329" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M329" s="3" t="s">
+      <c r="L329" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M329" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
         <v>329</v>
       </c>
@@ -16436,37 +16534,37 @@
         <v>0</v>
       </c>
       <c r="D330" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F330" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G330" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>388</v>
+        <v>36</v>
       </c>
       <c r="I330" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J330" s="5" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="M330" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
         <v>330</v>
       </c>
@@ -16477,37 +16575,37 @@
         <v>0</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F331" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G331" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>390</v>
+        <v>36</v>
       </c>
       <c r="I331" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J331" s="5" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L331" s="3" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="M331" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
         <v>331</v>
       </c>
@@ -16518,37 +16616,37 @@
         <v>0</v>
       </c>
       <c r="D332" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F332" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G332" s="3" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>73</v>
+        <v>389</v>
       </c>
       <c r="I332" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J332" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K332" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="K332" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="L332" s="3" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M332" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
         <v>332</v>
       </c>
@@ -16559,37 +16657,37 @@
         <v>0</v>
       </c>
       <c r="D333" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F333" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G333" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H333" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I333" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="I333" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="K333" s="6" t="s">
         <v>394</v>
       </c>
       <c r="L333" s="3" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="M333" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
         <v>333</v>
       </c>
@@ -16600,37 +16698,37 @@
         <v>0</v>
       </c>
       <c r="D334" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F334" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G334" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>393</v>
+        <v>95</v>
       </c>
       <c r="I334" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J334" s="5" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="M334" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
         <v>334</v>
       </c>
@@ -16641,37 +16739,37 @@
         <v>0</v>
       </c>
       <c r="D335" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F335" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G335" s="3" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="I335" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J335" s="5" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L335" s="3" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="M335" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
         <v>335</v>
       </c>
@@ -16682,33 +16780,649 @@
         <v>0</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F336" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G336" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I336" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K336" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M336" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F337" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G337" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I337" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="K337" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M337" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F338" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G338" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I338" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="K338" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M338" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F339" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G339" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I339" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="K339" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M339" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F340" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G340" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I340" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="K340" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F341" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G341" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I341" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="K341" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F342" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G342" s="3" t="n">
+        <f aca="false">F342+13</f>
+        <v>22</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="I342" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="K342" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F343" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G343" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I343" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="K343" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F344" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G344" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I344" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="K344" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F345" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G345" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I345" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K345" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F346" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G346" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I346" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K346" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M346" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F347" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G347" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I347" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K347" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L347" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F348" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G348" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I348" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K348" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L348" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M348" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F349" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G349" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I349" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K349" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M349" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C350" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F350" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G350" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="H336" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I336" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="K336" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="L336" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="M336" s="3" t="s">
+      <c r="H350" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I350" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K350" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L350" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M350" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F351" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G351" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I351" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K351" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L351" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M351" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16790,7 +17504,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="76" t="n">
+      <c r="D2" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -16809,15 +17523,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>397</v>
+        <v>424</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>425</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16831,7 +17545,7 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="76" t="n">
+      <c r="D3" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -16851,15 +17565,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>398</v>
+        <v>424</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>426</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16873,7 +17587,7 @@
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="76" t="n">
+      <c r="D4" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -16892,15 +17606,15 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>399</v>
+        <v>424</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>427</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16914,7 +17628,7 @@
       <c r="C5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -16933,15 +17647,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>399</v>
+        <v>424</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>427</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="79" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17025,7 +17739,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="76" t="n">
+      <c r="D2" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -17044,15 +17758,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>401</v>
+        <v>428</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>429</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="M2" s="79"/>
+        <v>430</v>
+      </c>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" customFormat="false" ht="170.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -17064,7 +17778,7 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="76" t="n">
+      <c r="D3" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -17085,13 +17799,13 @@
       <c r="J3" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="77" t="s">
-        <v>403</v>
+      <c r="K3" s="78" t="s">
+        <v>431</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" customFormat="false" ht="282.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -17103,7 +17817,7 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="76" t="n">
+      <c r="D4" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -17122,15 +17836,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>405</v>
+        <v>432</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>433</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="79"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -17142,7 +17856,7 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -17161,15 +17875,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>407</v>
+        <v>434</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>435</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="79"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -17181,7 +17895,7 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="76" t="n">
+      <c r="D6" s="77" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -17202,13 +17916,13 @@
       <c r="J6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="77" t="s">
-        <v>408</v>
+      <c r="K6" s="78" t="s">
+        <v>436</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="79"/>
+      <c r="M6" s="80"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17311,16 +18025,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -17359,10 +18073,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>107</v>
@@ -17401,10 +18115,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>107</v>
@@ -17443,10 +18157,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>107</v>
@@ -17487,7 +18201,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>107</v>
@@ -17528,7 +18242,7 @@
         <v>262</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>107</v>
@@ -17638,13 +18352,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
@@ -17683,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
@@ -17722,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
@@ -17761,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
@@ -17802,7 +18516,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -17837,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -17876,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
@@ -17915,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
@@ -17987,13 +18701,13 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
@@ -18026,13 +18740,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
@@ -18065,13 +18779,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
@@ -18104,13 +18818,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
@@ -18182,13 +18896,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
@@ -18221,13 +18935,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
@@ -18260,13 +18974,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
@@ -18299,13 +19013,13 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="550">
   <si>
     <t>bidId</t>
   </si>
@@ -1593,6 +1593,84 @@
     <t>1BA  12-14 PC, bez starszej czwórki -  układ -5-3-3-2</t>
   </si>
   <si>
+    <t>Pas – 7-10 PC układ zrównoważony</t>
+  </si>
+  <si>
+    <t>5+ kier </t>
+  </si>
+  <si>
+    <t>trójznaczne trefl</t>
+  </si>
+  <si>
+    <t>2trefl  - 10+  PC 5+kier  lub 17PC+, 4kier lub 7-10PC 4kier oraz 5 trefl  GADŻET  MAGISTER</t>
+  </si>
+  <si>
+    <t>4 kier i 3+ karo</t>
+  </si>
+  <si>
+    <t>kiery i kara</t>
+  </si>
+  <si>
+    <t>2karo 7-9 PC – 4 kolor i 3 +kara</t>
+  </si>
+  <si>
+    <t>5+ kier</t>
+  </si>
+  <si>
+    <t>kiery</t>
+  </si>
+  <si>
+    <t>2kier   7-9  PC  kolor licytowany -   5+ w kolor </t>
+  </si>
+  <si>
+    <t>5+ pik i 4 + kier</t>
+  </si>
+  <si>
+    <t>piki i kiery</t>
+  </si>
+  <si>
+    <t>2pik  REWERS(chyba tylko po pikach bo kiery wykluczają piki):   5+ w  kolor (pik) oraz  i 4+ drugi starszy (kier) </t>
+  </si>
+  <si>
+    <t>2BA  11-12 PC zrówn -(po kierach bez  4 pik) iinwit do 3BA</t>
+  </si>
+  <si>
+    <t>5+ kierów i  5+ trefli</t>
+  </si>
+  <si>
+    <t>kier  i trefl</t>
+  </si>
+  <si>
+    <t>3trefl 12+ PC 5+ w kolor st. i 5 +trefl</t>
+  </si>
+  <si>
+    <t>3karo 9-11 PC – 4  w kolor i 3 +kara inwit do 3BA</t>
+  </si>
+  <si>
+    <t>6+ kier </t>
+  </si>
+  <si>
+    <t>3kier  po licytowanym: 10-12 PC 6+kier :inwit do 4 w kolor</t>
+  </si>
+  <si>
+    <t>5-5 na st</t>
+  </si>
+  <si>
+    <t>dwie piątki</t>
+  </si>
+  <si>
+    <t>3pik  REWERS:  12+  PC 5-5 na starszych</t>
+  </si>
+  <si>
+    <t>3BA 13-16 PC skład zrównoważony</t>
+  </si>
+  <si>
+    <t>6+ kier</t>
+  </si>
+  <si>
+    <t>4kier  12-16 PC, 6+ w kolor.</t>
+  </si>
+  <si>
     <t>5+ karo i 4+ trefle</t>
   </si>
   <si>
@@ -1602,6 +1680,66 @@
     <t>2trefl  12-14 PC   5+ karo i  4+  trefli. (w wersji opcjonalnej też z 5 trefli i czwórką karo przy 12-17 PC oraz na dwóch piątkach młodszych 12-14PC)</t>
   </si>
   <si>
+    <t>4-4 kier i 3 karo</t>
+  </si>
+  <si>
+    <t>2karo 7-9 PC – 4-5 kolor i 3 +kara</t>
+  </si>
+  <si>
+    <t>szóstka kier</t>
+  </si>
+  <si>
+    <t>2kier  7-9  PC 6+ w kolor  licytowany</t>
+  </si>
+  <si>
+    <t>DO ROZPISANIA</t>
+  </si>
+  <si>
+    <t>2pik  REWERS( CZWARTY KOLOR Po odpowiedzi one-over-one czwarty kolor co najmniej inwituje do dogranej. W dalszej licytacji przed dograną może spasować tylko gracz, który zadał czwarty kolor. Po odpowiedzi two-over-one czwarty kolor forsuje do dogranej.)</t>
+  </si>
+  <si>
+    <t>kier i pik</t>
+  </si>
+  <si>
+    <t>2BA –11-12 PC  wartości w kierach  i w pikach  inwit do 3BA</t>
+  </si>
+  <si>
+    <t>4-5 kier i 4+ trefl</t>
+  </si>
+  <si>
+    <t>kiery i trefle</t>
+  </si>
+  <si>
+    <t>3trefl  8-11  PC 4-5 w kolor st. i 4 +trefl  inwit</t>
+  </si>
+  <si>
+    <t>4-5 kier i 4+ karo</t>
+  </si>
+  <si>
+    <t>3karo 8-11 PC 4-5 w kolor  i 4 +kara inwit </t>
+  </si>
+  <si>
+    <t>3kier po licytowanym: 10-12 PC 6+kier :inwit do 4 w kolor</t>
+  </si>
+  <si>
+    <t>5-5 s</t>
+  </si>
+  <si>
+    <t>3pik REWERS:  12+  PC 5-5 na starszych</t>
+  </si>
+  <si>
+    <t>3BA 13-16 PC wartości w pikach i kierach</t>
+  </si>
+  <si>
+    <t>4kier </t>
+  </si>
+  <si>
+    <t>6+ pik</t>
+  </si>
+  <si>
+    <t>4pik  12-16  PC 6+ w kolor </t>
+  </si>
+  <si>
     <t>6+ karo, możliwe trefl, bez 4s</t>
   </si>
   <si>
@@ -1611,18 +1749,27 @@
     <t>2karo  12-14 PC, 6+ karo, możliwe trefle, starsza czwórka wykluczona</t>
   </si>
   <si>
+    <t>nie uzupełniione</t>
+  </si>
+  <si>
     <t>4+ kier, 4+ karo</t>
   </si>
   <si>
-    <t>kiery i kara</t>
-  </si>
-  <si>
     <t>2kier 2pik (licytowany) 12-14 PC  4+ kier pik, 4+ karo;  jeżeli REWERS(po przeciwnym) 15-17 PC,4 drugi starszy i 5 kar</t>
   </si>
   <si>
     <t>4+ pik i 5 karo</t>
   </si>
   <si>
+    <t>3kier/3pik - powtórzenie swojego koloru - </t>
+  </si>
+  <si>
+    <t>4 kier i 5 pik lub 5-5</t>
+  </si>
+  <si>
+    <t>uzgodnienie</t>
+  </si>
+  <si>
     <t>brak 4s</t>
   </si>
   <si>
@@ -1672,6 +1819,69 @@
   </si>
   <si>
     <t>czwórka w pikach</t>
+  </si>
+  <si>
+    <t>5+ pik </t>
+  </si>
+  <si>
+    <t>4 pik i 3+ karo</t>
+  </si>
+  <si>
+    <t>piki i kara</t>
+  </si>
+  <si>
+    <t>4+ pik i 4 + kier</t>
+  </si>
+  <si>
+    <t>5+ pik</t>
+  </si>
+  <si>
+    <t>piki</t>
+  </si>
+  <si>
+    <t>2BA  11-12 PC zrówn inwit do 3BA</t>
+  </si>
+  <si>
+    <t>5+ pików i  5+ trefli</t>
+  </si>
+  <si>
+    <t>pik i trefl</t>
+  </si>
+  <si>
+    <t>4-4 pik i 3 karo</t>
+  </si>
+  <si>
+    <t>piky i kara</t>
+  </si>
+  <si>
+    <t>szóstka pik</t>
+  </si>
+  <si>
+    <t>pik i pik</t>
+  </si>
+  <si>
+    <t>4-5 pik i 4+ trefl</t>
+  </si>
+  <si>
+    <t>piky i trefle</t>
+  </si>
+  <si>
+    <t>4-5 pik i 4+ karo</t>
+  </si>
+  <si>
+    <t>piki i piky</t>
+  </si>
+  <si>
+    <t>4+ pik, 4+ karo</t>
+  </si>
+  <si>
+    <t>4 pik i 5 pik lub 5-5</t>
+  </si>
+  <si>
+    <t>4+pik, 4+karo</t>
+  </si>
+  <si>
+    <t>5 karo  4 piky i krotkość w pikach</t>
   </si>
   <si>
     <t>7-9(10) PC, bez starszej czwórki, nie forsuje</t>
@@ -1901,16 +2111,68 @@
     <t>BLOK słaby</t>
   </si>
   <si>
-    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry) Otwarcia są naturalne. Po partii ozna­czają kolor siedmiokartowy, a przed partią 3 w kolor młodszy może być oparte na  kolorze sześciokartowym. Siła otwar­cia  zależy od stylu gracza i ustaleń w pa­rze. W przypadku braku takowych pro­ponuję stosować metodę 4-3-2-2. (**) Ozna­cza ona, że do zapowiedzianego kon­traktu brakuje nam „na ręku": czterech lew, jeśli jesteśmy w założeniach ko­rzystnych, trzech lew w założeniach przedpartyjnych, dwóch lew jeśli jeste­śmy po partii.</t>
+  </si>
+  <si>
+    <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)Otwarcia są naturalne. Po partii ozna­czają kolor siedmiokartowy, a przed partią 3 w kolor młodszy może być oparte na  kolorze sześciokartowym. Siła otwar­cia  zależy od stylu gracza i ustaleń w pa­rze. W przypadku braku takowych pro­ponuję stosować metodę 4-3-2-2. (**) Ozna­cza ona, że do zapowiedzianego kon­traktu brakuje nam „na ręku": czterech lew, jeśli jesteśmy w założeniach ko­rzystnych, trzech lew w założeniach przedpartyjnych, dwóch lew jeśli jeste­śmy po partii.</t>
   </si>
   <si>
     <t>GAMBLING</t>
   </si>
   <si>
-    <t>Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król</t>
+    <r>
+      <t xml:space="preserve">Pełny 7-kartowy kolor młodszy  (AKDWxxx,AKDxxxxx)  bez dojścia w bocznym kolorze typu As lub Król </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Otwarcia 3BA  raczej nie stosowane przez początkujących brydżystów.</t>
+    </r>
+  </si>
+  <si>
+    <t>zatrzymania i blotka w młodszych</t>
+  </si>
+  <si>
+    <t>Pas gdy posiadamy zatrzymania w pozostałych kolorach i dojście blotką do koloru partnera</t>
+  </si>
+  <si>
+    <t>fit treflowy i karowy</t>
+  </si>
+  <si>
+    <t>do koloru partnera</t>
+  </si>
+  <si>
+    <t>4trefl, 5trefl licytacja do koloru partnera, partner pasuje z treflami a znosi w 4karo lub 5karo jeśli ma kara</t>
+  </si>
+  <si>
+    <t>mocne</t>
+  </si>
+  <si>
+    <t>pytanie o krótkość</t>
+  </si>
+  <si>
+    <t>4karo sztuczne pytaie o krótkość</t>
+  </si>
+  <si>
+    <t>krótkość w kolorze</t>
+  </si>
+  <si>
+    <t>Otwierający licytuje kolor swojej krótkości w kolorze starszym,</t>
+  </si>
+  <si>
+    <t>krótkość w drugim młodszym</t>
+  </si>
+  <si>
+    <t> krótkość w kolorze młodszym licytuje poprzez 4BA. </t>
+  </si>
+  <si>
+    <t>5trefl, 5karo oznaczają brak krótkości</t>
+  </si>
+  <si>
+    <t>4kier, 4pik naturalne i nie forsujące na kolorze 7(6)-kartowym</t>
   </si>
   <si>
     <t>8-x-x-x</t>
@@ -1919,22 +2181,52 @@
     <t>BLOK (dawny Teksas pdaf)</t>
   </si>
   <si>
-    <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew)</t>
+    <t>lepiej naturalne (blok?)  ale jest dawna opcja TEKSAS POŁUDNIOWO AFRYKANSKI) mało PC 8+ w kolorze STARSZYM   pełny kolor MOCNE- (około 9 lew) Otwarcia  4trefl, 4karo  raczej nie stosowane przez początkujących brydżystów.</t>
+  </si>
+  <si>
+    <t>4kier pik -Kolor do gry jest uzgodniony-  do gry!  4BA -  pytanie o boczne asy (poza atutowym)  – lub  cue bid (licytacja innego koloru).</t>
+  </si>
+  <si>
+    <t>pytanie o Asy boczne</t>
+  </si>
+  <si>
+    <t>4BA -  pytanie o boczne asy (poza atutowym)  – lub  cue bid (licytacja innego koloru).</t>
+  </si>
+  <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>Pas (do gry raczej – otwierający zakładał wzięcie min dwóch lew z tej ręki-  w gorszym razie będzie bez gdy przeciwnikom idzie coś lepszego)</t>
+  </si>
+  <si>
+    <t>cueBID</t>
+  </si>
+  <si>
+    <t>Kolejne odzywki odpowiadającego są cue bidami (również 4pik po otwarciu 4kier). Zasada ta odnosi się również do sytuacji, gdy do licytacji wkracza przeciwnik. Należy pamiętać przy kontynuacji cue bidów, że gdy odpowiadający pominął jakiś kolor, to nie ma w nim zatrzymania i dalsza wymiana cue bidów jest uwarunkowana posiadaniem zatrzymania w tym kolorze,</t>
   </si>
   <si>
     <t>x-8-x-x</t>
   </si>
   <si>
+    <t>kier</t>
+  </si>
+  <si>
     <t>x-7-x-x</t>
   </si>
   <si>
-    <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **).</t>
+    <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **). Otwarcia 4kier, 4pik raczej nie stosowane przez początkujących brydżystów.</t>
+  </si>
+  <si>
+    <t>zatrzymanie w pikach</t>
   </si>
   <si>
     <t>7-x-x-x</t>
   </si>
   <si>
-    <t>AS</t>
+    <t>zatrzymanie w treflach</t>
+  </si>
+  <si>
+    <t>pytanie o Asa</t>
   </si>
   <si>
     <t>pytanie o kolor Asa</t>
@@ -1943,13 +2235,55 @@
     <t>8+</t>
   </si>
   <si>
-    <t>(6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew)</t>
-  </si>
-  <si>
-    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew)</t>
-  </si>
-  <si>
-    <t>Pas</t>
+    <r>
+      <t xml:space="preserve">(6) do 10 PC 8+ w kolorze licytowanym co najmniej dwie figury  – dobry kolor!  (około 9 lew) -Otwarcia  5trefl, 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">karo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  raczej nie stosowane przez początkujących brydżystów.</t>
+    </r>
+  </si>
+  <si>
+    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) -Otwarcia 5kier, 5pik raczej nie stosowane przez początkujących brydżystów.
+</t>
+  </si>
+  <si>
+    <t>układowe</t>
+  </si>
+  <si>
+    <t>brak figur</t>
+  </si>
+  <si>
+    <t>Pas – brak Asa i Króla w kolor</t>
+  </si>
+  <si>
+    <t>jedna figura</t>
+  </si>
+  <si>
+    <t>6kier/pik – jedna z figur (As lub Król) w kolorze</t>
+  </si>
+  <si>
+    <t>dwie figury</t>
+  </si>
+  <si>
+    <t>7kier/pik– jest  As i Król w kolorze</t>
+  </si>
+  <si>
+    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) Otwarcia 5kier, 5pik raczej nie stosowane przez początkujących brydżystów.
+</t>
   </si>
   <si>
     <t>brak odzywki na otwarcie na pierwszym ręku na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
@@ -2095,7 +2429,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2185,6 +2519,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2293,7 +2638,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2598,6 +2943,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2695,12 +3044,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M351"/>
+  <dimension ref="A1:M450"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A283" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A421" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B301" activeCellId="0" sqref="B301"/>
+      <selection pane="bottomLeft" activeCell="K409" activeCellId="0" sqref="K409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14809,41 +15158,41 @@
       <c r="A289" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B289" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C289" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D289" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E289" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F289" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G289" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H289" s="17" t="s">
+      <c r="B289" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C289" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D289" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E289" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F289" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G289" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H289" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I289" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="K289" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="I289" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="K289" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="L289" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M289" s="21" t="s">
+      <c r="L289" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M289" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14851,41 +15200,41 @@
       <c r="A290" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="B290" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C290" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D290" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E290" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F290" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G290" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H290" s="17" t="s">
+      <c r="B290" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C290" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D290" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E290" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G290" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H290" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I290" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="K290" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I290" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="K290" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="L290" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M290" s="21" t="s">
+      <c r="L290" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M290" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14893,41 +15242,41 @@
       <c r="A291" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="B291" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C291" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D291" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E291" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F291" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G291" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H291" s="17" t="s">
+      <c r="B291" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C291" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D291" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E291" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F291" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G291" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H291" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="I291" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K291" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="I291" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="K291" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="L291" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M291" s="21" t="s">
+      <c r="L291" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M291" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14935,41 +15284,41 @@
       <c r="A292" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="B292" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C292" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D292" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E292" s="15" t="s">
+      <c r="B292" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C292" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D292" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F292" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G292" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H292" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I292" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K292" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="L292" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F292" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="G292" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H292" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="I292" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K292" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="L292" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M292" s="21" t="s">
+      <c r="M292" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14977,41 +15326,41 @@
       <c r="A293" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="B293" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C293" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D293" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E293" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F293" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G293" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H293" s="17" t="s">
+      <c r="B293" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C293" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E293" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F293" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G293" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H293" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="I293" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" s="19" t="s">
+      <c r="I293" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K293" s="30" t="s">
+      <c r="K293" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="L293" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M293" s="21" t="s">
+      <c r="L293" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M293" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15019,41 +15368,41 @@
       <c r="A294" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="B294" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C294" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D294" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E294" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F294" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G294" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H294" s="17" t="s">
+      <c r="B294" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C294" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D294" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E294" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F294" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G294" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H294" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I294" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K294" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="I294" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="K294" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="L294" s="17" t="s">
+      <c r="L294" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M294" s="21" t="s">
+      <c r="M294" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15061,167 +15410,167 @@
       <c r="A295" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="B295" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C295" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D295" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E295" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F295" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G295" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H295" s="17" t="s">
+      <c r="B295" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C295" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E295" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G295" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H295" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="I295" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="K295" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="I295" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="K295" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="L295" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M295" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L295" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M295" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="B296" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C296" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D296" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E296" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F296" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G296" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H296" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="I296" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="K296" s="76" t="s">
-        <v>332</v>
-      </c>
-      <c r="L296" s="17" t="s">
+      <c r="B296" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C296" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D296" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E296" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F296" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G296" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H296" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="I296" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K296" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L296" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M296" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M296" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C297" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D297" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E297" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F297" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G297" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H297" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="I297" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K297" s="76" t="s">
+      <c r="B297" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C297" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D297" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E297" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F297" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G297" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H297" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I297" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K297" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="L297" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M297" s="21" t="s">
-        <v>18</v>
+      <c r="L297" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M297" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C298" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D298" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E298" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F298" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G298" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H298" s="17" t="s">
+      <c r="B298" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C298" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D298" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E298" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F298" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G298" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H298" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I298" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="I298" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K298" s="30" t="s">
+      <c r="K298" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="L298" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M298" s="21" t="s">
+      <c r="L298" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M298" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15229,81 +15578,83 @@
       <c r="A299" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C299" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D299" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E299" s="15" t="s">
+      <c r="B299" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C299" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E299" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F299" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="F299" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G299" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H299" s="17" t="s">
+      <c r="G299" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H299" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I299" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K299" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="I299" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K299" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="L299" s="17" t="s">
+      <c r="L299" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="M299" s="21" t="s">
-        <v>18</v>
+      <c r="M299" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="B300" s="15" t="n">
-        <f aca="false">A$286</f>
-        <v>285</v>
-      </c>
-      <c r="C300" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D300" s="16" t="n">
+      <c r="B300" s="22" t="n">
+        <f aca="false">A$288</f>
+        <v>287</v>
+      </c>
+      <c r="C300" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D300" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E300" s="15" t="s">
+      <c r="E300" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F300" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G300" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H300" s="17"/>
-      <c r="I300" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K300" s="30" t="s">
+      <c r="F300" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G300" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H300" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="I300" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K300" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="L300" s="17" t="s">
+      <c r="L300" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="M300" s="21" t="s">
+      <c r="M300" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15319,29 +15670,31 @@
         <v>2</v>
       </c>
       <c r="D301" s="16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E301" s="15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F301" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G301" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H301" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="H301" s="17" t="s">
+        <v>339</v>
+      </c>
       <c r="I301" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J301" s="19" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="K301" s="30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L301" s="17" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="M301" s="21" t="s">
         <v>62</v>
@@ -15351,41 +15704,41 @@
       <c r="A302" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C302" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D302" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E302" s="8" t="s">
+      <c r="B302" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C302" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D302" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E302" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F302" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G302" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H302" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="I302" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K302" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="L302" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F302" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G302" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H302" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I302" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="K302" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="L302" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M302" s="14" t="s">
+      <c r="M302" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15393,125 +15746,125 @@
       <c r="A303" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C303" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D303" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E303" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F303" s="10" t="n">
+      <c r="B303" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C303" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D303" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F303" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="G303" s="10" t="n">
+      <c r="G303" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="H303" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="I303" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K303" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="L303" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M303" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H303" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="I303" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="K303" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="L303" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M303" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="15" t="n">
-        <f aca="false">A303</f>
-        <v>302</v>
-      </c>
-      <c r="C304" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D304" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E304" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F304" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G304" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H304" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="I304" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="K304" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="L304" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M304" s="21" t="s">
-        <v>62</v>
+      <c r="B304" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C304" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D304" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E304" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F304" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G304" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H304" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I304" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K304" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="L304" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M304" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="15" t="n">
-        <f aca="false">A303</f>
-        <v>302</v>
-      </c>
-      <c r="C305" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D305" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E305" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F305" s="17" t="n">
+      <c r="B305" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C305" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E305" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F305" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G305" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="G305" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H305" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="I305" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="K305" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="L305" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M305" s="21" t="s">
+      <c r="H305" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I305" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K305" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="L305" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M305" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15519,41 +15872,41 @@
       <c r="A306" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="15" t="n">
-        <f aca="false">A303</f>
-        <v>302</v>
-      </c>
-      <c r="C306" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D306" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E306" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F306" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G306" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H306" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="I306" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="K306" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="L306" s="17" t="s">
+      <c r="B306" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C306" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D306" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E306" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G306" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H306" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I306" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="K306" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="L306" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M306" s="21" t="s">
+      <c r="M306" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15561,41 +15914,41 @@
       <c r="A307" s="0" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="15" t="n">
-        <f aca="false">A303</f>
-        <v>302</v>
-      </c>
-      <c r="C307" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D307" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E307" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F307" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G307" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H307" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="I307" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K307" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="L307" s="17" t="s">
+      <c r="B307" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C307" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E307" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F307" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G307" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H307" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I307" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K307" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="L307" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M307" s="21" t="s">
+      <c r="M307" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15603,41 +15956,41 @@
       <c r="A308" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="B308" s="15" t="n">
-        <f aca="false">A303</f>
-        <v>302</v>
-      </c>
-      <c r="C308" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D308" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E308" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F308" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G308" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H308" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="I308" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="K308" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="L308" s="17" t="s">
+      <c r="B308" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C308" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D308" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E308" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F308" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G308" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H308" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="I308" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K308" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="L308" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M308" s="21" t="s">
+      <c r="M308" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15645,41 +15998,41 @@
       <c r="A309" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="B309" s="15" t="n">
-        <f aca="false">A303</f>
-        <v>302</v>
-      </c>
-      <c r="C309" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D309" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E309" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F309" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G309" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H309" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="I309" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="K309" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="L309" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M309" s="21" t="s">
+      <c r="B309" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C309" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D309" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E309" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F309" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G309" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H309" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I309" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K309" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="L309" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M309" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15687,41 +16040,41 @@
       <c r="A310" s="0" t="n">
         <v>309</v>
       </c>
-      <c r="B310" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C310" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D310" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E310" s="8" t="s">
+      <c r="B310" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C310" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D310" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E310" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F310" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="F310" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G310" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H310" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I310" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="K310" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="L310" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M310" s="14" t="s">
+      <c r="G310" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H310" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="I310" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K310" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="L310" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M310" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15729,41 +16082,41 @@
       <c r="A311" s="0" t="n">
         <v>310</v>
       </c>
-      <c r="B311" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
-      </c>
-      <c r="C311" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D311" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E311" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F311" s="17" t="n">
+      <c r="B311" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C311" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E311" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F311" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="G311" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H311" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I311" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="K311" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="L311" s="17" t="s">
+      <c r="G311" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H311" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I311" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K311" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="L311" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="M311" s="21" t="s">
+      <c r="M311" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15771,41 +16124,41 @@
       <c r="A312" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="B312" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
-      </c>
-      <c r="C312" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D312" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E312" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F312" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G312" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H312" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="I312" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="K312" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="L312" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M312" s="21" t="s">
+      <c r="B312" s="22" t="n">
+        <f aca="false">A$301</f>
+        <v>300</v>
+      </c>
+      <c r="C312" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D312" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E312" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F312" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G312" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H312" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I312" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K312" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="L312" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M312" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -15814,8 +16167,8 @@
         <v>312</v>
       </c>
       <c r="B313" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C313" s="15" t="n">
         <v>2</v>
@@ -15824,28 +16177,28 @@
         <v>2</v>
       </c>
       <c r="E313" s="15" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F313" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G313" s="17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H313" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I313" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J313" s="19" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="K313" s="30" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L313" s="17" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M313" s="21" t="s">
         <v>62</v>
@@ -15855,41 +16208,41 @@
       <c r="A314" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="B314" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
-      </c>
-      <c r="C314" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D314" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E314" s="15" t="s">
+      <c r="B314" s="22" t="n">
+        <f aca="false">A313</f>
+        <v>312</v>
+      </c>
+      <c r="C314" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E314" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F314" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G314" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H314" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="I314" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="K314" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="L314" s="17" t="s">
+      <c r="F314" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G314" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H314" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I314" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="K314" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="L314" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M314" s="21" t="s">
+      <c r="M314" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15898,38 +16251,38 @@
         <v>314</v>
       </c>
       <c r="B315" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C315" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D315" s="16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E315" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F315" s="17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G315" s="17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H315" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I315" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J315" s="19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K315" s="30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L315" s="17" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="M315" s="21" t="s">
         <v>62</v>
@@ -15940,17 +16293,17 @@
         <v>315</v>
       </c>
       <c r="B316" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
+        <f aca="false">A$286</f>
+        <v>285</v>
       </c>
       <c r="C316" s="15" t="n">
         <v>2</v>
       </c>
       <c r="D316" s="16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E316" s="15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F316" s="17" t="n">
         <v>15</v>
@@ -15959,19 +16312,19 @@
         <v>17</v>
       </c>
       <c r="H316" s="17" t="s">
-        <v>95</v>
+        <v>368</v>
       </c>
       <c r="I316" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J316" s="19" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="K316" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L316" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M316" s="21" t="s">
         <v>62</v>
@@ -15981,167 +16334,167 @@
       <c r="A317" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="B317" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
-      </c>
-      <c r="C317" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D317" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E317" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F317" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G317" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="H317" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="I317" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K317" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L317" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M317" s="21" t="s">
-        <v>18</v>
+      <c r="B317" s="22" t="n">
+        <f aca="false">A316</f>
+        <v>315</v>
+      </c>
+      <c r="C317" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D317" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E317" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F317" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G317" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H317" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="I317" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K317" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L317" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M317" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="B318" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
-      </c>
-      <c r="C318" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D318" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E318" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F318" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G318" s="17" t="n">
+      <c r="B318" s="22" t="n">
+        <f aca="false">A316</f>
+        <v>315</v>
+      </c>
+      <c r="C318" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D318" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E318" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F318" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G318" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H318" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="I318" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K318" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="L318" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H318" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="I318" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K318" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="L318" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M318" s="21" t="s">
-        <v>18</v>
+      <c r="M318" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="B319" s="15" t="n">
-        <f aca="false">A310</f>
-        <v>309</v>
-      </c>
-      <c r="C319" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D319" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E319" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F319" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G319" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H319" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="I319" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K319" s="30" t="s">
+      <c r="B319" s="22" t="n">
+        <f aca="false">A316</f>
+        <v>315</v>
+      </c>
+      <c r="C319" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D319" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E319" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F319" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G319" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H319" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="I319" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="K319" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="L319" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M319" s="21" t="s">
-        <v>18</v>
+      <c r="L319" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M319" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="B320" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C320" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D320" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E320" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F320" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G320" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H320" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="I320" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K320" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="L320" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M320" s="14" t="s">
+      <c r="B320" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C320" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D320" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F320" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G320" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H320" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I320" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="K320" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="L320" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M320" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16149,41 +16502,41 @@
       <c r="A321" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="B321" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C321" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D321" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E321" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F321" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G321" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H321" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I321" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K321" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="L321" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M321" s="14" t="s">
+      <c r="B321" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C321" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E321" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G321" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H321" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I321" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="K321" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="L321" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M321" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16191,167 +16544,167 @@
       <c r="A322" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="B322" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C322" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D322" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E322" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F322" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G322" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="H322" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I322" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="K322" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="L322" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M322" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B322" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C322" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E322" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F322" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G322" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H322" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I322" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="K322" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="L322" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M322" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="B323" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C323" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D323" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E323" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F323" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="G323" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H323" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="I323" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K323" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="L323" s="10" t="s">
+      <c r="B323" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C323" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D323" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E323" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F323" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G323" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H323" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="I323" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K323" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="L323" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M323" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M323" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="B324" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C324" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D324" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E324" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F324" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G324" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="H324" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="I324" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K324" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="L324" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M324" s="14" t="s">
-        <v>62</v>
+      <c r="B324" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C324" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D324" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E324" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F324" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G324" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H324" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="I324" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K324" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="L324" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M324" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C325" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D325" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E325" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F325" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="G325" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H325" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="I325" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="K325" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="L325" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="M325" s="14" t="s">
+      <c r="B325" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C325" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D325" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E325" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F325" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G325" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H325" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="I325" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K325" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="L325" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M325" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16359,41 +16712,41 @@
       <c r="A326" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="B326" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C326" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D326" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F326" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G326" s="10" t="n">
+      <c r="B326" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C326" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D326" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E326" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="H326" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="I326" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" s="12" t="s">
+      <c r="G326" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H326" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="I326" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="K326" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="L326" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M326" s="14" t="s">
+      <c r="K326" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="L326" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M326" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16401,83 +16754,79 @@
       <c r="A327" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="B327" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C327" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D327" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E327" s="8" t="s">
+      <c r="B327" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C327" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E327" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F327" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G327" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H327" s="17"/>
+      <c r="I327" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K327" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="L327" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F327" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="G327" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="H327" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="I327" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="K327" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="L327" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M327" s="14" t="s">
-        <v>18</v>
+      <c r="M327" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="B328" s="8" t="n">
-        <f aca="false">A$284</f>
-        <v>283</v>
-      </c>
-      <c r="C328" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D328" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E328" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F328" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="G328" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="H328" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="I328" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K328" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="L328" s="10" t="s">
+      <c r="B328" s="15" t="n">
+        <f aca="false">A$286</f>
+        <v>285</v>
+      </c>
+      <c r="C328" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E328" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M328" s="14" t="s">
+      <c r="F328" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G328" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H328" s="17"/>
+      <c r="I328" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K328" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="L328" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M328" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16493,74 +16842,75 @@
         <v>1</v>
       </c>
       <c r="D329" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E329" s="8" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F329" s="10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G329" s="10" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H329" s="10" t="s">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="I329" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J329" s="12" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="K329" s="13" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="L329" s="10" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M329" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
         <v>329</v>
       </c>
-      <c r="B330" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C330" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D330" s="1" t="n">
+      <c r="B330" s="15" t="n">
+        <f aca="false">A329</f>
+        <v>328</v>
+      </c>
+      <c r="C330" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D330" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F330" s="3" t="n">
+      <c r="E330" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F330" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="G330" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H330" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I330" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K330" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="L330" s="3" t="s">
+      <c r="G330" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H330" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I330" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K330" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L330" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M330" s="3" t="s">
+      <c r="M330" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -16568,615 +16918,629 @@
       <c r="A331" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="B331" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C331" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D331" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E331" s="1" t="s">
+      <c r="B331" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C331" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D331" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E331" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F331" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G331" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H331" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I331" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="K331" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="L331" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F331" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G331" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="H331" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I331" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K331" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="L331" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M331" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M331" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
         <v>331</v>
       </c>
-      <c r="B332" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C332" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D332" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F332" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G332" s="3" t="n">
+      <c r="B332" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C332" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D332" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F332" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G332" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H332" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="I332" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="K332" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="L332" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H332" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="I332" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="K332" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="L332" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M332" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M332" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="B333" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C333" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D333" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G333" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H333" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I333" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="K333" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="L333" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M333" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B333" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C333" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D333" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E333" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G333" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H333" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="I333" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="K333" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="L333" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M333" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="B334" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C334" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D334" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F334" s="3" t="n">
+      <c r="B334" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C334" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D334" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E334" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F334" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="G334" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H334" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I334" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="K334" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="L334" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M334" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G334" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H334" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="I334" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="K334" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="L334" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M334" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="B335" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C335" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D335" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F335" s="3" t="n">
+      <c r="B335" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C335" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D335" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E335" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F335" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="G335" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H335" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I335" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="K335" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="L335" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M335" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G335" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H335" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I335" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="K335" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="L335" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M335" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="B336" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C336" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D336" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F336" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G336" s="3" t="n">
+      <c r="B336" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C336" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D336" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E336" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F336" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="H336" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="I336" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K336" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="L336" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M336" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G336" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H336" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I336" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K336" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="L336" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M336" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
         <v>336</v>
       </c>
-      <c r="B337" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C337" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D337" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F337" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G337" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H337" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I337" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="K337" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="L337" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M337" s="3" t="s">
-        <v>18</v>
+      <c r="B337" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C337" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D337" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E337" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F337" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G337" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H337" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="I337" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="K337" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="L337" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M337" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="B338" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C338" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D338" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F338" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G338" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H338" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I338" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="K338" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L338" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M338" s="3" t="s">
-        <v>55</v>
+      <c r="B338" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C338" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D338" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E338" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F338" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G338" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H338" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="I338" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K338" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L338" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M338" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="B339" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C339" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D339" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F339" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G339" s="3" t="n">
+      <c r="B339" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C339" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D339" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E339" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="H339" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I339" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="K339" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L339" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M339" s="3" t="s">
-        <v>55</v>
+      <c r="G339" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H339" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I339" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K339" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="L339" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M339" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="B340" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C340" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D340" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F340" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G340" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H340" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I340" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="K340" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L340" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M340" s="3" t="s">
-        <v>55</v>
+      <c r="B340" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C340" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D340" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E340" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F340" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G340" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H340" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I340" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="K340" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="L340" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M340" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="B341" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C341" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D341" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E341" s="1" t="s">
+      <c r="B341" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C341" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D341" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E341" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F341" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G341" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H341" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I341" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K341" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="L341" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F341" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G341" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H341" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I341" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="K341" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L341" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M341" s="3" t="s">
-        <v>55</v>
+      <c r="M341" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="B342" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C342" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D342" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F342" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G342" s="3" t="n">
-        <f aca="false">F342+13</f>
+      <c r="B342" s="22" t="n">
+        <f aca="false">A$330</f>
+        <v>329</v>
+      </c>
+      <c r="C342" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D342" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E342" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H342" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I342" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="K342" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="L342" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M342" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F342" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G342" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H342" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I342" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="K342" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="L342" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M342" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="B343" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C343" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D343" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" s="1" t="s">
+      <c r="B343" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C343" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E343" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F343" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G343" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H343" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="I343" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="K343" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="L343" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M343" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F343" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G343" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H343" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="I343" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="K343" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="L343" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M343" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="B344" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C344" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D344" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E344" s="1" t="s">
+      <c r="B344" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C344" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D344" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E344" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F344" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G344" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H344" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I344" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="K344" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="L344" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M344" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F344" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G344" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H344" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="I344" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="K344" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="L344" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M344" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="B345" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C345" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D345" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E345" s="1" t="s">
+      <c r="B345" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C345" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D345" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E345" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F345" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G345" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H345" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="I345" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J345" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K345" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="L345" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M345" s="3" t="s">
+      <c r="F345" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G345" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H345" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I345" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="K345" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="L345" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M345" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17184,122 +17548,125 @@
       <c r="A346" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="B346" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C346" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D346" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E346" s="1" t="s">
+      <c r="B346" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C346" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D346" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E346" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F346" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G346" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H346" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="I346" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K346" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="L346" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M346" s="3" t="s">
-        <v>62</v>
+      <c r="F346" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G346" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H346" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I346" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K346" s="76" t="s">
+        <v>347</v>
+      </c>
+      <c r="L346" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M346" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="B347" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C347" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D347" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E347" s="1" t="s">
+      <c r="B347" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C347" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D347" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E347" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F347" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="G347" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="H347" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I347" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="K347" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="L347" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M347" s="3" t="s">
-        <v>18</v>
+      <c r="F347" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G347" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H347" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="I347" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K347" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="L347" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M347" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
         <v>347</v>
       </c>
-      <c r="B348" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C348" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D348" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E348" s="1" t="s">
+      <c r="B348" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C348" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D348" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E348" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F348" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G348" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H348" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I348" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J348" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K348" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="L348" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M348" s="3" t="s">
+      <c r="F348" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G348" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H348" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I348" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="K348" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="L348" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M348" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17307,40 +17674,41 @@
       <c r="A349" s="0" t="n">
         <v>348</v>
       </c>
-      <c r="B349" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C349" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D349" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E349" s="1" t="s">
+      <c r="B349" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C349" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D349" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E349" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F349" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G349" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H349" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I349" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J349" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K349" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="L349" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M349" s="3" t="s">
+      <c r="F349" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G349" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H349" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="I349" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="K349" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="L349" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M349" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17348,40 +17716,41 @@
       <c r="A350" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="B350" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C350" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D350" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E350" s="1" t="s">
+      <c r="B350" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C350" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D350" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E350" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F350" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G350" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="H350" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I350" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K350" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="L350" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M350" s="3" t="s">
+      <c r="F350" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="G350" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="H350" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I350" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K350" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="L350" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M350" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17389,40 +17758,4194 @@
       <c r="A351" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="B351" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C351" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D351" s="1" t="n">
+      <c r="B351" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C351" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D351" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E351" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F351" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G351" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H351" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I351" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K351" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="L351" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M351" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C352" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D352" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E352" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F352" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G352" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H352" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="I352" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K352" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="L352" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M352" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C353" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D353" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E353" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F353" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G353" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H353" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I353" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K353" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="L353" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M353" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" s="22" t="n">
+        <f aca="false">A$344</f>
+        <v>343</v>
+      </c>
+      <c r="C354" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D354" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E354" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F354" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G354" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H354" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="I354" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K354" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="L354" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="M354" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C355" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D355" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E355" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F355" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G355" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H355" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="I355" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="K355" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="L355" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M355" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" s="22" t="n">
+        <f aca="false">A355</f>
+        <v>354</v>
+      </c>
+      <c r="C356" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D356" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E356" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F356" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G356" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H356" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I356" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="K356" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="L356" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M356" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C357" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D357" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E357" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F357" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G357" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H357" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="I357" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="K357" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="L357" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M357" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C358" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D358" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E358" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F358" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G358" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H358" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I358" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K358" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="L358" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M358" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" s="22" t="n">
+        <f aca="false">A358</f>
+        <v>357</v>
+      </c>
+      <c r="C359" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D359" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E359" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F359" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G359" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="H359" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="I359" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K359" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L359" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M359" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" s="22" t="n">
+        <f aca="false">A358</f>
+        <v>357</v>
+      </c>
+      <c r="C360" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D360" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E360" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F360" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G360" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H360" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I360" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="K360" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="L360" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M360" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" s="22" t="n">
+        <f aca="false">A358</f>
+        <v>357</v>
+      </c>
+      <c r="C361" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D361" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E361" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F361" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G361" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="H361" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="I361" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="K361" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="L361" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M361" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C362" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D362" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F362" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G362" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H362" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="I362" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="K362" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="L362" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M362" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C363" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D363" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E363" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F363" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G363" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H363" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I363" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="K363" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="L363" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M363" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C364" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D364" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E364" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F364" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G364" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H364" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I364" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J364" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="K364" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="L364" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M364" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C365" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D365" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E365" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F365" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G365" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H365" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="I365" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J365" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="K365" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="L365" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M365" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C366" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D366" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E366" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F366" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G366" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H366" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="I366" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J366" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K366" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="L366" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M366" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C367" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D367" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E367" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F367" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G367" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H367" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="I367" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J367" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K367" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="L367" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M367" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C368" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D368" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F368" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G368" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H368" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="I368" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J368" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K368" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="L368" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M368" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C369" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D369" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F369" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G369" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H369" s="17"/>
+      <c r="I369" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J369" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K369" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="L369" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M369" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" s="15" t="n">
+        <f aca="false">A$329</f>
+        <v>328</v>
+      </c>
+      <c r="C370" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D370" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E370" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F370" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G370" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H370" s="17"/>
+      <c r="I370" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K370" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="L370" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M370" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C371" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F371" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G371" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H371" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I371" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J371" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K371" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="L371" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M371" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" s="15" t="n">
+        <f aca="false">A371</f>
+        <v>370</v>
+      </c>
+      <c r="C372" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D372" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E372" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F372" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G372" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H372" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="I372" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J372" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="K372" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="L372" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M372" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" s="15" t="n">
+        <f aca="false">A371</f>
+        <v>370</v>
+      </c>
+      <c r="C373" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D373" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E373" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F373" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G373" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H373" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="I373" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="K373" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="L373" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M373" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" s="15" t="n">
+        <f aca="false">A371</f>
+        <v>370</v>
+      </c>
+      <c r="C374" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D374" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E374" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F374" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G374" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H374" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="I374" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J374" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="K374" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="L374" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M374" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" s="15" t="n">
+        <f aca="false">A371</f>
+        <v>370</v>
+      </c>
+      <c r="C375" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D375" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E375" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F375" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G375" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H375" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I375" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J375" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K375" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="L375" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M375" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" s="15" t="n">
+        <f aca="false">A371</f>
+        <v>370</v>
+      </c>
+      <c r="C376" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D376" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E376" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F376" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G376" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H376" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="I376" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J376" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="K376" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="L376" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M376" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" s="15" t="n">
+        <f aca="false">A371</f>
+        <v>370</v>
+      </c>
+      <c r="C377" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D377" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E377" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F377" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G377" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H377" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I377" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J377" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="K377" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="L377" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M377" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C378" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F378" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G378" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H378" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I378" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J378" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K378" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="L378" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M378" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C379" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D379" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E379" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F379" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G379" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H379" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I379" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J379" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="K379" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="L379" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M379" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C380" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D380" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E380" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F380" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G380" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H380" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="I380" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J380" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="K380" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="L380" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M380" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C381" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D381" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E381" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F381" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G381" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H381" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="I381" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J381" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K381" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="L381" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M381" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C382" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D382" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E382" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F382" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G382" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H382" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="I382" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J382" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="K382" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="L382" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M382" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C383" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D383" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E383" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F383" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G383" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H383" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="I383" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J383" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="K383" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="L383" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M383" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C384" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D384" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E384" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F384" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G384" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H384" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I384" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J384" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K384" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="L384" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M384" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C385" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D385" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E385" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F385" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G385" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H385" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I385" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J385" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K385" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="L385" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M385" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C386" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D386" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E386" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F386" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G386" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H386" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I386" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="K386" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="L386" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M386" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" s="15" t="n">
+        <f aca="false">A378</f>
+        <v>377</v>
+      </c>
+      <c r="C387" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D387" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E387" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F387" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G387" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H387" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="I387" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K387" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="L387" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M387" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C388" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E388" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F388" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G388" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H388" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="I388" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K388" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="L388" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M388" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C389" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D389" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F389" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G389" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H389" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I389" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K389" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="L389" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M389" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C390" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E390" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F390" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G390" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H390" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I390" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J390" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K390" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="L390" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M390" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C391" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F391" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G391" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="H391" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I391" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K391" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="L391" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M391" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C392" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E392" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F392" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G392" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="H392" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I392" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K392" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="L392" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M392" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C393" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D393" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F393" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G393" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H393" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I393" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="K393" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="L393" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="M393" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C394" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D394" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E394" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F394" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G394" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H394" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I394" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K394" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="L394" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M394" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C395" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F395" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G395" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H395" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I395" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K395" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="L395" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M395" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C396" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E396" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F396" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G396" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H396" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I396" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K396" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="L396" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M396" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" s="8" t="n">
+        <f aca="false">A$284</f>
+        <v>283</v>
+      </c>
+      <c r="C397" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F397" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G397" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H397" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I397" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K397" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="L397" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M397" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F398" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G398" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I398" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K398" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="L398" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M398" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F399" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G399" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I399" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K399" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="L399" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M399" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F400" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G400" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I400" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="K400" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="L400" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M400" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F401" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G401" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I401" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="K401" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="L401" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M401" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D402" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F402" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G402" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I402" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K402" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="L402" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M402" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C403" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F403" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G403" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I403" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J403" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="K403" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="L403" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M403" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F404" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G404" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I404" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J404" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K404" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="L404" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M404" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F405" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G405" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I405" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K405" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="L405" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M405" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C406" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F406" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G406" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I406" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J406" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K406" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M406" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C407" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F407" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G407" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I407" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K407" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="L407" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M407" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C408" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F408" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G408" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I408" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K408" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L408" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M408" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F409" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G409" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I409" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K409" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="L409" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M409" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F410" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G410" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I410" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="K410" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M410" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" s="8" t="n">
+        <f aca="false">A410</f>
+        <v>409</v>
+      </c>
+      <c r="C411" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D411" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F411" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H411" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="I411" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K411" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="L411" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M411" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" s="8" t="n">
+        <f aca="false">A410</f>
+        <v>409</v>
+      </c>
+      <c r="C412" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D412" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E412" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F412" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H412" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I412" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="K412" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="L412" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M412" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" s="8" t="n">
+        <f aca="false">A410</f>
+        <v>409</v>
+      </c>
+      <c r="C413" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D413" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F413" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H413" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I413" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="K413" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="L413" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M413" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" s="15" t="n">
+        <f aca="false">A$413</f>
+        <v>412</v>
+      </c>
+      <c r="C414" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D414" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E414" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F414" s="17" t="n">
+        <f aca="false">F$410</f>
+        <v>9</v>
+      </c>
+      <c r="G414" s="17" t="n">
+        <f aca="false">G$410</f>
+        <v>17</v>
+      </c>
+      <c r="H414" s="17" t="str">
+        <f aca="false">H$410</f>
+        <v>7+</v>
+      </c>
+      <c r="I414" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="K414" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="L414" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M414" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" s="15" t="n">
+        <f aca="false">A$413</f>
+        <v>412</v>
+      </c>
+      <c r="C415" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D415" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E415" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F415" s="17" t="n">
+        <f aca="false">F$410</f>
+        <v>9</v>
+      </c>
+      <c r="G415" s="17" t="n">
+        <f aca="false">G$410</f>
+        <v>17</v>
+      </c>
+      <c r="H415" s="17" t="str">
+        <f aca="false">H$410</f>
+        <v>7+</v>
+      </c>
+      <c r="I415" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="K415" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="L415" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M415" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" s="15" t="n">
+        <f aca="false">A$413</f>
+        <v>412</v>
+      </c>
+      <c r="C416" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D416" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E416" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F416" s="17" t="n">
+        <f aca="false">F$410</f>
+        <v>9</v>
+      </c>
+      <c r="G416" s="17" t="n">
+        <f aca="false">G$410</f>
+        <v>17</v>
+      </c>
+      <c r="H416" s="17" t="str">
+        <f aca="false">H$410</f>
+        <v>7+</v>
+      </c>
+      <c r="I416" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="K416" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="L416" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M416" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" s="15" t="n">
+        <f aca="false">A$413</f>
+        <v>412</v>
+      </c>
+      <c r="C417" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D417" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="E417" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F417" s="17" t="n">
+        <f aca="false">F$410</f>
+        <v>9</v>
+      </c>
+      <c r="G417" s="17" t="n">
+        <f aca="false">G$410</f>
+        <v>17</v>
+      </c>
+      <c r="H417" s="17" t="str">
+        <f aca="false">H$410</f>
+        <v>7+</v>
+      </c>
+      <c r="I417" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K417" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="L417" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F351" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G351" s="3" t="n">
+      <c r="M417" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" s="15" t="n">
+        <f aca="false">A$413</f>
+        <v>412</v>
+      </c>
+      <c r="C418" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D418" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E418" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F418" s="17" t="n">
+        <f aca="false">F$410</f>
+        <v>9</v>
+      </c>
+      <c r="G418" s="17" t="n">
+        <f aca="false">G$410</f>
+        <v>17</v>
+      </c>
+      <c r="H418" s="17" t="str">
+        <f aca="false">H$410</f>
+        <v>7+</v>
+      </c>
+      <c r="I418" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K418" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="L418" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M418" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" s="8" t="n">
+        <f aca="false">A410</f>
+        <v>409</v>
+      </c>
+      <c r="C419" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D419" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F419" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="H351" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I351" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K351" s="6" t="s">
+      <c r="H419" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="I419" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K419" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="L419" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M419" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" s="8" t="n">
+        <f aca="false">A410</f>
+        <v>409</v>
+      </c>
+      <c r="C420" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D420" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E420" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F420" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H420" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="I420" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K420" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="L420" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M420" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" s="8" t="n">
+        <f aca="false">A410</f>
+        <v>409</v>
+      </c>
+      <c r="C421" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F421" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H421" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I421" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="K421" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="L421" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M421" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C422" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F422" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G422" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I422" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J422" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="K422" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M422" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" s="8" t="n">
+        <f aca="false">A422</f>
+        <v>421</v>
+      </c>
+      <c r="C423" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E423" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F423" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G423" s="10" t="n">
+        <f aca="false">37-F422</f>
+        <v>29</v>
+      </c>
+      <c r="H423" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I423" s="11"/>
+      <c r="J423" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K423" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="L423" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M423" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="n">
         <v>423</v>
       </c>
-      <c r="L351" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="M351" s="3" t="s">
+      <c r="B424" s="8" t="n">
+        <f aca="false">A422</f>
+        <v>421</v>
+      </c>
+      <c r="C424" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D424" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E424" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F424" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G424" s="10" t="n">
+        <f aca="false">37-F422</f>
+        <v>29</v>
+      </c>
+      <c r="H424" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I424" s="11"/>
+      <c r="J424" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K424" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="L424" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M424" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" s="8" t="n">
+        <f aca="false">A422</f>
+        <v>421</v>
+      </c>
+      <c r="C425" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F425" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" s="10" t="n">
+        <f aca="false">37-F423</f>
+        <v>22</v>
+      </c>
+      <c r="H425" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I425" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K425" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L425" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M425" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" s="8" t="n">
+        <f aca="false">A422</f>
+        <v>421</v>
+      </c>
+      <c r="C426" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D426" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F426" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G426" s="10" t="n">
+        <f aca="false">37-F423</f>
+        <v>22</v>
+      </c>
+      <c r="H426" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I426" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="K426" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="L426" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M426" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F427" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G427" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I427" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="K427" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" s="8" t="n">
+        <f aca="false">A427</f>
+        <v>426</v>
+      </c>
+      <c r="C428" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D428" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F428" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G428" s="10" t="n">
+        <f aca="false">37-F427</f>
+        <v>29</v>
+      </c>
+      <c r="H428" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="I428" s="11"/>
+      <c r="J428" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K428" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="L428" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M428" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" s="8" t="n">
+        <f aca="false">A427</f>
+        <v>426</v>
+      </c>
+      <c r="C429" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D429" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F429" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G429" s="10" t="n">
+        <f aca="false">37-F427</f>
+        <v>29</v>
+      </c>
+      <c r="H429" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I429" s="11"/>
+      <c r="J429" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="K429" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="L429" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M429" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" s="8" t="n">
+        <f aca="false">A427</f>
+        <v>426</v>
+      </c>
+      <c r="C430" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D430" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E430" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F430" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" s="10" t="n">
+        <f aca="false">37-F428</f>
+        <v>22</v>
+      </c>
+      <c r="H430" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I430" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K430" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L430" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M430" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" s="8" t="n">
+        <f aca="false">A427</f>
+        <v>426</v>
+      </c>
+      <c r="C431" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D431" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E431" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F431" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G431" s="10" t="n">
+        <f aca="false">37-F428</f>
+        <v>22</v>
+      </c>
+      <c r="H431" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I431" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="K431" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="L431" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M431" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D432" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F432" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G432" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I432" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K432" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M432" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" s="8" t="n">
+        <f aca="false">A432</f>
+        <v>431</v>
+      </c>
+      <c r="C433" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D433" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F433" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" s="10" t="n">
+        <f aca="false">37-F432</f>
+        <v>29</v>
+      </c>
+      <c r="H433" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I433" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J433" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K433" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L433" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M433" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" s="8" t="n">
+        <f aca="false">A432</f>
+        <v>431</v>
+      </c>
+      <c r="C434" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F434" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G434" s="10" t="n">
+        <f aca="false">37-F432</f>
+        <v>29</v>
+      </c>
+      <c r="H434" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="I434" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J434" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="K434" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="L434" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M434" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C435" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D435" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F435" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G435" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="I435" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K435" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M435" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" s="8" t="n">
+        <f aca="false">A435</f>
+        <v>434</v>
+      </c>
+      <c r="C436" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D436" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E436" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F436" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" s="10" t="n">
+        <f aca="false">37-F435</f>
+        <v>29</v>
+      </c>
+      <c r="H436" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I436" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J436" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K436" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L436" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M436" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" s="8" t="n">
+        <f aca="false">A435</f>
+        <v>434</v>
+      </c>
+      <c r="C437" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D437" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F437" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G437" s="10" t="n">
+        <f aca="false">37-F435</f>
+        <v>29</v>
+      </c>
+      <c r="H437" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="I437" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="K437" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="L437" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M437" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C438" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D438" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F438" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G438" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I438" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J438" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="K438" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M438" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D439" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F439" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G439" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="I439" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K439" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" s="8" t="n">
+        <f aca="false">A439</f>
+        <v>438</v>
+      </c>
+      <c r="C440" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D440" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E440" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F440" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G440" s="10" t="n">
+        <f aca="false">37-F439</f>
+        <v>31</v>
+      </c>
+      <c r="H440" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I440" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K440" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L440" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M440" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C441" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D441" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F441" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G441" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="I441" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K441" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="M441" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" s="8" t="n">
+        <f aca="false">A441</f>
+        <v>440</v>
+      </c>
+      <c r="C442" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D442" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E442" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F442" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" s="10" t="n">
+        <f aca="false">37-F441</f>
+        <v>31</v>
+      </c>
+      <c r="H442" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I442" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="K442" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="L442" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M442" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C443" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D443" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F443" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G443" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I443" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K443" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="L443" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" s="8" t="n">
+        <f aca="false">A443</f>
+        <v>442</v>
+      </c>
+      <c r="C444" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D444" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E444" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F444" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H444" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I444" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="K444" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="L444" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M444" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" s="8" t="n">
+        <f aca="false">A443</f>
+        <v>442</v>
+      </c>
+      <c r="C445" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D445" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E445" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F445" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G445" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H445" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I445" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="K445" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="L445" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M445" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" s="8" t="n">
+        <f aca="false">A443</f>
+        <v>442</v>
+      </c>
+      <c r="C446" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D446" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E446" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F446" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G446" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H446" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I446" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="K446" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="L446" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M446" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D447" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F447" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I447" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="K447" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="L447" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" s="8" t="n">
+        <f aca="false">A447</f>
+        <v>446</v>
+      </c>
+      <c r="C448" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D448" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E448" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F448" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H448" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I448" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="K448" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="L448" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M448" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" s="8" t="n">
+        <f aca="false">A447</f>
+        <v>446</v>
+      </c>
+      <c r="C449" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D449" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F449" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G449" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H449" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I449" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="K449" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="L449" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M449" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" s="8" t="n">
+        <f aca="false">A447</f>
+        <v>446</v>
+      </c>
+      <c r="C450" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D450" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E450" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F450" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G450" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H450" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I450" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="K450" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="L450" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M450" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17504,7 +22027,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="77" t="n">
+      <c r="D2" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -17523,15 +22046,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>425</v>
+        <v>502</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>526</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="80" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17545,7 +22068,7 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="77" t="n">
+      <c r="D3" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -17565,15 +22088,15 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>426</v>
+        <v>502</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>527</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="80" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17587,7 +22110,7 @@
       <c r="C4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="77" t="n">
+      <c r="D4" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -17606,15 +22129,15 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>427</v>
+        <v>502</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>528</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="80" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17628,7 +22151,7 @@
       <c r="C5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="77" t="n">
+      <c r="D5" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -17647,15 +22170,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>427</v>
+        <v>502</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>528</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="80" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17739,7 +22262,7 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="77" t="n">
+      <c r="D2" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -17758,15 +22281,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>429</v>
+        <v>529</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>530</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="M2" s="80"/>
+        <v>531</v>
+      </c>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" customFormat="false" ht="170.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -17778,7 +22301,7 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="77" t="n">
+      <c r="D3" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -17799,13 +22322,13 @@
       <c r="J3" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="K3" s="78" t="s">
-        <v>431</v>
+      <c r="K3" s="79" t="s">
+        <v>532</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" customFormat="false" ht="282.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -17817,7 +22340,7 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="77" t="n">
+      <c r="D4" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -17836,15 +22359,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>433</v>
+        <v>533</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>534</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="80"/>
+      <c r="M4" s="81"/>
     </row>
     <row r="5" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -17856,7 +22379,7 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="77" t="n">
+      <c r="D5" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -17875,15 +22398,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>435</v>
+        <v>535</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>536</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="80"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -17895,7 +22418,7 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="77" t="n">
+      <c r="D6" s="78" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -17916,13 +22439,13 @@
       <c r="J6" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="78" t="s">
-        <v>436</v>
+      <c r="K6" s="79" t="s">
+        <v>537</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="80"/>
+      <c r="M6" s="81"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18025,16 +22548,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>437</v>
+        <v>538</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>438</v>
+        <v>539</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -18073,10 +22596,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>440</v>
+        <v>541</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>441</v>
+        <v>542</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>107</v>
@@ -18115,10 +22638,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>442</v>
+        <v>543</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>443</v>
+        <v>544</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>107</v>
@@ -18157,10 +22680,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>444</v>
+        <v>545</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>445</v>
+        <v>546</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>107</v>
@@ -18201,7 +22724,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>446</v>
+        <v>547</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>107</v>
@@ -18242,7 +22765,7 @@
         <v>262</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>107</v>
@@ -18352,13 +22875,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>437</v>
+        <v>538</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>438</v>
+        <v>539</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
@@ -18397,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
@@ -18436,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
@@ -18475,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>448</v>
+        <v>549</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
@@ -18516,7 +23039,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>45</v>
@@ -18551,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -18590,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
@@ -18629,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
@@ -18701,13 +23224,13 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
@@ -18740,13 +23263,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
@@ -18779,13 +23302,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
@@ -18818,13 +23341,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
@@ -18896,13 +23419,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
@@ -18935,13 +23458,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
@@ -18974,13 +23497,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
@@ -19013,13 +23536,13 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="551">
   <si>
     <t>bidId</t>
   </si>
@@ -336,7 +336,7 @@
     <t>4-6 PC zrównoważony (nie wyklucza czwórki) – dalej 3 jest Staymanem</t>
   </si>
   <si>
-    <t>Splinter</t>
+    <t>SPLINTER</t>
   </si>
   <si>
     <r>
@@ -522,7 +522,7 @@
     </r>
   </si>
   <si>
-    <t>inwit do 3 NT</t>
+    <t>inwit do 3 BA</t>
   </si>
   <si>
     <r>
@@ -582,7 +582,7 @@
     <t>inwit do 4 pik</t>
   </si>
   <si>
-    <t>kontakt 3NT</t>
+    <t>kontrakt 3BA</t>
   </si>
   <si>
     <r>
@@ -599,7 +599,7 @@
     </r>
   </si>
   <si>
-    <t>Kontrakt 4 kier</t>
+    <t>kontrakt 4 kier</t>
   </si>
   <si>
     <r>
@@ -616,7 +616,7 @@
     </r>
   </si>
   <si>
-    <t>Kontrakt 4 pik</t>
+    <t>kontrakt 4 pik</t>
   </si>
   <si>
     <t>bez starszej czwórki</t>
@@ -793,7 +793,7 @@
     <t>5+ trefli</t>
   </si>
   <si>
-    <t>inwit do 3 NT/ Magister INŻYNIER</t>
+    <t>inwit do 3 BA/ Magister INŻYNIER</t>
   </si>
   <si>
     <t>2BA 11-12 PC skład zrównoważony inwit do 3BA – ??????? albo  (AUTORELAY) - gadżet  MAGISTER INŻYNIER (jak MAGISTER.  oraz 5+ trefli!)</t>
@@ -1386,6 +1386,9 @@
     <t>2BA  22-24 PC, układ zrównoważony inwit do szlemika ??? coś było inaczej ale bez sensu</t>
   </si>
   <si>
+    <t>kontakt 3NT</t>
+  </si>
+  <si>
     <t>3BA  18-21 PC  układ zrównoważony - kontrakt</t>
   </si>
   <si>
@@ -1424,9 +1427,6 @@
     <t>4 kara + splinter</t>
   </si>
   <si>
-    <t>SPLINTER</t>
-  </si>
-  <si>
     <t>15+  PC, 4 kart w kolorze partnera – SPLINTER wskazanie krótkości</t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
     </r>
   </si>
   <si>
-    <t>Blok albo autosplintere</t>
+    <t>Blok albo autoSPLINTERe</t>
   </si>
   <si>
     <r>
@@ -1569,34 +1569,34 @@
     <t>Brak 4 kar</t>
   </si>
   <si>
+    <t>nic ciekawego – patrz 3 kara...</t>
+  </si>
+  <si>
+    <t>7+ PC,  4 +  kierów/pików ; przy dwóch czwórkach kierowa, przy dwóch piątkach pikowa;  forsuje na jedno okrążenie</t>
+  </si>
+  <si>
+    <t>4+ karo brak 4 kier</t>
+  </si>
+  <si>
+    <t>kara i piki</t>
+  </si>
+  <si>
+    <t>1pik (tylko po kierze :))- 12-17PC-  4+ karo, 4 piki, brak czterech kierów, [u mnie było forsuje na jedno okrążenie]</t>
+  </si>
+  <si>
+    <t>5-3-3-2</t>
+  </si>
+  <si>
+    <t>1BA  12-14 PC, bez starszej czwórki -  układ -5-3-3-2</t>
+  </si>
+  <si>
     <t>pas</t>
   </si>
   <si>
-    <t>nic ciekawego – patrz 3 kara...</t>
-  </si>
-  <si>
-    <t>7+ PC,  4 +  kierów/pików ; przy dwóch czwórkach kierowa, przy dwóch piątkach pikowa;  forsuje na jedno okrążenie</t>
-  </si>
-  <si>
-    <t>4+ karo brak 4 kier</t>
-  </si>
-  <si>
-    <t>kara i piki</t>
-  </si>
-  <si>
-    <t>1pik (tylko po kierze :))- 12-17PC-  4+ karo, 4 piki, brak czterech kierów, [u mnie było forsuje na jedno okrążenie]</t>
-  </si>
-  <si>
-    <t>5-3-3-2</t>
-  </si>
-  <si>
-    <t>1BA  12-14 PC, bez starszej czwórki -  układ -5-3-3-2</t>
-  </si>
-  <si>
     <t>Pas – 7-10 PC układ zrównoważony</t>
   </si>
   <si>
-    <t>5+ kier </t>
+    <t>5+ kier</t>
   </si>
   <si>
     <t>trójznaczne trefl</t>
@@ -1614,13 +1614,10 @@
     <t>2karo 7-9 PC – 4 kolor i 3 +kara</t>
   </si>
   <si>
-    <t>5+ kier</t>
-  </si>
-  <si>
     <t>kiery</t>
   </si>
   <si>
-    <t>2kier   7-9  PC  kolor licytowany -   5+ w kolor </t>
+    <t>2kier   7-9  PC  kolor licytowany -   5+ w kolor</t>
   </si>
   <si>
     <t>5+ pik i 4 + kier</t>
@@ -1629,7 +1626,7 @@
     <t>piki i kiery</t>
   </si>
   <si>
-    <t>2pik  REWERS(chyba tylko po pikach bo kiery wykluczają piki):   5+ w  kolor (pik) oraz  i 4+ drugi starszy (kier) </t>
+    <t>2pik  REWERS(chyba tylko po pikach bo kiery wykluczają piki):   5+ w  kolor (pik) oraz  i 4+ drugi starszy (kier)</t>
   </si>
   <si>
     <t>2BA  11-12 PC zrówn -(po kierach bez  4 pik) iinwit do 3BA</t>
@@ -1647,7 +1644,7 @@
     <t>3karo 9-11 PC – 4  w kolor i 3 +kara inwit do 3BA</t>
   </si>
   <si>
-    <t>6+ kier </t>
+    <t>6+ kier</t>
   </si>
   <si>
     <t>3kier  po licytowanym: 10-12 PC 6+kier :inwit do 4 w kolor</t>
@@ -1665,9 +1662,6 @@
     <t>3BA 13-16 PC skład zrównoważony</t>
   </si>
   <si>
-    <t>6+ kier</t>
-  </si>
-  <si>
     <t>4kier  12-16 PC, 6+ w kolor.</t>
   </si>
   <si>
@@ -1716,7 +1710,7 @@
     <t>4-5 kier i 4+ karo</t>
   </si>
   <si>
-    <t>3karo 8-11 PC 4-5 w kolor  i 4 +kara inwit </t>
+    <t>3karo 8-11 PC 4-5 w kolor  i 4 +kara inwit</t>
   </si>
   <si>
     <t>3kier po licytowanym: 10-12 PC 6+kier :inwit do 4 w kolor</t>
@@ -1731,13 +1725,13 @@
     <t>3BA 13-16 PC wartości w pikach i kierach</t>
   </si>
   <si>
-    <t>4kier </t>
+    <t>4kier</t>
   </si>
   <si>
     <t>6+ pik</t>
   </si>
   <si>
-    <t>4pik  12-16  PC 6+ w kolor </t>
+    <t>4pik  12-16  PC 6+ w kolor</t>
   </si>
   <si>
     <t>6+ karo, możliwe trefl, bez 4s</t>
@@ -1761,7 +1755,7 @@
     <t>4+ pik i 5 karo</t>
   </si>
   <si>
-    <t>3kier/3pik - powtórzenie swojego koloru - </t>
+    <t>3kier/3pik - powtórzenie swojego koloru -</t>
   </si>
   <si>
     <t>4 kier i 5 pik lub 5-5</t>
@@ -1821,7 +1815,7 @@
     <t>czwórka w pikach</t>
   </si>
   <si>
-    <t>5+ pik </t>
+    <t>5+ pik</t>
   </si>
   <si>
     <t>4 pik i 3+ karo</t>
@@ -1831,9 +1825,6 @@
   </si>
   <si>
     <t>4+ pik i 4 + kier</t>
-  </si>
-  <si>
-    <t>5+ pik</t>
   </si>
   <si>
     <t>piki</t>
@@ -2081,7 +2072,7 @@
     <t>x-5-X-X</t>
   </si>
   <si>
-    <t>DWUKOLORÓWKA  5+ kier i 5+ młodszy</t>
+    <t>DWUKOLORÓWKA  5+ kier i 5+ mł.</t>
   </si>
   <si>
     <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
@@ -2090,7 +2081,7 @@
     <t>5-x-X-X</t>
   </si>
   <si>
-    <t>DWUKOLORÓWKA 5+ pik i 5+ dowolny</t>
+    <t>DWUKOLORÓWKA 5+ pik i 5+</t>
   </si>
   <si>
     <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
@@ -2108,13 +2099,16 @@
     <t>7+</t>
   </si>
   <si>
-    <t>BLOK słaby</t>
+    <t>Dobry 7(8) kart</t>
   </si>
   <si>
     <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry) Otwarcia są naturalne. Po partii ozna­czają kolor siedmiokartowy, a przed partią 3 w kolor młodszy może być oparte na  kolorze sześciokartowym. Siła otwar­cia  zależy od stylu gracza i ustaleń w pa­rze. W przypadku braku takowych pro­ponuję stosować metodę 4-3-2-2. (**) Ozna­cza ona, że do zapowiedzianego kon­traktu brakuje nam „na ręku": czterech lew, jeśli jesteśmy w założeniach ko­rzystnych, trzech lew w założeniach przedpartyjnych, dwóch lew jeśli jeste­śmy po partii.</t>
   </si>
   <si>
     <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)Otwarcia są naturalne. Po partii ozna­czają kolor siedmiokartowy, a przed partią 3 w kolor młodszy może być oparte na  kolorze sześciokartowym. Siła otwar­cia  zależy od stylu gracza i ustaleń w pa­rze. W przypadku braku takowych pro­ponuję stosować metodę 4-3-2-2. (**) Ozna­cza ona, że do zapowiedzianego kon­traktu brakuje nam „na ręku": czterech lew, jeśli jesteśmy w założeniach ko­rzystnych, trzech lew w założeniach przedpartyjnych, dwóch lew jeśli jeste­śmy po partii.</t>
+  </si>
+  <si>
+    <t>Dobry 7-kart</t>
   </si>
   <si>
     <t>GAMBLING</t>
@@ -2128,6 +2122,7 @@
         <sz val="7"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Otwarcia 3BA  raczej nie stosowane przez początkujących brydżystów.</t>
     </r>
@@ -2166,7 +2161,7 @@
     <t>krótkość w drugim młodszym</t>
   </si>
   <si>
-    <t> krótkość w kolorze młodszym licytuje poprzez 4BA. </t>
+    <t>krótkość w kolorze młodszym licytuje poprzez 4BA.</t>
   </si>
   <si>
     <t>5trefl, 5karo oznaczają brak krótkości</t>
@@ -2233,6 +2228,9 @@
   </si>
   <si>
     <t>8+</t>
+  </si>
+  <si>
+    <t>Dobry 8-kart</t>
   </si>
   <si>
     <r>
@@ -2244,6 +2242,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">karo</t>
     </r>
@@ -2252,13 +2251,16 @@
         <sz val="7"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  raczej nie stosowane przez początkujących brydżystów.</t>
     </r>
   </si>
   <si>
-    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) -Otwarcia 5kier, 5pik raczej nie stosowane przez początkujących brydżystów.
-</t>
+    <t>Kompletna ręka bez A i K</t>
+  </si>
+  <si>
+    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) -Otwarcia 5kier, 5pik raczej nie stosowane przez początkujących brydżystów.</t>
   </si>
   <si>
     <t>układowe</t>
@@ -2282,8 +2284,7 @@
     <t>7kier/pik– jest  As i Król w kolorze</t>
   </si>
   <si>
-    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) Otwarcia 5kier, 5pik raczej nie stosowane przez początkujących brydżystów.
-</t>
+    <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) Otwarcia 5kier, 5pik raczej nie stosowane przez początkujących brydżystów.</t>
   </si>
   <si>
     <t>brak odzywki na otwarcie na pierwszym ręku na poziomie 1 (0-11PC) lub 2 (0-5 PC i długi kolor (6+) lub układ na dwóch piątkach) lub 3 itp. ...</t>
@@ -2417,6 +2418,9 @@
     <t>6+ PC, 5+ trefli, wyklucza 4 kara, 4 kiery, 4 piki;</t>
   </si>
   <si>
+    <t>inwit do 3 NT</t>
+  </si>
+  <si>
     <t>Naturalne bez Atu</t>
   </si>
 </sst>
@@ -2429,7 +2433,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2522,14 +2526,10 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3047,9 +3047,9 @@
   <dimension ref="A1:M450"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A421" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A246" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K409" activeCellId="0" sqref="K409"/>
+      <selection pane="bottomLeft" activeCell="G252" activeCellId="0" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3525,7 +3525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>83</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>84</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>89</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>90</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>93</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>95</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>100</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>104</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>112</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>115</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>117</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>118</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>120</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>122</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>123</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>124</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>125</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>126</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>127</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>128</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>133</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>136</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>151</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>198</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>210</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>211</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>213</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>214</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>215</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>216</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
         <v>217</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>218</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>219</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
         <v>220</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>221</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>222</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>223</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>224</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
         <v>225</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
         <v>226</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>231</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
         <v>234</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
         <v>240</v>
       </c>
@@ -13640,11 +13640,11 @@
       <c r="I252" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J252" s="19" t="s">
-        <v>128</v>
+      <c r="J252" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="K252" s="67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L252" s="17" t="s">
         <v>31</v>
@@ -13685,7 +13685,7 @@
         <v>262</v>
       </c>
       <c r="K253" s="68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L253" s="10" t="s">
         <v>44</v>
@@ -13727,7 +13727,7 @@
         <v>112</v>
       </c>
       <c r="K254" s="69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L254" s="17" t="s">
         <v>17</v>
@@ -13736,7 +13736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
         <v>254</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>114</v>
       </c>
       <c r="K255" s="69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L255" s="17" t="s">
         <v>17</v>
@@ -13778,7 +13778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
         <v>255</v>
       </c>
@@ -13808,10 +13808,10 @@
         <v>0</v>
       </c>
       <c r="J256" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="K256" s="69" t="s">
         <v>274</v>
-      </c>
-      <c r="K256" s="69" t="s">
-        <v>273</v>
       </c>
       <c r="L256" s="17" t="s">
         <v>17</v>
@@ -13853,7 +13853,7 @@
         <v>85</v>
       </c>
       <c r="K257" s="70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L257" s="17" t="s">
         <v>107</v>
@@ -13886,16 +13886,16 @@
         <v>14</v>
       </c>
       <c r="H258" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I258" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J258" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K258" s="67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L258" s="17" t="s">
         <v>17</v>
@@ -13928,13 +13928,13 @@
         <v>37</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I259" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J259" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K259" s="67" t="s">
         <v>281</v>
@@ -13970,13 +13970,13 @@
         <v>37</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I260" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J260" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K260" s="67" t="s">
         <v>282</v>
@@ -14012,13 +14012,13 @@
         <v>37</v>
       </c>
       <c r="H261" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I261" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J261" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K261" s="67" t="s">
         <v>283</v>
@@ -14054,13 +14054,13 @@
         <v>37</v>
       </c>
       <c r="H262" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I262" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J262" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K262" s="67" t="s">
         <v>284</v>
@@ -14104,7 +14104,7 @@
         <v>112</v>
       </c>
       <c r="K263" s="68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L263" s="10" t="s">
         <v>44</v>
@@ -14113,7 +14113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
         <v>263</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>114</v>
       </c>
       <c r="K264" s="69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L264" s="17" t="s">
         <v>17</v>
@@ -14155,7 +14155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
         <v>264</v>
       </c>
@@ -14185,10 +14185,10 @@
         <v>0</v>
       </c>
       <c r="J265" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="K265" s="69" t="s">
         <v>274</v>
-      </c>
-      <c r="K265" s="69" t="s">
-        <v>273</v>
       </c>
       <c r="L265" s="17" t="s">
         <v>17</v>
@@ -14230,7 +14230,7 @@
         <v>85</v>
       </c>
       <c r="K266" s="70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L266" s="17" t="s">
         <v>107</v>
@@ -14263,16 +14263,16 @@
         <v>14</v>
       </c>
       <c r="H267" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I267" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J267" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K267" s="67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L267" s="17" t="s">
         <v>17</v>
@@ -14305,13 +14305,13 @@
         <v>37</v>
       </c>
       <c r="H268" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I268" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J268" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K268" s="67" t="s">
         <v>281</v>
@@ -14347,13 +14347,13 @@
         <v>37</v>
       </c>
       <c r="H269" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I269" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J269" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K269" s="67" t="s">
         <v>281</v>
@@ -14389,13 +14389,13 @@
         <v>37</v>
       </c>
       <c r="H270" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I270" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J270" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K270" s="67" t="s">
         <v>281</v>
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K272" s="72" t="s">
         <v>287</v>
@@ -15016,10 +15016,10 @@
         <v>0</v>
       </c>
       <c r="J285" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K285" s="13" t="s">
         <v>305</v>
-      </c>
-      <c r="K285" s="13" t="s">
-        <v>306</v>
       </c>
       <c r="L285" s="10" t="s">
         <v>31</v>
@@ -15061,7 +15061,7 @@
         <v>235</v>
       </c>
       <c r="K286" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L286" s="10" t="s">
         <v>17</v>
@@ -15094,16 +15094,16 @@
         <v>17</v>
       </c>
       <c r="H287" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="I287" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="I287" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" s="19" t="s">
+      <c r="K287" s="30" t="s">
         <v>309</v>
-      </c>
-      <c r="K287" s="30" t="s">
-        <v>310</v>
       </c>
       <c r="L287" s="17" t="s">
         <v>17</v>
@@ -15136,7 +15136,7 @@
         <v>14</v>
       </c>
       <c r="H288" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I288" s="18" t="n">
         <v>0</v>
@@ -15145,7 +15145,7 @@
         <v>133</v>
       </c>
       <c r="K288" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L288" s="17" t="s">
         <v>107</v>
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="26" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K289" s="27" t="s">
         <v>313</v>
@@ -15304,16 +15304,16 @@
         <v>9</v>
       </c>
       <c r="H292" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I292" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="I292" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" s="26" t="s">
+      <c r="K292" s="27" t="s">
         <v>321</v>
-      </c>
-      <c r="K292" s="27" t="s">
-        <v>322</v>
       </c>
       <c r="L292" s="24" t="s">
         <v>31</v>
@@ -15346,16 +15346,16 @@
         <v>9</v>
       </c>
       <c r="H293" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="I293" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="I293" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" s="26" t="s">
+      <c r="K293" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="K293" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="L293" s="24" t="s">
         <v>31</v>
@@ -15397,7 +15397,7 @@
         <v>119</v>
       </c>
       <c r="K294" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L294" s="24" t="s">
         <v>35</v>
@@ -15430,16 +15430,16 @@
         <v>37</v>
       </c>
       <c r="H295" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I295" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="I295" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" s="26" t="s">
+      <c r="K295" s="27" t="s">
         <v>328</v>
-      </c>
-      <c r="K295" s="27" t="s">
-        <v>329</v>
       </c>
       <c r="L295" s="24" t="s">
         <v>44</v>
@@ -15481,7 +15481,7 @@
         <v>119</v>
       </c>
       <c r="K296" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L296" s="24" t="s">
         <v>35</v>
@@ -15514,7 +15514,7 @@
         <v>12</v>
       </c>
       <c r="H297" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I297" s="25" t="n">
         <v>0</v>
@@ -15523,7 +15523,7 @@
         <v>125</v>
       </c>
       <c r="K297" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L297" s="24" t="s">
         <v>35</v>
@@ -15556,16 +15556,16 @@
         <v>37</v>
       </c>
       <c r="H298" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I298" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="I298" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" s="26" t="s">
+      <c r="K298" s="27" t="s">
         <v>334</v>
-      </c>
-      <c r="K298" s="27" t="s">
-        <v>335</v>
       </c>
       <c r="L298" s="24" t="s">
         <v>44</v>
@@ -15607,7 +15607,7 @@
         <v>167</v>
       </c>
       <c r="K299" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L299" s="24" t="s">
         <v>31</v>
@@ -15640,16 +15640,16 @@
         <v>16</v>
       </c>
       <c r="H300" s="24" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I300" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J300" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K300" s="27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L300" s="24" t="s">
         <v>31</v>
@@ -15682,16 +15682,16 @@
         <v>14</v>
       </c>
       <c r="H301" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I301" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="K301" s="30" t="s">
         <v>339</v>
-      </c>
-      <c r="I301" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="K301" s="30" t="s">
-        <v>341</v>
       </c>
       <c r="L301" s="17" t="s">
         <v>107</v>
@@ -15724,7 +15724,7 @@
         <v>9</v>
       </c>
       <c r="H302" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I302" s="25" t="n">
         <v>0</v>
@@ -15733,7 +15733,7 @@
         <v>318</v>
       </c>
       <c r="K302" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L302" s="24" t="s">
         <v>31</v>
@@ -15766,16 +15766,16 @@
         <v>9</v>
       </c>
       <c r="H303" s="24" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I303" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J303" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K303" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L303" s="24" t="s">
         <v>31</v>
@@ -15808,7 +15808,7 @@
         <v>9</v>
       </c>
       <c r="H304" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I304" s="25" t="n">
         <v>0</v>
@@ -15817,7 +15817,7 @@
         <v>46</v>
       </c>
       <c r="K304" s="76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L304" s="24" t="s">
         <v>17</v>
@@ -15850,7 +15850,7 @@
         <v>12</v>
       </c>
       <c r="H305" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I305" s="25" t="n">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>119</v>
       </c>
       <c r="K305" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L305" s="24" t="s">
         <v>35</v>
@@ -15892,16 +15892,16 @@
         <v>11</v>
       </c>
       <c r="H306" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I306" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="K306" s="27" t="s">
         <v>350</v>
-      </c>
-      <c r="I306" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="K306" s="27" t="s">
-        <v>352</v>
       </c>
       <c r="L306" s="24" t="s">
         <v>35</v>
@@ -15934,7 +15934,7 @@
         <v>11</v>
       </c>
       <c r="H307" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I307" s="25" t="n">
         <v>0</v>
@@ -15943,7 +15943,7 @@
         <v>318</v>
       </c>
       <c r="K307" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L307" s="24" t="s">
         <v>35</v>
@@ -15976,7 +15976,7 @@
         <v>12</v>
       </c>
       <c r="H308" s="24" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="I308" s="25" t="n">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>125</v>
       </c>
       <c r="K308" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L308" s="24" t="s">
         <v>35</v>
@@ -16018,7 +16018,7 @@
         <v>37</v>
       </c>
       <c r="H309" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I309" s="25" t="n">
         <v>0</v>
@@ -16027,7 +16027,7 @@
         <v>46</v>
       </c>
       <c r="K309" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L309" s="24" t="s">
         <v>44</v>
@@ -16060,16 +16060,16 @@
         <v>16</v>
       </c>
       <c r="H310" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I310" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J310" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K310" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L310" s="24" t="s">
         <v>107</v>
@@ -16102,7 +16102,7 @@
         <v>16</v>
       </c>
       <c r="H311" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I311" s="25" t="n">
         <v>0</v>
@@ -16111,7 +16111,7 @@
         <v>167</v>
       </c>
       <c r="K311" s="27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L311" s="24" t="s">
         <v>107</v>
@@ -16144,16 +16144,16 @@
         <v>16</v>
       </c>
       <c r="H312" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I312" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J312" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K312" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L312" s="24" t="s">
         <v>107</v>
@@ -16186,16 +16186,16 @@
         <v>14</v>
       </c>
       <c r="H313" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="I313" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="K313" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="I313" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="K313" s="30" t="s">
-        <v>364</v>
       </c>
       <c r="L313" s="17" t="s">
         <v>107</v>
@@ -16228,16 +16228,16 @@
         <v>37</v>
       </c>
       <c r="H314" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I314" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J314" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K314" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L314" s="24" t="s">
         <v>44</v>
@@ -16270,7 +16270,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I315" s="18" t="n">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         <v>318</v>
       </c>
       <c r="K315" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L315" s="17" t="s">
         <v>107</v>
@@ -16312,7 +16312,7 @@
         <v>17</v>
       </c>
       <c r="H316" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I316" s="18" t="n">
         <v>0</v>
@@ -16321,7 +16321,7 @@
         <v>46</v>
       </c>
       <c r="K316" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L316" s="17" t="s">
         <v>35</v>
@@ -16363,7 +16363,7 @@
         <v>119</v>
       </c>
       <c r="K317" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L317" s="24" t="s">
         <v>35</v>
@@ -16396,7 +16396,7 @@
         <v>37</v>
       </c>
       <c r="H318" s="24" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I318" s="25" t="n">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         <v>114</v>
       </c>
       <c r="K318" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L318" s="24" t="s">
         <v>17</v>
@@ -16438,16 +16438,16 @@
         <v>37</v>
       </c>
       <c r="H319" s="24" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I319" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J319" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K319" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L319" s="24" t="s">
         <v>44</v>
@@ -16480,16 +16480,16 @@
         <v>17</v>
       </c>
       <c r="H320" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="I320" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="K320" s="30" t="s">
         <v>372</v>
-      </c>
-      <c r="I320" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="K320" s="30" t="s">
-        <v>374</v>
       </c>
       <c r="L320" s="17" t="s">
         <v>35</v>
@@ -16522,16 +16522,16 @@
         <v>17</v>
       </c>
       <c r="H321" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="I321" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="K321" s="30" t="s">
         <v>375</v>
-      </c>
-      <c r="I321" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K321" s="30" t="s">
-        <v>377</v>
       </c>
       <c r="L321" s="17" t="s">
         <v>35</v>
@@ -16564,16 +16564,16 @@
         <v>17</v>
       </c>
       <c r="H322" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I322" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J322" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K322" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L322" s="17" t="s">
         <v>35</v>
@@ -16606,7 +16606,7 @@
         <v>17</v>
       </c>
       <c r="H323" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I323" s="18" t="n">
         <v>0</v>
@@ -16615,7 +16615,7 @@
         <v>318</v>
       </c>
       <c r="K323" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L323" s="17" t="s">
         <v>35</v>
@@ -16648,16 +16648,16 @@
         <v>17</v>
       </c>
       <c r="H324" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I324" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J324" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K324" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L324" s="17" t="s">
         <v>44</v>
@@ -16690,7 +16690,7 @@
         <v>17</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I325" s="18" t="n">
         <v>0</v>
@@ -16699,7 +16699,7 @@
         <v>128</v>
       </c>
       <c r="K325" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L325" s="17" t="s">
         <v>31</v>
@@ -16732,16 +16732,16 @@
         <v>17</v>
       </c>
       <c r="H326" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I326" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J326" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K326" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L326" s="17" t="s">
         <v>31</v>
@@ -16781,7 +16781,7 @@
         <v>167</v>
       </c>
       <c r="K327" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L327" s="17" t="s">
         <v>31</v>
@@ -16821,7 +16821,7 @@
         <v>167</v>
       </c>
       <c r="K328" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L328" s="17" t="s">
         <v>31</v>
@@ -16860,10 +16860,10 @@
         <v>0</v>
       </c>
       <c r="J329" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K329" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L329" s="10" t="s">
         <v>17</v>
@@ -16896,7 +16896,7 @@
         <v>14</v>
       </c>
       <c r="H330" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I330" s="18" t="n">
         <v>0</v>
@@ -16905,7 +16905,7 @@
         <v>133</v>
       </c>
       <c r="K330" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L330" s="17" t="s">
         <v>107</v>
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="J331" s="26" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="K331" s="27" t="s">
         <v>313</v>
@@ -16980,7 +16980,7 @@
         <v>37</v>
       </c>
       <c r="H332" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I332" s="25" t="n">
         <v>0</v>
@@ -17022,13 +17022,13 @@
         <v>9</v>
       </c>
       <c r="H333" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I333" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J333" s="26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K333" s="27" t="s">
         <v>319</v>
@@ -17064,16 +17064,16 @@
         <v>9</v>
       </c>
       <c r="H334" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I334" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J334" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="K334" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="K334" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="L334" s="24" t="s">
         <v>31</v>
@@ -17106,16 +17106,16 @@
         <v>9</v>
       </c>
       <c r="H335" s="24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I335" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J335" s="26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K335" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L335" s="24" t="s">
         <v>31</v>
@@ -17157,7 +17157,7 @@
         <v>119</v>
       </c>
       <c r="K336" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L336" s="24" t="s">
         <v>35</v>
@@ -17190,16 +17190,16 @@
         <v>37</v>
       </c>
       <c r="H337" s="24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I337" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J337" s="26" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K337" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L337" s="24" t="s">
         <v>44</v>
@@ -17232,7 +17232,7 @@
         <v>11</v>
       </c>
       <c r="H338" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I338" s="25" t="n">
         <v>0</v>
@@ -17241,7 +17241,7 @@
         <v>119</v>
       </c>
       <c r="K338" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L338" s="24" t="s">
         <v>35</v>
@@ -17274,7 +17274,7 @@
         <v>12</v>
       </c>
       <c r="H339" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I339" s="25" t="n">
         <v>0</v>
@@ -17283,7 +17283,7 @@
         <v>127</v>
       </c>
       <c r="K339" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L339" s="24" t="s">
         <v>35</v>
@@ -17316,16 +17316,16 @@
         <v>37</v>
       </c>
       <c r="H340" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I340" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="I340" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" s="26" t="s">
-        <v>334</v>
-      </c>
       <c r="K340" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L340" s="24" t="s">
         <v>44</v>
@@ -17367,7 +17367,7 @@
         <v>167</v>
       </c>
       <c r="K341" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L341" s="24" t="s">
         <v>31</v>
@@ -17400,16 +17400,16 @@
         <v>16</v>
       </c>
       <c r="H342" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I342" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J342" s="26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K342" s="27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L342" s="24" t="s">
         <v>31</v>
@@ -17442,16 +17442,16 @@
         <v>14</v>
       </c>
       <c r="H343" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I343" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="K343" s="30" t="s">
         <v>339</v>
-      </c>
-      <c r="I343" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J343" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="K343" s="30" t="s">
-        <v>341</v>
       </c>
       <c r="L343" s="17" t="s">
         <v>107</v>
@@ -17484,16 +17484,16 @@
         <v>9</v>
       </c>
       <c r="H344" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I344" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J344" s="26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K344" s="27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L344" s="24" t="s">
         <v>31</v>
@@ -17526,16 +17526,16 @@
         <v>9</v>
       </c>
       <c r="H345" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I345" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J345" s="26" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K345" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L345" s="24" t="s">
         <v>31</v>
@@ -17568,7 +17568,7 @@
         <v>9</v>
       </c>
       <c r="H346" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I346" s="25" t="n">
         <v>0</v>
@@ -17577,7 +17577,7 @@
         <v>46</v>
       </c>
       <c r="K346" s="76" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L346" s="24" t="s">
         <v>17</v>
@@ -17610,7 +17610,7 @@
         <v>12</v>
       </c>
       <c r="H347" s="24" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I347" s="25" t="n">
         <v>0</v>
@@ -17619,7 +17619,7 @@
         <v>119</v>
       </c>
       <c r="K347" s="27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L347" s="24" t="s">
         <v>35</v>
@@ -17652,16 +17652,16 @@
         <v>11</v>
       </c>
       <c r="H348" s="24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I348" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J348" s="26" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K348" s="27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L348" s="24" t="s">
         <v>35</v>
@@ -17694,16 +17694,16 @@
         <v>11</v>
       </c>
       <c r="H349" s="24" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I349" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J349" s="26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K349" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L349" s="24" t="s">
         <v>35</v>
@@ -17736,7 +17736,7 @@
         <v>12</v>
       </c>
       <c r="H350" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I350" s="25" t="n">
         <v>0</v>
@@ -17745,7 +17745,7 @@
         <v>127</v>
       </c>
       <c r="K350" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L350" s="24" t="s">
         <v>35</v>
@@ -17778,7 +17778,7 @@
         <v>37</v>
       </c>
       <c r="H351" s="24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I351" s="25" t="n">
         <v>0</v>
@@ -17787,7 +17787,7 @@
         <v>46</v>
       </c>
       <c r="K351" s="27" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L351" s="24" t="s">
         <v>44</v>
@@ -17820,16 +17820,16 @@
         <v>16</v>
       </c>
       <c r="H352" s="24" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I352" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J352" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K352" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L352" s="24" t="s">
         <v>107</v>
@@ -17862,7 +17862,7 @@
         <v>16</v>
       </c>
       <c r="H353" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I353" s="25" t="n">
         <v>0</v>
@@ -17871,7 +17871,7 @@
         <v>167</v>
       </c>
       <c r="K353" s="27" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L353" s="24" t="s">
         <v>107</v>
@@ -17904,16 +17904,16 @@
         <v>16</v>
       </c>
       <c r="H354" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I354" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J354" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K354" s="27" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L354" s="24" t="s">
         <v>107</v>
@@ -17946,16 +17946,16 @@
         <v>14</v>
       </c>
       <c r="H355" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="I355" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="K355" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="I355" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="K355" s="30" t="s">
-        <v>364</v>
       </c>
       <c r="L355" s="17" t="s">
         <v>107</v>
@@ -17988,16 +17988,16 @@
         <v>37</v>
       </c>
       <c r="H356" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I356" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J356" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K356" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L356" s="24" t="s">
         <v>44</v>
@@ -18030,16 +18030,16 @@
         <v>14</v>
       </c>
       <c r="H357" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I357" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J357" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K357" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L357" s="17" t="s">
         <v>107</v>
@@ -18072,7 +18072,7 @@
         <v>17</v>
       </c>
       <c r="H358" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I358" s="18" t="n">
         <v>0</v>
@@ -18081,7 +18081,7 @@
         <v>46</v>
       </c>
       <c r="K358" s="30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L358" s="17" t="s">
         <v>35</v>
@@ -18114,7 +18114,7 @@
         <v>11</v>
       </c>
       <c r="H359" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I359" s="25" t="n">
         <v>0</v>
@@ -18123,7 +18123,7 @@
         <v>119</v>
       </c>
       <c r="K359" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L359" s="24" t="s">
         <v>35</v>
@@ -18156,16 +18156,16 @@
         <v>37</v>
       </c>
       <c r="H360" s="24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I360" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J360" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K360" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L360" s="24" t="s">
         <v>17</v>
@@ -18198,16 +18198,16 @@
         <v>37</v>
       </c>
       <c r="H361" s="24" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I361" s="25" t="n">
         <v>0</v>
       </c>
       <c r="J361" s="26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K361" s="27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L361" s="24" t="s">
         <v>44</v>
@@ -18240,16 +18240,16 @@
         <v>17</v>
       </c>
       <c r="H362" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="I362" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="K362" s="30" t="s">
         <v>372</v>
-      </c>
-      <c r="I362" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J362" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="K362" s="30" t="s">
-        <v>374</v>
       </c>
       <c r="L362" s="17" t="s">
         <v>35</v>
@@ -18282,16 +18282,16 @@
         <v>17</v>
       </c>
       <c r="H363" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="I363" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="K363" s="30" t="s">
         <v>375</v>
-      </c>
-      <c r="I363" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J363" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="K363" s="30" t="s">
-        <v>377</v>
       </c>
       <c r="L363" s="17" t="s">
         <v>35</v>
@@ -18324,16 +18324,16 @@
         <v>17</v>
       </c>
       <c r="H364" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I364" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J364" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K364" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L364" s="17" t="s">
         <v>35</v>
@@ -18366,16 +18366,16 @@
         <v>17</v>
       </c>
       <c r="H365" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I365" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J365" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K365" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L365" s="17" t="s">
         <v>35</v>
@@ -18408,16 +18408,16 @@
         <v>17</v>
       </c>
       <c r="H366" s="17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I366" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J366" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K366" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L366" s="17" t="s">
         <v>44</v>
@@ -18450,7 +18450,7 @@
         <v>17</v>
       </c>
       <c r="H367" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I367" s="18" t="n">
         <v>0</v>
@@ -18459,7 +18459,7 @@
         <v>128</v>
       </c>
       <c r="K367" s="30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L367" s="17" t="s">
         <v>31</v>
@@ -18492,16 +18492,16 @@
         <v>17</v>
       </c>
       <c r="H368" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I368" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J368" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K368" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L368" s="17" t="s">
         <v>31</v>
@@ -18541,7 +18541,7 @@
         <v>167</v>
       </c>
       <c r="K369" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L369" s="17" t="s">
         <v>31</v>
@@ -18581,7 +18581,7 @@
         <v>167</v>
       </c>
       <c r="K370" s="30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L370" s="17" t="s">
         <v>31</v>
@@ -18614,7 +18614,7 @@
         <v>9</v>
       </c>
       <c r="H371" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I371" s="11" t="n">
         <v>0</v>
@@ -18623,7 +18623,7 @@
         <v>100</v>
       </c>
       <c r="K371" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L371" s="10" t="s">
         <v>107</v>
@@ -18656,16 +18656,16 @@
         <v>14</v>
       </c>
       <c r="H372" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I372" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J372" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K372" s="30" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L372" s="17" t="s">
         <v>107</v>
@@ -18698,16 +18698,16 @@
         <v>14</v>
       </c>
       <c r="H373" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I373" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J373" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K373" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L373" s="17" t="s">
         <v>107</v>
@@ -18740,16 +18740,16 @@
         <v>17</v>
       </c>
       <c r="H374" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I374" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J374" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K374" s="30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L374" s="17" t="s">
         <v>35</v>
@@ -18782,16 +18782,16 @@
         <v>17</v>
       </c>
       <c r="H375" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I375" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J375" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K375" s="30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L375" s="17" t="s">
         <v>35</v>
@@ -18824,16 +18824,16 @@
         <v>17</v>
       </c>
       <c r="H376" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I376" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J376" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K376" s="30" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L376" s="17" t="s">
         <v>35</v>
@@ -18866,16 +18866,16 @@
         <v>17</v>
       </c>
       <c r="H377" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I377" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J377" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K377" s="30" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L377" s="17" t="s">
         <v>35</v>
@@ -18917,7 +18917,7 @@
         <v>262</v>
       </c>
       <c r="K378" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L378" s="10" t="s">
         <v>17</v>
@@ -18956,10 +18956,10 @@
         <v>0</v>
       </c>
       <c r="J379" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K379" s="30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L379" s="17" t="s">
         <v>107</v>
@@ -18992,16 +18992,16 @@
         <v>17</v>
       </c>
       <c r="H380" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I380" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J380" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K380" s="30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L380" s="17" t="s">
         <v>44</v>
@@ -19034,16 +19034,16 @@
         <v>17</v>
       </c>
       <c r="H381" s="17" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I381" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J381" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K381" s="30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L381" s="17" t="s">
         <v>44</v>
@@ -19076,16 +19076,16 @@
         <v>17</v>
       </c>
       <c r="H382" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I382" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J382" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K382" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L382" s="17" t="s">
         <v>44</v>
@@ -19118,16 +19118,16 @@
         <v>17</v>
       </c>
       <c r="H383" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I383" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J383" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K383" s="30" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L383" s="17" t="s">
         <v>44</v>
@@ -19169,7 +19169,7 @@
         <v>112</v>
       </c>
       <c r="K384" s="30" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L384" s="17" t="s">
         <v>44</v>
@@ -19202,16 +19202,16 @@
         <v>17</v>
       </c>
       <c r="H385" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I385" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J385" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K385" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L385" s="17" t="s">
         <v>44</v>
@@ -19244,16 +19244,16 @@
         <v>17</v>
       </c>
       <c r="H386" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I386" s="18" t="n">
         <v>0</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K386" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L386" s="17" t="s">
         <v>44</v>
@@ -19286,7 +19286,7 @@
         <v>14</v>
       </c>
       <c r="H387" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I387" s="18" t="n">
         <v>0</v>
@@ -19295,7 +19295,7 @@
         <v>167</v>
       </c>
       <c r="K387" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L387" s="17" t="s">
         <v>31</v>
@@ -19328,7 +19328,7 @@
         <v>37</v>
       </c>
       <c r="H388" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I388" s="11" t="n">
         <v>0</v>
@@ -19337,7 +19337,7 @@
         <v>57</v>
       </c>
       <c r="K388" s="13" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L388" s="10" t="s">
         <v>44</v>
@@ -19379,7 +19379,7 @@
         <v>114</v>
       </c>
       <c r="K389" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L389" s="10" t="s">
         <v>44</v>
@@ -19418,10 +19418,10 @@
         <v>0</v>
       </c>
       <c r="J390" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K390" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L390" s="10" t="s">
         <v>44</v>
@@ -19454,7 +19454,7 @@
         <v>12</v>
       </c>
       <c r="H391" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I391" s="11" t="n">
         <v>0</v>
@@ -19463,7 +19463,7 @@
         <v>119</v>
       </c>
       <c r="K391" s="13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L391" s="10" t="s">
         <v>35</v>
@@ -19496,7 +19496,7 @@
         <v>11</v>
       </c>
       <c r="H392" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I392" s="11" t="n">
         <v>0</v>
@@ -19505,7 +19505,7 @@
         <v>119</v>
       </c>
       <c r="K392" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L392" s="10" t="s">
         <v>35</v>
@@ -19538,19 +19538,19 @@
         <v>9</v>
       </c>
       <c r="H393" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="I393" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="K393" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="L393" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="I393" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J393" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="K393" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="L393" s="10" t="s">
-        <v>449</v>
       </c>
       <c r="M393" s="14" t="s">
         <v>62</v>
@@ -19580,16 +19580,16 @@
         <v>15</v>
       </c>
       <c r="H394" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I394" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J394" s="12" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K394" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L394" s="10" t="s">
         <v>44</v>
@@ -19622,16 +19622,16 @@
         <v>15</v>
       </c>
       <c r="H395" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I395" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J395" s="12" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K395" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L395" s="10" t="s">
         <v>44</v>
@@ -19664,7 +19664,7 @@
         <v>16</v>
       </c>
       <c r="H396" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I396" s="11" t="n">
         <v>0</v>
@@ -19673,7 +19673,7 @@
         <v>128</v>
       </c>
       <c r="K396" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L396" s="10" t="s">
         <v>31</v>
@@ -19706,16 +19706,16 @@
         <v>15</v>
       </c>
       <c r="H397" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I397" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J397" s="12" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K397" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L397" s="10" t="s">
         <v>44</v>
@@ -19753,10 +19753,10 @@
         <v>0</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K398" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L398" s="3" t="s">
         <v>107</v>
@@ -19794,10 +19794,10 @@
         <v>0</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K399" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L399" s="3" t="s">
         <v>107</v>
@@ -19829,16 +19829,16 @@
         <v>17</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I400" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K400" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L400" s="3" t="s">
         <v>107</v>
@@ -19870,16 +19870,16 @@
         <v>15</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I401" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K401" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L401" s="3" t="s">
         <v>107</v>
@@ -19917,10 +19917,10 @@
         <v>0</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K402" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L402" s="3" t="s">
         <v>17</v>
@@ -19929,7 +19929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
         <v>402</v>
       </c>
@@ -19952,16 +19952,16 @@
         <v>11</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I403" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K403" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L403" s="3" t="s">
         <v>107</v>
@@ -19993,16 +19993,16 @@
         <v>11</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I404" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K404" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L404" s="3" t="s">
         <v>107</v>
@@ -20034,16 +20034,16 @@
         <v>11</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I405" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K405" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L405" s="3" t="s">
         <v>17</v>
@@ -20075,19 +20075,19 @@
         <v>10</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I406" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K406" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L406" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M406" s="3" t="s">
         <v>55</v>
@@ -20116,19 +20116,19 @@
         <v>10</v>
       </c>
       <c r="H407" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I407" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K407" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="I407" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J407" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="K407" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="L407" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M407" s="3" t="s">
         <v>55</v>
@@ -20157,7 +20157,7 @@
         <v>10</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I408" s="4" t="n">
         <v>0</v>
@@ -20166,10 +20166,10 @@
         <v>477</v>
       </c>
       <c r="K408" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L408" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M408" s="3" t="s">
         <v>55</v>
@@ -20198,7 +20198,7 @@
         <v>10</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I409" s="4" t="n">
         <v>0</v>
@@ -20207,10 +20207,10 @@
         <v>477</v>
       </c>
       <c r="K409" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L409" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M409" s="3" t="s">
         <v>55</v>
@@ -20239,19 +20239,19 @@
         <v>17</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I410" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J410" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K410" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L410" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M410" s="3" t="s">
         <v>55</v>
@@ -20281,7 +20281,7 @@
         <v>37</v>
       </c>
       <c r="H411" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I411" s="11" t="n">
         <v>0</v>
@@ -20290,7 +20290,7 @@
         <v>167</v>
       </c>
       <c r="K411" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L411" s="10" t="s">
         <v>31</v>
@@ -20323,16 +20323,16 @@
         <v>37</v>
       </c>
       <c r="H412" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="I412" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K412" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="I412" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J412" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="K412" s="13" t="s">
-        <v>486</v>
       </c>
       <c r="L412" s="10" t="s">
         <v>31</v>
@@ -20365,16 +20365,16 @@
         <v>37</v>
       </c>
       <c r="H413" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I413" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="K413" s="13" t="s">
         <v>487</v>
-      </c>
-      <c r="I413" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J413" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="K413" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="L413" s="10" t="s">
         <v>17</v>
@@ -20416,10 +20416,10 @@
         <v>0</v>
       </c>
       <c r="J414" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K414" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L414" s="17" t="s">
         <v>17</v>
@@ -20461,10 +20461,10 @@
         <v>0</v>
       </c>
       <c r="J415" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K415" s="30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L415" s="17" t="s">
         <v>17</v>
@@ -20506,10 +20506,10 @@
         <v>0</v>
       </c>
       <c r="J416" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K416" s="30" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L416" s="17" t="s">
         <v>17</v>
@@ -20554,7 +20554,7 @@
         <v>262</v>
       </c>
       <c r="K417" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L417" s="17" t="s">
         <v>31</v>
@@ -20599,7 +20599,7 @@
         <v>112</v>
       </c>
       <c r="K418" s="30" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L418" s="17" t="s">
         <v>31</v>
@@ -20632,7 +20632,7 @@
         <v>37</v>
       </c>
       <c r="H419" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I419" s="11" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>114</v>
       </c>
       <c r="K419" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L419" s="10" t="s">
         <v>31</v>
@@ -20674,16 +20674,16 @@
         <v>37</v>
       </c>
       <c r="H420" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I420" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J420" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K420" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L420" s="10" t="s">
         <v>31</v>
@@ -20716,16 +20716,16 @@
         <v>37</v>
       </c>
       <c r="H421" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="I421" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K421" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="I421" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J421" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="K421" s="13" t="s">
-        <v>486</v>
       </c>
       <c r="L421" s="10" t="s">
         <v>31</v>
@@ -20757,19 +20757,19 @@
         <v>10</v>
       </c>
       <c r="H422" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="I422" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J422" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="K422" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I422" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J422" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="K422" s="6" t="s">
-        <v>498</v>
-      </c>
       <c r="L422" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M422" s="3" t="s">
         <v>18</v>
@@ -20800,14 +20800,14 @@
         <v>29</v>
       </c>
       <c r="H423" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I423" s="11"/>
       <c r="J423" s="12" t="s">
         <v>167</v>
       </c>
       <c r="K423" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L423" s="10" t="s">
         <v>44</v>
@@ -20845,10 +20845,10 @@
       </c>
       <c r="I424" s="11"/>
       <c r="J424" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K424" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L424" s="10" t="s">
         <v>44</v>
@@ -20882,16 +20882,16 @@
         <v>22</v>
       </c>
       <c r="H425" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I425" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J425" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K425" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L425" s="10" t="s">
         <v>31</v>
@@ -20925,16 +20925,16 @@
         <v>22</v>
       </c>
       <c r="H426" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I426" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J426" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K426" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L426" s="10" t="s">
         <v>17</v>
@@ -20966,19 +20966,19 @@
         <v>10</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I427" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J427" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K427" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L427" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M427" s="3" t="s">
         <v>18</v>
@@ -21009,14 +21009,14 @@
         <v>29</v>
       </c>
       <c r="H428" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I428" s="11"/>
       <c r="J428" s="12" t="s">
         <v>167</v>
       </c>
       <c r="K428" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L428" s="10" t="s">
         <v>44</v>
@@ -21054,10 +21054,10 @@
       </c>
       <c r="I429" s="11"/>
       <c r="J429" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K429" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L429" s="10" t="s">
         <v>44</v>
@@ -21091,16 +21091,16 @@
         <v>22</v>
       </c>
       <c r="H430" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I430" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J430" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K430" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L430" s="10" t="s">
         <v>31</v>
@@ -21134,16 +21134,16 @@
         <v>22</v>
       </c>
       <c r="H431" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I431" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J431" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K431" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L431" s="10" t="s">
         <v>17</v>
@@ -21175,19 +21175,19 @@
         <v>10</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I432" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J432" s="5" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="K432" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L432" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M432" s="3" t="s">
         <v>62</v>
@@ -21224,10 +21224,10 @@
         <v>0</v>
       </c>
       <c r="J433" s="12" t="s">
-        <v>502</v>
+        <v>167</v>
       </c>
       <c r="K433" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L433" s="10" t="s">
         <v>31</v>
@@ -21261,16 +21261,16 @@
         <v>29</v>
       </c>
       <c r="H434" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I434" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J434" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K434" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L434" s="10" t="s">
         <v>17</v>
@@ -21302,19 +21302,19 @@
         <v>10</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I435" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J435" s="5" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="K435" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L435" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M435" s="3" t="s">
         <v>62</v>
@@ -21351,10 +21351,10 @@
         <v>0</v>
       </c>
       <c r="J436" s="12" t="s">
-        <v>502</v>
+        <v>167</v>
       </c>
       <c r="K436" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L436" s="10" t="s">
         <v>31</v>
@@ -21388,16 +21388,16 @@
         <v>29</v>
       </c>
       <c r="H437" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I437" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J437" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K437" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L437" s="10" t="s">
         <v>17</v>
@@ -21429,16 +21429,16 @@
         <v>32</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="I438" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J438" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K438" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L438" s="3" t="s">
         <v>44</v>
@@ -21470,19 +21470,19 @@
         <v>10</v>
       </c>
       <c r="H439" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I439" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J439" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="K439" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="I439" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J439" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K439" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="L439" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M439" s="3" t="s">
         <v>62</v>
@@ -21519,10 +21519,10 @@
         <v>0</v>
       </c>
       <c r="J440" s="12" t="s">
-        <v>502</v>
+        <v>167</v>
       </c>
       <c r="K440" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L440" s="10" t="s">
         <v>31</v>
@@ -21554,19 +21554,19 @@
         <v>10</v>
       </c>
       <c r="H441" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I441" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="K441" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="I441" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J441" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K441" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="L441" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M441" s="3" t="s">
         <v>62</v>
@@ -21603,10 +21603,10 @@
         <v>0</v>
       </c>
       <c r="J442" s="12" t="s">
-        <v>502</v>
+        <v>167</v>
       </c>
       <c r="K442" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L442" s="10" t="s">
         <v>31</v>
@@ -21615,7 +21615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
         <v>442</v>
       </c>
@@ -21632,19 +21632,19 @@
         <v>22</v>
       </c>
       <c r="F443" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G443" s="3" t="n">
         <v>37</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I443" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J443" s="5" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="K443" s="6" t="s">
         <v>517</v>
@@ -21782,7 +21782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="n">
         <v>446</v>
       </c>
@@ -21799,19 +21799,19 @@
         <v>31</v>
       </c>
       <c r="F447" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G447" s="3" t="n">
         <v>37</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I447" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J447" s="5" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="K447" s="6" t="s">
         <v>525</v>
@@ -22046,7 +22046,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K2" s="79" t="s">
         <v>526</v>
@@ -22088,7 +22088,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K3" s="79" t="s">
         <v>527</v>
@@ -22129,7 +22129,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K4" s="79" t="s">
         <v>528</v>
@@ -22170,7 +22170,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K5" s="79" t="s">
         <v>528</v>
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>119</v>
+        <v>549</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="10" t="s">
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="3" t="s">
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="3" t="s">
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="3" t="s">
@@ -23224,13 +23224,13 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="3" t="s">
@@ -23263,13 +23263,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3" t="s">
@@ -23302,13 +23302,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
@@ -23341,13 +23341,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="3" t="s">
@@ -23419,13 +23419,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3" t="s">
@@ -23458,13 +23458,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3" t="s">
@@ -23497,13 +23497,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="3" t="s">
@@ -23536,13 +23536,13 @@
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="3" t="s">

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4308" uniqueCount="938">
   <si>
     <t>bidId</t>
   </si>
@@ -494,7 +494,7 @@
     </r>
   </si>
   <si>
-    <t>4 kier i 5+ kar</t>
+    <t>4 kier i 5+ karo</t>
   </si>
   <si>
     <t>kolor karo</t>
@@ -1370,9 +1370,6 @@
 &lt;br&gt;  → 4 kiery wykluczone  (5 możliwe) -  nie wyklucza młodszej piątki przy sile poniżej 11PC - przy dwóch starszych zgłaszam dłuższy - przy dwóch czwórkach kierową,  przy dwóch piątkach pikową :)</t>
   </si>
   <si>
-    <t>4 kier i 5+ karo</t>
-  </si>
-  <si>
     <t>2kier brak 4 trefl</t>
   </si>
   <si>
@@ -1600,7 +1597,7 @@
     <t>18+ PC piątka pików</t>
   </si>
   <si>
-    <t>7+ trefli</t>
+    <t>7+ trefl</t>
   </si>
   <si>
     <r>
@@ -1617,7 +1614,7 @@
     </r>
   </si>
   <si>
-    <t>7+ kar</t>
+    <t>7+ karo</t>
   </si>
   <si>
     <r>
@@ -1678,6 +1675,9 @@
   </si>
   <si>
     <t>3BA 13-16 PC, bez starszej czwórki i młodszej piątki, nie forsuje – kontrakt (kiepski pomysł bo może blokować)</t>
+  </si>
+  <si>
+    <t>(4)5+ karo</t>
   </si>
   <si>
     <t>Naturalne 1 karo</t>
@@ -1971,7 +1971,7 @@
     <t>4+kier, 4+karo</t>
   </si>
   <si>
-    <t>3kier 3pik 15-17 PC (licytowany)   4+ kier pik, 4+ karo ;  </t>
+    <t>3kier 3pik 15-17 PC (licytowany)   4+ kier pik, 4+ karo ;</t>
   </si>
   <si>
     <t>5 karo  4 kier i krotkość w pik</t>
@@ -2076,13 +2076,13 @@
     <t>4+pik, 4+karo</t>
   </si>
   <si>
-    <t>15-17 PC (licytowany)   4+ pik, 4+ karo ; </t>
+    <t>15-17 PC (licytowany)   4+ pik, 4+ karo ;</t>
   </si>
   <si>
     <t>5+ karo  4+ kier   i krótkość w pik</t>
   </si>
   <si>
-    <t> 15-17 PC (licytowany)  REWERS(po przeciwnym) 4 fit w kolorze odpowiadającego,  5 kar  oraz krótkość w zgłaszanym starszym SPLINTER</t>
+    <t>15-17 PC (licytowany)  REWERS(po przeciwnym) 4 fit w kolorze odpowiadającego,  5 kar  oraz krótkość w zgłaszanym starszym SPLINTER</t>
   </si>
   <si>
     <t>kontrakt do gry na pełnych karach (ale lepiej grać bez atu)</t>
@@ -2124,7 +2124,7 @@
     <t>4 pik 5+karo</t>
   </si>
   <si>
-    <t>5+ karo i  5+ trefl </t>
+    <t>5+ karo i  5+ trefl</t>
   </si>
   <si>
     <t>15-17 PC, układ 5+-5+ na kolorach młodszych</t>
@@ -2708,7 +2708,7 @@
     <t>4trefl Gerber  pytanie o asy bez  uzgodnionego koloru</t>
   </si>
   <si>
-    <t>6+ trefli lub 5+ trefl i 4 kier/pik</t>
+    <t>6+ trefl  lub 5+ trefl i 4 kier/pik</t>
   </si>
   <si>
     <t>PRESSISION</t>
@@ -2951,7 +2951,7 @@
     <t>3NT 13-15 PC, do gry (nieforsująca)</t>
   </si>
   <si>
-    <t>6+ st</t>
+    <t>6+ kier / pik</t>
   </si>
   <si>
     <t>MULTI</t>
@@ -3059,7 +3059,7 @@
     <t>swój kolor naturalny  Powtórze­nie swojego koloru jest forsujące.</t>
   </si>
   <si>
-    <t>pełny młodszy?</t>
+    <t>Trefl / karo</t>
   </si>
   <si>
     <t>pełny młodszy???</t>
@@ -3221,19 +3221,16 @@
     <t>2BA DWUKOLORÓWNA NA MŁODSZYCH  7-10(11) PC,  dwie młodsze piątki</t>
   </si>
   <si>
-    <t>fit w treflach</t>
-  </si>
-  <si>
-    <t>słabe trefle</t>
-  </si>
-  <si>
-    <t>sing off</t>
-  </si>
-  <si>
-    <t>fit w karo</t>
-  </si>
-  <si>
-    <t>słabe kara</t>
+    <t>Fit 3+  tref</t>
+  </si>
+  <si>
+    <t>słaby lepszy młodszy</t>
+  </si>
+  <si>
+    <t>sing off – kolor (lepszy z młodszych)  do gry</t>
+  </si>
+  <si>
+    <t>Fit 3+  karo</t>
   </si>
   <si>
     <t>Pytanie o układ</t>
@@ -3310,40 +3307,55 @@
     </r>
   </si>
   <si>
-    <t>Odpowiedź  dubel pik</t>
+    <t>Odpowiedź: 2 pik</t>
+  </si>
+  <si>
+    <t>Odpowiedź: układ 5-5 w młodszych i   dubel kier i singiel pik (inne układy w innych odzywkach)</t>
   </si>
   <si>
     <t>2 kier</t>
   </si>
   <si>
-    <t>odpowiedź duble kier</t>
+    <t>Odpowiedź: 2 kier</t>
+  </si>
+  <si>
+    <t>Odpowiedź: układ 5-5 w młodszych i   dubel pik (i singiel kier – inne układy w innych odzywkach)  - nie forsuje bo się sprzedało dokładnie co się ma – decyduje pytający o układ </t>
   </si>
   <si>
     <t>6 trefl</t>
   </si>
   <si>
-    <t>odpowiedź 6 refli</t>
-  </si>
-  <si>
-    <t>Odpowiedź 6 kar</t>
-  </si>
-  <si>
-    <t>odpowiedź trzy kiery</t>
-  </si>
-  <si>
-    <t>Odpowiedź 3 piki</t>
-  </si>
-  <si>
-    <t>samodzielne piki;</t>
+    <t>Odpowiedź: 6+ trefl</t>
+  </si>
+  <si>
+    <t>Odpowiedź: układ 5 karo – 6 trefl – dłuższy młodszy kolor – forsuje</t>
+  </si>
+  <si>
+    <t>Odpowiedź: 6+ karo</t>
+  </si>
+  <si>
+    <t>Odpowiedź: układ 6 karo –  5 trefli    dłuższy młodszy kolor – forsuje</t>
+  </si>
+  <si>
+    <t>Odpowiedź: 3 kier</t>
+  </si>
+  <si>
+    <t>Odpowiedź: układ 5-5 w młodszych i dokładnie  trzy kier (renons w pik)  -potencjalny fit do pytającego o układ – wszystko wyprzedane</t>
+  </si>
+  <si>
+    <t>Odpowiedź: 3 pik</t>
+  </si>
+  <si>
+    <t>Odpowiedź: 5-5 w młodszych i dokładnie  3 pik (renons w pik)  -potencjalny fit do pytającego o układ – wszystko wyprzedane</t>
+  </si>
+  <si>
+    <t>samodzielne piki, raczej forsuje?? </t>
   </si>
   <si>
     <t>zatrzymania w starszych</t>
   </si>
   <si>
-    <t>z bilansu</t>
-  </si>
-  <si>
-    <t>sign-off;</t>
+    <t>z bilansu końcówka 3 BA, konieczne zatrzymania w obu starszych kolorach</t>
   </si>
   <si>
     <t>Lepszy kolor młodszy</t>
@@ -3363,16 +3375,10 @@
     </r>
   </si>
   <si>
-    <t>7+ trefl</t>
-  </si>
-  <si>
     <t>Dobry 7(8) kart</t>
   </si>
   <si>
     <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry) Otwarcia są naturalne. Po partii ozna­czają kolor siedmiokartowy, a przed partią 3 w kolor młodszy może być oparte na  kolorze sześciokartowym. Siła otwar­cia  zależy od stylu gracza i ustaleń w pa­rze. W przypadku braku takowych pro­ponuję stosować metodę 4-3-2-2. (**) Ozna­cza ona, że do zapowiedzianego kon­traktu brakuje nam „na ręku": czterech lew, jeśli jesteśmy w założeniach ko­rzystnych, trzech lew w założeniach przedpartyjnych, dwóch lew jeśli jeste­śmy po partii.</t>
-  </si>
-  <si>
-    <t>7+ karo</t>
   </si>
   <si>
     <t>(blokujące) (5)6-10 PC,  dobry licytowany kolor   7+ (przed partią może być dobre 6); w młodszym chętnie 8+ (lub dobry)Otwarcia są naturalne. Po partii ozna­czają kolor siedmiokartowy, a przed partią 3 w kolor młodszy może być oparte na  kolorze sześciokartowym. Siła otwar­cia  zależy od stylu gracza i ustaleń w pa­rze. W przypadku braku takowych pro­ponuję stosować metodę 4-3-2-2. (**) Ozna­cza ona, że do zapowiedzianego kon­traktu brakuje nam „na ręku": czterech lew, jeśli jesteśmy w założeniach ko­rzystnych, trzech lew w założeniach przedpartyjnych, dwóch lew jeśli jeste­śmy po partii.</t>
@@ -3553,7 +3559,7 @@
     <t>końcówka 5 karol</t>
   </si>
   <si>
-    <t>Kompletne kier bez A i K</t>
+    <t>Pełne kier bez A i K</t>
   </si>
   <si>
     <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) -Otwarcie 5kier raczej nie stosowane przez początkujących brydżystów.</t>
@@ -3577,7 +3583,7 @@
     <t>7kier/pik– jest  As i Król w kolorze</t>
   </si>
   <si>
-    <t>Kompletne pik bez A i K</t>
+    <t>Pełne pik bez A i K</t>
   </si>
   <si>
     <t>kompletna ręka w kolorze licytowanym BEZ Asa i Króla &lt;font color=red&gt; [chyba to znaczy wszystkie zatrzymania i 7+ kartowy kolor (11 lew) Otwarcia 5pik raczej nie stosowane przez początkujących brydżystów.</t>
@@ -4286,12 +4292,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N685"/>
+  <dimension ref="A1:N687"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A634" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A470" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A644" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A634" activeCellId="0" sqref="A634"/>
-      <selection pane="bottomLeft" activeCell="J372" activeCellId="0" sqref="J372"/>
+      <selection pane="bottomLeft" activeCell="H638" activeCellId="0" sqref="H638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11088,7 +11094,7 @@
         <v>10</v>
       </c>
       <c r="H151" s="26" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="I151" s="27" t="n">
         <v>0</v>
@@ -12213,7 +12219,7 @@
         <v>15</v>
       </c>
       <c r="H176" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I176" s="36" t="n">
         <v>0</v>
@@ -12393,7 +12399,7 @@
         <v>15</v>
       </c>
       <c r="H180" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I180" s="36" t="n">
         <v>0</v>
@@ -13710,7 +13716,7 @@
         <v>133</v>
       </c>
       <c r="K209" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L209" s="26" t="s">
         <v>44</v>
@@ -13755,7 +13761,7 @@
         <v>133</v>
       </c>
       <c r="K210" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L210" s="26" t="s">
         <v>44</v>
@@ -13800,7 +13806,7 @@
         <v>202</v>
       </c>
       <c r="K211" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L211" s="26" t="s">
         <v>35</v>
@@ -14025,7 +14031,7 @@
         <v>142</v>
       </c>
       <c r="K216" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L216" s="26" t="s">
         <v>30</v>
@@ -14070,7 +14076,7 @@
         <v>144</v>
       </c>
       <c r="K217" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L217" s="26" t="s">
         <v>30</v>
@@ -14115,7 +14121,7 @@
         <v>213</v>
       </c>
       <c r="K218" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L218" s="19" t="s">
         <v>81</v>
@@ -14160,7 +14166,7 @@
         <v>216</v>
       </c>
       <c r="K219" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L219" s="26" t="s">
         <v>44</v>
@@ -14205,7 +14211,7 @@
         <v>125</v>
       </c>
       <c r="K220" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L220" s="26" t="s">
         <v>81</v>
@@ -14250,7 +14256,7 @@
         <v>47</v>
       </c>
       <c r="K221" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L221" s="26" t="s">
         <v>18</v>
@@ -14340,7 +14346,7 @@
         <v>216</v>
       </c>
       <c r="K223" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L223" s="26" t="s">
         <v>77</v>
@@ -14385,7 +14391,7 @@
         <v>125</v>
       </c>
       <c r="K224" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L224" s="26" t="s">
         <v>44</v>
@@ -14430,7 +14436,7 @@
         <v>137</v>
       </c>
       <c r="K225" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L225" s="26" t="s">
         <v>35</v>
@@ -14520,7 +14526,7 @@
         <v>233</v>
       </c>
       <c r="K227" s="65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L227" s="19" t="s">
         <v>18</v>
@@ -14565,7 +14571,7 @@
         <v>236</v>
       </c>
       <c r="K228" s="64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L228" s="26" t="s">
         <v>18</v>
@@ -14610,7 +14616,7 @@
         <v>236</v>
       </c>
       <c r="K229" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L229" s="26" t="s">
         <v>18</v>
@@ -14700,7 +14706,7 @@
         <v>236</v>
       </c>
       <c r="K231" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L231" s="26" t="s">
         <v>18</v>
@@ -14745,7 +14751,7 @@
         <v>236</v>
       </c>
       <c r="K232" s="67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L232" s="26" t="s">
         <v>18</v>
@@ -14790,7 +14796,7 @@
         <v>236</v>
       </c>
       <c r="K233" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L233" s="26" t="s">
         <v>18</v>
@@ -14835,7 +14841,7 @@
         <v>236</v>
       </c>
       <c r="K234" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L234" s="26" t="s">
         <v>18</v>
@@ -14970,7 +14976,7 @@
         <v>252</v>
       </c>
       <c r="K237" s="68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L237" s="19" t="s">
         <v>44</v>
@@ -15015,7 +15021,7 @@
         <v>252</v>
       </c>
       <c r="K238" s="68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L238" s="19" t="s">
         <v>44</v>
@@ -15060,7 +15066,7 @@
         <v>255</v>
       </c>
       <c r="K239" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L239" s="19" t="s">
         <v>35</v>
@@ -15240,7 +15246,7 @@
         <v>142</v>
       </c>
       <c r="K243" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L243" s="19" t="s">
         <v>30</v>
@@ -15285,7 +15291,7 @@
         <v>144</v>
       </c>
       <c r="K244" s="69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L244" s="19" t="s">
         <v>30</v>
@@ -15329,7 +15335,7 @@
         <v>111</v>
       </c>
       <c r="K245" s="70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L245" s="12" t="s">
         <v>81</v>
@@ -15365,16 +15371,16 @@
         <v>14</v>
       </c>
       <c r="H246" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I246" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I246" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" s="21" t="s">
+      <c r="K246" s="71" t="s">
         <v>293</v>
-      </c>
-      <c r="K246" s="71" t="s">
-        <v>294</v>
       </c>
       <c r="L246" s="19" t="s">
         <v>30</v>
@@ -15416,10 +15422,10 @@
         <v>0</v>
       </c>
       <c r="J247" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K247" s="72" t="s">
         <v>295</v>
-      </c>
-      <c r="K247" s="72" t="s">
-        <v>296</v>
       </c>
       <c r="L247" s="19" t="s">
         <v>18</v>
@@ -15461,10 +15467,10 @@
         <v>0</v>
       </c>
       <c r="J248" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="K248" s="72" t="s">
         <v>297</v>
-      </c>
-      <c r="K248" s="72" t="s">
-        <v>298</v>
       </c>
       <c r="L248" s="19" t="s">
         <v>44</v>
@@ -15506,10 +15512,10 @@
         <v>0</v>
       </c>
       <c r="J249" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="K249" s="72" t="s">
         <v>299</v>
-      </c>
-      <c r="K249" s="72" t="s">
-        <v>300</v>
       </c>
       <c r="L249" s="19" t="s">
         <v>44</v>
@@ -15551,10 +15557,10 @@
         <v>0</v>
       </c>
       <c r="J250" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K250" s="72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L250" s="19" t="s">
         <v>44</v>
@@ -15596,10 +15602,10 @@
         <v>0</v>
       </c>
       <c r="J251" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="K251" s="73" t="s">
         <v>302</v>
-      </c>
-      <c r="K251" s="73" t="s">
-        <v>303</v>
       </c>
       <c r="L251" s="19" t="s">
         <v>35</v>
@@ -15644,7 +15650,7 @@
         <v>140</v>
       </c>
       <c r="K252" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L252" s="19" t="s">
         <v>30</v>
@@ -15685,10 +15691,10 @@
         <v>0</v>
       </c>
       <c r="J253" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="K253" s="74" t="s">
         <v>305</v>
-      </c>
-      <c r="K253" s="74" t="s">
-        <v>306</v>
       </c>
       <c r="L253" s="12" t="s">
         <v>44</v>
@@ -15724,7 +15730,7 @@
         <v>18</v>
       </c>
       <c r="H254" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I254" s="20" t="n">
         <v>0</v>
@@ -15733,7 +15739,7 @@
         <v>122</v>
       </c>
       <c r="K254" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L254" s="19" t="s">
         <v>18</v>
@@ -15778,7 +15784,7 @@
         <v>125</v>
       </c>
       <c r="K255" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L255" s="19" t="s">
         <v>18</v>
@@ -15814,16 +15820,16 @@
         <v>18</v>
       </c>
       <c r="H256" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I256" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="I256" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" s="21" t="s">
-        <v>310</v>
-      </c>
       <c r="K256" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L256" s="19" t="s">
         <v>18</v>
@@ -15859,7 +15865,7 @@
         <v>17</v>
       </c>
       <c r="H257" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I257" s="20" t="n">
         <v>0</v>
@@ -15868,7 +15874,7 @@
         <v>90</v>
       </c>
       <c r="K257" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L257" s="19" t="s">
         <v>81</v>
@@ -15904,16 +15910,16 @@
         <v>14</v>
       </c>
       <c r="H258" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I258" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J258" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="K258" s="73" t="s">
         <v>313</v>
-      </c>
-      <c r="K258" s="73" t="s">
-        <v>314</v>
       </c>
       <c r="L258" s="19" t="s">
         <v>18</v>
@@ -15949,7 +15955,7 @@
         <v>37</v>
       </c>
       <c r="H259" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I259" s="20" t="n">
         <v>0</v>
@@ -15958,7 +15964,7 @@
         <v>93</v>
       </c>
       <c r="K259" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L259" s="19" t="s">
         <v>44</v>
@@ -15994,7 +16000,7 @@
         <v>37</v>
       </c>
       <c r="H260" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I260" s="20" t="n">
         <v>0</v>
@@ -16003,7 +16009,7 @@
         <v>93</v>
       </c>
       <c r="K260" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L260" s="19" t="s">
         <v>44</v>
@@ -16039,7 +16045,7 @@
         <v>37</v>
       </c>
       <c r="H261" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I261" s="20" t="n">
         <v>0</v>
@@ -16048,7 +16054,7 @@
         <v>93</v>
       </c>
       <c r="K261" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L261" s="19" t="s">
         <v>44</v>
@@ -16089,10 +16095,10 @@
         <v>0</v>
       </c>
       <c r="J262" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K262" s="74" t="s">
         <v>319</v>
-      </c>
-      <c r="K262" s="74" t="s">
-        <v>320</v>
       </c>
       <c r="L262" s="12" t="s">
         <v>44</v>
@@ -16137,7 +16143,7 @@
         <v>125</v>
       </c>
       <c r="K263" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L263" s="19" t="s">
         <v>18</v>
@@ -16179,10 +16185,10 @@
         <v>0</v>
       </c>
       <c r="J264" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K264" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L264" s="19" t="s">
         <v>18</v>
@@ -16227,7 +16233,7 @@
         <v>90</v>
       </c>
       <c r="K265" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L265" s="19" t="s">
         <v>81</v>
@@ -16263,16 +16269,16 @@
         <v>14</v>
       </c>
       <c r="H266" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I266" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J266" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="K266" s="73" t="s">
         <v>313</v>
-      </c>
-      <c r="K266" s="73" t="s">
-        <v>314</v>
       </c>
       <c r="L266" s="19" t="s">
         <v>18</v>
@@ -16308,7 +16314,7 @@
         <v>37</v>
       </c>
       <c r="H267" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I267" s="20" t="n">
         <v>0</v>
@@ -16317,7 +16323,7 @@
         <v>93</v>
       </c>
       <c r="K267" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L267" s="19" t="s">
         <v>44</v>
@@ -16353,7 +16359,7 @@
         <v>37</v>
       </c>
       <c r="H268" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I268" s="20" t="n">
         <v>0</v>
@@ -16362,7 +16368,7 @@
         <v>93</v>
       </c>
       <c r="K268" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L268" s="19" t="s">
         <v>44</v>
@@ -16398,7 +16404,7 @@
         <v>37</v>
       </c>
       <c r="H269" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I269" s="20" t="n">
         <v>0</v>
@@ -16407,7 +16413,7 @@
         <v>93</v>
       </c>
       <c r="K269" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L269" s="19" t="s">
         <v>44</v>
@@ -16442,16 +16448,16 @@
         <v>37</v>
       </c>
       <c r="H270" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I270" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="I270" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" s="14" t="s">
+      <c r="K270" s="77" t="s">
         <v>323</v>
-      </c>
-      <c r="K270" s="77" t="s">
-        <v>324</v>
       </c>
       <c r="L270" s="12" t="s">
         <v>44</v>
@@ -16486,16 +16492,16 @@
         <v>37</v>
       </c>
       <c r="H271" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I271" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J271" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="K271" s="78" t="s">
         <v>325</v>
-      </c>
-      <c r="K271" s="78" t="s">
-        <v>326</v>
       </c>
       <c r="L271" s="12" t="s">
         <v>44</v>
@@ -16539,7 +16545,7 @@
         <v>130</v>
       </c>
       <c r="K272" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L272" s="12" t="s">
         <v>35</v>
@@ -16584,7 +16590,7 @@
         <v>140</v>
       </c>
       <c r="K273" s="79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L273" s="19" t="s">
         <v>30</v>
@@ -16620,16 +16626,16 @@
         <v>17</v>
       </c>
       <c r="H274" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="I274" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K274" s="79" t="s">
         <v>329</v>
-      </c>
-      <c r="I274" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="K274" s="79" t="s">
-        <v>330</v>
       </c>
       <c r="L274" s="19" t="s">
         <v>35</v>
@@ -16674,7 +16680,7 @@
         <v>122</v>
       </c>
       <c r="K275" s="79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L275" s="19" t="s">
         <v>35</v>
@@ -16716,10 +16722,10 @@
         <v>0</v>
       </c>
       <c r="J276" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K276" s="79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L276" s="19" t="s">
         <v>35</v>
@@ -16755,16 +16761,16 @@
         <v>37</v>
       </c>
       <c r="H277" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I277" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="K277" s="79" t="s">
         <v>333</v>
-      </c>
-      <c r="I277" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="K277" s="79" t="s">
-        <v>334</v>
       </c>
       <c r="L277" s="19" t="s">
         <v>35</v>
@@ -16799,7 +16805,7 @@
         <v>11</v>
       </c>
       <c r="H278" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I278" s="13" t="n">
         <v>0</v>
@@ -16808,7 +16814,7 @@
         <v>130</v>
       </c>
       <c r="K278" s="80" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L278" s="12" t="s">
         <v>35</v>
@@ -16843,7 +16849,7 @@
         <v>11</v>
       </c>
       <c r="H279" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I279" s="13" t="n">
         <v>0</v>
@@ -16852,7 +16858,7 @@
         <v>130</v>
       </c>
       <c r="K279" s="80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L279" s="12" t="s">
         <v>35</v>
@@ -16887,19 +16893,19 @@
         <v>7</v>
       </c>
       <c r="H280" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="I280" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="I280" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" s="14" t="s">
+      <c r="K280" s="78" t="s">
         <v>340</v>
       </c>
-      <c r="K280" s="78" t="s">
+      <c r="L280" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="L280" s="12" t="s">
-        <v>342</v>
       </c>
       <c r="M280" s="16" t="s">
         <v>31</v>
@@ -16931,19 +16937,19 @@
         <v>7</v>
       </c>
       <c r="H281" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I281" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="K281" s="78" t="s">
         <v>343</v>
       </c>
-      <c r="I281" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="K281" s="78" t="s">
-        <v>344</v>
-      </c>
       <c r="L281" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M281" s="16" t="s">
         <v>31</v>
@@ -16981,10 +16987,10 @@
         <v>0</v>
       </c>
       <c r="J282" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="K282" s="81" t="s">
         <v>345</v>
-      </c>
-      <c r="K282" s="81" t="s">
-        <v>346</v>
       </c>
       <c r="L282" s="12" t="s">
         <v>81</v>
@@ -17019,7 +17025,7 @@
         <v>17</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="I283" s="6" t="n">
         <v>0</v>
@@ -19674,7 +19680,7 @@
         <v>37</v>
       </c>
       <c r="H342" s="12" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="I342" s="13" t="n">
         <v>0</v>
@@ -19809,7 +19815,7 @@
         <v>37</v>
       </c>
       <c r="H345" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I345" s="27" t="n">
         <v>0</v>
@@ -19944,7 +19950,7 @@
         <v>9</v>
       </c>
       <c r="H348" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I348" s="27" t="n">
         <v>0</v>
@@ -21114,13 +21120,13 @@
         <v>37</v>
       </c>
       <c r="H374" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I374" s="27" t="n">
         <v>0</v>
       </c>
       <c r="J374" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K374" s="29" t="s">
         <v>470</v>
@@ -21885,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="J391" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K391" s="15" t="s">
         <v>494</v>
@@ -22380,7 +22386,7 @@
         <v>0</v>
       </c>
       <c r="J402" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K402" s="15" t="s">
         <v>513</v>
@@ -22419,13 +22425,13 @@
         <v>37</v>
       </c>
       <c r="H403" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I403" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J403" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K403" s="15" t="s">
         <v>513</v>
@@ -22566,7 +22572,7 @@
         <v>519</v>
       </c>
       <c r="L406" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M406" s="16" t="s">
         <v>31</v>
@@ -23588,7 +23594,7 @@
         <v>17</v>
       </c>
       <c r="H429" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I429" s="20" t="n">
         <v>0</v>
@@ -23774,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="J433" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K433" s="32" t="s">
         <v>569</v>
@@ -23819,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="J434" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K434" s="32" t="s">
         <v>570</v>
@@ -24089,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="J440" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K440" s="15" t="s">
         <v>581</v>
@@ -24224,7 +24230,7 @@
         <v>0</v>
       </c>
       <c r="J443" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K443" s="32" t="s">
         <v>569</v>
@@ -24269,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="J444" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K444" s="32" t="s">
         <v>570</v>
@@ -24488,7 +24494,7 @@
         <v>14</v>
       </c>
       <c r="H449" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I449" s="20" t="n">
         <v>0</v>
@@ -24578,13 +24584,13 @@
         <v>37</v>
       </c>
       <c r="H451" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I451" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J451" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K451" s="15" t="s">
         <v>588</v>
@@ -24802,7 +24808,7 @@
         <v>17</v>
       </c>
       <c r="H456" s="5" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="I456" s="6" t="n">
         <v>0</v>
@@ -24988,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="J460" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K460" s="32" t="s">
         <v>569</v>
@@ -25033,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="J461" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K461" s="32" t="s">
         <v>570</v>
@@ -25303,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="J467" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K467" s="15" t="s">
         <v>581</v>
@@ -25438,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="J470" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K470" s="32" t="s">
         <v>569</v>
@@ -25483,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="J471" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K471" s="32" t="s">
         <v>570</v>
@@ -25972,7 +25978,7 @@
         <v>16</v>
       </c>
       <c r="H482" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I482" s="13" t="n">
         <v>0</v>
@@ -26203,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="J487" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K487" s="29" t="s">
         <v>615</v>
@@ -26875,7 +26881,7 @@
         <v>12</v>
       </c>
       <c r="H502" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I502" s="13" t="n">
         <v>0</v>
@@ -27785,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="J522" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K522" s="15" t="s">
         <v>675</v>
@@ -27877,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="J524" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K524" s="29" t="s">
         <v>679</v>
@@ -28102,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="J529" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K529" s="29" t="s">
         <v>687</v>
@@ -29223,7 +29229,7 @@
         <v>10</v>
       </c>
       <c r="H554" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I554" s="13" t="n">
         <v>0</v>
@@ -29541,7 +29547,7 @@
       </c>
       <c r="H561" s="19" t="str">
         <f aca="false">H520</f>
-        <v>6+ trefli lub 5+ trefl i 4 kier/pik</v>
+        <v>6+ trefl  lub 5+ trefl i 4 kier/pik</v>
       </c>
       <c r="I561" s="20" t="n">
         <v>0</v>
@@ -29782,7 +29788,7 @@
         <v>741</v>
       </c>
       <c r="L566" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M566" s="12" t="s">
         <v>31</v>
@@ -29827,7 +29833,7 @@
         <v>742</v>
       </c>
       <c r="L567" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M567" s="12" t="s">
         <v>31</v>
@@ -29872,7 +29878,7 @@
         <v>743</v>
       </c>
       <c r="L568" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M568" s="12" t="s">
         <v>31</v>
@@ -29917,7 +29923,7 @@
         <v>744</v>
       </c>
       <c r="L569" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M569" s="12" t="s">
         <v>31</v>
@@ -30496,7 +30502,7 @@
       </c>
       <c r="H582" s="19" t="str">
         <f aca="false">H571</f>
-        <v>6+ st</v>
+        <v>6+ kier / pik</v>
       </c>
       <c r="I582" s="20" t="n">
         <v>0</v>
@@ -30876,7 +30882,7 @@
         <v>778</v>
       </c>
       <c r="L590" s="12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M590" s="12" t="s">
         <v>19</v>
@@ -30911,7 +30917,7 @@
       </c>
       <c r="H591" s="19" t="str">
         <f aca="false">H571</f>
-        <v>6+ st</v>
+        <v>6+ kier / pik</v>
       </c>
       <c r="I591" s="20" t="n">
         <v>0</v>
@@ -31005,7 +31011,7 @@
         <v>33</v>
       </c>
       <c r="H593" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I593" s="27" t="n">
         <v>0</v>
@@ -32562,7 +32568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="n">
         <v>627</v>
       </c>
@@ -32607,7 +32613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="n">
         <v>628</v>
       </c>
@@ -32637,7 +32643,7 @@
         <v>0</v>
       </c>
       <c r="J629" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K629" s="15" t="s">
         <v>838</v>
@@ -32682,10 +32688,10 @@
         <v>0</v>
       </c>
       <c r="J630" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="K630" s="15" t="s">
         <v>841</v>
-      </c>
-      <c r="K630" s="15" t="s">
-        <v>842</v>
       </c>
       <c r="L630" s="12" t="s">
         <v>18</v>
@@ -32697,7 +32703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="n">
         <v>630</v>
       </c>
@@ -32729,7 +32735,7 @@
         <v>0</v>
       </c>
       <c r="J631" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K631" s="21" t="s">
         <v>843</v>
@@ -32779,10 +32785,10 @@
         <v>845</v>
       </c>
       <c r="K632" s="21" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L632" s="19" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M632" s="19" t="s">
         <v>19</v>
@@ -32817,19 +32823,19 @@
         <v>11</v>
       </c>
       <c r="H633" s="19" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I633" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J633" s="21" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K633" s="21" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="L633" s="19" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="M633" s="19" t="s">
         <v>31</v>
@@ -32838,7 +32844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="n">
         <v>633</v>
       </c>
@@ -32870,13 +32876,13 @@
         <v>0</v>
       </c>
       <c r="J634" s="21" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="K634" s="21" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="L634" s="19" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="M634" s="19" t="s">
         <v>31</v>
@@ -32885,7 +32891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="n">
         <v>634</v>
       </c>
@@ -32917,13 +32923,13 @@
         <v>0</v>
       </c>
       <c r="J635" s="21" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="K635" s="21" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="L635" s="19" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M635" s="19" t="s">
         <v>19</v>
@@ -32964,13 +32970,13 @@
         <v>0</v>
       </c>
       <c r="J636" s="21" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="K636" s="21" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="L636" s="19" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M636" s="19" t="s">
         <v>19</v>
@@ -33003,19 +33009,19 @@
         <v>37</v>
       </c>
       <c r="H637" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I637" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J637" s="14" t="s">
-        <v>453</v>
+        <v>324</v>
       </c>
       <c r="K637" s="15" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="L637" s="12" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="M637" s="12" t="s">
         <v>31</v>
@@ -33050,16 +33056,16 @@
         <v>11</v>
       </c>
       <c r="H638" s="12" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="I638" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J638" s="14" t="s">
-        <v>853</v>
+        <v>140</v>
       </c>
       <c r="K638" s="15" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="L638" s="12" t="s">
         <v>30</v>
@@ -33098,16 +33104,16 @@
         <v>836</v>
       </c>
       <c r="I639" s="13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J639" s="14" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K639" s="15" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="L639" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M639" s="12" t="s">
         <v>31</v>
@@ -33121,7 +33127,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="10" t="n">
-        <f aca="false">B639</f>
+        <f aca="false">B638</f>
         <v>626</v>
       </c>
       <c r="C640" s="10" t="n">
@@ -33131,7 +33137,7 @@
         <v>4</v>
       </c>
       <c r="E640" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F640" s="12" t="n">
         <v>6</v>
@@ -33140,19 +33146,19 @@
         <v>12</v>
       </c>
       <c r="H640" s="12" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I640" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J640" s="14" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="K640" s="15" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="L640" s="12" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="M640" s="12" t="s">
         <v>31</v>
@@ -33161,91 +33167,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="B641" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C641" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D641" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E641" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F641" s="5" t="n">
+      <c r="B641" s="10" t="n">
+        <f aca="false">B640</f>
+        <v>626</v>
+      </c>
+      <c r="C641" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D641" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E641" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F641" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G641" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H641" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="I641" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J641" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="K641" s="8" t="s">
+      <c r="G641" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H641" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="I641" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J641" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="L641" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M641" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N641" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K641" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="L641" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M641" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N641" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="n">
         <v>641</v>
       </c>
-      <c r="B642" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C642" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D642" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E642" s="3" t="s">
+      <c r="B642" s="10" t="n">
+        <f aca="false">B641</f>
+        <v>626</v>
+      </c>
+      <c r="C642" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D642" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E642" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F642" s="5" t="n">
+      <c r="F642" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="G642" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H642" s="5" t="s">
+      <c r="G642" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H642" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="I642" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J642" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="K642" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="I642" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J642" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="K642" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="L642" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M642" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N642" s="6" t="n">
+      <c r="L642" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M642" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N642" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33263,7 +33271,7 @@
         <v>3</v>
       </c>
       <c r="E643" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F643" s="5" t="n">
         <v>6</v>
@@ -33272,19 +33280,19 @@
         <v>10</v>
       </c>
       <c r="H643" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I643" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J643" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K643" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="K643" s="8" t="s">
-        <v>859</v>
-      </c>
       <c r="L643" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M643" s="5" t="s">
         <v>31</v>
@@ -33307,7 +33315,7 @@
         <v>3</v>
       </c>
       <c r="E644" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F644" s="5" t="n">
         <v>6</v>
@@ -33316,19 +33324,19 @@
         <v>10</v>
       </c>
       <c r="H644" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I644" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J644" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K644" s="8" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="L644" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M644" s="5" t="s">
         <v>31</v>
@@ -33337,7 +33345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="n">
         <v>644</v>
       </c>
@@ -33351,16 +33359,16 @@
         <v>3</v>
       </c>
       <c r="E645" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F645" s="5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G645" s="5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H645" s="5" t="s">
-        <v>863</v>
+        <v>338</v>
       </c>
       <c r="I645" s="6" t="n">
         <v>0</v>
@@ -33369,60 +33377,59 @@
         <v>864</v>
       </c>
       <c r="K645" s="8" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="L645" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M645" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N645" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="B646" s="10" t="n">
-        <f aca="false">A645</f>
-        <v>644</v>
-      </c>
-      <c r="C646" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D646" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E646" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F646" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G646" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H646" s="12" t="s">
-        <v>866</v>
-      </c>
-      <c r="I646" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J646" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K646" s="15" t="s">
-        <v>867</v>
-      </c>
-      <c r="L646" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M646" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N646" s="13" t="n">
+      <c r="B646" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C646" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D646" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F646" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G646" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H646" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I646" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="K646" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="L646" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M646" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N646" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33430,44 +33437,43 @@
       <c r="A647" s="0" t="n">
         <v>646</v>
       </c>
-      <c r="B647" s="10" t="n">
-        <f aca="false">A645</f>
-        <v>644</v>
-      </c>
-      <c r="C647" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D647" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E647" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F647" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G647" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H647" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="I647" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J647" s="14" t="s">
-        <v>869</v>
-      </c>
-      <c r="K647" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="L647" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M647" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N647" s="13" t="n">
+      <c r="B647" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D647" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F647" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G647" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H647" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="I647" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="K647" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="L647" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M647" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N647" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33476,17 +33482,17 @@
         <v>647</v>
       </c>
       <c r="B648" s="10" t="n">
-        <f aca="false">A645</f>
-        <v>644</v>
+        <f aca="false">A647</f>
+        <v>646</v>
       </c>
       <c r="C648" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D648" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E648" s="10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F648" s="12" t="n">
         <v>0</v>
@@ -33495,22 +33501,22 @@
         <v>37</v>
       </c>
       <c r="H648" s="12" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I648" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J648" s="14" t="s">
-        <v>872</v>
+        <v>140</v>
       </c>
       <c r="K648" s="15" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="L648" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M648" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N648" s="13" t="n">
         <v>0</v>
@@ -33520,46 +33526,44 @@
       <c r="A649" s="0" t="n">
         <v>648</v>
       </c>
-      <c r="B649" s="17" t="n">
-        <f aca="false">A$648</f>
-        <v>647</v>
-      </c>
-      <c r="C649" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D649" s="17" t="n">
+      <c r="B649" s="10" t="n">
+        <f aca="false">A647</f>
+        <v>646</v>
+      </c>
+      <c r="C649" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D649" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E649" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F649" s="19" t="n">
-        <f aca="false">F$645</f>
-        <v>9</v>
-      </c>
-      <c r="G649" s="19" t="n">
-        <f aca="false">G$645</f>
-        <v>17</v>
-      </c>
-      <c r="H649" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="I649" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J649" s="21" t="s">
-        <v>875</v>
-      </c>
-      <c r="K649" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="L649" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M649" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N649" s="20" t="n">
+      <c r="E649" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F649" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G649" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H649" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="I649" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J649" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="K649" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="L649" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M649" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N649" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33567,56 +33571,54 @@
       <c r="A650" s="0" t="n">
         <v>649</v>
       </c>
-      <c r="B650" s="17" t="n">
-        <f aca="false">A$648</f>
-        <v>647</v>
-      </c>
-      <c r="C650" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D650" s="17" t="n">
+      <c r="B650" s="10" t="n">
+        <f aca="false">A647</f>
+        <v>646</v>
+      </c>
+      <c r="C650" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D650" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E650" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F650" s="19" t="n">
-        <f aca="false">F$645</f>
-        <v>9</v>
-      </c>
-      <c r="G650" s="19" t="n">
-        <f aca="false">G$645</f>
-        <v>17</v>
-      </c>
-      <c r="H650" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="I650" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J650" s="21" t="s">
+      <c r="E650" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F650" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G650" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H650" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="I650" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J650" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="K650" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="K650" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="L650" s="19" t="s">
+      <c r="L650" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M650" s="19" t="s">
+      <c r="M650" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N650" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N650" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="n">
         <v>650</v>
       </c>
       <c r="B651" s="17" t="n">
-        <f aca="false">A$648</f>
-        <v>647</v>
+        <f aca="false">A$650</f>
+        <v>649</v>
       </c>
       <c r="C651" s="17" t="n">
         <v>2</v>
@@ -33625,27 +33627,27 @@
         <v>4</v>
       </c>
       <c r="E651" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F651" s="19" t="n">
-        <f aca="false">F$645</f>
+        <f aca="false">F$647</f>
         <v>9</v>
       </c>
       <c r="G651" s="19" t="n">
-        <f aca="false">G$645</f>
+        <f aca="false">G$647</f>
         <v>17</v>
       </c>
       <c r="H651" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="I651" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J651" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="K651" s="32" t="s">
         <v>878</v>
-      </c>
-      <c r="I651" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J651" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="K651" s="32" t="s">
-        <v>880</v>
       </c>
       <c r="L651" s="19" t="s">
         <v>18</v>
@@ -33662,90 +33664,90 @@
         <v>651</v>
       </c>
       <c r="B652" s="17" t="n">
-        <f aca="false">A$648</f>
-        <v>647</v>
+        <f aca="false">A$650</f>
+        <v>649</v>
       </c>
       <c r="C652" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D652" s="17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E652" s="17" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F652" s="19" t="n">
-        <f aca="false">F$645</f>
+        <f aca="false">F$647</f>
         <v>9</v>
       </c>
       <c r="G652" s="19" t="n">
-        <f aca="false">G$645</f>
+        <f aca="false">G$647</f>
         <v>17</v>
       </c>
       <c r="H652" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I652" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J652" s="21" t="s">
-        <v>295</v>
+        <v>877</v>
       </c>
       <c r="K652" s="32" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="L652" s="19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M652" s="19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N652" s="20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="n">
         <v>652</v>
       </c>
       <c r="B653" s="17" t="n">
-        <f aca="false">A$648</f>
-        <v>647</v>
+        <f aca="false">A$650</f>
+        <v>649</v>
       </c>
       <c r="C653" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D653" s="17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E653" s="17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F653" s="19" t="n">
-        <f aca="false">F$645</f>
+        <f aca="false">F$647</f>
         <v>9</v>
       </c>
       <c r="G653" s="19" t="n">
-        <f aca="false">G$645</f>
+        <f aca="false">G$647</f>
         <v>17</v>
       </c>
       <c r="H653" s="19" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I653" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J653" s="21" t="s">
-        <v>122</v>
+        <v>881</v>
       </c>
       <c r="K653" s="32" t="s">
         <v>882</v>
       </c>
       <c r="L653" s="19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M653" s="19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N653" s="20" t="n">
         <v>0</v>
@@ -33755,44 +33757,46 @@
       <c r="A654" s="0" t="n">
         <v>653</v>
       </c>
-      <c r="B654" s="10" t="n">
-        <f aca="false">A645</f>
-        <v>644</v>
-      </c>
-      <c r="C654" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D654" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E654" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F654" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G654" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H654" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="I654" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J654" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K654" s="15" t="s">
+      <c r="B654" s="17" t="n">
+        <f aca="false">A$650</f>
+        <v>649</v>
+      </c>
+      <c r="C654" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D654" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E654" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F654" s="19" t="n">
+        <f aca="false">F$647</f>
+        <v>9</v>
+      </c>
+      <c r="G654" s="19" t="n">
+        <f aca="false">G$647</f>
+        <v>17</v>
+      </c>
+      <c r="H654" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="I654" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K654" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="L654" s="12" t="s">
+      <c r="L654" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M654" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N654" s="13" t="n">
+      <c r="M654" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N654" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33800,44 +33804,46 @@
       <c r="A655" s="0" t="n">
         <v>654</v>
       </c>
-      <c r="B655" s="10" t="n">
-        <f aca="false">A645</f>
-        <v>644</v>
-      </c>
-      <c r="C655" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D655" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E655" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F655" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G655" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H655" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="I655" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J655" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="K655" s="15" t="s">
+      <c r="B655" s="17" t="n">
+        <f aca="false">A$650</f>
+        <v>649</v>
+      </c>
+      <c r="C655" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D655" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E655" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F655" s="19" t="n">
+        <f aca="false">F$647</f>
+        <v>9</v>
+      </c>
+      <c r="G655" s="19" t="n">
+        <f aca="false">G$647</f>
+        <v>17</v>
+      </c>
+      <c r="H655" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="I655" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K655" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="L655" s="12" t="s">
+      <c r="L655" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M655" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N655" s="13" t="n">
+      <c r="M655" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N655" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33846,17 +33852,17 @@
         <v>655</v>
       </c>
       <c r="B656" s="10" t="n">
-        <f aca="false">A645</f>
-        <v>644</v>
+        <f aca="false">A647</f>
+        <v>646</v>
       </c>
       <c r="C656" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D656" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E656" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F656" s="12" t="n">
         <v>0</v>
@@ -33865,16 +33871,16 @@
         <v>37</v>
       </c>
       <c r="H656" s="12" t="s">
-        <v>868</v>
+        <v>338</v>
       </c>
       <c r="I656" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J656" s="14" t="s">
-        <v>869</v>
+        <v>125</v>
       </c>
       <c r="K656" s="15" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="L656" s="12" t="s">
         <v>30</v>
@@ -33886,47 +33892,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="n">
         <v>656</v>
       </c>
-      <c r="B657" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C657" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D657" s="3" t="n">
+      <c r="B657" s="10" t="n">
+        <f aca="false">A647</f>
+        <v>646</v>
+      </c>
+      <c r="C657" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D657" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E657" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F657" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G657" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H657" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="I657" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J657" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="K657" s="8" t="s">
+      <c r="E657" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F657" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G657" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H657" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I657" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="K657" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="L657" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M657" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N657" s="6" t="n">
+      <c r="L657" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M657" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N657" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33935,39 +33942,38 @@
         <v>657</v>
       </c>
       <c r="B658" s="10" t="n">
-        <f aca="false">A657</f>
-        <v>656</v>
+        <f aca="false">A647</f>
+        <v>646</v>
       </c>
       <c r="C658" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D658" s="10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E658" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F658" s="12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G658" s="12" t="n">
-        <f aca="false">37-F657</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H658" s="12" t="s">
-        <v>75</v>
+        <v>870</v>
       </c>
       <c r="I658" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J658" s="14" t="s">
-        <v>142</v>
+        <v>871</v>
       </c>
       <c r="K658" s="15" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="L658" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M658" s="12" t="s">
         <v>31</v>
@@ -33976,49 +33982,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="n">
         <v>658</v>
       </c>
-      <c r="B659" s="10" t="n">
-        <f aca="false">A657</f>
-        <v>656</v>
-      </c>
-      <c r="C659" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D659" s="10" t="n">
+      <c r="B659" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C659" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D659" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E659" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F659" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="G659" s="12" t="n">
-        <f aca="false">37-F657</f>
-        <v>29</v>
-      </c>
-      <c r="H659" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I659" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J659" s="14" t="s">
+      <c r="E659" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F659" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G659" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H659" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I659" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="K659" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="K659" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="L659" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M659" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N659" s="13" t="n">
+      <c r="L659" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M659" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N659" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34027,24 +34031,24 @@
         <v>659</v>
       </c>
       <c r="B660" s="10" t="n">
-        <f aca="false">A657</f>
-        <v>656</v>
+        <f aca="false">A659</f>
+        <v>658</v>
       </c>
       <c r="C660" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D660" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E660" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F660" s="12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G660" s="12" t="n">
-        <f aca="false">37-F658</f>
-        <v>22</v>
+        <f aca="false">37-F659</f>
+        <v>29</v>
       </c>
       <c r="H660" s="12" t="s">
         <v>75</v>
@@ -34053,13 +34057,13 @@
         <v>0</v>
       </c>
       <c r="J660" s="14" t="s">
-        <v>890</v>
+        <v>142</v>
       </c>
       <c r="K660" s="15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L660" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M660" s="12" t="s">
         <v>31</v>
@@ -34068,13 +34072,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="n">
         <v>660</v>
       </c>
       <c r="B661" s="10" t="n">
-        <f aca="false">A657</f>
-        <v>656</v>
+        <f aca="false">A659</f>
+        <v>658</v>
       </c>
       <c r="C661" s="10" t="n">
         <v>1</v>
@@ -34083,88 +34087,90 @@
         <v>4</v>
       </c>
       <c r="E661" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F661" s="12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G661" s="12" t="n">
-        <f aca="false">37-F658</f>
-        <v>22</v>
+        <f aca="false">37-F659</f>
+        <v>29</v>
       </c>
       <c r="H661" s="12" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I661" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J661" s="12" t="s">
-        <v>892</v>
+      <c r="J661" s="14" t="s">
+        <v>890</v>
       </c>
       <c r="K661" s="15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="L661" s="12" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M661" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N661" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="n">
         <v>661</v>
       </c>
-      <c r="B662" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C662" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D662" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E662" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F662" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G662" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H662" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="I662" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J662" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="K662" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="L662" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M662" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N662" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B662" s="10" t="n">
+        <f aca="false">A659</f>
+        <v>658</v>
+      </c>
+      <c r="C662" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D662" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E662" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F662" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G662" s="12" t="n">
+        <f aca="false">37-F660</f>
+        <v>22</v>
+      </c>
+      <c r="H662" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I662" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J662" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="K662" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="L662" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M662" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N662" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="n">
         <v>662</v>
       </c>
       <c r="B663" s="10" t="n">
-        <f aca="false">A662</f>
-        <v>661</v>
+        <f aca="false">A659</f>
+        <v>658</v>
       </c>
       <c r="C663" s="10" t="n">
         <v>1</v>
@@ -34173,80 +34179,78 @@
         <v>4</v>
       </c>
       <c r="E663" s="10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F663" s="12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G663" s="12" t="n">
-        <f aca="false">37-F662</f>
-        <v>29</v>
+        <f aca="false">37-F660</f>
+        <v>22</v>
       </c>
       <c r="H663" s="12" t="s">
-        <v>764</v>
+        <v>75</v>
       </c>
       <c r="I663" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J663" s="14" t="s">
-        <v>142</v>
+      <c r="J663" s="12" t="s">
+        <v>894</v>
       </c>
       <c r="K663" s="15" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="L663" s="12" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M663" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N663" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="n">
         <v>663</v>
       </c>
-      <c r="B664" s="10" t="n">
-        <f aca="false">A662</f>
-        <v>661</v>
-      </c>
-      <c r="C664" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D664" s="10" t="n">
+      <c r="B664" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C664" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D664" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E664" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F664" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="G664" s="12" t="n">
-        <f aca="false">37-F662</f>
-        <v>29</v>
-      </c>
-      <c r="H664" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I664" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J664" s="14" t="s">
+      <c r="E664" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F664" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G664" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H664" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I664" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="K664" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="K664" s="15" t="s">
-        <v>889</v>
-      </c>
-      <c r="L664" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M664" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N664" s="13" t="n">
+      <c r="L664" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M664" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N664" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34255,39 +34259,39 @@
         <v>664</v>
       </c>
       <c r="B665" s="10" t="n">
-        <f aca="false">A662</f>
-        <v>661</v>
+        <f aca="false">A664</f>
+        <v>663</v>
       </c>
       <c r="C665" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D665" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E665" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F665" s="12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G665" s="12" t="n">
-        <f aca="false">37-F663</f>
-        <v>22</v>
+        <f aca="false">37-F664</f>
+        <v>29</v>
       </c>
       <c r="H665" s="12" t="s">
-        <v>75</v>
+        <v>764</v>
       </c>
       <c r="I665" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J665" s="14" t="s">
-        <v>890</v>
+        <v>142</v>
       </c>
       <c r="K665" s="15" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="L665" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M665" s="12" t="s">
         <v>31</v>
@@ -34296,13 +34300,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="n">
         <v>665</v>
       </c>
       <c r="B666" s="10" t="n">
-        <f aca="false">A662</f>
-        <v>661</v>
+        <f aca="false">A664</f>
+        <v>663</v>
       </c>
       <c r="C666" s="10" t="n">
         <v>1</v>
@@ -34311,122 +34315,124 @@
         <v>4</v>
       </c>
       <c r="E666" s="10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F666" s="12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G666" s="12" t="n">
-        <f aca="false">37-F663</f>
-        <v>22</v>
+        <f aca="false">37-F664</f>
+        <v>29</v>
       </c>
       <c r="H666" s="12" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="I666" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J666" s="12" t="s">
-        <v>892</v>
+      <c r="J666" s="14" t="s">
+        <v>890</v>
       </c>
       <c r="K666" s="15" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="L666" s="12" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M666" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N666" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="n">
         <v>666</v>
       </c>
-      <c r="B667" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C667" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D667" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E667" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F667" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G667" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H667" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I667" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J667" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="K667" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="L667" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M667" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N667" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B667" s="10" t="n">
+        <f aca="false">A664</f>
+        <v>663</v>
+      </c>
+      <c r="C667" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D667" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E667" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F667" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G667" s="12" t="n">
+        <f aca="false">37-F665</f>
+        <v>22</v>
+      </c>
+      <c r="H667" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I667" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J667" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="K667" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="L667" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M667" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N667" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="n">
         <v>667</v>
       </c>
       <c r="B668" s="10" t="n">
-        <f aca="false">A667</f>
-        <v>666</v>
+        <f aca="false">A664</f>
+        <v>663</v>
       </c>
       <c r="C668" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D668" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E668" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F668" s="12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G668" s="12" t="n">
-        <f aca="false">37-F667</f>
-        <v>29</v>
+        <f aca="false">37-F665</f>
+        <v>22</v>
       </c>
       <c r="H668" s="12" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I668" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J668" s="14" t="s">
-        <v>142</v>
+      <c r="J668" s="12" t="s">
+        <v>894</v>
       </c>
       <c r="K668" s="15" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L668" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M668" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N668" s="13" t="n">
         <v>0</v>
@@ -34436,133 +34442,133 @@
       <c r="A669" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="B669" s="10" t="n">
-        <f aca="false">A667</f>
-        <v>666</v>
-      </c>
-      <c r="C669" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D669" s="10" t="n">
+      <c r="B669" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C669" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D669" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E669" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F669" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="G669" s="12" t="n">
-        <f aca="false">37-F667</f>
-        <v>29</v>
-      </c>
-      <c r="H669" s="12" t="s">
-        <v>895</v>
-      </c>
-      <c r="I669" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J669" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="K669" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="L669" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M669" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N669" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E669" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F669" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G669" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H669" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I669" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J669" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="K669" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="L669" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M669" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N669" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="n">
         <v>669</v>
       </c>
-      <c r="B670" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C670" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D670" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E670" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F670" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G670" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H670" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I670" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J670" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="K670" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="L670" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M670" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N670" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="10" t="n">
+        <f aca="false">A669</f>
+        <v>668</v>
+      </c>
+      <c r="C670" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D670" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E670" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F670" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G670" s="12" t="n">
+        <f aca="false">37-F669</f>
+        <v>29</v>
+      </c>
+      <c r="H670" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I670" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J670" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K670" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="L670" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M670" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N670" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="n">
         <v>670</v>
       </c>
       <c r="B671" s="10" t="n">
-        <f aca="false">A670</f>
-        <v>669</v>
+        <f aca="false">A669</f>
+        <v>668</v>
       </c>
       <c r="C671" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D671" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E671" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F671" s="12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G671" s="12" t="n">
-        <f aca="false">37-F670</f>
+        <f aca="false">37-F669</f>
         <v>29</v>
       </c>
       <c r="H671" s="12" t="s">
-        <v>15</v>
+        <v>897</v>
       </c>
       <c r="I671" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J671" s="14" t="s">
-        <v>144</v>
+      <c r="J671" s="12" t="s">
+        <v>894</v>
       </c>
       <c r="K671" s="15" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="L671" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M671" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N671" s="13" t="n">
         <v>0</v>
@@ -34572,45 +34578,43 @@
       <c r="A672" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="B672" s="10" t="n">
-        <f aca="false">A670</f>
-        <v>669</v>
-      </c>
-      <c r="C672" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D672" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E672" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F672" s="12" t="n">
-        <v>21</v>
-      </c>
-      <c r="G672" s="12" t="n">
-        <f aca="false">37-F670</f>
-        <v>29</v>
-      </c>
-      <c r="H672" s="12" t="s">
+      <c r="B672" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C672" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D672" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F672" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G672" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H672" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I672" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J672" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="K672" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="I672" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J672" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="K672" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="L672" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M672" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N672" s="13" t="n">
+      <c r="L672" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M672" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N672" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34618,87 +34622,91 @@
       <c r="A673" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="B673" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C673" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D673" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E673" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F673" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="G673" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="H673" s="5" t="s">
+      <c r="B673" s="10" t="n">
+        <f aca="false">A672</f>
+        <v>671</v>
+      </c>
+      <c r="C673" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D673" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E673" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F673" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G673" s="12" t="n">
+        <f aca="false">37-F672</f>
+        <v>29</v>
+      </c>
+      <c r="H673" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I673" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J673" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="K673" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="L673" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M673" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N673" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I673" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J673" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K673" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="L673" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M673" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N673" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="n">
         <v>673</v>
       </c>
-      <c r="B674" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C674" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D674" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E674" s="3" t="s">
+      <c r="B674" s="10" t="n">
+        <f aca="false">A672</f>
+        <v>671</v>
+      </c>
+      <c r="C674" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D674" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E674" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F674" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G674" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H674" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="I674" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J674" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="K674" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="L674" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="M674" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N674" s="6" t="n">
+      <c r="F674" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G674" s="12" t="n">
+        <f aca="false">37-F672</f>
+        <v>29</v>
+      </c>
+      <c r="H674" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="I674" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J674" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="K674" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="L674" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M674" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N674" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34706,45 +34714,43 @@
       <c r="A675" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="B675" s="10" t="n">
-        <f aca="false">A674</f>
-        <v>673</v>
-      </c>
-      <c r="C675" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D675" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E675" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F675" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G675" s="12" t="n">
-        <f aca="false">37-F674</f>
-        <v>31</v>
-      </c>
-      <c r="H675" s="12" t="s">
+      <c r="B675" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C675" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D675" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F675" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G675" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H675" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I675" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J675" s="14" t="s">
-        <v>902</v>
-      </c>
-      <c r="K675" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="L675" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M675" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N675" s="13" t="n">
+      <c r="I675" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J675" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="K675" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="L675" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M675" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N675" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34762,7 +34768,7 @@
         <v>5</v>
       </c>
       <c r="E676" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F676" s="5" t="n">
         <v>6</v>
@@ -34771,19 +34777,19 @@
         <v>10</v>
       </c>
       <c r="H676" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="I676" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J676" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="K676" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="I676" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J676" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="K676" s="8" t="s">
-        <v>904</v>
-      </c>
       <c r="L676" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M676" s="5" t="s">
         <v>31</v>
@@ -34823,10 +34829,10 @@
         <v>0</v>
       </c>
       <c r="J677" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K677" s="15" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="L677" s="12" t="s">
         <v>30</v>
@@ -34838,7 +34844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="n">
         <v>677</v>
       </c>
@@ -34852,28 +34858,28 @@
         <v>5</v>
       </c>
       <c r="E678" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F678" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G678" s="5" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H678" s="5" t="s">
-        <v>339</v>
+        <v>905</v>
       </c>
       <c r="I678" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J678" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="K678" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="K678" s="8" t="s">
-        <v>907</v>
-      </c>
       <c r="L678" s="5" t="s">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="M678" s="5" t="s">
         <v>31</v>
@@ -34903,22 +34909,23 @@
         <v>0</v>
       </c>
       <c r="G679" s="12" t="n">
-        <v>37</v>
+        <f aca="false">37-F678</f>
+        <v>31</v>
       </c>
       <c r="H679" s="12" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="I679" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J679" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K679" s="15" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="L679" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M679" s="12" t="s">
         <v>31</v>
@@ -34927,48 +34934,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="n">
         <v>679</v>
       </c>
-      <c r="B680" s="10" t="n">
-        <f aca="false">A678</f>
-        <v>677</v>
-      </c>
-      <c r="C680" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D680" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E680" s="10" t="s">
+      <c r="B680" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C680" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D680" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E680" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F680" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G680" s="12" t="n">
+      <c r="F680" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G680" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H680" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="I680" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J680" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="K680" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="L680" s="12" t="s">
+      <c r="H680" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I680" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J680" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="K680" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="L680" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M680" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N680" s="13" t="n">
+      <c r="M680" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N680" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34977,20 +34983,20 @@
         <v>680</v>
       </c>
       <c r="B681" s="10" t="n">
-        <f aca="false">A678</f>
-        <v>677</v>
+        <f aca="false">A680</f>
+        <v>679</v>
       </c>
       <c r="C681" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D681" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E681" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F681" s="12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G681" s="12" t="n">
         <v>37</v>
@@ -35002,10 +35008,10 @@
         <v>0</v>
       </c>
       <c r="J681" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K681" s="15" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L681" s="12" t="s">
         <v>44</v>
@@ -35017,47 +35023,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="n">
         <v>681</v>
       </c>
-      <c r="B682" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C682" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D682" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E682" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F682" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G682" s="5" t="n">
+      <c r="B682" s="10" t="n">
+        <f aca="false">A680</f>
+        <v>679</v>
+      </c>
+      <c r="C682" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D682" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E682" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F682" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G682" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="H682" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="I682" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J682" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="K682" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="L682" s="5" t="s">
+      <c r="H682" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I682" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J682" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="K682" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="L682" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M682" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N682" s="6" t="n">
+      <c r="M682" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N682" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35066,20 +35073,20 @@
         <v>682</v>
       </c>
       <c r="B683" s="10" t="n">
-        <f aca="false">A682</f>
-        <v>681</v>
+        <f aca="false">A680</f>
+        <v>679</v>
       </c>
       <c r="C683" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D683" s="10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E683" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F683" s="12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G683" s="12" t="n">
         <v>37</v>
@@ -35091,10 +35098,10 @@
         <v>0</v>
       </c>
       <c r="J683" s="14" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="K683" s="15" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="L683" s="12" t="s">
         <v>44</v>
@@ -35106,48 +35113,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="n">
         <v>683</v>
       </c>
-      <c r="B684" s="10" t="n">
-        <f aca="false">A682</f>
-        <v>681</v>
-      </c>
-      <c r="C684" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D684" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E684" s="10" t="s">
+      <c r="B684" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C684" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D684" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E684" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F684" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G684" s="12" t="n">
+      <c r="F684" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G684" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H684" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="I684" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J684" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="K684" s="15" t="s">
-        <v>911</v>
-      </c>
-      <c r="L684" s="12" t="s">
+      <c r="H684" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I684" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J684" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="K684" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="L684" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M684" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N684" s="13" t="n">
+      <c r="M684" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N684" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35156,20 +35162,20 @@
         <v>684</v>
       </c>
       <c r="B685" s="10" t="n">
-        <f aca="false">A682</f>
-        <v>681</v>
+        <f aca="false">A684</f>
+        <v>683</v>
       </c>
       <c r="C685" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D685" s="10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E685" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F685" s="12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G685" s="12" t="n">
         <v>37</v>
@@ -35181,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="J685" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K685" s="15" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L685" s="12" t="s">
         <v>44</v>
@@ -35193,6 +35199,96 @@
         <v>31</v>
       </c>
       <c r="N685" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="n">
+        <v>685</v>
+      </c>
+      <c r="B686" s="10" t="n">
+        <f aca="false">A684</f>
+        <v>683</v>
+      </c>
+      <c r="C686" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D686" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E686" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F686" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G686" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H686" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I686" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J686" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="K686" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="L686" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M686" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N686" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="n">
+        <v>686</v>
+      </c>
+      <c r="B687" s="10" t="n">
+        <f aca="false">A684</f>
+        <v>683</v>
+      </c>
+      <c r="C687" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D687" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E687" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F687" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G687" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H687" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I687" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J687" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="K687" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="L687" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M687" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N687" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35296,10 +35392,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="K2" s="85" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>45</v>
@@ -35341,10 +35437,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="K3" s="85" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>45</v>
@@ -35385,10 +35481,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="K4" s="85" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>45</v>
@@ -35429,10 +35525,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="K5" s="85" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>45</v>
@@ -35548,16 +35644,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>18</v>
@@ -35599,10 +35695,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>81</v>
@@ -35644,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>81</v>
@@ -35689,10 +35785,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>81</v>
@@ -35736,7 +35832,7 @@
         <v>111</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>81</v>
@@ -35777,10 +35873,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>81</v>
@@ -35821,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="12" t="s">
@@ -35863,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="12" t="s">
@@ -35899,13 +35995,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="5" t="s">
@@ -36031,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="5" t="s">
@@ -36075,7 +36171,7 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="5" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>71</v>
@@ -36120,7 +36216,7 @@
         <v>18</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0</v>
@@ -36162,7 +36258,7 @@
         <v>81</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0</v>
@@ -36204,7 +36300,7 @@
         <v>81</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0</v>
@@ -36246,7 +36342,7 @@
         <v>81</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0</v>
@@ -36288,7 +36384,7 @@
         <v>81</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0</v>
@@ -36330,7 +36426,7 @@
         <v>81</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0</v>
@@ -36372,7 +36468,7 @@
         <v>81</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0</v>
@@ -36414,7 +36510,7 @@
         <v>81</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -36485,7 +36581,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>0</v>
@@ -36498,7 +36594,7 @@
         <v>81</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0</v>
@@ -36527,7 +36623,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0</v>
@@ -36540,7 +36636,7 @@
         <v>81</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0</v>
@@ -36569,7 +36665,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
@@ -36582,7 +36678,7 @@
         <v>81</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
@@ -36611,7 +36707,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>0</v>
@@ -36624,7 +36720,7 @@
         <v>81</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0</v>

--- a/bridgeIn.xlsx
+++ b/bridgeIn.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4308" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="980">
   <si>
     <t>bidId</t>
   </si>
@@ -2957,10 +2957,13 @@
     <t>MULTI</t>
   </si>
   <si>
-    <t>MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
-  </si>
-  <si>
-    <t>fit w kierach</t>
+    <t>MULTI dawne słabe dwa na starszym (blokujące) 7-10(11) PC, starszy kolor sześciokartowy 5 – przed partią (chyba że b dobry) inaczej 6+,  Licytacja po interwencji przeciwnika  Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".  W dalszej licytacji odpowiadające­mu powinien przyświecać jeden z następujących celów: 1) zatrzymanie się na jak najniższej wysokości, gdy karta się nie fituje (czy­li w sytuacji, gdy do koloru sześciokartowego trafia krótkość) - również ze stosunkowo silną kartą, 2) zagranie kontraktu z ręki odpo­wiadającego, gdy karta daje szansę wy­grania końcówki, 3) zalicytowanie kontraktu możli­wie szybko (bez zbędnych ceregieli), gdy karta się fituje, co łatwo rozpo­znać, gdy odpowiadający ma  dobre uzupełnienia w obu starszych kolo­rach; w takiej sytuacji polecane jest szybkie zalicytowanie dogranej,  aby uniemożliwić przeciwnikom znalezie­nie opłacalnej obrony - lub własnej gry, gdy mają przewagę siły, 4) ewentualne zaciemnienie bilan­su rozdania z kartą słabą - ale niegrożącą misfitami.</t>
+  </si>
+  <si>
+    <t>Fit 3+ kier</t>
+  </si>
+  <si>
+    <t>słaby fit kier</t>
   </si>
   <si>
     <t>2 kier - fit w danym kolorze  wersja uproszczona: „pasuj jak to ten kolor, zmień jak inny”  z reguły zalicytujemy odwrotnie – kiery mając słabsze kiery niż piki i piki mając słabsze piki odwrotnie. [Odpowiedzi 2kier  można dać również z kartą inwitującą na własnym kolorze wtedy powtarzamy po odpowiedzi partnera .]</t>
@@ -2978,7 +2981,10 @@
     <t>Piki – nie pasuje...</t>
   </si>
   <si>
-    <t>fit w pik</t>
+    <t>Fit 3+ pik</t>
+  </si>
+  <si>
+    <t>słaby fit pik</t>
   </si>
   <si>
     <t>2pik - fit w danym kolorze  wersja uproszczona: „pasuj jak to ten kolor, zmień jak inny”  z reguły zalicytujemy odwrotnie – kiery mając słabsze kiery niż piki i piki mając słabsze piki odwrotnie. [Odpowiedzi  2pik można dać również z kartą inwitującą na własnym kolorze wtedy powtarzamy po odpowiedzi partnera .]</t>
@@ -3026,10 +3032,19 @@
     <t>3karo pytanie o kolor z prośbą o pokazanie go „odwrotnie":</t>
   </si>
   <si>
-    <t>3kier oznacza więc piki, a</t>
-  </si>
-  <si>
-    <t>3pik - kiery.</t>
+    <t>3kier oznacza więc piki, góra otwarcia (piki są uzgodnione)</t>
+  </si>
+  <si>
+    <t>Fit 2+ pik </t>
+  </si>
+  <si>
+    <t>Zgłoszenie pików do gry z własnej ręki (dziurawe figury)</t>
+  </si>
+  <si>
+    <t>3pik – kiery. (kiery są uzgodnione)</t>
+  </si>
+  <si>
+    <t>Fit 2+ kier</t>
   </si>
   <si>
     <t>3karo = dół otwarcia na kierach</t>
@@ -3098,7 +3113,7 @@
     <t>4 karo z górą otwarcia na kierach (pikach) - aby nie zajmować kontraktu ze swojej ręki. Po pozytywnej odpowiedzi istnieje moż­liwość wybrania ręki rozgrywającego.</t>
   </si>
   <si>
-    <t>mam drugi</t>
+    <t>mam drugi – FLISZ</t>
   </si>
   <si>
     <t>3kier  pasuj z kierami licytuj z pikami</t>
@@ -3113,13 +3128,13 @@
     <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: kierowa i dowolna  Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
   </si>
   <si>
-    <t>fit w pikach i młodszych</t>
+    <t>Fit 3+ pik i 3+ m brak fitu kier</t>
   </si>
   <si>
     <t>słabe</t>
   </si>
   <si>
-    <t>2pik - po kierach tylko - fit w pikach i młodszym (ych?)</t>
+    <t>2pik - po kierach tylko – fit 3+  pik / młodszym (ych?) -Ratujmy się - pytanie o boczną piątkę:  „pasuj z pikami albo pokaż swój młodszy kolor”</t>
   </si>
   <si>
     <t>5+ kier i 5+ pik</t>
@@ -3128,6 +3143,9 @@
     <t>pikowa i kierowa</t>
   </si>
   <si>
+    <t>Pas </t>
+  </si>
+  <si>
     <t>5+ kier i 5+  trefl</t>
   </si>
   <si>
@@ -3140,10 +3158,49 @@
     <t>5+ kier i 5+ karo</t>
   </si>
   <si>
+    <t>Fit 3+ kier  i fit 3+ pik? </t>
+  </si>
+  <si>
     <t>Pytanie o boczną piątkę</t>
   </si>
   <si>
-    <t>2BA –pytanie o boczną piątkę</t>
+    <t>2BA –Silne – pytanie o boczną piątkę.  W dalszej licytacji obowiązuje za­sada: kolor młodszy uzgadniamy natu­ralnie, kolor starszy - cue bidem.</t>
+  </si>
+  <si>
+    <t>2 lub 3 kier, fit karo</t>
+  </si>
+  <si>
+    <t>inwitujące (ale niefor­sujące) - być może tylko z dublem kier.</t>
+  </si>
+  <si>
+    <t>zatrzymanie pik, fit 3+ kier</t>
+  </si>
+  <si>
+    <t>cueBID</t>
+  </si>
+  <si>
+    <t>silne (szlemikowe) uzgodnienie kierów - cue bid.</t>
+  </si>
+  <si>
+    <t>Fit 3+ trefl</t>
+  </si>
+  <si>
+    <t>uzgodnienie trefl</t>
+  </si>
+  <si>
+    <t> silne (szlemikowe) uzgodnienie trefli</t>
+  </si>
+  <si>
+    <t>Fit 3+ karo</t>
+  </si>
+  <si>
+    <t>uzgodnienie karo</t>
+  </si>
+  <si>
+    <t> silne (szlemikowe) uzgodnienie kar</t>
+  </si>
+  <si>
+    <t>naturalnie pokazana boczna piątka – uzgodnione kiery? </t>
   </si>
   <si>
     <t>3trefl, są naturalne (6+ kart w kolorze 12+PC) i są forsujące na jed­no okrążenie.</t>
@@ -3167,6 +3224,18 @@
     <t>3 kier - fit 3 kartowy w kier  12+PC  zatrzymania   - dalej w zależności od PC</t>
   </si>
   <si>
+    <t>Pas</t>
+  </si>
+  <si>
+    <t>za słabe na końcówkę</t>
+  </si>
+  <si>
+    <t>do gry... </t>
+  </si>
+  <si>
+    <t>Fit 4 kier</t>
+  </si>
+  <si>
     <t>mocny fit kier</t>
   </si>
   <si>
@@ -3177,6 +3246,18 @@
   </si>
   <si>
     <t>(6)7-10(11) PC, (przed partią nawet 4-9) dwie piątki: pikowa i młodsza Licytacja po interwencji przeciwnika Po interwencji przeciwnika kontry są karne, a nowy kolor pełni rolę „pa­suj lub popraw".</t>
+  </si>
+  <si>
+    <t>fit pik? </t>
+  </si>
+  <si>
+    <t>Do rozpisania</t>
+  </si>
+  <si>
+    <t>fit w młodszych? </t>
+  </si>
+  <si>
+    <t>2BAsztuczne, forsujące, silne –pytanie o boczną piątkę</t>
   </si>
   <si>
     <t>5+ pik i 5+ trefl</t>
@@ -3387,6 +3468,42 @@
     <t>Dobry 7-kart</t>
   </si>
   <si>
+    <t>nic ciekawego</t>
+  </si>
+  <si>
+    <t>zatrzymanie  trefl i fit 1+ kier</t>
+  </si>
+  <si>
+    <t>duża siła punktowa,zatrzymanie w treflach (ekonomicznie)</t>
+  </si>
+  <si>
+    <t>zatrzymanie karo  i fit 1+ kier</t>
+  </si>
+  <si>
+    <t>duża siła punktowa, zatrzymanie w karach, brak zatrzymania w treflach</t>
+  </si>
+  <si>
+    <t>bardziej punkty niż kiery</t>
+  </si>
+  <si>
+    <t>zagadka</t>
+  </si>
+  <si>
+    <t>„może chcę to wygrać, może chcę nastraszyć przeciwników",</t>
+  </si>
+  <si>
+    <t>silna odzywka zgłaszająca własny kolor</t>
+  </si>
+  <si>
+    <t>zatrzymanie  trefl i fit 1+ pik</t>
+  </si>
+  <si>
+    <t>zatrzymanie karo i fit 1+ pik</t>
+  </si>
+  <si>
+    <t>bardziej punkty niż piki</t>
+  </si>
+  <si>
     <t>7+ karo/trefl</t>
   </si>
   <si>
@@ -3410,7 +3527,18 @@
     <t>zatrzymania i blotka w młodszych</t>
   </si>
   <si>
-    <t>Pas gdy posiadamy zatrzymania w pozostałych kolorach i dojście blotką do koloru partnera</t>
+    <r>
+      <t xml:space="preserve">Pas gdy posiadamy zatrzymania w pozostałych kolorach i dojście blotką do koloru partnera </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">Po kontrze na 3BA pas od­powiadającego oznacza akceptację kontraktu 3BA z kontrą.</t>
+    </r>
   </si>
   <si>
     <t>fit trefl i karo</t>
@@ -3422,6 +3550,21 @@
     <t>4trefl, 5trefl licytacja do koloru partnera, partner pasuje z treflami a znosi w 4karo lub 5karo jeśli ma kara</t>
   </si>
   <si>
+    <t>7+  trefl</t>
+  </si>
+  <si>
+    <t>tak, to trefle</t>
+  </si>
+  <si>
+    <t>pasuje bo kolor to trefle</t>
+  </si>
+  <si>
+    <t>Nie, to kara</t>
+  </si>
+  <si>
+    <t>znoszę na kara bo to jednak ten kolor...</t>
+  </si>
+  <si>
     <t>mocne</t>
   </si>
   <si>
@@ -3479,22 +3622,16 @@
     <t>4BA -  pytanie o boczne asy (poza atutowym)  – lub  cue bid (licytacja innego koloru).</t>
   </si>
   <si>
-    <t>Pas</t>
-  </si>
-  <si>
     <t>Pas (do gry raczej – otwierający zakładał wzięcie min dwóch lew z tej ręki-  w gorszym razie będzie bez gdy przeciwnikom idzie coś lepszego)</t>
   </si>
   <si>
-    <t>cueBID</t>
-  </si>
-  <si>
     <t>Kolejne odzywki odpowiadającego są cue bidami (również 4pik po otwarciu 4kier). Zasada ta odnosi się również do sytuacji, gdy do licytacji wkracza przeciwnik. Należy pamiętać przy kontynuacji cue bidów, że gdy odpowiadający pominął jakiś kolor, to nie ma w nim zatrzymania i dalsza wymiana cue bidów jest uwarunkowana posiadaniem zatrzymania w tym kolorze,</t>
   </si>
   <si>
+    <t>zatrzymanie w pikach</t>
+  </si>
+  <si>
     <t>do 10 PC 7+ w kolorze licytowanym co najmniej dwie figury – dobry kolor!  (około 8 lew) Siła otwarcia i długość koloru atutowego zależy od stylu gracza i ustaleń w parze. Powinno się stosować metodę 4-3-2-2 (patrz **). Otwarcia 4kier, 4pik raczej nie stosowane przez początkujących brydżystów.</t>
-  </si>
-  <si>
-    <t>zatrzymanie w pikach</t>
   </si>
   <si>
     <t>zatrzymanie w treflach</t>
@@ -3658,7 +3795,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3763,8 +3900,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3804,7 +3947,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFE6E6FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6FF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3870,7 +4019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4207,6 +4356,26 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4245,7 +4414,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFE6E6FF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -4292,12 +4461,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N687"/>
+  <dimension ref="A1:N711"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A634" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="525" topLeftCell="A644" activePane="bottomLeft" state="split"/>
+      <pane xSplit="0" ySplit="525" topLeftCell="A706" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A634" activeCellId="0" sqref="A634"/>
-      <selection pane="bottomLeft" activeCell="H638" activeCellId="0" sqref="H638"/>
+      <selection pane="bottomLeft" activeCell="A569" activeCellId="0" sqref="A569:A711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -29977,7 +30146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="n">
         <v>570</v>
       </c>
@@ -30042,8 +30211,7 @@
         <v>0</v>
       </c>
       <c r="G572" s="12" t="n">
-        <f aca="false">40-F571</f>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H572" s="12" t="s">
         <v>749</v>
@@ -30052,10 +30220,10 @@
         <v>0</v>
       </c>
       <c r="J572" s="14" t="s">
-        <v>586</v>
+        <v>750</v>
       </c>
       <c r="K572" s="15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L572" s="12" t="s">
         <v>30</v>
@@ -30098,10 +30266,10 @@
         <v>0</v>
       </c>
       <c r="J573" s="21" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K573" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L573" s="19" t="s">
         <v>30</v>
@@ -30144,10 +30312,10 @@
         <v>0</v>
       </c>
       <c r="J574" s="21" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K574" s="32" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L574" s="19" t="s">
         <v>30</v>
@@ -30180,20 +30348,19 @@
         <v>0</v>
       </c>
       <c r="G575" s="12" t="n">
-        <f aca="false">G572</f>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H575" s="12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I575" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J575" s="14" t="s">
-        <v>598</v>
+        <v>757</v>
       </c>
       <c r="K575" s="15" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="L575" s="12" t="s">
         <v>30</v>
@@ -30230,7 +30397,7 @@
         <v>11</v>
       </c>
       <c r="H576" s="19" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I576" s="20" t="n">
         <v>0</v>
@@ -30239,7 +30406,7 @@
         <v>453</v>
       </c>
       <c r="K576" s="32" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L576" s="19" t="s">
         <v>30</v>
@@ -30284,7 +30451,7 @@
         <v>383</v>
       </c>
       <c r="K577" s="32" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="L577" s="19" t="s">
         <v>81</v>
@@ -30320,7 +30487,7 @@
         <v>11</v>
       </c>
       <c r="H578" s="19" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I578" s="20" t="n">
         <v>0</v>
@@ -30329,7 +30496,7 @@
         <v>409</v>
       </c>
       <c r="K578" s="32" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L578" s="19" t="s">
         <v>18</v>
@@ -30365,7 +30532,7 @@
         <v>11</v>
       </c>
       <c r="H579" s="19" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="I579" s="20" t="n">
         <v>0</v>
@@ -30374,7 +30541,7 @@
         <v>363</v>
       </c>
       <c r="K579" s="32" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L579" s="19" t="s">
         <v>18</v>
@@ -30410,7 +30577,7 @@
         <v>11</v>
       </c>
       <c r="H580" s="19" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="I580" s="20" t="n">
         <v>0</v>
@@ -30419,7 +30586,7 @@
         <v>383</v>
       </c>
       <c r="K580" s="32" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="L580" s="19" t="s">
         <v>30</v>
@@ -30452,7 +30619,6 @@
         <v>12</v>
       </c>
       <c r="G581" s="12" t="n">
-        <f aca="false">G575</f>
         <v>33</v>
       </c>
       <c r="H581" s="12" t="s">
@@ -30462,10 +30628,10 @@
         <v>0</v>
       </c>
       <c r="J581" s="14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="K581" s="15" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="L581" s="12" t="s">
         <v>18</v>
@@ -30508,10 +30674,10 @@
         <v>0</v>
       </c>
       <c r="J582" s="21" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="K582" s="32" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="L582" s="19" t="s">
         <v>18</v>
@@ -30559,7 +30725,7 @@
         <v>15</v>
       </c>
       <c r="K583" s="29" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="L583" s="26" t="s">
         <v>18</v>
@@ -30601,10 +30767,10 @@
         <v>0</v>
       </c>
       <c r="J584" s="37" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K584" s="38" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="L584" s="35" t="s">
         <v>81</v>
@@ -30620,44 +30786,45 @@
       <c r="A585" s="0" t="n">
         <v>584</v>
       </c>
-      <c r="B585" s="33" t="n">
-        <f aca="false">A583</f>
-        <v>582</v>
-      </c>
-      <c r="C585" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="D585" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E585" s="33" t="s">
+      <c r="B585" s="84" t="n">
+        <f aca="false">A584</f>
+        <v>583</v>
+      </c>
+      <c r="C585" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D585" s="84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E585" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F585" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="G585" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="H585" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I585" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J585" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="K585" s="38" t="s">
-        <v>772</v>
-      </c>
-      <c r="L585" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="M585" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N585" s="36" t="n">
+      <c r="F585" s="85" t="n">
+        <f aca="false">F583</f>
+        <v>12</v>
+      </c>
+      <c r="G585" s="85" t="n">
+        <v>18</v>
+      </c>
+      <c r="H585" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="I585" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J585" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="K585" s="88" t="s">
+        <v>775</v>
+      </c>
+      <c r="L585" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="M585" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="N585" s="86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30665,44 +30832,44 @@
       <c r="A586" s="0" t="n">
         <v>585</v>
       </c>
-      <c r="B586" s="17" t="n">
-        <f aca="false">A581</f>
-        <v>580</v>
-      </c>
-      <c r="C586" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D586" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E586" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F586" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G586" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H586" s="19" t="s">
+      <c r="B586" s="33" t="n">
+        <f aca="false">A583</f>
+        <v>582</v>
+      </c>
+      <c r="C586" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D586" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E586" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F586" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G586" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="H586" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I586" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J586" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="K586" s="32" t="s">
-        <v>773</v>
-      </c>
-      <c r="L586" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M586" s="19" t="s">
+      <c r="I586" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K586" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="L586" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="M586" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N586" s="20" t="n">
+      <c r="N586" s="36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30710,46 +30877,45 @@
       <c r="A587" s="0" t="n">
         <v>586</v>
       </c>
-      <c r="B587" s="24" t="n">
+      <c r="B587" s="84" t="n">
         <f aca="false">A586</f>
         <v>585</v>
       </c>
-      <c r="C587" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D587" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E587" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F587" s="26" t="n">
-        <f aca="false">F581</f>
+      <c r="C587" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D587" s="84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E587" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F587" s="85" t="n">
+        <f aca="false">F585</f>
         <v>12</v>
       </c>
-      <c r="G587" s="26" t="n">
-        <f aca="false">G581</f>
-        <v>33</v>
-      </c>
-      <c r="H587" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="I587" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J587" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="K587" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="L587" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="M587" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N587" s="27" t="n">
+      <c r="G587" s="85" t="n">
+        <v>18</v>
+      </c>
+      <c r="H587" s="85" t="s">
+        <v>777</v>
+      </c>
+      <c r="I587" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J587" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="K587" s="88" t="s">
+        <v>775</v>
+      </c>
+      <c r="L587" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="M587" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="N587" s="86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30768,7 +30934,7 @@
         <v>3</v>
       </c>
       <c r="E588" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F588" s="19" t="n">
         <v>7</v>
@@ -30777,16 +30943,16 @@
         <v>9</v>
       </c>
       <c r="H588" s="19" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="I588" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J588" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K588" s="32" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="L588" s="19" t="s">
         <v>18</v>
@@ -30813,7 +30979,7 @@
         <v>3</v>
       </c>
       <c r="E589" s="24" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F589" s="26" t="n">
         <f aca="false">F581</f>
@@ -30824,16 +30990,16 @@
         <v>33</v>
       </c>
       <c r="H589" s="26" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="I589" s="27" t="n">
         <v>0</v>
       </c>
       <c r="J589" s="28" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="K589" s="29" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="L589" s="26" t="s">
         <v>30</v>
@@ -30849,92 +31015,91 @@
       <c r="A590" s="0" t="n">
         <v>589</v>
       </c>
-      <c r="B590" s="10" t="n">
-        <f aca="false">B581</f>
-        <v>570</v>
-      </c>
-      <c r="C590" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D590" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E590" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F590" s="12" t="n">
+      <c r="B590" s="17" t="n">
+        <f aca="false">A581</f>
+        <v>580</v>
+      </c>
+      <c r="C590" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D590" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E590" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F590" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G590" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H590" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I590" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J590" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K590" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="L590" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M590" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N590" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" s="24" t="n">
+        <f aca="false">A590</f>
+        <v>589</v>
+      </c>
+      <c r="C591" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D591" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E591" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F591" s="26" t="n">
+        <f aca="false">F581</f>
         <v>12</v>
       </c>
-      <c r="G590" s="12" t="n">
+      <c r="G591" s="26" t="n">
         <f aca="false">G581</f>
         <v>33</v>
       </c>
-      <c r="H590" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I590" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J590" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="K590" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="L590" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M590" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N590" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="n">
-        <v>590</v>
-      </c>
-      <c r="B591" s="17" t="n">
-        <f aca="false">A590</f>
-        <v>589</v>
-      </c>
-      <c r="C591" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D591" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E591" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F591" s="19" t="n">
-        <f aca="false">F571</f>
-        <v>7</v>
-      </c>
-      <c r="G591" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H591" s="19" t="str">
-        <f aca="false">H571</f>
-        <v>6+ kier / pik</v>
-      </c>
-      <c r="I591" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J591" s="21" t="s">
-        <v>779</v>
-      </c>
-      <c r="K591" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="L591" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M591" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N591" s="20" t="n">
+      <c r="H591" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="I591" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J591" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="K591" s="29" t="s">
+        <v>781</v>
+      </c>
+      <c r="L591" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M591" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N591" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30942,93 +31107,92 @@
       <c r="A592" s="0" t="n">
         <v>591</v>
       </c>
-      <c r="B592" s="24" t="n">
-        <f aca="false">A591</f>
-        <v>590</v>
-      </c>
-      <c r="C592" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D592" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E592" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F592" s="26" t="n">
-        <f aca="false">F590</f>
+      <c r="B592" s="10" t="n">
+        <f aca="false">B581</f>
+        <v>570</v>
+      </c>
+      <c r="C592" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D592" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E592" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F592" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="G592" s="26" t="n">
-        <f aca="false">G590</f>
+      <c r="G592" s="12" t="n">
+        <f aca="false">G581</f>
         <v>33</v>
       </c>
-      <c r="H592" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I592" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J592" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="K592" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="L592" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="M592" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N592" s="27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H592" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I592" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J592" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="K592" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="L592" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M592" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N592" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="n">
         <v>592</v>
       </c>
-      <c r="B593" s="24" t="n">
-        <f aca="false">B592</f>
-        <v>590</v>
-      </c>
-      <c r="C593" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D593" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E593" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F593" s="26" t="n">
-        <f aca="false">F592</f>
-        <v>12</v>
-      </c>
-      <c r="G593" s="26" t="n">
-        <f aca="false">G592</f>
-        <v>33</v>
-      </c>
-      <c r="H593" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="I593" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J593" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="K593" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="L593" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="M593" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="N593" s="27" t="n">
+      <c r="B593" s="17" t="n">
+        <f aca="false">A592</f>
+        <v>591</v>
+      </c>
+      <c r="C593" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D593" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E593" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F593" s="19" t="n">
+        <f aca="false">F571</f>
+        <v>7</v>
+      </c>
+      <c r="G593" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H593" s="19" t="str">
+        <f aca="false">H571</f>
+        <v>6+ kier / pik</v>
+      </c>
+      <c r="I593" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J593" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="K593" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="L593" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M593" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N593" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31037,8 +31201,8 @@
         <v>593</v>
       </c>
       <c r="B594" s="24" t="n">
-        <f aca="false">B593</f>
-        <v>590</v>
+        <f aca="false">A593</f>
+        <v>592</v>
       </c>
       <c r="C594" s="24" t="n">
         <v>3</v>
@@ -31047,27 +31211,27 @@
         <v>3</v>
       </c>
       <c r="E594" s="24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F594" s="26" t="n">
-        <f aca="false">F593</f>
+        <f aca="false">F592</f>
         <v>12</v>
       </c>
       <c r="G594" s="26" t="n">
-        <f aca="false">G593</f>
+        <f aca="false">G592</f>
         <v>33</v>
       </c>
       <c r="H594" s="26" t="s">
-        <v>782</v>
+        <v>148</v>
       </c>
       <c r="I594" s="27" t="n">
         <v>0</v>
       </c>
       <c r="J594" s="28" t="s">
-        <v>783</v>
+        <v>383</v>
       </c>
       <c r="K594" s="29" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="L594" s="26" t="s">
         <v>81</v>
@@ -31085,16 +31249,16 @@
       </c>
       <c r="B595" s="24" t="n">
         <f aca="false">B594</f>
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C595" s="24" t="n">
         <v>3</v>
       </c>
       <c r="D595" s="24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E595" s="24" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F595" s="26" t="n">
         <f aca="false">F594</f>
@@ -31105,16 +31269,16 @@
         <v>33</v>
       </c>
       <c r="H595" s="26" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
       <c r="I595" s="27" t="n">
         <v>0</v>
       </c>
       <c r="J595" s="28" t="s">
-        <v>721</v>
+        <v>453</v>
       </c>
       <c r="K595" s="29" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="L595" s="26" t="s">
         <v>81</v>
@@ -31132,16 +31296,16 @@
       </c>
       <c r="B596" s="24" t="n">
         <f aca="false">B595</f>
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C596" s="24" t="n">
         <v>3</v>
       </c>
       <c r="D596" s="24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E596" s="24" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F596" s="26" t="n">
         <f aca="false">F595</f>
@@ -31152,16 +31316,16 @@
         <v>33</v>
       </c>
       <c r="H596" s="26" t="s">
-        <v>39</v>
+        <v>787</v>
       </c>
       <c r="I596" s="27" t="n">
         <v>0</v>
       </c>
       <c r="J596" s="28" t="s">
-        <v>495</v>
+        <v>788</v>
       </c>
       <c r="K596" s="29" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="L596" s="26" t="s">
         <v>81</v>
@@ -31173,164 +31337,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="n">
         <v>596</v>
       </c>
-      <c r="B597" s="10" t="n">
-        <f aca="false">B590</f>
-        <v>570</v>
-      </c>
-      <c r="C597" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D597" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E597" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F597" s="12" t="n">
+      <c r="B597" s="24" t="n">
+        <f aca="false">B596</f>
+        <v>592</v>
+      </c>
+      <c r="C597" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D597" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E597" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F597" s="26" t="n">
+        <f aca="false">F596</f>
         <v>12</v>
       </c>
-      <c r="G597" s="12" t="n">
-        <f aca="false">G590</f>
+      <c r="G597" s="26" t="n">
+        <f aca="false">G596</f>
         <v>33</v>
       </c>
-      <c r="H597" s="12" t="s">
-        <v>785</v>
-      </c>
-      <c r="I597" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J597" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="K597" s="15" t="s">
+      <c r="H597" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I597" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="K597" s="29" t="s">
         <v>786</v>
       </c>
-      <c r="L597" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M597" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N597" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L597" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M597" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N597" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="n">
         <v>597</v>
       </c>
-      <c r="B598" s="17" t="n">
-        <f aca="false">A597</f>
-        <v>596</v>
-      </c>
-      <c r="C598" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D598" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E598" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F598" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G598" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H598" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I598" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J598" s="21" t="s">
-        <v>787</v>
-      </c>
-      <c r="K598" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="L598" s="19" t="s">
+      <c r="B598" s="24" t="n">
+        <f aca="false">B597</f>
+        <v>592</v>
+      </c>
+      <c r="C598" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D598" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E598" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F598" s="26" t="n">
+        <f aca="false">F597</f>
+        <v>12</v>
+      </c>
+      <c r="G598" s="26" t="n">
+        <f aca="false">G597</f>
+        <v>33</v>
+      </c>
+      <c r="H598" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I598" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="K598" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="L598" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="M598" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N598" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M598" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N598" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="n">
         <v>598</v>
       </c>
-      <c r="B599" s="17" t="n">
-        <f aca="false">B598</f>
-        <v>596</v>
-      </c>
-      <c r="C599" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D599" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E599" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F599" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G599" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H599" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I599" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J599" s="21" t="s">
-        <v>789</v>
-      </c>
-      <c r="K599" s="32" t="s">
+      <c r="B599" s="10" t="n">
+        <f aca="false">B592</f>
+        <v>570</v>
+      </c>
+      <c r="C599" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D599" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E599" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F599" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G599" s="12" t="n">
+        <f aca="false">G592</f>
+        <v>33</v>
+      </c>
+      <c r="H599" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="L599" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M599" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N599" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I599" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="K599" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="L599" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M599" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N599" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="n">
         <v>599</v>
       </c>
       <c r="B600" s="17" t="n">
-        <f aca="false">B599</f>
-        <v>596</v>
+        <f aca="false">A599</f>
+        <v>598</v>
       </c>
       <c r="C600" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D600" s="17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E600" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F600" s="19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G600" s="19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H600" s="19" t="s">
         <v>46</v>
@@ -31339,43 +31507,43 @@
         <v>0</v>
       </c>
       <c r="J600" s="21" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K600" s="32" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L600" s="19" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M600" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N600" s="20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="n">
         <v>600</v>
       </c>
       <c r="B601" s="17" t="n">
         <f aca="false">B600</f>
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C601" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D601" s="17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E601" s="17" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F601" s="19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G601" s="19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H601" s="19" t="s">
         <v>107</v>
@@ -31384,154 +31552,154 @@
         <v>0</v>
       </c>
       <c r="J601" s="21" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="K601" s="32" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="L601" s="19" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M601" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N601" s="20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="n">
         <v>601</v>
       </c>
-      <c r="B602" s="10" t="n">
-        <f aca="false">B597</f>
-        <v>570</v>
-      </c>
-      <c r="C602" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D602" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E602" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F602" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G602" s="12" t="n">
-        <f aca="false">G597</f>
-        <v>33</v>
-      </c>
-      <c r="H602" s="12" t="s">
+      <c r="B602" s="17" t="n">
+        <f aca="false">B601</f>
         <v>598</v>
       </c>
-      <c r="I602" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J602" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="K602" s="15" t="s">
+      <c r="C602" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D602" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E602" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F602" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G602" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H602" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I602" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J602" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="L602" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M602" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N602" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K602" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="L602" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M602" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N602" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="n">
         <v>602</v>
       </c>
-      <c r="B603" s="10" t="n">
+      <c r="B603" s="17" t="n">
         <f aca="false">B602</f>
-        <v>570</v>
-      </c>
-      <c r="C603" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D603" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E603" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F603" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G603" s="12" t="n">
-        <f aca="false">G602</f>
-        <v>33</v>
-      </c>
-      <c r="H603" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="I603" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J603" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="K603" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="L603" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M603" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N603" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>598</v>
+      </c>
+      <c r="C603" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D603" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E603" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F603" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G603" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H603" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I603" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J603" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="K603" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="L603" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M603" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N603" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="n">
         <v>603</v>
       </c>
-      <c r="B604" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C604" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D604" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E604" s="3" t="s">
+      <c r="B604" s="10" t="n">
+        <f aca="false">B599</f>
+        <v>570</v>
+      </c>
+      <c r="C604" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D604" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E604" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F604" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G604" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H604" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="I604" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J604" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="K604" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="L604" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M604" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N604" s="6" t="n">
+      <c r="F604" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G604" s="12" t="n">
+        <f aca="false">G599</f>
+        <v>33</v>
+      </c>
+      <c r="H604" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I604" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J604" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="K604" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="L604" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M604" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N604" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31540,14 +31708,14 @@
         <v>604</v>
       </c>
       <c r="B605" s="10" t="n">
-        <f aca="false">A604</f>
-        <v>603</v>
+        <f aca="false">B604</f>
+        <v>570</v>
       </c>
       <c r="C605" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D605" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E605" s="10" t="s">
         <v>45</v>
@@ -31556,22 +31724,23 @@
         <v>0</v>
       </c>
       <c r="G605" s="12" t="n">
-        <v>11</v>
+        <f aca="false">G604</f>
+        <v>33</v>
       </c>
       <c r="H605" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="I605" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J605" s="14" t="s">
         <v>800</v>
-      </c>
-      <c r="I605" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J605" s="14" t="s">
-        <v>801</v>
       </c>
       <c r="K605" s="15" t="s">
         <v>802</v>
       </c>
       <c r="L605" s="12" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M605" s="12" t="s">
         <v>31</v>
@@ -31580,48 +31749,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="n">
         <v>605</v>
       </c>
-      <c r="B606" s="17" t="n">
-        <f aca="false">A605</f>
-        <v>604</v>
-      </c>
-      <c r="C606" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D606" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E606" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F606" s="19" t="n">
+      <c r="B606" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C606" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D606" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F606" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G606" s="19" t="n">
+      <c r="G606" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H606" s="19" t="s">
+      <c r="H606" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="I606" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J606" s="21" t="s">
+      <c r="I606" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J606" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="K606" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="K606" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="L606" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M606" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N606" s="20" t="n">
+      <c r="L606" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M606" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N606" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31629,44 +31797,44 @@
       <c r="A607" s="0" t="n">
         <v>606</v>
       </c>
-      <c r="B607" s="17" t="n">
+      <c r="B607" s="10" t="n">
         <f aca="false">A606</f>
         <v>605</v>
       </c>
-      <c r="C607" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D607" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E607" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F607" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G607" s="19" t="n">
+      <c r="C607" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D607" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E607" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F607" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G607" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="H607" s="19" t="s">
+      <c r="H607" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="I607" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J607" s="21" t="s">
+      <c r="I607" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J607" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="K607" s="32" t="s">
+      <c r="K607" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="L607" s="19" t="s">
+      <c r="L607" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M607" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N607" s="20" t="n">
+      <c r="M607" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N607" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31675,8 +31843,8 @@
         <v>607</v>
       </c>
       <c r="B608" s="17" t="n">
-        <f aca="false">B607</f>
-        <v>605</v>
+        <f aca="false">A607</f>
+        <v>606</v>
       </c>
       <c r="C608" s="17" t="n">
         <v>2</v>
@@ -31685,7 +31853,7 @@
         <v>3</v>
       </c>
       <c r="E608" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F608" s="19" t="n">
         <v>7</v>
@@ -31700,13 +31868,13 @@
         <v>0</v>
       </c>
       <c r="J608" s="21" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="K608" s="32" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="L608" s="19" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M608" s="19" t="s">
         <v>31</v>
@@ -31715,48 +31883,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="n">
         <v>608</v>
       </c>
-      <c r="B609" s="10" t="n">
-        <f aca="false">B605</f>
-        <v>603</v>
-      </c>
-      <c r="C609" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D609" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E609" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F609" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G609" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H609" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I609" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J609" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="K609" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="L609" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M609" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N609" s="13" t="n">
+      <c r="B609" s="17" t="n">
+        <f aca="false">A608</f>
+        <v>607</v>
+      </c>
+      <c r="C609" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D609" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E609" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F609" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G609" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H609" s="19" t="s">
+        <v>811</v>
+      </c>
+      <c r="I609" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J609" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="K609" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="L609" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M609" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N609" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31765,8 +31933,8 @@
         <v>609</v>
       </c>
       <c r="B610" s="17" t="n">
-        <f aca="false">A609</f>
-        <v>608</v>
+        <f aca="false">B609</f>
+        <v>607</v>
       </c>
       <c r="C610" s="17" t="n">
         <v>2</v>
@@ -31775,7 +31943,7 @@
         <v>3</v>
       </c>
       <c r="E610" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F610" s="19" t="n">
         <v>7</v>
@@ -31784,16 +31952,16 @@
         <v>11</v>
       </c>
       <c r="H610" s="19" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="I610" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J610" s="21" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="K610" s="32" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="L610" s="19" t="s">
         <v>81</v>
@@ -31805,48 +31973,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="n">
         <v>610</v>
       </c>
-      <c r="B611" s="17" t="n">
-        <f aca="false">B610</f>
-        <v>608</v>
-      </c>
-      <c r="C611" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D611" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E611" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F611" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G611" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H611" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="I611" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J611" s="21" t="s">
-        <v>806</v>
-      </c>
-      <c r="K611" s="32" t="s">
-        <v>807</v>
-      </c>
-      <c r="L611" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M611" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N611" s="20" t="n">
+      <c r="B611" s="10" t="n">
+        <f aca="false">B607</f>
+        <v>605</v>
+      </c>
+      <c r="C611" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D611" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F611" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G611" s="12" t="n">
+        <f aca="false">37-F606</f>
+        <v>30</v>
+      </c>
+      <c r="H611" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="I611" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="K611" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="L611" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M611" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N611" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31855,8 +32024,8 @@
         <v>611</v>
       </c>
       <c r="B612" s="17" t="n">
-        <f aca="false">B610</f>
-        <v>608</v>
+        <f aca="false">A611</f>
+        <v>610</v>
       </c>
       <c r="C612" s="17" t="n">
         <v>2</v>
@@ -31865,7 +32034,7 @@
         <v>3</v>
       </c>
       <c r="E612" s="17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F612" s="19" t="n">
         <v>7</v>
@@ -31874,16 +32043,16 @@
         <v>11</v>
       </c>
       <c r="H612" s="19" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="I612" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J612" s="21" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="K612" s="32" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="L612" s="19" t="s">
         <v>81</v>
@@ -31899,44 +32068,44 @@
       <c r="A613" s="0" t="n">
         <v>612</v>
       </c>
-      <c r="B613" s="10" t="n">
-        <f aca="false">B609</f>
-        <v>603</v>
-      </c>
-      <c r="C613" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D613" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E613" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F613" s="12" t="n">
+      <c r="B613" s="24" t="n">
+        <f aca="false">A612</f>
+        <v>611</v>
+      </c>
+      <c r="C613" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D613" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E613" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F613" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="G613" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H613" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="I613" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J613" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="K613" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="L613" s="12" t="s">
+      <c r="G613" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="M613" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N613" s="13" t="n">
+      <c r="H613" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="I613" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K613" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="L613" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M613" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N613" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31944,44 +32113,45 @@
       <c r="A614" s="0" t="n">
         <v>613</v>
       </c>
-      <c r="B614" s="10" t="n">
+      <c r="B614" s="24" t="n">
         <f aca="false">B613</f>
-        <v>603</v>
-      </c>
-      <c r="C614" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D614" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E614" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F614" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G614" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H614" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="I614" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J614" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="K614" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="L614" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M614" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N614" s="13" t="n">
+        <v>611</v>
+      </c>
+      <c r="C614" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D614" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E614" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F614" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="G614" s="26" t="n">
+        <f aca="false">G607</f>
+        <v>11</v>
+      </c>
+      <c r="H614" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="I614" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="K614" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="L614" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M614" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N614" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31989,44 +32159,44 @@
       <c r="A615" s="0" t="n">
         <v>614</v>
       </c>
-      <c r="B615" s="10" t="n">
+      <c r="B615" s="24" t="n">
         <f aca="false">B614</f>
-        <v>603</v>
-      </c>
-      <c r="C615" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D615" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E615" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F615" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G615" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H615" s="12" t="s">
-        <v>813</v>
-      </c>
-      <c r="I615" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J615" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K615" s="15" t="s">
-        <v>814</v>
-      </c>
-      <c r="L615" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M615" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N615" s="13" t="n">
+        <v>611</v>
+      </c>
+      <c r="C615" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D615" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E615" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F615" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="G615" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H615" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="I615" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" s="28" t="s">
+        <v>824</v>
+      </c>
+      <c r="K615" s="29" t="s">
+        <v>825</v>
+      </c>
+      <c r="L615" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M615" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N615" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32034,44 +32204,44 @@
       <c r="A616" s="0" t="n">
         <v>615</v>
       </c>
-      <c r="B616" s="10" t="n">
-        <f aca="false">B615</f>
-        <v>603</v>
-      </c>
-      <c r="C616" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D616" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E616" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F616" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G616" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H616" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="I616" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J616" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="K616" s="15" t="s">
-        <v>817</v>
-      </c>
-      <c r="L616" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M616" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N616" s="13" t="n">
+      <c r="B616" s="17" t="n">
+        <f aca="false">B612</f>
+        <v>610</v>
+      </c>
+      <c r="C616" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D616" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E616" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F616" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G616" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H616" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="I616" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" s="21" t="s">
+        <v>812</v>
+      </c>
+      <c r="K616" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="L616" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M616" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N616" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32079,133 +32249,135 @@
       <c r="A617" s="0" t="n">
         <v>616</v>
       </c>
-      <c r="B617" s="10" t="n">
-        <f aca="false">B616</f>
-        <v>603</v>
-      </c>
-      <c r="C617" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D617" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E617" s="10" t="s">
+      <c r="B617" s="24" t="n">
+        <f aca="false">A616</f>
+        <v>615</v>
+      </c>
+      <c r="C617" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D617" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E617" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F617" s="12" t="n">
+      <c r="F617" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="G617" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H617" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="I617" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J617" s="14" t="s">
+      <c r="G617" s="26" t="n">
+        <v>18</v>
+      </c>
+      <c r="H617" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="K617" s="15" t="s">
+      <c r="I617" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="K617" s="29" t="s">
         <v>819</v>
       </c>
-      <c r="L617" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M617" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N617" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L617" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M617" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N617" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="n">
         <v>617</v>
       </c>
-      <c r="B618" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C618" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D618" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E618" s="3" t="s">
+      <c r="B618" s="24" t="n">
+        <f aca="false">B617</f>
+        <v>615</v>
+      </c>
+      <c r="C618" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D618" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E618" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F618" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G618" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H618" s="5" t="s">
+      <c r="F618" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="G618" s="26" t="n">
+        <f aca="false">G611</f>
+        <v>30</v>
+      </c>
+      <c r="H618" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="I618" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J618" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="K618" s="8" t="s">
+      <c r="I618" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" s="28" t="s">
         <v>821</v>
       </c>
-      <c r="L618" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M618" s="5" t="s">
+      <c r="K618" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="L618" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M618" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N618" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N618" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="n">
         <v>618</v>
       </c>
-      <c r="B619" s="10" t="n">
-        <f aca="false">A618</f>
-        <v>617</v>
-      </c>
-      <c r="C619" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D619" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E619" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F619" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G619" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H619" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I619" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J619" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="K619" s="15" t="s">
-        <v>810</v>
-      </c>
-      <c r="L619" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M619" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N619" s="13" t="n">
+      <c r="B619" s="24" t="n">
+        <f aca="false">B618</f>
+        <v>615</v>
+      </c>
+      <c r="C619" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D619" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E619" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F619" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="G619" s="26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H619" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="I619" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="K619" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="L619" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M619" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N619" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32214,8 +32386,8 @@
         <v>619</v>
       </c>
       <c r="B620" s="17" t="n">
-        <f aca="false">A619</f>
-        <v>618</v>
+        <f aca="false">B612</f>
+        <v>610</v>
       </c>
       <c r="C620" s="17" t="n">
         <v>2</v>
@@ -32224,7 +32396,7 @@
         <v>3</v>
       </c>
       <c r="E620" s="17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F620" s="19" t="n">
         <v>7</v>
@@ -32233,16 +32405,16 @@
         <v>11</v>
       </c>
       <c r="H620" s="19" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="I620" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J620" s="21" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="K620" s="32" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="L620" s="19" t="s">
         <v>81</v>
@@ -32258,44 +32430,44 @@
       <c r="A621" s="0" t="n">
         <v>620</v>
       </c>
-      <c r="B621" s="17" t="n">
-        <f aca="false">B620</f>
-        <v>618</v>
-      </c>
-      <c r="C621" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D621" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E621" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F621" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G621" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H621" s="19" t="s">
-        <v>824</v>
-      </c>
-      <c r="I621" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J621" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="K621" s="32" t="s">
-        <v>807</v>
-      </c>
-      <c r="L621" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M621" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N621" s="20" t="n">
+      <c r="B621" s="10" t="n">
+        <f aca="false">B611</f>
+        <v>605</v>
+      </c>
+      <c r="C621" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D621" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E621" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F621" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G621" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H621" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="I621" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="K621" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="L621" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M621" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N621" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32304,8 +32476,8 @@
         <v>621</v>
       </c>
       <c r="B622" s="10" t="n">
-        <f aca="false">B619</f>
-        <v>617</v>
+        <f aca="false">B621</f>
+        <v>605</v>
       </c>
       <c r="C622" s="10" t="n">
         <v>1</v>
@@ -32314,7 +32486,7 @@
         <v>3</v>
       </c>
       <c r="E622" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F622" s="12" t="n">
         <v>12</v>
@@ -32323,16 +32495,16 @@
         <v>37</v>
       </c>
       <c r="H622" s="12" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I622" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J622" s="14" t="s">
-        <v>690</v>
+        <v>421</v>
       </c>
       <c r="K622" s="15" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="L622" s="12" t="s">
         <v>18</v>
@@ -32350,7 +32522,7 @@
       </c>
       <c r="B623" s="10" t="n">
         <f aca="false">B622</f>
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C623" s="10" t="n">
         <v>1</v>
@@ -32359,7 +32531,7 @@
         <v>3</v>
       </c>
       <c r="E623" s="10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F623" s="12" t="n">
         <v>12</v>
@@ -32368,16 +32540,16 @@
         <v>37</v>
       </c>
       <c r="H623" s="12" t="s">
-        <v>662</v>
+        <v>832</v>
       </c>
       <c r="I623" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J623" s="14" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="K623" s="15" t="s">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="L623" s="12" t="s">
         <v>18</v>
@@ -32395,7 +32567,7 @@
       </c>
       <c r="B624" s="10" t="n">
         <f aca="false">B623</f>
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C624" s="10" t="n">
         <v>1</v>
@@ -32413,19 +32585,19 @@
         <v>37</v>
       </c>
       <c r="H624" s="12" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="I624" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J624" s="14" t="s">
-        <v>108</v>
+        <v>835</v>
       </c>
       <c r="K624" s="15" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="L624" s="12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M624" s="12" t="s">
         <v>31</v>
@@ -32438,44 +32610,45 @@
       <c r="A625" s="0" t="n">
         <v>624</v>
       </c>
-      <c r="B625" s="10" t="n">
-        <f aca="false">B624</f>
-        <v>617</v>
-      </c>
-      <c r="C625" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D625" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E625" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F625" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G625" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H625" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="I625" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J625" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="K625" s="15" t="s">
-        <v>829</v>
-      </c>
-      <c r="L625" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M625" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N625" s="13" t="n">
+      <c r="B625" s="17" t="n">
+        <f aca="false">A624</f>
+        <v>623</v>
+      </c>
+      <c r="C625" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D625" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E625" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F625" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G625" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H625" s="19" t="str">
+        <f aca="false">H606</f>
+        <v>5+ kier i 5 dowolna</v>
+      </c>
+      <c r="I625" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="K625" s="32" t="s">
+        <v>838</v>
+      </c>
+      <c r="L625" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M625" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N625" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32483,280 +32656,280 @@
       <c r="A626" s="0" t="n">
         <v>625</v>
       </c>
-      <c r="B626" s="10" t="n">
+      <c r="B626" s="17" t="n">
         <f aca="false">B625</f>
-        <v>617</v>
-      </c>
-      <c r="C626" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D626" s="10" t="n">
+        <v>623</v>
+      </c>
+      <c r="C626" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D626" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E626" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F626" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G626" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H626" s="12" t="s">
-        <v>830</v>
-      </c>
-      <c r="I626" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J626" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="K626" s="15" t="s">
-        <v>832</v>
-      </c>
-      <c r="L626" s="12" t="s">
+      <c r="E626" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F626" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G626" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H626" s="19" t="str">
+        <f aca="false">H625</f>
+        <v>5+ kier i 5 dowolna</v>
+      </c>
+      <c r="I626" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K626" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="L626" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M626" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N626" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M626" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N626" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="n">
         <v>626</v>
       </c>
-      <c r="B627" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C627" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D627" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E627" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F627" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G627" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H627" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="I627" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J627" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="K627" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="L627" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M627" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N627" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B627" s="10" t="n">
+        <f aca="false">B624</f>
+        <v>605</v>
+      </c>
+      <c r="C627" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D627" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E627" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F627" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G627" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H627" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="I627" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="K627" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="L627" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M627" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N627" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="n">
         <v>627</v>
       </c>
-      <c r="B628" s="10" t="n">
+      <c r="B628" s="17" t="n">
         <f aca="false">A627</f>
         <v>626</v>
       </c>
-      <c r="C628" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D628" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E628" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F628" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G628" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H628" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I628" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J628" s="14" t="s">
-        <v>837</v>
-      </c>
-      <c r="K628" s="15" t="s">
-        <v>838</v>
-      </c>
-      <c r="L628" s="12" t="s">
+      <c r="C628" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D628" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E628" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F628" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G628" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H628" s="19" t="str">
+        <f aca="false">H606</f>
+        <v>5+ kier i 5 dowolna</v>
+      </c>
+      <c r="I628" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K628" s="32" t="s">
+        <v>839</v>
+      </c>
+      <c r="L628" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M628" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N628" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M628" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N628" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="n">
         <v>628</v>
       </c>
-      <c r="B629" s="10" t="n">
-        <f aca="false">B628</f>
-        <v>626</v>
-      </c>
-      <c r="C629" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D629" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E629" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F629" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G629" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H629" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="I629" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J629" s="14" t="s">
-        <v>837</v>
-      </c>
-      <c r="K629" s="15" t="s">
-        <v>838</v>
-      </c>
-      <c r="L629" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M629" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N629" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B629" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C629" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D629" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F629" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G629" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H629" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I629" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="K629" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="L629" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M629" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N629" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="n">
         <v>629</v>
       </c>
       <c r="B630" s="10" t="n">
-        <f aca="false">B629</f>
-        <v>626</v>
+        <f aca="false">A629</f>
+        <v>628</v>
       </c>
       <c r="C630" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D630" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E630" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F630" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G630" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="G630" s="12" t="n">
-        <v>37</v>
-      </c>
       <c r="H630" s="12" t="s">
-        <v>15</v>
+        <v>845</v>
       </c>
       <c r="I630" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J630" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K630" s="15" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="L630" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M630" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N630" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="n">
         <v>630</v>
       </c>
-      <c r="B631" s="17" t="n">
-        <f aca="false">A630</f>
-        <v>629</v>
-      </c>
-      <c r="C631" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D631" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E631" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F631" s="19" t="n">
-        <f aca="false">F627</f>
-        <v>7</v>
-      </c>
-      <c r="G631" s="19" t="n">
-        <f aca="false">G627</f>
-        <v>11</v>
-      </c>
-      <c r="H631" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="I631" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J631" s="21" t="s">
-        <v>842</v>
-      </c>
-      <c r="K631" s="21" t="s">
-        <v>843</v>
-      </c>
-      <c r="L631" s="19" t="s">
+      <c r="B631" s="10" t="n">
+        <f aca="false">A629</f>
+        <v>628</v>
+      </c>
+      <c r="C631" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D631" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F631" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G631" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="H631" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="I631" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="K631" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="L631" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M631" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N631" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M631" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N631" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="n">
         <v>631</v>
       </c>
       <c r="B632" s="17" t="n">
-        <f aca="false">B631</f>
-        <v>629</v>
+        <f aca="false">A631</f>
+        <v>630</v>
       </c>
       <c r="C632" s="17" t="n">
         <v>2</v>
@@ -32765,77 +32938,73 @@
         <v>3</v>
       </c>
       <c r="E632" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F632" s="19" t="n">
-        <f aca="false">F631</f>
         <v>7</v>
       </c>
       <c r="G632" s="19" t="n">
-        <f aca="false">G631</f>
         <v>11</v>
       </c>
       <c r="H632" s="19" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="I632" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J632" s="21" t="s">
-        <v>845</v>
-      </c>
-      <c r="K632" s="21" t="s">
-        <v>846</v>
+        <v>850</v>
+      </c>
+      <c r="K632" s="32" t="s">
+        <v>813</v>
       </c>
       <c r="L632" s="19" t="s">
         <v>81</v>
       </c>
       <c r="M632" s="19" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N632" s="20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="n">
         <v>632</v>
       </c>
       <c r="B633" s="17" t="n">
         <f aca="false">B632</f>
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C633" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D633" s="17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E633" s="17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F633" s="19" t="n">
-        <f aca="false">F632</f>
         <v>7</v>
       </c>
       <c r="G633" s="19" t="n">
-        <f aca="false">G632</f>
         <v>11</v>
       </c>
       <c r="H633" s="19" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="I633" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J633" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="K633" s="21" t="s">
-        <v>849</v>
+        <v>451</v>
+      </c>
+      <c r="K633" s="32" t="s">
+        <v>813</v>
       </c>
       <c r="L633" s="19" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="M633" s="19" t="s">
         <v>31</v>
@@ -32844,144 +33013,138 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="n">
         <v>633</v>
       </c>
-      <c r="B634" s="17" t="n">
-        <f aca="false">B633</f>
-        <v>629</v>
-      </c>
-      <c r="C634" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D634" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E634" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F634" s="19" t="n">
-        <f aca="false">F633</f>
-        <v>7</v>
-      </c>
-      <c r="G634" s="19" t="n">
-        <f aca="false">G633</f>
-        <v>11</v>
-      </c>
-      <c r="H634" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="I634" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J634" s="21" t="s">
-        <v>850</v>
-      </c>
-      <c r="K634" s="21" t="s">
-        <v>851</v>
-      </c>
-      <c r="L634" s="19" t="s">
+      <c r="B634" s="10" t="n">
+        <f aca="false">B631</f>
+        <v>628</v>
+      </c>
+      <c r="C634" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D634" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E634" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F634" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G634" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="H634" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="I634" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="K634" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="L634" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M634" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N634" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M634" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N634" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="n">
         <v>634</v>
       </c>
-      <c r="B635" s="17" t="n">
+      <c r="B635" s="10" t="n">
         <f aca="false">B634</f>
-        <v>629</v>
-      </c>
-      <c r="C635" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D635" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E635" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F635" s="19" t="n">
-        <f aca="false">F634</f>
-        <v>7</v>
-      </c>
-      <c r="G635" s="19" t="n">
-        <f aca="false">G634</f>
-        <v>11</v>
-      </c>
-      <c r="H635" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="I635" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J635" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="K635" s="21" t="s">
-        <v>853</v>
-      </c>
-      <c r="L635" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M635" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N635" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628</v>
+      </c>
+      <c r="C635" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D635" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E635" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F635" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G635" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="H635" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="I635" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="K635" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="L635" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M635" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N635" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="n">
         <v>635</v>
       </c>
-      <c r="B636" s="17" t="n">
+      <c r="B636" s="10" t="n">
         <f aca="false">B635</f>
-        <v>629</v>
-      </c>
-      <c r="C636" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D636" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E636" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F636" s="19" t="n">
-        <f aca="false">F635</f>
-        <v>7</v>
-      </c>
-      <c r="G636" s="19" t="n">
-        <f aca="false">G635</f>
-        <v>11</v>
-      </c>
-      <c r="H636" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I636" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J636" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="K636" s="21" t="s">
-        <v>855</v>
-      </c>
-      <c r="L636" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M636" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N636" s="20" t="n">
+        <v>628</v>
+      </c>
+      <c r="C636" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D636" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E636" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F636" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G636" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="H636" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="I636" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J636" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K636" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="L636" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M636" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N636" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32990,8 +33153,8 @@
         <v>636</v>
       </c>
       <c r="B637" s="10" t="n">
-        <f aca="false">B630</f>
-        <v>626</v>
+        <f aca="false">B636</f>
+        <v>628</v>
       </c>
       <c r="C637" s="10" t="n">
         <v>1</v>
@@ -33006,22 +33169,22 @@
         <v>12</v>
       </c>
       <c r="G637" s="12" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H637" s="12" t="s">
-        <v>332</v>
+        <v>854</v>
       </c>
       <c r="I637" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J637" s="14" t="s">
-        <v>324</v>
+        <v>855</v>
       </c>
       <c r="K637" s="15" t="s">
         <v>856</v>
       </c>
       <c r="L637" s="12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M637" s="12" t="s">
         <v>31</v>
@@ -33036,24 +33199,22 @@
       </c>
       <c r="B638" s="10" t="n">
         <f aca="false">B637</f>
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C638" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D638" s="10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E638" s="10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F638" s="12" t="n">
-        <f aca="false">F627</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G638" s="12" t="n">
-        <f aca="false">G627</f>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H638" s="12" t="s">
         <v>857</v>
@@ -33062,10 +33223,10 @@
         <v>0</v>
       </c>
       <c r="J638" s="14" t="s">
-        <v>140</v>
+        <v>858</v>
       </c>
       <c r="K638" s="15" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L638" s="12" t="s">
         <v>30</v>
@@ -33081,44 +33242,43 @@
       <c r="A639" s="0" t="n">
         <v>638</v>
       </c>
-      <c r="B639" s="10" t="n">
-        <f aca="false">B638</f>
-        <v>626</v>
-      </c>
-      <c r="C639" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D639" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E639" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F639" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G639" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="H639" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="I639" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J639" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="K639" s="15" t="s">
+      <c r="B639" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C639" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D639" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F639" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G639" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H639" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="L639" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M639" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N639" s="13" t="n">
+      <c r="I639" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="K639" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="L639" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M639" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N639" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33127,38 +33287,38 @@
         <v>639</v>
       </c>
       <c r="B640" s="10" t="n">
-        <f aca="false">B638</f>
-        <v>626</v>
+        <f aca="false">A639</f>
+        <v>638</v>
       </c>
       <c r="C640" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D640" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E640" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F640" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G640" s="12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H640" s="12" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="I640" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J640" s="14" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="K640" s="15" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="L640" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M640" s="12" t="s">
         <v>31</v>
@@ -33173,37 +33333,37 @@
       </c>
       <c r="B641" s="10" t="n">
         <f aca="false">B640</f>
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C641" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D641" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E641" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F641" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G641" s="12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H641" s="12" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="I641" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J641" s="14" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="K641" s="15" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="L641" s="12" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="M641" s="12" t="s">
         <v>31</v>
@@ -33212,313 +33372,330 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="n">
         <v>641</v>
       </c>
       <c r="B642" s="10" t="n">
         <f aca="false">B641</f>
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C642" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D642" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E642" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F642" s="12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G642" s="12" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H642" s="12" t="s">
-        <v>839</v>
+        <v>15</v>
       </c>
       <c r="I642" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J642" s="14" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="K642" s="15" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="L642" s="12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M642" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N642" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="n">
         <v>642</v>
       </c>
-      <c r="B643" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C643" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D643" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E643" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F643" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G643" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H643" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I643" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J643" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="K643" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="L643" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M643" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N643" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B643" s="17" t="n">
+        <f aca="false">A642</f>
+        <v>641</v>
+      </c>
+      <c r="C643" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D643" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E643" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F643" s="19" t="n">
+        <f aca="false">F639</f>
+        <v>7</v>
+      </c>
+      <c r="G643" s="19" t="n">
+        <f aca="false">G639</f>
+        <v>11</v>
+      </c>
+      <c r="H643" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I643" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="K643" s="21" t="s">
+        <v>870</v>
+      </c>
+      <c r="L643" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M643" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N643" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="n">
         <v>643</v>
       </c>
-      <c r="B644" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C644" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D644" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E644" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F644" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G644" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H644" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I644" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J644" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="K644" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="L644" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M644" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N644" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B644" s="17" t="n">
+        <f aca="false">B643</f>
+        <v>641</v>
+      </c>
+      <c r="C644" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D644" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E644" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F644" s="19" t="n">
+        <f aca="false">F643</f>
+        <v>7</v>
+      </c>
+      <c r="G644" s="19" t="n">
+        <f aca="false">G643</f>
+        <v>11</v>
+      </c>
+      <c r="H644" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="I644" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="K644" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="L644" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M644" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N644" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="n">
         <v>644</v>
       </c>
-      <c r="B645" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C645" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D645" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E645" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F645" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G645" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H645" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="I645" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J645" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="K645" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="L645" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M645" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N645" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B645" s="17" t="n">
+        <f aca="false">B644</f>
+        <v>641</v>
+      </c>
+      <c r="C645" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D645" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E645" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F645" s="19" t="n">
+        <f aca="false">F644</f>
+        <v>7</v>
+      </c>
+      <c r="G645" s="19" t="n">
+        <f aca="false">G644</f>
+        <v>11</v>
+      </c>
+      <c r="H645" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="I645" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="K645" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="L645" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M645" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N645" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="B646" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C646" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D646" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E646" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F646" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G646" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H646" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I646" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J646" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="K646" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="L646" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M646" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N646" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B646" s="17" t="n">
+        <f aca="false">B645</f>
+        <v>641</v>
+      </c>
+      <c r="C646" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D646" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E646" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F646" s="19" t="n">
+        <f aca="false">F645</f>
+        <v>7</v>
+      </c>
+      <c r="G646" s="19" t="n">
+        <f aca="false">G645</f>
+        <v>11</v>
+      </c>
+      <c r="H646" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="I646" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J646" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="K646" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="L646" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M646" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N646" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="n">
         <v>646</v>
       </c>
-      <c r="B647" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C647" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D647" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E647" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F647" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="G647" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="H647" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="I647" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J647" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="K647" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="L647" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M647" s="5" t="s">
+      <c r="B647" s="17" t="n">
+        <f aca="false">B646</f>
+        <v>641</v>
+      </c>
+      <c r="C647" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D647" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E647" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F647" s="19" t="n">
+        <f aca="false">F646</f>
+        <v>7</v>
+      </c>
+      <c r="G647" s="19" t="n">
+        <f aca="false">G646</f>
+        <v>11</v>
+      </c>
+      <c r="H647" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I647" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" s="21" t="s">
+        <v>879</v>
+      </c>
+      <c r="K647" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="L647" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M647" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N647" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N647" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="n">
         <v>647</v>
       </c>
-      <c r="B648" s="10" t="n">
-        <f aca="false">A647</f>
-        <v>646</v>
-      </c>
-      <c r="C648" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D648" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E648" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F648" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G648" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H648" s="12" t="s">
-        <v>868</v>
-      </c>
-      <c r="I648" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J648" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K648" s="15" t="s">
-        <v>869</v>
-      </c>
-      <c r="L648" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M648" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N648" s="13" t="n">
+      <c r="B648" s="17" t="n">
+        <f aca="false">B647</f>
+        <v>641</v>
+      </c>
+      <c r="C648" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D648" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E648" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F648" s="19" t="n">
+        <f aca="false">F647</f>
+        <v>7</v>
+      </c>
+      <c r="G648" s="19" t="n">
+        <f aca="false">G647</f>
+        <v>11</v>
+      </c>
+      <c r="H648" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I648" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="K648" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="L648" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M648" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N648" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33527,38 +33704,38 @@
         <v>648</v>
       </c>
       <c r="B649" s="10" t="n">
-        <f aca="false">A647</f>
-        <v>646</v>
+        <f aca="false">B642</f>
+        <v>638</v>
       </c>
       <c r="C649" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D649" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E649" s="10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F649" s="12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G649" s="12" t="n">
         <v>37</v>
       </c>
       <c r="H649" s="12" t="s">
-        <v>870</v>
+        <v>332</v>
       </c>
       <c r="I649" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J649" s="14" t="s">
-        <v>871</v>
+        <v>324</v>
       </c>
       <c r="K649" s="15" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="L649" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M649" s="12" t="s">
         <v>31</v>
@@ -33572,137 +33749,135 @@
         <v>649</v>
       </c>
       <c r="B650" s="10" t="n">
-        <f aca="false">A647</f>
-        <v>646</v>
+        <f aca="false">B649</f>
+        <v>638</v>
       </c>
       <c r="C650" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D650" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E650" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F650" s="12" t="n">
-        <v>0</v>
+        <f aca="false">F639</f>
+        <v>7</v>
       </c>
       <c r="G650" s="12" t="n">
-        <v>37</v>
+        <f aca="false">G639</f>
+        <v>11</v>
       </c>
       <c r="H650" s="12" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="I650" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J650" s="14" t="s">
-        <v>874</v>
+        <v>140</v>
       </c>
       <c r="K650" s="15" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="L650" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M650" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N650" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="B651" s="17" t="n">
-        <f aca="false">A$650</f>
-        <v>649</v>
-      </c>
-      <c r="C651" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D651" s="17" t="n">
+      <c r="B651" s="10" t="n">
+        <f aca="false">B650</f>
+        <v>638</v>
+      </c>
+      <c r="C651" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D651" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E651" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F651" s="19" t="n">
-        <f aca="false">F$647</f>
-        <v>9</v>
-      </c>
-      <c r="G651" s="19" t="n">
-        <f aca="false">G$647</f>
-        <v>17</v>
-      </c>
-      <c r="H651" s="19" t="s">
-        <v>876</v>
-      </c>
-      <c r="I651" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J651" s="21" t="s">
-        <v>877</v>
-      </c>
-      <c r="K651" s="32" t="s">
-        <v>878</v>
-      </c>
-      <c r="L651" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M651" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N651" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E651" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F651" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G651" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H651" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="I651" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J651" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K651" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="L651" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M651" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N651" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="n">
         <v>651</v>
       </c>
-      <c r="B652" s="17" t="n">
-        <f aca="false">A$650</f>
-        <v>649</v>
-      </c>
-      <c r="C652" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D652" s="17" t="n">
+      <c r="B652" s="10" t="n">
+        <f aca="false">B650</f>
+        <v>638</v>
+      </c>
+      <c r="C652" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D652" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E652" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F652" s="19" t="n">
-        <f aca="false">F$647</f>
-        <v>9</v>
-      </c>
-      <c r="G652" s="19" t="n">
-        <f aca="false">G$647</f>
-        <v>17</v>
-      </c>
-      <c r="H652" s="19" t="s">
-        <v>879</v>
-      </c>
-      <c r="I652" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J652" s="21" t="s">
-        <v>877</v>
-      </c>
-      <c r="K652" s="32" t="s">
-        <v>878</v>
-      </c>
-      <c r="L652" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M652" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N652" s="20" t="n">
+      <c r="E652" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F652" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G652" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H652" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="I652" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J652" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K652" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="L652" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M652" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N652" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33710,230 +33885,221 @@
       <c r="A653" s="0" t="n">
         <v>652</v>
       </c>
-      <c r="B653" s="17" t="n">
-        <f aca="false">A$650</f>
-        <v>649</v>
-      </c>
-      <c r="C653" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D653" s="17" t="n">
+      <c r="B653" s="10" t="n">
+        <f aca="false">B652</f>
+        <v>638</v>
+      </c>
+      <c r="C653" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D653" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E653" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F653" s="19" t="n">
-        <f aca="false">F$647</f>
-        <v>9</v>
-      </c>
-      <c r="G653" s="19" t="n">
-        <f aca="false">G$647</f>
-        <v>17</v>
-      </c>
-      <c r="H653" s="19" t="s">
-        <v>880</v>
-      </c>
-      <c r="I653" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J653" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="K653" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="L653" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M653" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N653" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E653" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F653" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G653" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H653" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="I653" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J653" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K653" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="L653" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M653" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N653" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="n">
         <v>653</v>
       </c>
-      <c r="B654" s="17" t="n">
-        <f aca="false">A$650</f>
-        <v>649</v>
-      </c>
-      <c r="C654" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D654" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E654" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F654" s="19" t="n">
-        <f aca="false">F$647</f>
-        <v>9</v>
-      </c>
-      <c r="G654" s="19" t="n">
-        <f aca="false">G$647</f>
-        <v>17</v>
-      </c>
-      <c r="H654" s="19" t="s">
-        <v>883</v>
-      </c>
-      <c r="I654" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J654" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="K654" s="32" t="s">
-        <v>884</v>
-      </c>
-      <c r="L654" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M654" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N654" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="10" t="n">
+        <f aca="false">B653</f>
+        <v>638</v>
+      </c>
+      <c r="C654" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D654" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E654" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F654" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G654" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H654" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="I654" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J654" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K654" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="L654" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M654" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N654" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="n">
         <v>654</v>
       </c>
-      <c r="B655" s="17" t="n">
-        <f aca="false">A$650</f>
-        <v>649</v>
-      </c>
-      <c r="C655" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D655" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="E655" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F655" s="19" t="n">
-        <f aca="false">F$647</f>
-        <v>9</v>
-      </c>
-      <c r="G655" s="19" t="n">
-        <f aca="false">G$647</f>
-        <v>17</v>
-      </c>
-      <c r="H655" s="19" t="s">
-        <v>885</v>
-      </c>
-      <c r="I655" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J655" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K655" s="32" t="s">
-        <v>884</v>
-      </c>
-      <c r="L655" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M655" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N655" s="20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C655" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D655" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F655" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G655" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H655" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I655" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="K655" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="L655" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M655" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N655" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="n">
         <v>655</v>
       </c>
-      <c r="B656" s="10" t="n">
-        <f aca="false">A647</f>
-        <v>646</v>
-      </c>
-      <c r="C656" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D656" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E656" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F656" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G656" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H656" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="I656" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J656" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K656" s="15" t="s">
-        <v>886</v>
-      </c>
-      <c r="L656" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M656" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N656" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B656" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D656" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F656" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G656" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H656" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I656" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="K656" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="L656" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M656" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N656" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="n">
         <v>656</v>
       </c>
-      <c r="B657" s="10" t="n">
-        <f aca="false">A647</f>
-        <v>646</v>
-      </c>
-      <c r="C657" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D657" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E657" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F657" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G657" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H657" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="I657" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J657" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="K657" s="15" t="s">
-        <v>886</v>
-      </c>
-      <c r="L657" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M657" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N657" s="13" t="n">
+      <c r="B657" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D657" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F657" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G657" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H657" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I657" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K657" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="L657" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M657" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N657" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33942,87 +34108,88 @@
         <v>657</v>
       </c>
       <c r="B658" s="10" t="n">
-        <f aca="false">A647</f>
-        <v>646</v>
+        <f aca="false">A657</f>
+        <v>656</v>
       </c>
       <c r="C658" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D658" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E658" s="10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F658" s="12" t="n">
         <v>0</v>
       </c>
       <c r="G658" s="12" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H658" s="12" t="s">
-        <v>870</v>
+        <v>15</v>
       </c>
       <c r="I658" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J658" s="14" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="K658" s="15" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="L658" s="12" t="s">
         <v>30</v>
       </c>
       <c r="M658" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N658" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="n">
         <v>658</v>
       </c>
-      <c r="B659" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C659" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D659" s="3" t="n">
+      <c r="B659" s="10" t="n">
+        <f aca="false">A657</f>
+        <v>656</v>
+      </c>
+      <c r="C659" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D659" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E659" s="3" t="s">
+      <c r="E659" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F659" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G659" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H659" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="I659" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J659" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="K659" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="L659" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M659" s="5" t="s">
+      <c r="F659" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G659" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="H659" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I659" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="K659" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="L659" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M659" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N659" s="6" t="n">
+      <c r="N659" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34031,8 +34198,8 @@
         <v>659</v>
       </c>
       <c r="B660" s="10" t="n">
-        <f aca="false">A659</f>
-        <v>658</v>
+        <f aca="false">B659</f>
+        <v>656</v>
       </c>
       <c r="C660" s="10" t="n">
         <v>1</v>
@@ -34041,44 +34208,43 @@
         <v>4</v>
       </c>
       <c r="E660" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F660" s="12" t="n">
         <v>15</v>
       </c>
       <c r="G660" s="12" t="n">
-        <f aca="false">37-F659</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H660" s="12" t="s">
-        <v>75</v>
+        <v>895</v>
       </c>
       <c r="I660" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J660" s="14" t="s">
-        <v>142</v>
+        <v>821</v>
       </c>
       <c r="K660" s="15" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="L660" s="12" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M660" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N660" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="n">
         <v>660</v>
       </c>
       <c r="B661" s="10" t="n">
-        <f aca="false">A659</f>
-        <v>658</v>
+        <f aca="false">B660</f>
+        <v>656</v>
       </c>
       <c r="C661" s="10" t="n">
         <v>1</v>
@@ -34087,29 +34253,28 @@
         <v>4</v>
       </c>
       <c r="E661" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F661" s="12" t="n">
         <v>15</v>
       </c>
       <c r="G661" s="12" t="n">
-        <f aca="false">37-F659</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H661" s="12" t="s">
-        <v>15</v>
+        <v>897</v>
       </c>
       <c r="I661" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J661" s="14" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="K661" s="15" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="L661" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M661" s="12" t="s">
         <v>31</v>
@@ -34123,39 +34288,38 @@
         <v>661</v>
       </c>
       <c r="B662" s="10" t="n">
-        <f aca="false">A659</f>
-        <v>658</v>
+        <f aca="false">B661</f>
+        <v>656</v>
       </c>
       <c r="C662" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D662" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E662" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F662" s="12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G662" s="12" t="n">
-        <f aca="false">37-F660</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H662" s="12" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="I662" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J662" s="14" t="s">
-        <v>892</v>
+        <v>324</v>
       </c>
       <c r="K662" s="15" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="L662" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M662" s="12" t="s">
         <v>31</v>
@@ -34164,93 +34328,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="n">
         <v>662</v>
       </c>
-      <c r="B663" s="10" t="n">
-        <f aca="false">A659</f>
-        <v>658</v>
-      </c>
-      <c r="C663" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D663" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E663" s="10" t="s">
+      <c r="B663" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C663" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D663" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E663" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F663" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="G663" s="12" t="n">
-        <f aca="false">37-F660</f>
-        <v>22</v>
-      </c>
-      <c r="H663" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I663" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J663" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="K663" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="L663" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M663" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N663" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F663" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G663" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H663" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I663" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J663" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K663" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="L663" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M663" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N663" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="n">
         <v>663</v>
       </c>
-      <c r="B664" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C664" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D664" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E664" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F664" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G664" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H664" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I664" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J664" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="K664" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="L664" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M664" s="5" t="s">
+      <c r="B664" s="10" t="n">
+        <f aca="false">A663</f>
+        <v>662</v>
+      </c>
+      <c r="C664" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D664" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E664" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F664" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G664" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="H664" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I664" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="K664" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="L664" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M664" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N664" s="6" t="n">
+      <c r="N664" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34259,8 +34422,8 @@
         <v>664</v>
       </c>
       <c r="B665" s="10" t="n">
-        <f aca="false">A664</f>
-        <v>663</v>
+        <f aca="false">A663</f>
+        <v>662</v>
       </c>
       <c r="C665" s="10" t="n">
         <v>1</v>
@@ -34269,44 +34432,43 @@
         <v>4</v>
       </c>
       <c r="E665" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F665" s="12" t="n">
         <v>15</v>
       </c>
       <c r="G665" s="12" t="n">
-        <f aca="false">37-F664</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H665" s="12" t="s">
-        <v>764</v>
+        <v>901</v>
       </c>
       <c r="I665" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J665" s="14" t="s">
-        <v>142</v>
+        <v>821</v>
       </c>
       <c r="K665" s="15" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="L665" s="12" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M665" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N665" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="n">
         <v>665</v>
       </c>
       <c r="B666" s="10" t="n">
-        <f aca="false">A664</f>
-        <v>663</v>
+        <f aca="false">B665</f>
+        <v>662</v>
       </c>
       <c r="C666" s="10" t="n">
         <v>1</v>
@@ -34315,32 +34477,31 @@
         <v>4</v>
       </c>
       <c r="E666" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F666" s="12" t="n">
         <v>15</v>
       </c>
       <c r="G666" s="12" t="n">
-        <f aca="false">37-F664</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H666" s="12" t="s">
-        <v>15</v>
+        <v>902</v>
       </c>
       <c r="I666" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J666" s="14" t="s">
-        <v>890</v>
+        <v>821</v>
       </c>
       <c r="K666" s="15" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="L666" s="12" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="M666" s="12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N666" s="13" t="n">
         <v>0</v>
@@ -34351,36 +34512,35 @@
         <v>666</v>
       </c>
       <c r="B667" s="10" t="n">
-        <f aca="false">A664</f>
-        <v>663</v>
+        <f aca="false">B666</f>
+        <v>662</v>
       </c>
       <c r="C667" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D667" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E667" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F667" s="12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G667" s="12" t="n">
-        <f aca="false">37-F665</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H667" s="12" t="s">
-        <v>75</v>
+        <v>903</v>
       </c>
       <c r="I667" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J667" s="14" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="K667" s="15" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="L667" s="12" t="s">
         <v>30</v>
@@ -34392,13 +34552,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="n">
         <v>667</v>
       </c>
       <c r="B668" s="10" t="n">
-        <f aca="false">A664</f>
-        <v>663</v>
+        <f aca="false">B667</f>
+        <v>662</v>
       </c>
       <c r="C668" s="10" t="n">
         <v>1</v>
@@ -34410,35 +34570,34 @@
         <v>45</v>
       </c>
       <c r="F668" s="12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G668" s="12" t="n">
-        <f aca="false">37-F665</f>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H668" s="12" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="I668" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J668" s="12" t="s">
-        <v>894</v>
+      <c r="J668" s="14" t="s">
+        <v>324</v>
       </c>
       <c r="K668" s="15" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="L668" s="12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M668" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N668" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="n">
         <v>668</v>
       </c>
@@ -34449,40 +34608,40 @@
         <v>0</v>
       </c>
       <c r="D669" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E669" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F669" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G669" s="5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H669" s="5" t="s">
-        <v>338</v>
+        <v>904</v>
       </c>
       <c r="I669" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J669" s="7" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="K669" s="8" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="L669" s="5" t="s">
         <v>341</v>
       </c>
       <c r="M669" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N669" s="6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="n">
         <v>669</v>
       </c>
@@ -34494,29 +34653,28 @@
         <v>1</v>
       </c>
       <c r="D670" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E670" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F670" s="12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G670" s="12" t="n">
-        <f aca="false">37-F669</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H670" s="12" t="s">
-        <v>15</v>
+        <v>907</v>
       </c>
       <c r="I670" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J670" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K670" s="15" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="L670" s="12" t="s">
         <v>30</v>
@@ -34528,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="n">
         <v>670</v>
       </c>
@@ -34543,78 +34701,80 @@
         <v>4</v>
       </c>
       <c r="E671" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F671" s="12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G671" s="12" t="n">
-        <f aca="false">37-F669</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H671" s="12" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="I671" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J671" s="12" t="s">
-        <v>894</v>
+      <c r="J671" s="14" t="s">
+        <v>910</v>
       </c>
       <c r="K671" s="15" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="L671" s="12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M671" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N671" s="13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="B672" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C672" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D672" s="3" t="n">
+      <c r="B672" s="17" t="n">
+        <f aca="false">A671</f>
+        <v>670</v>
+      </c>
+      <c r="C672" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D672" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E672" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F672" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G672" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H672" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I672" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J672" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="K672" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="L672" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M672" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N672" s="6" t="n">
+      <c r="E672" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F672" s="19" t="n">
+        <f aca="false">F669</f>
+        <v>9</v>
+      </c>
+      <c r="G672" s="19" t="n">
+        <f aca="false">G670</f>
+        <v>30</v>
+      </c>
+      <c r="H672" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="I672" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J672" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="K672" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="L672" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M672" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N672" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34622,83 +34782,82 @@
       <c r="A673" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="B673" s="10" t="n">
-        <f aca="false">A672</f>
-        <v>671</v>
-      </c>
-      <c r="C673" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D673" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E673" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F673" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G673" s="12" t="n">
-        <f aca="false">37-F672</f>
-        <v>29</v>
-      </c>
-      <c r="H673" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I673" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J673" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K673" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="L673" s="12" t="s">
+      <c r="B673" s="17" t="n">
+        <f aca="false">A671</f>
+        <v>670</v>
+      </c>
+      <c r="C673" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D673" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E673" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F673" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G673" s="19" t="n">
+        <f aca="false">G670</f>
         <v>30</v>
       </c>
-      <c r="M673" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N673" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H673" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="I673" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J673" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="K673" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="L673" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M673" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N673" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="n">
         <v>673</v>
       </c>
       <c r="B674" s="10" t="n">
-        <f aca="false">A672</f>
-        <v>671</v>
+        <f aca="false">A669</f>
+        <v>668</v>
       </c>
       <c r="C674" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D674" s="10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E674" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F674" s="12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G674" s="12" t="n">
-        <f aca="false">37-F672</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H674" s="12" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="I674" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="J674" s="12" t="s">
-        <v>894</v>
+      <c r="J674" s="14" t="s">
+        <v>918</v>
       </c>
       <c r="K674" s="15" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="L674" s="12" t="s">
         <v>18</v>
@@ -34714,43 +34873,46 @@
       <c r="A675" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="B675" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C675" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D675" s="3" t="n">
+      <c r="B675" s="17" t="n">
+        <f aca="false">A$674</f>
+        <v>673</v>
+      </c>
+      <c r="C675" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D675" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="E675" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F675" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="G675" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="H675" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I675" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J675" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="K675" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="L675" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M675" s="5" t="s">
+      <c r="E675" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F675" s="19" t="n">
+        <f aca="false">F$669</f>
+        <v>9</v>
+      </c>
+      <c r="G675" s="19" t="n">
+        <f aca="false">G$669</f>
+        <v>17</v>
+      </c>
+      <c r="H675" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="I675" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J675" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="K675" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="L675" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M675" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N675" s="6" t="n">
+      <c r="N675" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34758,89 +34920,93 @@
       <c r="A676" s="0" t="n">
         <v>675</v>
       </c>
-      <c r="B676" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C676" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D676" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E676" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F676" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G676" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H676" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="I676" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J676" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="K676" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="L676" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M676" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N676" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="17" t="n">
+        <f aca="false">A$674</f>
+        <v>673</v>
+      </c>
+      <c r="C676" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D676" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E676" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F676" s="19" t="n">
+        <f aca="false">F$669</f>
+        <v>9</v>
+      </c>
+      <c r="G676" s="19" t="n">
+        <f aca="false">G$669</f>
+        <v>17</v>
+      </c>
+      <c r="H676" s="19" t="s">
+        <v>923</v>
+      </c>
+      <c r="I676" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J676" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="K676" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="L676" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M676" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N676" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="n">
         <v>676</v>
       </c>
-      <c r="B677" s="10" t="n">
-        <f aca="false">A676</f>
-        <v>675</v>
-      </c>
-      <c r="C677" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D677" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E677" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F677" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G677" s="12" t="n">
-        <f aca="false">37-F676</f>
-        <v>31</v>
-      </c>
-      <c r="H677" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I677" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J677" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="K677" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="L677" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M677" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N677" s="13" t="n">
+      <c r="B677" s="17" t="n">
+        <f aca="false">A$674</f>
+        <v>673</v>
+      </c>
+      <c r="C677" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D677" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E677" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F677" s="19" t="n">
+        <f aca="false">F$669</f>
+        <v>9</v>
+      </c>
+      <c r="G677" s="19" t="n">
+        <f aca="false">G$669</f>
+        <v>17</v>
+      </c>
+      <c r="H677" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="I677" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J677" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="K677" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="L677" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M677" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N677" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34848,43 +35014,46 @@
       <c r="A678" s="0" t="n">
         <v>677</v>
       </c>
-      <c r="B678" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C678" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D678" s="3" t="n">
+      <c r="B678" s="17" t="n">
+        <f aca="false">A$674</f>
+        <v>673</v>
+      </c>
+      <c r="C678" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D678" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E678" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F678" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G678" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H678" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="I678" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J678" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="K678" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="L678" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="M678" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N678" s="6" t="n">
+      <c r="E678" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F678" s="19" t="n">
+        <f aca="false">F$669</f>
+        <v>9</v>
+      </c>
+      <c r="G678" s="19" t="n">
+        <f aca="false">G$669</f>
+        <v>17</v>
+      </c>
+      <c r="H678" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="I678" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J678" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K678" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="L678" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M678" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N678" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34892,89 +35061,91 @@
       <c r="A679" s="0" t="n">
         <v>678</v>
       </c>
-      <c r="B679" s="10" t="n">
-        <f aca="false">A678</f>
-        <v>677</v>
-      </c>
-      <c r="C679" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D679" s="10" t="n">
+      <c r="B679" s="17" t="n">
+        <f aca="false">A$674</f>
+        <v>673</v>
+      </c>
+      <c r="C679" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D679" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="E679" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F679" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G679" s="12" t="n">
-        <f aca="false">37-F678</f>
-        <v>31</v>
-      </c>
-      <c r="H679" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I679" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J679" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="K679" s="15" t="s">
-        <v>893</v>
-      </c>
-      <c r="L679" s="12" t="s">
+      <c r="E679" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F679" s="19" t="n">
+        <f aca="false">F$669</f>
+        <v>9</v>
+      </c>
+      <c r="G679" s="19" t="n">
+        <f aca="false">G$669</f>
+        <v>17</v>
+      </c>
+      <c r="H679" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="I679" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J679" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K679" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="L679" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M679" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N679" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M679" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N679" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="n">
         <v>679</v>
       </c>
-      <c r="B680" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C680" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D680" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E680" s="3" t="s">
+      <c r="B680" s="10" t="n">
+        <f aca="false">A669</f>
+        <v>668</v>
+      </c>
+      <c r="C680" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D680" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E680" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F680" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G680" s="5" t="n">
+      <c r="F680" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G680" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="H680" s="5" t="s">
+      <c r="H680" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="I680" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J680" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="K680" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="L680" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M680" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N680" s="6" t="n">
+      <c r="I680" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J680" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K680" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="L680" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M680" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N680" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34983,17 +35154,17 @@
         <v>680</v>
       </c>
       <c r="B681" s="10" t="n">
-        <f aca="false">A680</f>
-        <v>679</v>
+        <f aca="false">A669</f>
+        <v>668</v>
       </c>
       <c r="C681" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D681" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E681" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F681" s="12" t="n">
         <v>0</v>
@@ -35002,19 +35173,19 @@
         <v>37</v>
       </c>
       <c r="H681" s="12" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="I681" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J681" s="14" t="s">
-        <v>910</v>
+        <v>309</v>
       </c>
       <c r="K681" s="15" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="L681" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M681" s="12" t="s">
         <v>31</v>
@@ -35028,38 +35199,38 @@
         <v>681</v>
       </c>
       <c r="B682" s="10" t="n">
-        <f aca="false">A680</f>
-        <v>679</v>
+        <f aca="false">A669</f>
+        <v>668</v>
       </c>
       <c r="C682" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D682" s="10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E682" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F682" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G682" s="12" t="n">
         <v>37</v>
       </c>
       <c r="H682" s="12" t="s">
-        <v>479</v>
+        <v>909</v>
       </c>
       <c r="I682" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J682" s="14" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="K682" s="15" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L682" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M682" s="12" t="s">
         <v>31</v>
@@ -35068,129 +35239,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="n">
         <v>682</v>
       </c>
-      <c r="B683" s="10" t="n">
-        <f aca="false">A680</f>
-        <v>679</v>
-      </c>
-      <c r="C683" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D683" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E683" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F683" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="G683" s="12" t="n">
-        <v>37</v>
-      </c>
-      <c r="H683" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="I683" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J683" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="K683" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="L683" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M683" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="N683" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B683" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C683" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D683" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F683" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G683" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H683" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I683" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J683" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K683" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="L683" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M683" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N683" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="n">
         <v>683</v>
       </c>
-      <c r="B684" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C684" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D684" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E684" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F684" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G684" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="H684" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I684" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J684" s="7" t="s">
-        <v>916</v>
-      </c>
-      <c r="K684" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="L684" s="5" t="s">
+      <c r="B684" s="10" t="n">
+        <f aca="false">A683</f>
+        <v>682</v>
+      </c>
+      <c r="C684" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D684" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E684" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F684" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G684" s="12" t="n">
+        <f aca="false">37-F683</f>
+        <v>29</v>
+      </c>
+      <c r="H684" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I684" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J684" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K684" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="L684" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M684" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N684" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M684" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N684" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="n">
         <v>684</v>
       </c>
       <c r="B685" s="10" t="n">
-        <f aca="false">A684</f>
-        <v>683</v>
+        <f aca="false">A683</f>
+        <v>682</v>
       </c>
       <c r="C685" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D685" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E685" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F685" s="12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G685" s="12" t="n">
-        <v>37</v>
+        <f aca="false">37-F683</f>
+        <v>29</v>
       </c>
       <c r="H685" s="12" t="s">
-        <v>479</v>
+        <v>15</v>
       </c>
       <c r="I685" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J685" s="14" t="s">
-        <v>910</v>
+        <v>934</v>
       </c>
       <c r="K685" s="15" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
       <c r="L685" s="12" t="s">
         <v>44</v>
@@ -35207,38 +35380,39 @@
         <v>685</v>
       </c>
       <c r="B686" s="10" t="n">
-        <f aca="false">A684</f>
-        <v>683</v>
+        <f aca="false">A683</f>
+        <v>682</v>
       </c>
       <c r="C686" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D686" s="10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E686" s="10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F686" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G686" s="12" t="n">
-        <v>37</v>
+        <f aca="false">37-F684</f>
+        <v>22</v>
       </c>
       <c r="H686" s="12" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="I686" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J686" s="14" t="s">
-        <v>912</v>
+        <v>837</v>
       </c>
       <c r="K686" s="15" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="L686" s="12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M686" s="12" t="s">
         <v>31</v>
@@ -35247,48 +35421,1131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="n">
         <v>686</v>
       </c>
       <c r="B687" s="10" t="n">
-        <f aca="false">A684</f>
-        <v>683</v>
+        <f aca="false">A683</f>
+        <v>682</v>
       </c>
       <c r="C687" s="10" t="n">
         <v>1</v>
       </c>
       <c r="D687" s="10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E687" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F687" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G687" s="12" t="n">
+        <f aca="false">37-F684</f>
+        <v>22</v>
+      </c>
+      <c r="H687" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I687" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J687" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K687" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="L687" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M687" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N687" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="n">
+        <v>687</v>
+      </c>
+      <c r="B688" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C688" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D688" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F688" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G688" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H688" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I688" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J688" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="K688" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="L688" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M688" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N688" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="n">
+        <v>688</v>
+      </c>
+      <c r="B689" s="10" t="n">
+        <f aca="false">A688</f>
+        <v>687</v>
+      </c>
+      <c r="C689" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D689" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E689" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F689" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G689" s="12" t="n">
+        <f aca="false">37-F688</f>
+        <v>29</v>
+      </c>
+      <c r="H689" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="I689" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J689" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K689" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="L689" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M689" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N689" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="B690" s="10" t="n">
+        <f aca="false">A688</f>
+        <v>687</v>
+      </c>
+      <c r="C690" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D690" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E690" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F690" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G690" s="12" t="n">
+        <f aca="false">37-F688</f>
+        <v>29</v>
+      </c>
+      <c r="H690" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I690" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J690" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="K690" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="L690" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M690" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N690" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="B691" s="10" t="n">
+        <f aca="false">A688</f>
+        <v>687</v>
+      </c>
+      <c r="C691" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D691" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E691" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F691" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G691" s="12" t="n">
+        <f aca="false">37-F689</f>
+        <v>22</v>
+      </c>
+      <c r="H691" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I691" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J691" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="K691" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="L691" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M691" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N691" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="n">
+        <v>691</v>
+      </c>
+      <c r="B692" s="10" t="n">
+        <f aca="false">A688</f>
+        <v>687</v>
+      </c>
+      <c r="C692" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D692" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E692" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F692" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G692" s="12" t="n">
+        <f aca="false">37-F689</f>
+        <v>22</v>
+      </c>
+      <c r="H692" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="I692" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J692" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K692" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="L692" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M692" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N692" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="0" t="n">
+        <v>692</v>
+      </c>
+      <c r="B693" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C693" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D693" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F693" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G693" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H693" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I693" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J693" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K693" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="L693" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M693" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N693" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="B694" s="10" t="n">
+        <f aca="false">A693</f>
+        <v>692</v>
+      </c>
+      <c r="C694" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D694" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E694" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F694" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G694" s="12" t="n">
+        <f aca="false">37-F693</f>
+        <v>29</v>
+      </c>
+      <c r="H694" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I694" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J694" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K694" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="L694" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M694" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N694" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="n">
+        <v>694</v>
+      </c>
+      <c r="B695" s="10" t="n">
+        <f aca="false">A693</f>
+        <v>692</v>
+      </c>
+      <c r="C695" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D695" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E695" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F695" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G695" s="12" t="n">
+        <f aca="false">37-F693</f>
+        <v>29</v>
+      </c>
+      <c r="H695" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="I695" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J695" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K695" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="L695" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M695" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N695" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="0" t="n">
+        <v>695</v>
+      </c>
+      <c r="B696" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D696" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F696" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G696" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H696" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I696" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J696" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K696" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="L696" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="M696" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N696" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="n">
+        <v>696</v>
+      </c>
+      <c r="B697" s="10" t="n">
+        <f aca="false">A696</f>
+        <v>695</v>
+      </c>
+      <c r="C697" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D697" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E697" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F697" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G697" s="12" t="n">
+        <f aca="false">37-F696</f>
+        <v>29</v>
+      </c>
+      <c r="H697" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I697" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J697" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K697" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="L697" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M697" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N697" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="n">
+        <v>697</v>
+      </c>
+      <c r="B698" s="10" t="n">
+        <f aca="false">A696</f>
+        <v>695</v>
+      </c>
+      <c r="C698" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D698" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E698" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F698" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G698" s="12" t="n">
+        <f aca="false">37-F696</f>
+        <v>29</v>
+      </c>
+      <c r="H698" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="I698" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J698" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K698" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="L698" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M698" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N698" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A